--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="27610"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Git/Treebank/Docs/Annotation how-to/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51915" yWindow="4725" windowWidth="20625" windowHeight="11640" tabRatio="725" firstSheet="6" activeTab="14"/>
+    <workbookView xWindow="51920" yWindow="4720" windowWidth="20620" windowHeight="11640" tabRatio="725" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Par" sheetId="1" r:id="rId1"/>
@@ -25,6 +30,9 @@
   </sheets>
   <calcPr calcId="145621" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -2829,9 +2837,6 @@
     <t>vocative</t>
   </si>
   <si>
-    <t>labais</t>
-  </si>
-  <si>
     <t>Pakāpe</t>
   </si>
   <si>
@@ -5995,9 +6000,6 @@
     <t>Ar laiku jāpārceļ uz lex īpašībām.</t>
   </si>
   <si>
-    <t>māja, miljons, trešdaļa</t>
-  </si>
-  <si>
     <t>Lattelecom, augstpapēžu, kino, Peru</t>
   </si>
   <si>
@@ -6361,6 +6363,12 @@
   </si>
   <si>
     <t>15, 10 000 000, +371 29 787 121</t>
+  </si>
+  <si>
+    <t>māja, miljons, trešdaļa, vecāks (vecāki - tēvs un mamma)</t>
+  </si>
+  <si>
+    <t>labais, [klases] vecākais</t>
   </si>
 </sst>
 </file>
@@ -7214,31 +7222,31 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.1640625" style="2" customWidth="1"/>
     <col min="3" max="3" width="38" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="68" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11"/>
     </row>
-    <row r="3" spans="2:8" s="1" customFormat="1" ht="18.95" x14ac:dyDescent="0.25"/>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" s="12" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="C4" s="12"/>
       <c r="D4" s="12"/>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" s="106" t="s">
         <v>1</v>
       </c>
@@ -7247,7 +7255,7 @@
         <v>40155</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" s="106" t="s">
         <v>2</v>
       </c>
@@ -7259,33 +7267,33 @@
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" s="12" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="12"/>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>73</v>
       </c>
       <c r="C11" s="14"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" s="15" t="s">
         <v>72</v>
       </c>
       <c r="C12" s="107" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="D12" s="108"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" s="17">
         <v>0</v>
       </c>
       <c r="C13" s="107" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="D13" s="108"/>
       <c r="E13" s="108"/>
@@ -7293,36 +7301,36 @@
       <c r="G13" s="108"/>
       <c r="H13" s="108"/>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C15" s="14"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B16" s="62"/>
       <c r="C16" s="16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B17" s="100"/>
       <c r="C17" s="16" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B18" s="83"/>
       <c r="C18" s="16" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B19" s="67" t="s">
+        <v>419</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>420</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -7346,22 +7354,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.85546875" style="40" customWidth="1"/>
-    <col min="6" max="6" width="21.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.83203125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -7381,7 +7389,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -7393,7 +7401,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -7404,15 +7412,15 @@
         <v>4</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I2" s="23">
         <v>1260</v>
@@ -7429,51 +7437,51 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>317</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>327</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>318</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>328</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>319</v>
       </c>
       <c r="I4" s="27">
         <v>1262</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>320</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="H5" s="27" t="s">
         <v>321</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>322</v>
       </c>
       <c r="I5" s="27">
         <v>1393</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="52">
         <v>3</v>
       </c>
       <c r="B6" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C6" s="54"/>
       <c r="D6" s="54"/>
       <c r="E6" s="54" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F6" s="54"/>
       <c r="G6" s="54"/>
@@ -7481,18 +7489,18 @@
       <c r="I6" s="54"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="57"/>
       <c r="B7" s="73"/>
       <c r="C7" s="58" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7" s="59"/>
       <c r="F7" s="59" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G7" s="59"/>
       <c r="H7" s="58"/>
@@ -7501,56 +7509,56 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="56"/>
       <c r="B8" s="30"/>
       <c r="C8" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="48" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G8" s="48"/>
       <c r="H8" s="30"/>
       <c r="I8" s="30"/>
       <c r="J8" s="30"/>
     </row>
-    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="A9" s="56"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D9" s="30" t="s">
+        <v>329</v>
+      </c>
+      <c r="E9" s="75" t="s">
         <v>330</v>
       </c>
-      <c r="E9" s="75" t="s">
-        <v>331</v>
-      </c>
       <c r="F9" s="48" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G9" s="48"/>
       <c r="H9" s="30"/>
       <c r="I9" s="30"/>
       <c r="J9" s="30"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="56"/>
       <c r="B10" s="30"/>
       <c r="C10" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E10" s="48"/>
       <c r="F10" s="48" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G10" s="48"/>
       <c r="H10" s="30"/>
@@ -7578,22 +7586,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -7613,7 +7621,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -7625,7 +7633,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -7636,24 +7644,24 @@
         <v>118</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>379</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>380</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>381</v>
       </c>
       <c r="I2" s="35">
         <v>1318</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52">
         <v>2</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -7666,36 +7674,36 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="73"/>
       <c r="C4" s="58" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="58" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
       <c r="J4" s="76"/>
     </row>
-    <row r="5" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -7719,22 +7727,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -7754,7 +7762,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -7766,7 +7774,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -7774,27 +7782,27 @@
         <v>23</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D2" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>502</v>
+      </c>
+      <c r="H2" s="35" t="s">
         <v>384</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>504</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>385</v>
       </c>
       <c r="I2" s="35">
         <v>1342</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="52">
         <v>2</v>
       </c>
       <c r="B3" s="53" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C3" s="54"/>
       <c r="D3" s="54"/>
@@ -7807,36 +7815,36 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="57"/>
       <c r="B4" s="73"/>
       <c r="C4" s="58" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="58" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E4" s="58"/>
       <c r="F4" s="58" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G4" s="58"/>
       <c r="H4" s="58"/>
       <c r="I4" s="58"/>
       <c r="J4" s="74"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="56"/>
       <c r="B5" s="30"/>
       <c r="C5" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="30" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E5" s="30"/>
       <c r="F5" s="30" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G5" s="30"/>
       <c r="H5" s="30"/>
@@ -7860,22 +7868,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="67.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="67.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -7895,7 +7903,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -7907,7 +7915,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -7915,23 +7923,23 @@
         <v>23</v>
       </c>
       <c r="C2" s="23" t="s">
+        <v>385</v>
+      </c>
+      <c r="D2" s="23" t="s">
         <v>386</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>387</v>
       </c>
       <c r="E2" s="39"/>
       <c r="G2" s="23" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I2" s="23">
         <v>1372</v>
       </c>
       <c r="J2" s="23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -7949,91 +7957,91 @@
         <v>4</v>
       </c>
       <c r="D4" s="50" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E4" s="51"/>
       <c r="F4" s="50" t="s">
+        <v>390</v>
+      </c>
+      <c r="H4" s="50" t="s">
         <v>391</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>392</v>
       </c>
       <c r="I4" s="50">
         <v>1448</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="G5" s="27" t="s">
+        <v>510</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>394</v>
-      </c>
-      <c r="G5" s="27" t="s">
-        <v>512</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>395</v>
       </c>
       <c r="I5" s="27">
         <v>2081</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>395</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>396</v>
       </c>
-      <c r="F6" s="27" t="s">
+      <c r="H6" s="27" t="s">
         <v>397</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>398</v>
       </c>
       <c r="I6" s="27">
         <v>2790</v>
       </c>
       <c r="J6" s="27" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
+      <c r="C7" s="27" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="C7" s="27" t="s">
+      <c r="D7" s="27" t="s">
         <v>400</v>
       </c>
-      <c r="D7" s="27" t="s">
+      <c r="F7" s="27" t="s">
         <v>401</v>
       </c>
-      <c r="F7" s="27" t="s">
+      <c r="H7" s="40" t="s">
+        <v>412</v>
+      </c>
+      <c r="I7" s="40" t="s">
+        <v>413</v>
+      </c>
+      <c r="J7" s="27" t="s">
         <v>402</v>
       </c>
-      <c r="H7" s="40" t="s">
-        <v>413</v>
-      </c>
-      <c r="I7" s="40" t="s">
-        <v>414</v>
-      </c>
-      <c r="J7" s="27" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>404</v>
       </c>
-      <c r="F8" s="27" t="s">
+      <c r="H8" s="27" t="s">
         <v>405</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>406</v>
       </c>
       <c r="I8" s="27">
         <v>2077</v>
@@ -8044,30 +8052,30 @@
         <v>92</v>
       </c>
       <c r="D9" s="27" t="s">
+        <v>406</v>
+      </c>
+      <c r="F9" s="27" t="s">
         <v>407</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>408</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>409</v>
       </c>
       <c r="I9" s="27">
         <v>1439</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
         <v>83</v>
       </c>
       <c r="D10" s="27" t="s">
+        <v>409</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>411</v>
+      </c>
+      <c r="F10" s="27" t="s">
         <v>410</v>
-      </c>
-      <c r="E10" s="40" t="s">
-        <v>412</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8088,22 +8096,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -8123,7 +8131,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -8135,7 +8143,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -8146,25 +8154,25 @@
         <v>78</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>414</v>
+      </c>
+      <c r="E2" s="23" t="s">
         <v>415</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="F2" s="23" t="s">
+        <v>421</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>416</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>417</v>
       </c>
       <c r="I2" s="23">
         <v>1382</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="61" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="84">
         <v>2</v>
       </c>
@@ -8175,105 +8183,105 @@
         <v>10</v>
       </c>
       <c r="D3" s="86" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E3" s="86" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F3" s="86" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G3" s="86"/>
       <c r="H3" s="87"/>
       <c r="I3" s="87"/>
       <c r="J3" s="87"/>
     </row>
-    <row r="4" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="88"/>
       <c r="B4" s="89"/>
       <c r="C4" s="89" t="s">
         <v>5</v>
       </c>
       <c r="D4" s="89" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E4" s="90" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F4" s="89" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G4" s="89"/>
       <c r="H4" s="91"/>
       <c r="I4" s="91"/>
       <c r="J4" s="91"/>
     </row>
-    <row r="5" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="88"/>
       <c r="B5" s="89"/>
       <c r="C5" s="89" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="89" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E5" s="90"/>
       <c r="F5" s="89" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G5" s="89"/>
       <c r="H5" s="91"/>
       <c r="I5" s="91"/>
       <c r="J5" s="91"/>
     </row>
-    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="69" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="88"/>
       <c r="B6" s="89"/>
       <c r="C6" s="89" t="s">
         <v>14</v>
       </c>
       <c r="D6" s="89" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E6" s="90"/>
       <c r="F6" s="89" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G6" s="89"/>
       <c r="H6" s="91"/>
       <c r="I6" s="91"/>
       <c r="J6" s="91"/>
     </row>
-    <row r="7" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="92"/>
       <c r="B7" s="93"/>
       <c r="C7" s="93" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="93" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E7" s="93"/>
       <c r="F7" s="93" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G7" s="93"/>
       <c r="H7" s="93"/>
       <c r="I7" s="93"/>
       <c r="J7" s="93"/>
     </row>
-    <row r="8" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="79" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="92"/>
       <c r="B8" s="93"/>
       <c r="C8" s="93" t="s">
         <v>47</v>
       </c>
       <c r="D8" s="93" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E8" s="93"/>
       <c r="F8" s="93" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G8" s="93"/>
       <c r="H8" s="93"/>
@@ -8293,27 +8301,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="34" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -8333,7 +8341,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -8345,7 +8353,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -8356,22 +8364,22 @@
         <v>83</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>422</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="G2" s="23" t="s">
+        <v>503</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>423</v>
-      </c>
-      <c r="E2" s="39" t="s">
-        <v>432</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>424</v>
       </c>
       <c r="I2" s="23">
         <v>1382</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
@@ -8382,59 +8390,59 @@
         <v>7</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="63" t="s">
         <v>105</v>
       </c>
       <c r="D4" s="63" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E4" s="64" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="F4" s="65" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G4" s="65"/>
       <c r="H4" s="63"/>
       <c r="I4" s="63"/>
       <c r="J4" s="63"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>92</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E6" s="40" t="s">
+        <v>425</v>
+      </c>
+      <c r="F6" s="27" t="s">
         <v>426</v>
-      </c>
-      <c r="F6" s="27" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -8442,13 +8450,13 @@
         <v>188</v>
       </c>
       <c r="D7" s="33" t="s">
+        <v>427</v>
+      </c>
+      <c r="E7" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="F7" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="G7" s="4"/>
     </row>
@@ -8457,10 +8465,10 @@
         <v>83</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -8479,25 +8487,25 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.28515625" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.7109375" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.140625" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.6640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="53" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="26"/>
+    <col min="11" max="16384" width="8.83203125" style="26"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="21" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -8517,7 +8525,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -8529,7 +8537,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -8544,10 +8552,10 @@
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39" t="s">
-        <v>473</v>
+        <v>537</v>
       </c>
       <c r="G2" s="23" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8569,7 +8577,7 @@
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
     </row>
-    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="B4" s="27"/>
       <c r="C4" s="27" t="s">
         <v>4</v>
@@ -8578,13 +8586,13 @@
         <v>26</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="G4" s="27" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>28</v>
@@ -8594,7 +8602,7 @@
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
         <v>5</v>
@@ -8607,7 +8615,7 @@
         <v>30</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>31</v>
@@ -8637,7 +8645,7 @@
       </c>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B7" s="27"/>
       <c r="C7" s="27" t="s">
         <v>6</v>
@@ -8646,10 +8654,10 @@
         <v>34</v>
       </c>
       <c r="E7" s="40" t="s">
+        <v>442</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>443</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>444</v>
       </c>
       <c r="G7" s="27"/>
       <c r="H7" s="27" t="s">
@@ -8660,7 +8668,7 @@
       </c>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B8" s="27"/>
       <c r="C8" s="27" t="s">
         <v>7</v>
@@ -8681,7 +8689,7 @@
       </c>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B9" s="27"/>
       <c r="C9" s="27">
         <v>0</v>
@@ -8690,17 +8698,17 @@
         <v>66</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G9" s="27"/>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
       <c r="J9" s="27"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B10" s="27"/>
       <c r="C10" s="30" t="s">
         <v>8</v>
@@ -8709,7 +8717,7 @@
         <v>37</v>
       </c>
       <c r="E10" s="48" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F10" s="48" t="s">
         <v>38</v>
@@ -8783,19 +8791,19 @@
       </c>
       <c r="J13" s="27"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B14" s="27"/>
       <c r="C14" s="27" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E14" s="80" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -8804,22 +8812,22 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D15" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="E15" s="80" t="s">
+        <v>471</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>517</v>
+      </c>
+      <c r="G15" s="27" t="s">
         <v>522</v>
-      </c>
-      <c r="E15" s="80" t="s">
-        <v>472</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>519</v>
-      </c>
-      <c r="G15" s="27" t="s">
-        <v>524</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -8827,7 +8835,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="27"/>
       <c r="C16" s="27">
         <v>0</v>
@@ -8836,17 +8844,17 @@
         <v>66</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G16" s="27"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <v>5</v>
       </c>
@@ -8866,7 +8874,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B18" s="27"/>
       <c r="C18" s="27" t="s">
         <v>10</v>
@@ -8887,7 +8895,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
         <v>11</v>
@@ -8897,7 +8905,7 @@
       </c>
       <c r="E19" s="40"/>
       <c r="F19" s="40" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G19" s="27"/>
       <c r="H19" s="27" t="s">
@@ -8908,7 +8916,7 @@
       </c>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
         <v>47</v>
@@ -8918,7 +8926,7 @@
       </c>
       <c r="E20" s="40"/>
       <c r="F20" s="40" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G20" s="27"/>
       <c r="H20" s="27" t="s">
@@ -8929,7 +8937,7 @@
       </c>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
         <v>12</v>
@@ -8939,7 +8947,7 @@
       </c>
       <c r="E21" s="40"/>
       <c r="F21" s="40" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G21" s="27"/>
       <c r="H21" s="27" t="s">
@@ -8950,7 +8958,7 @@
       </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
         <v>13</v>
@@ -8960,7 +8968,7 @@
       </c>
       <c r="E22" s="40"/>
       <c r="F22" s="40" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G22" s="27"/>
       <c r="H22" s="27" t="s">
@@ -8971,7 +8979,7 @@
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B23" s="27"/>
       <c r="C23" s="27" t="s">
         <v>14</v>
@@ -8981,7 +8989,7 @@
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="40" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G23" s="27"/>
       <c r="H23" s="27" t="s">
@@ -8992,7 +9000,7 @@
       </c>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="27"/>
       <c r="C24" s="30" t="s">
         <v>9</v>
@@ -9001,7 +9009,7 @@
         <v>62</v>
       </c>
       <c r="E24" s="48" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F24" s="48" t="s">
         <v>63</v>
@@ -9013,7 +9021,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="27"/>
       <c r="C25" s="27">
         <v>0</v>
@@ -9022,17 +9030,17 @@
         <v>66</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F25" s="40" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G25" s="27"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
     </row>
-    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A26" s="43">
         <v>6</v>
       </c>
@@ -9052,61 +9060,61 @@
       </c>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B27" s="27"/>
       <c r="C27" s="27">
         <v>1</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G27" s="40"/>
       <c r="H27" s="27"/>
       <c r="I27" s="27"/>
       <c r="J27" s="27"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="27"/>
       <c r="C28" s="27">
         <v>2</v>
       </c>
       <c r="D28" s="27" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="G28" s="40"/>
       <c r="H28" s="27"/>
       <c r="I28" s="27"/>
       <c r="J28" s="27"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="27"/>
       <c r="C29" s="27">
         <v>3</v>
       </c>
       <c r="D29" s="27" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F29" s="40" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G29" s="40"/>
       <c r="H29" s="27"/>
       <c r="I29" s="27"/>
       <c r="J29" s="27"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="27"/>
       <c r="C30" s="27">
         <v>4</v>
       </c>
       <c r="D30" s="27" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F30" s="40" t="s">
         <v>82</v>
@@ -9116,39 +9124,39 @@
       <c r="I30" s="27"/>
       <c r="J30" s="27"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B31" s="27"/>
       <c r="C31" s="27">
         <v>5</v>
       </c>
       <c r="D31" s="27" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G31" s="40"/>
       <c r="H31" s="27"/>
       <c r="I31" s="27"/>
       <c r="J31" s="27"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="27"/>
       <c r="C32" s="27">
         <v>6</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G32" s="40"/>
       <c r="H32" s="27"/>
       <c r="I32" s="27"/>
       <c r="J32" s="27"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="27"/>
       <c r="C33" s="27">
         <v>0</v>
@@ -9157,7 +9165,7 @@
         <v>66</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F33" s="40" t="s">
         <v>67</v>
@@ -9169,20 +9177,20 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B34" s="27"/>
       <c r="C34" s="98" t="s">
         <v>11</v>
       </c>
       <c r="D34" s="98" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E34" s="99"/>
       <c r="F34" s="99" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="G34" s="98" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="H34" s="98"/>
       <c r="I34" s="98"/>
@@ -9190,7 +9198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B35" s="27"/>
       <c r="C35" s="27" t="s">
         <v>15</v>
@@ -9200,7 +9208,7 @@
       </c>
       <c r="E35" s="40"/>
       <c r="F35" s="40" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="G35" s="27"/>
       <c r="H35" s="27"/>
@@ -9209,7 +9217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A36" s="43"/>
       <c r="C36" s="23"/>
       <c r="E36" s="24"/>
@@ -9230,22 +9238,22 @@
       <selection pane="bottomLeft" activeCell="A51" sqref="A51:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.7109375" style="40" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.6640625" style="40" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="71.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="71.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
@@ -9265,7 +9273,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -9302,7 +9310,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -9316,7 +9324,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
@@ -9333,7 +9341,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
@@ -9350,7 +9358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>92</v>
       </c>
@@ -9370,7 +9378,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>5</v>
       </c>
@@ -9387,7 +9395,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>99</v>
       </c>
@@ -9404,7 +9412,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
@@ -9424,7 +9432,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
         <v>105</v>
       </c>
@@ -9447,7 +9455,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>3</v>
       </c>
@@ -9461,7 +9469,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
         <v>10</v>
       </c>
@@ -9478,7 +9486,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>78</v>
       </c>
@@ -9495,7 +9503,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="81">
         <v>0</v>
       </c>
@@ -9511,7 +9519,7 @@
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
     </row>
-    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>4</v>
       </c>
@@ -9531,7 +9539,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
         <v>118</v>
       </c>
@@ -9548,7 +9556,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
@@ -9562,7 +9570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
         <v>4</v>
       </c>
@@ -9579,7 +9587,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
         <v>47</v>
       </c>
@@ -9593,7 +9601,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
         <v>6</v>
       </c>
@@ -9610,7 +9618,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
         <v>10</v>
       </c>
@@ -9627,7 +9635,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C22" s="27" t="s">
         <v>5</v>
       </c>
@@ -9678,7 +9686,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C25" s="27" t="s">
         <v>7</v>
       </c>
@@ -9692,7 +9700,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C26" s="27" t="s">
         <v>9</v>
       </c>
@@ -9706,7 +9714,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C27" s="27">
         <v>0</v>
       </c>
@@ -9720,7 +9728,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8">
         <v>6</v>
       </c>
@@ -9731,7 +9739,7 @@
       <c r="F28" s="39"/>
       <c r="G28" s="39"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C29" s="27" t="s">
         <v>105</v>
       </c>
@@ -9745,7 +9753,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C30" s="27" t="s">
         <v>118</v>
       </c>
@@ -9759,7 +9767,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C31" s="81">
         <v>0</v>
       </c>
@@ -9775,7 +9783,7 @@
       <c r="I31" s="81"/>
       <c r="J31" s="81"/>
     </row>
-    <row r="32" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8">
         <v>7</v>
       </c>
@@ -9792,22 +9800,22 @@
         <v>269</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C33" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C34" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C35" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C36" s="27" t="s">
         <v>118</v>
       </c>
@@ -9822,7 +9830,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C37" s="81">
         <v>0</v>
       </c>
@@ -9838,7 +9846,7 @@
       <c r="I37" s="81"/>
       <c r="J37" s="81"/>
     </row>
-    <row r="38" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8">
         <v>8</v>
       </c>
@@ -9855,22 +9863,22 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C39" s="27">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C40" s="27">
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C41" s="27">
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C42" s="27">
         <v>0</v>
       </c>
@@ -9881,7 +9889,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8">
         <v>9</v>
       </c>
@@ -9898,7 +9906,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C44" s="27" t="s">
         <v>9</v>
       </c>
@@ -9912,7 +9920,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C45" s="27" t="s">
         <v>5</v>
       </c>
@@ -9926,7 +9934,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C46" s="27">
         <v>0</v>
       </c>
@@ -9934,13 +9942,13 @@
         <v>66</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F46" s="40" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8">
         <v>10</v>
       </c>
@@ -9957,7 +9965,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C48" s="27" t="s">
         <v>12</v>
       </c>
@@ -9971,7 +9979,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C49" s="27" t="s">
         <v>5</v>
       </c>
@@ -9985,7 +9993,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C50" s="27">
         <v>0</v>
       </c>
@@ -9996,7 +10004,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="8">
         <v>11</v>
       </c>
@@ -10016,7 +10024,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C52" s="27" t="s">
         <v>10</v>
       </c>
@@ -10033,7 +10041,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C53" s="27" t="s">
         <v>78</v>
       </c>
@@ -10050,7 +10058,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="54" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="8"/>
       <c r="E54" s="39"/>
       <c r="F54" s="39"/>
@@ -10070,22 +10078,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.42578125" style="40" customWidth="1"/>
-    <col min="6" max="6" width="28.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.5" style="40" customWidth="1"/>
+    <col min="6" max="6" width="28.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.42578125" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="52.5" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -10105,7 +10113,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -10142,7 +10150,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
@@ -10156,7 +10164,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>6</v>
       </c>
@@ -10173,7 +10181,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>11</v>
       </c>
@@ -10190,7 +10198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>92</v>
       </c>
@@ -10210,7 +10218,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>5</v>
       </c>
@@ -10227,7 +10235,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>99</v>
       </c>
@@ -10244,7 +10252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
         <v>4</v>
       </c>
@@ -10264,7 +10272,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C10" s="27" t="s">
         <v>105</v>
       </c>
@@ -10287,7 +10295,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="43">
         <v>3</v>
       </c>
@@ -10301,7 +10309,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
         <v>10</v>
       </c>
@@ -10318,7 +10326,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>78</v>
       </c>
@@ -10335,7 +10343,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="81">
         <v>0</v>
       </c>
@@ -10351,7 +10359,7 @@
       <c r="I14" s="81"/>
       <c r="J14" s="81"/>
     </row>
-    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="43">
         <v>4</v>
       </c>
@@ -10371,7 +10379,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
         <v>118</v>
       </c>
@@ -10391,7 +10399,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
         <v>15</v>
       </c>
@@ -10408,7 +10416,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
         <v>4</v>
       </c>
@@ -10429,7 +10437,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C19" s="27" t="s">
         <v>47</v>
       </c>
@@ -10446,7 +10454,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C20" s="27" t="s">
         <v>6</v>
       </c>
@@ -10466,7 +10474,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
         <v>10</v>
       </c>
@@ -10486,7 +10494,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C22" s="27" t="s">
         <v>5</v>
       </c>
@@ -10503,7 +10511,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="43">
         <v>5</v>
       </c>
@@ -10522,7 +10530,7 @@
       </c>
       <c r="J23" s="22"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B24" s="26"/>
       <c r="C24" s="27" t="s">
         <v>47</v>
@@ -10543,7 +10551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B25" s="26"/>
       <c r="C25" s="27" t="s">
         <v>5</v>
@@ -10564,7 +10572,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B26" s="26"/>
       <c r="C26" s="27" t="s">
         <v>188</v>
@@ -10585,7 +10593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="43">
         <v>6</v>
       </c>
@@ -10604,7 +10612,7 @@
       </c>
       <c r="J27" s="22"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B28" s="26"/>
       <c r="C28" s="27" t="s">
         <v>6</v>
@@ -10625,7 +10633,7 @@
       </c>
       <c r="J28" s="26"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B29" s="26"/>
       <c r="C29" s="27" t="s">
         <v>7</v>
@@ -10646,7 +10654,7 @@
       </c>
       <c r="J29" s="26"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B30" s="26"/>
       <c r="C30" s="27">
         <v>0</v>
@@ -10655,7 +10663,7 @@
         <v>66</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>191</v>
@@ -10665,7 +10673,7 @@
       <c r="I30" s="26"/>
       <c r="J30" s="26"/>
     </row>
-    <row r="31" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43">
         <v>7</v>
       </c>
@@ -10684,7 +10692,7 @@
       </c>
       <c r="J31" s="22"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B32" s="26"/>
       <c r="C32" s="27" t="s">
         <v>9</v>
@@ -10705,7 +10713,7 @@
       </c>
       <c r="J32" s="26"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B33" s="26"/>
       <c r="C33" s="27" t="s">
         <v>5</v>
@@ -10726,7 +10734,7 @@
       </c>
       <c r="J33" s="26"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B34" s="26"/>
       <c r="C34" s="27">
         <v>0</v>
@@ -10735,7 +10743,7 @@
         <v>66</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>191</v>
@@ -10745,7 +10753,7 @@
       <c r="I34" s="26"/>
       <c r="J34" s="26"/>
     </row>
-    <row r="35" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="43">
         <v>8</v>
       </c>
@@ -10764,7 +10772,7 @@
       </c>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B36" s="26"/>
       <c r="C36" s="27" t="s">
         <v>10</v>
@@ -10783,7 +10791,7 @@
       </c>
       <c r="J36" s="26"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B37" s="26"/>
       <c r="C37" s="27" t="s">
         <v>11</v>
@@ -10802,7 +10810,7 @@
       </c>
       <c r="J37" s="26"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B38" s="26"/>
       <c r="C38" s="27" t="s">
         <v>47</v>
@@ -10821,7 +10829,7 @@
       </c>
       <c r="J38" s="26"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B39" s="26"/>
       <c r="C39" s="27" t="s">
         <v>12</v>
@@ -10840,7 +10848,7 @@
       </c>
       <c r="J39" s="26"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B40" s="26"/>
       <c r="C40" s="27" t="s">
         <v>13</v>
@@ -10859,7 +10867,7 @@
       </c>
       <c r="J40" s="26"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B41" s="26"/>
       <c r="C41" s="27" t="s">
         <v>14</v>
@@ -10878,7 +10886,7 @@
       </c>
       <c r="J41" s="26"/>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="26"/>
       <c r="C42" s="27">
         <v>0</v>
@@ -10887,7 +10895,7 @@
         <v>66</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>191</v>
@@ -10897,7 +10905,7 @@
       <c r="I42" s="26"/>
       <c r="J42" s="26"/>
     </row>
-    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="43">
         <v>9</v>
       </c>
@@ -10916,7 +10924,7 @@
       </c>
       <c r="J43" s="22"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="26"/>
       <c r="C44" s="27" t="s">
         <v>12</v>
@@ -10937,7 +10945,7 @@
       </c>
       <c r="J44" s="26"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="26"/>
       <c r="C45" s="27" t="s">
         <v>5</v>
@@ -10958,7 +10966,7 @@
       </c>
       <c r="J45" s="26"/>
     </row>
-    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B46" s="26"/>
       <c r="C46" s="27">
         <v>0</v>
@@ -10967,17 +10975,17 @@
         <v>66</v>
       </c>
       <c r="E46" s="28" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F46" s="28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="26"/>
       <c r="I46" s="26"/>
       <c r="J46" s="26"/>
     </row>
-    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="43">
         <v>10</v>
       </c>
@@ -10996,7 +11004,7 @@
       </c>
       <c r="J47" s="22"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B48" s="26"/>
       <c r="C48" s="27" t="s">
         <v>5</v>
@@ -11017,7 +11025,7 @@
       </c>
       <c r="J48" s="26"/>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B49" s="26"/>
       <c r="C49" s="27" t="s">
         <v>9</v>
@@ -11038,7 +11046,7 @@
       </c>
       <c r="J49" s="26"/>
     </row>
-    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B50" s="26"/>
       <c r="C50" s="27">
         <v>0</v>
@@ -11047,17 +11055,17 @@
         <v>66</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F50" s="28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="26"/>
       <c r="I50" s="26"/>
       <c r="J50" s="26"/>
     </row>
-    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="43">
         <v>11</v>
       </c>
@@ -11076,7 +11084,7 @@
       </c>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B52" s="26"/>
       <c r="C52" s="27" t="s">
         <v>10</v>
@@ -11097,7 +11105,7 @@
       </c>
       <c r="J52" s="26"/>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B53" s="26"/>
       <c r="C53" s="27" t="s">
         <v>78</v>
@@ -11118,7 +11126,7 @@
       </c>
       <c r="J53" s="26"/>
     </row>
-    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B54" s="26"/>
       <c r="C54" s="27">
         <v>0</v>
@@ -11127,22 +11135,22 @@
         <v>66</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="26"/>
       <c r="I54" s="26"/>
       <c r="J54" s="26"/>
     </row>
-    <row r="55" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:10" s="77" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A55" s="94">
         <v>12</v>
       </c>
       <c r="B55" s="85" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C55" s="95"/>
       <c r="D55" s="95"/>
@@ -11150,86 +11158,86 @@
       <c r="F55" s="96"/>
       <c r="G55" s="96"/>
       <c r="H55" s="95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I55" s="95">
         <v>1419</v>
       </c>
       <c r="J55" s="95"/>
     </row>
-    <row r="56" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:10" s="71" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A56" s="97"/>
       <c r="B56" s="98"/>
       <c r="C56" s="98" t="s">
         <v>5</v>
       </c>
       <c r="D56" s="98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E56" s="99" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="F56" s="99" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G56" s="99"/>
       <c r="H56" s="98" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I56" s="98">
         <v>1420</v>
       </c>
       <c r="J56" s="98"/>
     </row>
-    <row r="57" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A57" s="97"/>
       <c r="B57" s="98"/>
       <c r="C57" s="98" t="s">
         <v>4</v>
       </c>
       <c r="D57" s="98" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E57" s="99" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F57" s="99" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G57" s="99"/>
       <c r="H57" s="98" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I57" s="98">
         <v>1421</v>
       </c>
       <c r="J57" s="98"/>
     </row>
-    <row r="58" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A58" s="97"/>
       <c r="B58" s="98"/>
       <c r="C58" s="98" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="98" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E58" s="99" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="F58" s="99" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G58" s="99"/>
       <c r="H58" s="98" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I58" s="98">
         <v>1422</v>
       </c>
       <c r="J58" s="98"/>
     </row>
-    <row r="59" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" s="71" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A59" s="97"/>
       <c r="B59" s="98"/>
       <c r="C59" s="98">
@@ -11239,17 +11247,17 @@
         <v>66</v>
       </c>
       <c r="E59" s="99" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="F59" s="99" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G59" s="99"/>
       <c r="H59" s="98"/>
       <c r="I59" s="98"/>
       <c r="J59" s="98"/>
     </row>
-    <row r="60" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A60" s="101">
         <v>13</v>
       </c>
@@ -11271,7 +11279,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" s="102"/>
       <c r="B61" s="98"/>
       <c r="C61" s="98" t="s">
@@ -11282,7 +11290,7 @@
       </c>
       <c r="E61" s="99"/>
       <c r="F61" s="99" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="G61" s="99"/>
       <c r="H61" s="98" t="s">
@@ -11293,7 +11301,7 @@
       </c>
       <c r="J61" s="98"/>
     </row>
-    <row r="62" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="103"/>
       <c r="B62" s="104"/>
       <c r="C62" s="104" t="s">
@@ -11304,7 +11312,7 @@
       </c>
       <c r="E62" s="105"/>
       <c r="F62" s="105" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="G62" s="105"/>
       <c r="H62" s="104" t="s">
@@ -11325,27 +11333,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="32.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="25.7109375" style="40" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25.6640625" style="40" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -11365,7 +11373,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -11377,7 +11385,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -11393,7 +11401,7 @@
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>209</v>
@@ -11413,7 +11421,7 @@
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C4" s="27" t="s">
         <v>7</v>
       </c>
@@ -11430,7 +11438,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>15</v>
       </c>
@@ -11444,7 +11452,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A6" s="43">
         <v>3</v>
       </c>
@@ -11452,10 +11460,10 @@
         <v>32</v>
       </c>
       <c r="E6" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="39" t="s">
         <v>233</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>234</v>
       </c>
       <c r="G6" s="39"/>
       <c r="H6" s="23" t="s">
@@ -11465,7 +11473,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>6</v>
       </c>
@@ -11473,7 +11481,7 @@
         <v>34</v>
       </c>
       <c r="G7" s="40" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>35</v>
@@ -11482,7 +11490,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>7</v>
       </c>
@@ -11490,7 +11498,7 @@
         <v>81</v>
       </c>
       <c r="G8" s="40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>36</v>
@@ -11544,7 +11552,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="43">
         <v>5</v>
       </c>
@@ -11561,7 +11569,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>10</v>
       </c>
@@ -11575,7 +11583,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="27" t="s">
         <v>11</v>
       </c>
@@ -11589,7 +11597,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="27" t="s">
         <v>47</v>
       </c>
@@ -11603,7 +11611,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C16" s="27" t="s">
         <v>12</v>
       </c>
@@ -11617,7 +11625,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C17" s="27" t="s">
         <v>13</v>
       </c>
@@ -11631,7 +11639,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C18" s="27" t="s">
         <v>14</v>
       </c>
@@ -11645,7 +11653,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="43">
         <v>6</v>
       </c>
@@ -11679,7 +11687,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="C21" s="27" t="s">
         <v>78</v>
       </c>
@@ -11687,10 +11695,10 @@
         <v>205</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>221</v>
+        <v>538</v>
       </c>
       <c r="G21" s="40" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="H21" s="27" t="s">
         <v>207</v>
@@ -11699,72 +11707,72 @@
         <v>2005</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="43">
         <v>7</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E22" s="39"/>
       <c r="F22" s="39"/>
       <c r="G22" s="39"/>
       <c r="H22" s="23" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I22" s="23">
         <v>1419</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C23" s="27" t="s">
         <v>5</v>
       </c>
       <c r="D23" s="27" t="s">
+        <v>223</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="F23" s="40" t="s">
         <v>224</v>
       </c>
-      <c r="E23" s="40" t="s">
-        <v>235</v>
-      </c>
-      <c r="F23" s="40" t="s">
+      <c r="H23" s="27" t="s">
         <v>225</v>
-      </c>
-      <c r="H23" s="27" t="s">
-        <v>226</v>
       </c>
       <c r="I23" s="27">
         <v>1420</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D24" s="27" t="s">
+        <v>226</v>
+      </c>
+      <c r="F24" s="40" t="s">
         <v>227</v>
       </c>
-      <c r="F24" s="40" t="s">
+      <c r="H24" s="27" t="s">
         <v>228</v>
-      </c>
-      <c r="H24" s="27" t="s">
-        <v>229</v>
       </c>
       <c r="I24" s="27">
         <v>1421</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C25" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D25" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="F25" s="40" t="s">
         <v>230</v>
       </c>
-      <c r="F25" s="40" t="s">
+      <c r="H25" s="27" t="s">
         <v>231</v>
-      </c>
-      <c r="H25" s="27" t="s">
-        <v>232</v>
       </c>
       <c r="I25" s="27">
         <v>1422</v>
@@ -11790,22 +11798,22 @@
       <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="23.85546875" style="19" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.85546875" style="19" customWidth="1"/>
-    <col min="8" max="8" width="19.28515625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.1640625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.83203125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="4" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="4" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="4"/>
+    <col min="10" max="10" width="23.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -11825,7 +11833,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -11837,7 +11845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -11848,17 +11856,17 @@
         <v>6</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I2" s="23">
         <v>1334</v>
@@ -11888,87 +11896,87 @@
         <v>4</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="40" t="s">
         <v>335</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="40" t="s">
         <v>336</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>337</v>
       </c>
       <c r="G4" s="40"/>
       <c r="H4" s="27" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I4" s="27">
         <v>3027</v>
       </c>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="44"/>
       <c r="B5" s="27"/>
       <c r="C5" s="27" t="s">
         <v>92</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>338</v>
+      </c>
+      <c r="E5" s="40" t="s">
         <v>339</v>
       </c>
-      <c r="E5" s="40" t="s">
+      <c r="F5" s="40" t="s">
         <v>340</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>341</v>
       </c>
       <c r="G5" s="40"/>
       <c r="H5" s="27" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="I5" s="27">
         <v>3361</v>
       </c>
       <c r="J5" s="27" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="44"/>
       <c r="B6" s="27"/>
       <c r="C6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E6" s="40"/>
       <c r="F6" s="40" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G6" s="40"/>
       <c r="H6" s="27" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I6" s="27">
         <v>3026</v>
       </c>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="43">
         <v>3</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C7" s="23" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E7" s="39"/>
       <c r="F7" s="39" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G7" s="39"/>
       <c r="H7" s="23"/>
@@ -11984,31 +11992,31 @@
         <v>4</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E8" s="40"/>
       <c r="F8" s="40" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G8" s="40"/>
       <c r="H8" s="27"/>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="44"/>
       <c r="B9" s="27"/>
       <c r="C9" s="81" t="s">
+        <v>349</v>
+      </c>
+      <c r="D9" s="81" t="s">
         <v>350</v>
       </c>
-      <c r="D9" s="81" t="s">
+      <c r="E9" s="82" t="s">
+        <v>451</v>
+      </c>
+      <c r="F9" s="82" t="s">
         <v>351</v>
-      </c>
-      <c r="E9" s="82" t="s">
-        <v>452</v>
-      </c>
-      <c r="F9" s="82" t="s">
-        <v>352</v>
       </c>
       <c r="G9" s="82"/>
       <c r="H9" s="81"/>
@@ -12035,7 +12043,7 @@
       </c>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="44"/>
       <c r="B11" s="32"/>
       <c r="C11" s="27" t="s">
@@ -12046,10 +12054,10 @@
       </c>
       <c r="E11" s="40"/>
       <c r="F11" s="40" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G11" s="40" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>35</v>
@@ -12059,7 +12067,7 @@
       </c>
       <c r="J11" s="27"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="44"/>
       <c r="B12" s="27"/>
       <c r="C12" s="27" t="s">
@@ -12070,10 +12078,10 @@
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G12" s="40" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="H12" s="27" t="s">
         <v>36</v>
@@ -12083,7 +12091,7 @@
       </c>
       <c r="J12" s="27"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="44"/>
       <c r="B13" s="27"/>
       <c r="C13" s="27">
@@ -12094,7 +12102,7 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G13" s="40"/>
       <c r="H13" s="27"/>
@@ -12121,7 +12129,7 @@
       </c>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="44"/>
       <c r="B15" s="32"/>
       <c r="C15" s="27" t="s">
@@ -12131,10 +12139,10 @@
         <v>43</v>
       </c>
       <c r="E15" s="40" t="s">
+        <v>355</v>
+      </c>
+      <c r="F15" s="40" t="s">
         <v>356</v>
-      </c>
-      <c r="F15" s="40" t="s">
-        <v>357</v>
       </c>
       <c r="G15" s="40"/>
       <c r="H15" s="27" t="s">
@@ -12145,7 +12153,7 @@
       </c>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A16" s="44"/>
       <c r="B16" s="27"/>
       <c r="C16" s="27" t="s">
@@ -12156,10 +12164,10 @@
       </c>
       <c r="E16" s="40"/>
       <c r="F16" s="40" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G16" s="40" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="H16" s="27" t="s">
         <v>46</v>
@@ -12169,7 +12177,7 @@
       </c>
       <c r="J16" s="27"/>
     </row>
-    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="43">
         <v>6</v>
       </c>
@@ -12189,7 +12197,7 @@
       </c>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="44"/>
       <c r="B18" s="32"/>
       <c r="C18" s="27" t="s">
@@ -12209,7 +12217,7 @@
       </c>
       <c r="J18" s="27"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="44"/>
       <c r="B19" s="27"/>
       <c r="C19" s="27" t="s">
@@ -12229,7 +12237,7 @@
       </c>
       <c r="J19" s="27"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="44"/>
       <c r="B20" s="27"/>
       <c r="C20" s="27" t="s">
@@ -12249,7 +12257,7 @@
       </c>
       <c r="J20" s="27"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="44"/>
       <c r="B21" s="27"/>
       <c r="C21" s="27" t="s">
@@ -12269,7 +12277,7 @@
       </c>
       <c r="J21" s="27"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="44"/>
       <c r="B22" s="27"/>
       <c r="C22" s="27" t="s">
@@ -12289,7 +12297,7 @@
       </c>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="44"/>
       <c r="B23" s="27"/>
       <c r="C23" s="50" t="s">
@@ -12309,7 +12317,7 @@
       </c>
       <c r="J23" s="27"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="44"/>
       <c r="B24" s="27"/>
       <c r="C24" s="27">
@@ -12320,31 +12328,31 @@
       </c>
       <c r="E24" s="40"/>
       <c r="F24" s="40" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G24" s="40"/>
       <c r="H24" s="27"/>
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="9" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A25" s="52">
         <v>7</v>
       </c>
       <c r="B25" s="53" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C25" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D25" s="54" t="s">
+        <v>359</v>
+      </c>
+      <c r="E25" s="55" t="s">
         <v>360</v>
       </c>
-      <c r="E25" s="55" t="s">
-        <v>361</v>
-      </c>
       <c r="F25" s="55" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G25" s="55"/>
       <c r="H25" s="54"/>
@@ -12353,125 +12361,125 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D26" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="E26" s="48" t="s">
         <v>362</v>
       </c>
-      <c r="E26" s="48" t="s">
-        <v>363</v>
-      </c>
       <c r="F26" s="48" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G26" s="48"/>
       <c r="H26" s="30"/>
       <c r="I26" s="30"/>
       <c r="J26" s="30"/>
     </row>
-    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="E27" s="48" t="s">
         <v>364</v>
       </c>
-      <c r="E27" s="48" t="s">
-        <v>365</v>
-      </c>
       <c r="F27" s="48" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G27" s="48"/>
       <c r="H27" s="30"/>
       <c r="I27" s="30"/>
       <c r="J27" s="30"/>
     </row>
-    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="E28" s="48" t="s">
         <v>366</v>
       </c>
-      <c r="E28" s="48" t="s">
-        <v>367</v>
-      </c>
       <c r="F28" s="48" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G28" s="48"/>
       <c r="H28" s="30"/>
       <c r="I28" s="30"/>
       <c r="J28" s="30"/>
     </row>
-    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30" t="s">
         <v>105</v>
       </c>
       <c r="D29" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="E29" s="48" t="s">
         <v>368</v>
       </c>
-      <c r="E29" s="48" t="s">
-        <v>369</v>
-      </c>
       <c r="F29" s="48" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G29" s="48"/>
       <c r="H29" s="30"/>
       <c r="I29" s="30"/>
       <c r="J29" s="30"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D30" s="30" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E30" s="48"/>
       <c r="F30" s="48" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G30" s="48"/>
       <c r="H30" s="30"/>
       <c r="I30" s="30"/>
       <c r="J30" s="30"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="30" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E31" s="48"/>
       <c r="F31" s="48" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G31" s="48"/>
       <c r="H31" s="30"/>
       <c r="I31" s="30"/>
       <c r="J31" s="30"/>
     </row>
-    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="66" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
@@ -12491,21 +12499,21 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" style="40" customWidth="1"/>
-    <col min="6" max="7" width="25.85546875" style="40" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.83203125" style="40" customWidth="1"/>
+    <col min="6" max="7" width="25.83203125" style="40" customWidth="1"/>
+    <col min="8" max="8" width="24.83203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -12525,7 +12533,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -12537,7 +12545,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -12548,21 +12556,21 @@
         <v>5</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="H2" s="23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I2" s="23">
         <v>1370</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
@@ -12570,7 +12578,7 @@
         <v>25</v>
       </c>
       <c r="E3" s="39" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="F3" s="39"/>
       <c r="G3" s="39"/>
@@ -12581,10 +12589,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="27" t="s">
         <v>238</v>
-      </c>
-      <c r="H4" s="27" t="s">
-        <v>239</v>
       </c>
       <c r="I4" s="27">
         <v>1463</v>
@@ -12595,38 +12603,38 @@
         <v>83</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>239</v>
+      </c>
+      <c r="H5" s="27" t="s">
         <v>240</v>
-      </c>
-      <c r="H5" s="27" t="s">
-        <v>241</v>
       </c>
       <c r="I5" s="27">
         <v>3014</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="27" t="s">
+        <v>241</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>242</v>
-      </c>
-      <c r="H6" s="27" t="s">
-        <v>243</v>
       </c>
       <c r="I6" s="27">
         <v>1359</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="27" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="27" t="s">
         <v>244</v>
-      </c>
-      <c r="H7" s="27" t="s">
-        <v>245</v>
       </c>
       <c r="I7" s="27">
         <v>1270</v>
@@ -12637,24 +12645,24 @@
         <v>118</v>
       </c>
       <c r="D8" s="27" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>246</v>
-      </c>
-      <c r="H8" s="27" t="s">
-        <v>247</v>
       </c>
       <c r="I8" s="27">
         <v>1309</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C9" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D9" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="H9" s="27" t="s">
         <v>249</v>
-      </c>
-      <c r="H9" s="27" t="s">
-        <v>250</v>
       </c>
       <c r="I9" s="27">
         <v>1321</v>
@@ -12668,7 +12676,7 @@
         <v>213</v>
       </c>
       <c r="H10" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I10" s="27">
         <v>1380</v>
@@ -12679,10 +12687,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>251</v>
+      </c>
+      <c r="H11" s="27" t="s">
         <v>252</v>
-      </c>
-      <c r="H11" s="27" t="s">
-        <v>253</v>
       </c>
       <c r="I11" s="27">
         <v>3006</v>
@@ -12710,7 +12718,7 @@
         <v>1</v>
       </c>
       <c r="H13" s="27" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I13" s="27">
         <v>1288</v>
@@ -12721,27 +12729,27 @@
         <v>2</v>
       </c>
       <c r="H14" s="27" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I14" s="27">
         <v>1384</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C15" s="27">
         <v>3</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H15" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I15" s="27">
         <v>1402</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C16" s="27">
         <v>0</v>
       </c>
@@ -12749,10 +12757,10 @@
         <v>66</v>
       </c>
       <c r="E16" s="40" t="s">
+        <v>266</v>
+      </c>
+      <c r="F16" s="40" t="s">
         <v>267</v>
-      </c>
-      <c r="F16" s="40" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -12772,7 +12780,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="49"/>
       <c r="C18" s="50" t="s">
         <v>6</v>
@@ -12783,7 +12791,7 @@
       <c r="E18" s="51"/>
       <c r="F18" s="51"/>
       <c r="G18" s="51" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="H18" s="50" t="s">
         <v>35</v>
@@ -12792,18 +12800,18 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="49"/>
       <c r="C19" s="50" t="s">
         <v>7</v>
       </c>
       <c r="D19" s="50" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E19" s="51"/>
       <c r="F19" s="51"/>
       <c r="G19" s="51" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="H19" s="50" t="s">
         <v>36</v>
@@ -12812,7 +12820,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" s="50" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A20" s="49"/>
       <c r="C20" s="50">
         <v>0</v>
@@ -12821,10 +12829,10 @@
         <v>66</v>
       </c>
       <c r="E20" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F20" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G20" s="51"/>
     </row>
@@ -12859,7 +12867,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="30" x14ac:dyDescent="0.2">
       <c r="C23" s="27" t="s">
         <v>5</v>
       </c>
@@ -12867,7 +12875,7 @@
         <v>45</v>
       </c>
       <c r="G23" s="40" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="H23" s="27" t="s">
         <v>46</v>
@@ -12876,7 +12884,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C24" s="27">
         <v>0</v>
       </c>
@@ -12884,10 +12892,10 @@
         <v>66</v>
       </c>
       <c r="F24" s="40" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A25" s="43">
         <v>6</v>
       </c>
@@ -12904,7 +12912,7 @@
         <v>1840</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C26" s="27" t="s">
         <v>10</v>
       </c>
@@ -12918,7 +12926,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C27" s="27" t="s">
         <v>11</v>
       </c>
@@ -12934,7 +12942,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="27" t="s">
         <v>47</v>
       </c>
@@ -12948,7 +12956,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C29" s="27" t="s">
         <v>12</v>
       </c>
@@ -12962,7 +12970,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C30" s="27" t="s">
         <v>13</v>
       </c>
@@ -12976,7 +12984,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="43">
         <v>7</v>
       </c>
@@ -12993,7 +13001,7 @@
         <v>2313</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C32" s="27" t="s">
         <v>10</v>
       </c>
@@ -13007,7 +13015,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C33" s="27" t="s">
         <v>78</v>
       </c>
@@ -13015,13 +13023,13 @@
         <v>171</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G33" s="40" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H33" s="27" t="s">
         <v>114</v>
@@ -13030,51 +13038,51 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="52">
         <v>8</v>
       </c>
       <c r="B34" s="53" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C34" s="54" t="s">
         <v>12</v>
       </c>
       <c r="D34" s="54" t="s">
+        <v>260</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" s="55" t="s">
         <v>261</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="F34" s="55" t="s">
-        <v>262</v>
       </c>
       <c r="G34" s="55"/>
       <c r="H34" s="54"/>
       <c r="I34" s="54"/>
       <c r="J34" s="54"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="E35" s="48" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="48" t="s">
         <v>263</v>
-      </c>
-      <c r="E35" s="48" t="s">
-        <v>273</v>
-      </c>
-      <c r="F35" s="48" t="s">
-        <v>264</v>
       </c>
       <c r="G35" s="48"/>
       <c r="H35" s="30"/>
       <c r="I35" s="30"/>
       <c r="J35" s="30"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
       <c r="B36" s="30"/>
       <c r="C36" s="30">
@@ -13090,7 +13098,7 @@
       <c r="I36" s="30"/>
       <c r="J36" s="30"/>
     </row>
-    <row r="37" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="43"/>
       <c r="E37" s="39"/>
       <c r="F37" s="39"/>
@@ -13110,22 +13118,22 @@
       <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" style="27" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.33203125" style="27" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="47.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="47.1640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -13145,7 +13153,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -13157,7 +13165,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -13168,36 +13176,36 @@
         <v>15</v>
       </c>
       <c r="D2" s="23" t="s">
+        <v>275</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>501</v>
+      </c>
+      <c r="H2" s="23" t="s">
         <v>276</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>503</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>277</v>
       </c>
       <c r="I2" s="23">
         <v>1232</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43">
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="49"/>
       <c r="C4" s="50" t="s">
         <v>15</v>
       </c>
       <c r="D4" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="E4" s="50" t="s">
         <v>278</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>279</v>
       </c>
       <c r="F4" s="50" t="s">
         <v>77</v>
@@ -13211,53 +13219,53 @@
         <v>5</v>
       </c>
       <c r="D5" s="27" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="I5" s="27">
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C6" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="I6" s="27">
         <v>1421</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H7" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I7" s="27">
         <v>1422</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27">
         <v>0</v>
       </c>
@@ -13265,43 +13273,43 @@
         <v>66</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="F8" s="27" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="43">
         <v>3</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="J9" s="23" t="s">
         <v>280</v>
       </c>
-      <c r="J9" s="23" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C10" s="27" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="27" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="C10" s="27" t="s">
-        <v>248</v>
-      </c>
-      <c r="D10" s="27" t="s">
+      <c r="F10" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="F10" s="27" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
         <v>6</v>
       </c>
       <c r="D11" s="27" t="s">
+        <v>283</v>
+      </c>
+      <c r="F11" s="27" t="s">
         <v>284</v>
-      </c>
-      <c r="F11" s="27" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
@@ -13309,32 +13317,32 @@
         <v>5</v>
       </c>
       <c r="D12" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="F12" s="27" t="s">
         <v>286</v>
       </c>
-      <c r="F12" s="27" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>105</v>
       </c>
       <c r="D13" s="27" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="27" t="s">
         <v>288</v>
       </c>
-      <c r="F13" s="27" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C14" s="27" t="s">
         <v>4</v>
       </c>
       <c r="D14" s="27" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="27" t="s">
         <v>290</v>
-      </c>
-      <c r="F14" s="27" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
@@ -13354,22 +13362,22 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="44" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" style="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="31.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.33203125" style="27" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.85546875" style="27"/>
+    <col min="10" max="10" width="23.33203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="42" t="s">
         <v>16</v>
       </c>
@@ -13389,7 +13397,7 @@
         <v>20</v>
       </c>
       <c r="G1" s="37" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="H1" s="20" t="s">
         <v>21</v>
@@ -13401,7 +13409,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -13412,12 +13420,12 @@
         <v>9</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39"/>
       <c r="G2" s="39" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H2" s="23" t="s">
         <v>75</v>
@@ -13431,7 +13439,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="34" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
@@ -13448,10 +13456,10 @@
         <v>5</v>
       </c>
       <c r="D4" s="27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F4" s="40" t="s">
         <v>294</v>
-      </c>
-      <c r="F4" s="40" t="s">
-        <v>295</v>
       </c>
       <c r="H4" s="27" t="s">
         <v>75</v>
@@ -13460,15 +13468,15 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C5" s="27" t="s">
         <v>105</v>
       </c>
       <c r="D5" s="27" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="40" t="s">
         <v>296</v>
-      </c>
-      <c r="F5" s="40" t="s">
-        <v>297</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>76</v>
@@ -13494,7 +13502,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>9</v>
       </c>
@@ -13502,10 +13510,10 @@
         <v>43</v>
       </c>
       <c r="E7" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="F7" s="40" t="s">
         <v>298</v>
-      </c>
-      <c r="F7" s="40" t="s">
-        <v>299</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>44</v>
@@ -13514,7 +13522,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C8" s="27" t="s">
         <v>5</v>
       </c>
@@ -13522,10 +13530,10 @@
         <v>45</v>
       </c>
       <c r="E8" s="40" t="s">
+        <v>299</v>
+      </c>
+      <c r="F8" s="40" t="s">
         <v>300</v>
-      </c>
-      <c r="F8" s="40" t="s">
-        <v>301</v>
       </c>
       <c r="H8" s="27" t="s">
         <v>46</v>
@@ -13534,7 +13542,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C9" s="27">
         <v>0</v>
       </c>
@@ -13542,33 +13550,33 @@
         <v>66</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F9" s="40" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.25">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="43">
         <v>4</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E10" s="39"/>
       <c r="F10" s="39"/>
       <c r="G10" s="39"/>
       <c r="H10" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I10" s="23">
         <v>3193</v>
       </c>
       <c r="J10" s="23" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="45" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
         <v>11</v>
       </c>
@@ -13576,13 +13584,13 @@
         <v>52</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F11" s="40" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C12" s="27" t="s">
         <v>47</v>
       </c>
@@ -13590,24 +13598,24 @@
         <v>54</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F12" s="40" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="C13" s="27" t="s">
         <v>12</v>
       </c>
       <c r="D13" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F13" s="40" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C14" s="27">
         <v>0</v>
       </c>
@@ -13615,24 +13623,24 @@
         <v>66</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="52">
         <v>5</v>
       </c>
       <c r="B15" s="53" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
       <c r="G15" s="55"/>
     </row>
-    <row r="16" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="58" customFormat="1" x14ac:dyDescent="0.2">
       <c r="C16" s="58" t="s">
         <v>78</v>
       </c>
@@ -13641,11 +13649,11 @@
       </c>
       <c r="E16" s="59"/>
       <c r="F16" s="59" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G16" s="59"/>
     </row>
-    <row r="17" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="50" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="57"/>
       <c r="B17" s="58"/>
       <c r="C17" s="58" t="s">
@@ -13656,7 +13664,7 @@
       </c>
       <c r="E17" s="59"/>
       <c r="F17" s="59" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G17" s="59"/>
       <c r="H17" s="58"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="51920" yWindow="4720" windowWidth="20620" windowHeight="11640" tabRatio="725" activeTab="4"/>
+    <workbookView xWindow="51920" yWindow="4720" windowWidth="20620" windowHeight="11640" tabRatio="725" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Par" sheetId="1" r:id="rId1"/>
@@ -6123,9 +6123,6 @@
     <t>nesen ieviests</t>
   </si>
   <si>
-    <t>daudzstāvu, arī milzu, papildu, pagaidu</t>
-  </si>
-  <si>
     <t>visiem lokāmiem divdabjiem</t>
   </si>
   <si>
@@ -6369,6 +6366,9 @@
   </si>
   <si>
     <t>labais, [klases] vecākais</t>
+  </si>
+  <si>
+    <t>daudzstāvu, arī milzu, papildu, pagaidu, piespiedu</t>
   </si>
 </sst>
 </file>
@@ -8425,10 +8425,10 @@
         <v>435</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>534</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>535</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -8485,9 +8485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8552,7 +8552,7 @@
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="G2" s="23" t="s">
         <v>489</v>
@@ -8586,10 +8586,10 @@
         <v>26</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="F4" s="40" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G4" s="27" t="s">
         <v>490</v>
@@ -8797,13 +8797,13 @@
         <v>14</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E14" s="80" t="s">
         <v>471</v>
       </c>
       <c r="F14" s="40" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G14" s="27"/>
       <c r="H14" s="27"/>
@@ -8818,16 +8818,16 @@
         <v>47</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E15" s="80" t="s">
         <v>471</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G15" s="27" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -9187,10 +9187,10 @@
       </c>
       <c r="E34" s="99"/>
       <c r="F34" s="99" t="s">
-        <v>513</v>
+        <v>538</v>
       </c>
       <c r="G34" s="98" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="H34" s="98"/>
       <c r="I34" s="98"/>
@@ -10663,7 +10663,7 @@
         <v>66</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>191</v>
@@ -10743,7 +10743,7 @@
         <v>66</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>191</v>
@@ -10895,7 +10895,7 @@
         <v>66</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>191</v>
@@ -10975,10 +10975,10 @@
         <v>66</v>
       </c>
       <c r="E46" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="F46" s="28" t="s">
         <v>527</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>528</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="26"/>
@@ -11055,10 +11055,10 @@
         <v>66</v>
       </c>
       <c r="E50" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="F50" s="28" t="s">
         <v>527</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>528</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="26"/>
@@ -11135,10 +11135,10 @@
         <v>66</v>
       </c>
       <c r="E54" s="28" t="s">
+        <v>526</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>527</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>528</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="26"/>
@@ -11175,7 +11175,7 @@
         <v>223</v>
       </c>
       <c r="E56" s="99" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="F56" s="99" t="s">
         <v>447</v>
@@ -11199,7 +11199,7 @@
         <v>226</v>
       </c>
       <c r="E57" s="99" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F57" s="99" t="s">
         <v>448</v>
@@ -11223,7 +11223,7 @@
         <v>229</v>
       </c>
       <c r="E58" s="99" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="F58" s="99" t="s">
         <v>449</v>
@@ -11247,7 +11247,7 @@
         <v>66</v>
       </c>
       <c r="E59" s="99" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F59" s="99" t="s">
         <v>450</v>
@@ -11290,7 +11290,7 @@
       </c>
       <c r="E61" s="99"/>
       <c r="F61" s="99" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G61" s="99"/>
       <c r="H61" s="98" t="s">
@@ -11312,7 +11312,7 @@
       </c>
       <c r="E62" s="105"/>
       <c r="F62" s="105" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G62" s="105"/>
       <c r="H62" s="104" t="s">
@@ -11333,8 +11333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -11695,7 +11695,7 @@
         <v>205</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>495</v>
@@ -13222,7 +13222,7 @@
         <v>223</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>225</v>
@@ -13239,7 +13239,7 @@
         <v>226</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>228</v>
@@ -13256,7 +13256,7 @@
         <v>229</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>231</v>
@@ -13273,10 +13273,10 @@
         <v>66</v>
       </c>
       <c r="E8" s="27" t="s">
+        <v>529</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>530</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="542">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="545">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -6216,9 +6216,6 @@
     </r>
   </si>
   <si>
-    <t>daudzskaitlis</t>
-  </si>
-  <si>
     <t>ģenitīvs (vienīgā forma)</t>
   </si>
   <si>
@@ -6561,6 +6558,18 @@
   </si>
   <si>
     <t>Latvija, Vidusāzija</t>
+  </si>
+  <si>
+    <t>abi, abas, viss, visa, pats, katra, ikkatra, ikviens</t>
+  </si>
+  <si>
+    <t>tas, tā, šāds, tāda, viņa (viņā saulē)</t>
+  </si>
+  <si>
+    <t>vsk. nominatīvs, izņemot daudzkskaitliniekus, kuriem tezaurā ir norāde, ka tikai daudzskaitlī, un mēs par to piekrītam</t>
+  </si>
+  <si>
+    <t>daudzskaitlis, ja vsk. forma vispār netiek lietota</t>
   </si>
 </sst>
 </file>
@@ -8617,10 +8626,10 @@
         <v>434</v>
       </c>
       <c r="E5" s="40" t="s">
+        <v>532</v>
+      </c>
+      <c r="F5" s="27" t="s">
         <v>533</v>
-      </c>
-      <c r="F5" s="27" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -8679,7 +8688,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8690,7 +8699,7 @@
     <col min="4" max="4" width="32.1640625" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.6640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.1640625" style="28" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.33203125" style="26" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5" style="26" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="53" style="26" bestFit="1" customWidth="1"/>
@@ -8716,7 +8725,7 @@
       <c r="F1" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="37" t="s">
         <v>487</v>
       </c>
       <c r="H1" s="20" t="s">
@@ -8729,7 +8738,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="22" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" s="22" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A2" s="43">
         <v>1</v>
       </c>
@@ -8744,10 +8753,10 @@
       </c>
       <c r="E2" s="39"/>
       <c r="F2" s="39" t="s">
-        <v>535</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>488</v>
+        <v>534</v>
+      </c>
+      <c r="G2" s="39" t="s">
+        <v>543</v>
       </c>
       <c r="H2" s="23"/>
       <c r="I2" s="23"/>
@@ -8764,7 +8773,7 @@
       <c r="D3" s="23"/>
       <c r="E3" s="39"/>
       <c r="F3" s="39"/>
-      <c r="G3" s="23"/>
+      <c r="G3" s="39"/>
       <c r="H3" s="23"/>
       <c r="I3" s="23"/>
       <c r="J3" s="23"/>
@@ -8783,7 +8792,7 @@
       <c r="F4" s="40" t="s">
         <v>514</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="40" t="s">
         <v>489</v>
       </c>
       <c r="H4" s="27" t="s">
@@ -8804,9 +8813,9 @@
       </c>
       <c r="E5" s="40"/>
       <c r="F5" s="40" t="s">
-        <v>541</v>
-      </c>
-      <c r="G5" s="27" t="s">
+        <v>540</v>
+      </c>
+      <c r="G5" s="40" t="s">
         <v>490</v>
       </c>
       <c r="H5" s="27" t="s">
@@ -8828,7 +8837,7 @@
       <c r="D6" s="23"/>
       <c r="E6" s="39"/>
       <c r="F6" s="39"/>
-      <c r="G6" s="23"/>
+      <c r="G6" s="39"/>
       <c r="H6" s="23" t="s">
         <v>32</v>
       </c>
@@ -8851,7 +8860,7 @@
       <c r="F7" s="40" t="s">
         <v>442</v>
       </c>
-      <c r="G7" s="27"/>
+      <c r="G7" s="40"/>
       <c r="H7" s="27" t="s">
         <v>34</v>
       </c>
@@ -8872,7 +8881,7 @@
       <c r="F8" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="27"/>
+      <c r="G8" s="40"/>
       <c r="H8" s="27" t="s">
         <v>35</v>
       </c>
@@ -8895,7 +8904,7 @@
       <c r="F9" s="40" t="s">
         <v>471</v>
       </c>
-      <c r="G9" s="27"/>
+      <c r="G9" s="40"/>
       <c r="H9" s="71"/>
       <c r="I9" s="71"/>
       <c r="J9" s="27"/>
@@ -8914,7 +8923,7 @@
       <c r="F10" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="30"/>
+      <c r="G10" s="48"/>
       <c r="H10" s="30" t="s">
         <v>38</v>
       </c>
@@ -8936,7 +8945,7 @@
       <c r="D11" s="23"/>
       <c r="E11" s="39"/>
       <c r="F11" s="39"/>
-      <c r="G11" s="23"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="23" t="s">
         <v>41</v>
       </c>
@@ -8955,7 +8964,7 @@
       </c>
       <c r="E12" s="40"/>
       <c r="F12" s="40"/>
-      <c r="G12" s="27"/>
+      <c r="G12" s="40"/>
       <c r="H12" s="27" t="s">
         <v>43</v>
       </c>
@@ -8974,7 +8983,7 @@
       </c>
       <c r="E13" s="40"/>
       <c r="F13" s="40"/>
-      <c r="G13" s="27"/>
+      <c r="G13" s="40"/>
       <c r="H13" s="27" t="s">
         <v>45</v>
       </c>
@@ -8997,14 +9006,14 @@
       <c r="F14" s="40" t="s">
         <v>516</v>
       </c>
-      <c r="G14" s="27"/>
+      <c r="G14" s="40"/>
       <c r="H14" s="27"/>
       <c r="I14" s="27"/>
       <c r="J14" s="27" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="B15" s="27"/>
       <c r="C15" s="27" t="s">
         <v>46</v>
@@ -9018,8 +9027,8 @@
       <c r="F15" s="40" t="s">
         <v>515</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>520</v>
+      <c r="G15" s="40" t="s">
+        <v>544</v>
       </c>
       <c r="H15" s="27"/>
       <c r="I15" s="27"/>
@@ -9041,7 +9050,7 @@
       <c r="F16" s="40" t="s">
         <v>472</v>
       </c>
-      <c r="G16" s="27"/>
+      <c r="G16" s="40"/>
       <c r="H16" s="27"/>
       <c r="I16" s="27"/>
       <c r="J16" s="27"/>
@@ -9057,7 +9066,7 @@
       <c r="D17" s="23"/>
       <c r="E17" s="39"/>
       <c r="F17" s="39"/>
-      <c r="G17" s="23"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="23" t="s">
         <v>48</v>
       </c>
@@ -9078,7 +9087,7 @@
       <c r="F18" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="G18" s="27"/>
+      <c r="G18" s="40"/>
       <c r="H18" s="27" t="s">
         <v>50</v>
       </c>
@@ -9099,7 +9108,7 @@
       <c r="F19" s="40" t="s">
         <v>465</v>
       </c>
-      <c r="G19" s="27"/>
+      <c r="G19" s="40"/>
       <c r="H19" s="27" t="s">
         <v>52</v>
       </c>
@@ -9120,7 +9129,7 @@
       <c r="F20" s="40" t="s">
         <v>466</v>
       </c>
-      <c r="G20" s="27"/>
+      <c r="G20" s="40"/>
       <c r="H20" s="27" t="s">
         <v>54</v>
       </c>
@@ -9141,7 +9150,7 @@
       <c r="F21" s="40" t="s">
         <v>467</v>
       </c>
-      <c r="G21" s="27"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="27" t="s">
         <v>56</v>
       </c>
@@ -9162,7 +9171,7 @@
       <c r="F22" s="40" t="s">
         <v>468</v>
       </c>
-      <c r="G22" s="27"/>
+      <c r="G22" s="40"/>
       <c r="H22" s="27" t="s">
         <v>58</v>
       </c>
@@ -9183,7 +9192,7 @@
       <c r="F23" s="40" t="s">
         <v>469</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="40"/>
       <c r="H23" s="27" t="s">
         <v>60</v>
       </c>
@@ -9206,7 +9215,7 @@
       <c r="F24" s="48" t="s">
         <v>62</v>
       </c>
-      <c r="G24" s="30"/>
+      <c r="G24" s="48"/>
       <c r="H24" s="30"/>
       <c r="I24" s="30"/>
       <c r="J24" s="30" t="s">
@@ -9227,7 +9236,7 @@
       <c r="F25" s="40" t="s">
         <v>473</v>
       </c>
-      <c r="G25" s="27"/>
+      <c r="G25" s="40"/>
       <c r="H25" s="27"/>
       <c r="I25" s="27"/>
       <c r="J25" s="27"/>
@@ -9243,7 +9252,7 @@
       <c r="D26" s="23"/>
       <c r="E26" s="39"/>
       <c r="F26" s="39"/>
-      <c r="G26" s="23"/>
+      <c r="G26" s="39"/>
       <c r="H26" s="23" t="s">
         <v>64</v>
       </c>
@@ -9362,7 +9371,7 @@
       <c r="F33" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="G33" s="27"/>
+      <c r="G33" s="40"/>
       <c r="H33" s="27"/>
       <c r="I33" s="27"/>
       <c r="J33" s="27" t="s">
@@ -9379,10 +9388,10 @@
       </c>
       <c r="E34" s="99"/>
       <c r="F34" s="99" t="s">
-        <v>537</v>
-      </c>
-      <c r="G34" s="98" t="s">
-        <v>521</v>
+        <v>536</v>
+      </c>
+      <c r="G34" s="99" t="s">
+        <v>520</v>
       </c>
       <c r="H34" s="98"/>
       <c r="I34" s="98"/>
@@ -9402,7 +9411,7 @@
       <c r="F35" s="40" t="s">
         <v>491</v>
       </c>
-      <c r="G35" s="27"/>
+      <c r="G35" s="40"/>
       <c r="H35" s="27"/>
       <c r="I35" s="27"/>
       <c r="J35" s="27" t="s">
@@ -9414,6 +9423,7 @@
       <c r="C36" s="23"/>
       <c r="E36" s="24"/>
       <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9541,7 +9551,7 @@
         <v>88</v>
       </c>
       <c r="E5" s="48" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="F5" s="48" t="s">
         <v>90</v>
@@ -9635,10 +9645,10 @@
         <v>105</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="F10" s="40" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="H10" s="27" t="s">
         <v>103</v>
@@ -10858,7 +10868,7 @@
         <v>65</v>
       </c>
       <c r="E30" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F30" s="28" t="s">
         <v>190</v>
@@ -10938,7 +10948,7 @@
         <v>65</v>
       </c>
       <c r="E34" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F34" s="28" t="s">
         <v>190</v>
@@ -11090,7 +11100,7 @@
         <v>65</v>
       </c>
       <c r="E42" s="28" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="F42" s="28" t="s">
         <v>190</v>
@@ -11170,10 +11180,10 @@
         <v>65</v>
       </c>
       <c r="E46" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="F46" s="28" t="s">
         <v>525</v>
-      </c>
-      <c r="F46" s="28" t="s">
-        <v>526</v>
       </c>
       <c r="G46" s="28"/>
       <c r="H46" s="26"/>
@@ -11250,10 +11260,10 @@
         <v>65</v>
       </c>
       <c r="E50" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="F50" s="28" t="s">
         <v>525</v>
-      </c>
-      <c r="F50" s="28" t="s">
-        <v>526</v>
       </c>
       <c r="G50" s="28"/>
       <c r="H50" s="26"/>
@@ -11330,10 +11340,10 @@
         <v>65</v>
       </c>
       <c r="E54" s="28" t="s">
+        <v>524</v>
+      </c>
+      <c r="F54" s="28" t="s">
         <v>525</v>
-      </c>
-      <c r="F54" s="28" t="s">
-        <v>526</v>
       </c>
       <c r="G54" s="28"/>
       <c r="H54" s="26"/>
@@ -11442,7 +11452,7 @@
         <v>65</v>
       </c>
       <c r="E59" s="99" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="F59" s="99" t="s">
         <v>449</v>
@@ -11485,7 +11495,7 @@
       </c>
       <c r="E61" s="99"/>
       <c r="F61" s="99" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G61" s="99"/>
       <c r="H61" s="98" t="s">
@@ -11507,7 +11517,7 @@
       </c>
       <c r="E62" s="105"/>
       <c r="F62" s="105" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G62" s="105"/>
       <c r="H62" s="104" t="s">
@@ -11890,7 +11900,7 @@
         <v>204</v>
       </c>
       <c r="F21" s="40" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="G21" s="40" t="s">
         <v>494</v>
@@ -12691,7 +12701,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12821,12 +12831,15 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C7" s="27" t="s">
         <v>46</v>
       </c>
       <c r="D7" s="27" t="s">
         <v>242</v>
+      </c>
+      <c r="F7" s="40" t="s">
+        <v>542</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>243</v>
@@ -12877,12 +12890,15 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="30" x14ac:dyDescent="0.2">
       <c r="C11" s="27" t="s">
         <v>11</v>
       </c>
       <c r="D11" s="27" t="s">
         <v>250</v>
+      </c>
+      <c r="F11" s="40" t="s">
+        <v>541</v>
       </c>
       <c r="H11" s="27" t="s">
         <v>251</v>
@@ -13417,7 +13433,7 @@
         <v>222</v>
       </c>
       <c r="F5" s="27" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="H5" s="27" t="s">
         <v>224</v>
@@ -13434,7 +13450,7 @@
         <v>225</v>
       </c>
       <c r="F6" s="27" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H6" s="27" t="s">
         <v>227</v>
@@ -13451,7 +13467,7 @@
         <v>228</v>
       </c>
       <c r="F7" s="27" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H7" s="27" t="s">
         <v>230</v>
@@ -13468,10 +13484,10 @@
         <v>65</v>
       </c>
       <c r="E8" s="27" t="s">
+        <v>527</v>
+      </c>
+      <c r="F8" s="27" t="s">
         <v>528</v>
-      </c>
-      <c r="F8" s="27" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="9" spans="1:10" s="23" customFormat="1" x14ac:dyDescent="0.2">

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4740" windowWidth="14145" windowHeight="3990" tabRatio="725"/>
+    <workbookView xWindow="0" yWindow="4740" windowWidth="28920" windowHeight="18675" tabRatio="725" firstSheet="9" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1634" uniqueCount="773">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1640" uniqueCount="778">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -798,9 +798,6 @@
     <t>superlative</t>
   </si>
   <si>
-    <t xml:space="preserve">nelokāmajiem adjektīviem dzimte, skaitlis, locījums tiek noteikts pēc lietvārda vai vietniekvārda, ar ko kopā tas ir lietots </t>
-  </si>
-  <si>
     <r>
       <t>rozā liet</t>
     </r>
@@ -862,9 +859,6 @@
       </rPr>
       <t>a</t>
     </r>
-  </si>
-  <si>
-    <t>attieksmes īp.v. (visi?)</t>
   </si>
   <si>
     <t>pronoun</t>
@@ -1316,16 +1310,10 @@
     <t>hyphen</t>
   </si>
   <si>
-    <t>tikai : viens pats</t>
-  </si>
-  <si>
     <t>colon</t>
   </si>
   <si>
     <t>citi</t>
-  </si>
-  <si>
-    <t>/ '</t>
   </si>
   <si>
     <t>pieturzīmju miskaste - jāsaprot precīza robeža starp šiem un reziduāļiem</t>
@@ -1941,6 +1929,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -1967,6 +1956,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ommon noun</t>
@@ -1982,6 +1972,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>roper noun</t>
@@ -1995,6 +1986,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>m</t>
@@ -2005,6 +1997,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>asculine</t>
@@ -2054,6 +2047,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>f</t>
@@ -2064,6 +2058,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>eminine</t>
@@ -2094,6 +2089,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ingular</t>
@@ -2109,6 +2105,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>lural</t>
@@ -2168,6 +2165,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ominative</t>
@@ -2183,6 +2181,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>enitive</t>
@@ -2198,6 +2197,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ative</t>
@@ -2232,6 +2232,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>a</t>
@@ -2258,6 +2259,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ocative</t>
@@ -2279,6 +2281,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ocative</t>
@@ -2310,6 +2313,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>g</t>
@@ -2337,6 +2341,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>r</t>
@@ -2393,6 +2398,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>erb</t>
@@ -2411,6 +2417,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ain</t>
@@ -2430,6 +2437,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>o</t>
@@ -2440,6 +2448,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>dal</t>
@@ -2461,6 +2470,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>hasal</t>
@@ -2480,6 +2490,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>e</t>
@@ -2587,6 +2598,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -2617,6 +2629,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -2627,6 +2640,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ndicative</t>
@@ -2642,6 +2656,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>elative</t>
@@ -2657,6 +2672,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>onditional</t>
@@ -2672,6 +2688,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ebitive</t>
@@ -2688,6 +2705,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>m</t>
@@ -2698,6 +2716,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>perative</t>
@@ -2714,6 +2733,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -2724,6 +2744,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>itive</t>
@@ -2755,6 +2776,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>p</t>
@@ -2765,6 +2787,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>resent</t>
@@ -2780,6 +2803,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>uture</t>
@@ -2796,6 +2820,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -2806,6 +2831,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>t</t>
@@ -2822,6 +2848,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>t</t>
@@ -2832,6 +2859,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ransitive</t>
@@ -2847,6 +2875,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ntransitive</t>
@@ -2880,6 +2909,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>rregular</t>
@@ -2931,6 +2961,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ctive</t>
@@ -2946,6 +2977,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>assive</t>
@@ -2967,6 +2999,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>es, negated</t>
@@ -2980,6 +3013,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>y</t>
@@ -2990,6 +3024,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>es, reflexive</t>
@@ -3005,6 +3040,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>o, non-negated</t>
@@ -3023,6 +3059,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>articiple</t>
@@ -3038,6 +3075,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>articiple (for futher fetaures see the participle table)</t>
@@ -3051,6 +3089,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -3061,6 +3100,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ndicative (for futher fetaures see the verb table)</t>
@@ -3076,6 +3116,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>elative (for futher fetaures see the verb table)</t>
@@ -3091,6 +3132,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ebitive (for futher fetaures see the verb table)</t>
@@ -3107,6 +3149,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>m</t>
@@ -3117,6 +3160,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>perative (for futher fetaures see the verb table)</t>
@@ -3133,6 +3177,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -3143,6 +3188,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>itive (for futher fetaures see the verb table)</t>
@@ -3162,6 +3208,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -3189,6 +3236,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>u</t>
@@ -3215,6 +3263,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>artially declinable</t>
@@ -3233,6 +3282,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>asculine</t>
@@ -3248,6 +3298,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>eminine</t>
@@ -3279,6 +3330,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -3303,6 +3355,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>y</t>
@@ -3329,6 +3382,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ositive</t>
@@ -3350,6 +3404,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>omparative</t>
@@ -3365,6 +3420,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>uperlative</t>
@@ -3380,6 +3436,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>onditional (for futher fetaures see the verb table)</t>
@@ -3393,6 +3450,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>a</t>
@@ -3423,6 +3481,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>f</t>
@@ -3450,6 +3509,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>r</t>
@@ -3489,6 +3549,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>m</t>
@@ -3499,6 +3560,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>eral</t>
@@ -3523,6 +3585,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ardinal</t>
@@ -3538,6 +3601,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>rdinal</t>
@@ -3556,6 +3620,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>raction</t>
@@ -3571,6 +3636,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>imple</t>
@@ -3586,6 +3652,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ompound</t>
@@ -3642,7 +3709,6 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
-        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>djektīvu</t>
@@ -3658,6 +3724,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ronoun</t>
@@ -3676,6 +3743,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ersonal</t>
@@ -3692,6 +3760,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>x</t>
@@ -3702,6 +3771,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ive</t>
@@ -3714,6 +3784,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>po</t>
@@ -3725,6 +3796,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -3735,6 +3807,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>sesive</t>
@@ -3748,6 +3821,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -3772,6 +3846,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -3823,6 +3898,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>r</t>
@@ -3850,6 +3926,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>c</t>
@@ -3874,6 +3951,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>p</t>
@@ -3898,6 +3976,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>c</t>
@@ -3922,6 +4001,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -3954,6 +4034,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>uantitative</t>
@@ -3969,6 +4050,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>anner</t>
@@ -3984,6 +4066,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>lace</t>
@@ -3999,6 +4082,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ime</t>
@@ -4033,6 +4117,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -4043,6 +4128,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ition</t>
@@ -4059,6 +4145,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>p</t>
@@ -4086,6 +4173,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>t</t>
@@ -4119,6 +4207,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>g</t>
@@ -4143,6 +4232,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -4185,6 +4275,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>c</t>
@@ -4195,6 +4286,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>onjunction</t>
@@ -4208,6 +4300,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>c</t>
@@ -4218,6 +4311,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>oordinating</t>
@@ -4231,6 +4325,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -4241,6 +4336,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ubordinating</t>
@@ -4254,6 +4350,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>i</t>
@@ -4264,6 +4361,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>nterjection</t>
@@ -4292,6 +4390,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -4302,6 +4401,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>imple</t>
@@ -4315,6 +4415,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>c</t>
@@ -4325,6 +4426,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ompound</t>
@@ -4338,6 +4440,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -4348,6 +4451,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ouble</t>
@@ -4361,6 +4465,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>r</t>
@@ -4371,6 +4476,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>epetit</t>
@@ -4393,6 +4499,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>y</t>
@@ -4403,6 +4510,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>es</t>
@@ -4416,6 +4524,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -4426,6 +4535,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>o</t>
@@ -4476,6 +4586,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>c</t>
@@ -4486,6 +4597,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>omma</t>
@@ -4499,6 +4611,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>q</t>
@@ -4509,6 +4622,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>uote</t>
@@ -4525,6 +4639,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>s</t>
@@ -4535,6 +4650,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>top</t>
@@ -4548,6 +4664,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>b</t>
@@ -4558,6 +4675,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>racket</t>
@@ -4574,6 +4692,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -4584,6 +4703,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ash</t>
@@ -4600,6 +4720,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>o</t>
@@ -4610,6 +4731,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>lon</t>
@@ -4635,6 +4757,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -4662,6 +4785,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>o</t>
@@ -4692,6 +4816,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -4702,6 +4827,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>oun</t>
@@ -4715,6 +4841,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>p</t>
@@ -4725,6 +4852,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>roper noun</t>
@@ -4738,6 +4866,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>a</t>
@@ -4748,6 +4877,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>djective</t>
@@ -4763,6 +4893,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>r</t>
@@ -4772,6 +4903,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>b</t>
@@ -4784,6 +4916,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -4793,6 +4926,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>iscourse</t>
@@ -4806,6 +4940,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>v</t>
@@ -4816,6 +4951,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>erb</t>
@@ -4838,6 +4974,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>v</t>
@@ -4864,6 +5001,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>d</t>
@@ -4892,6 +5030,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>oreign</t>
@@ -4909,6 +5048,7 @@
         <sz val="11"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>ypo</t>
@@ -4928,6 +5068,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>n</t>
@@ -4938,6 +5079,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>umeral</t>
@@ -4951,6 +5093,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>U</t>
@@ -4961,6 +5104,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>RI</t>
@@ -5135,6 +5279,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>assive (xPred)</t>
@@ -5194,6 +5339,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>j</t>
@@ -5205,6 +5351,7 @@
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
+        <charset val="186"/>
         <scheme val="minor"/>
       </rPr>
       <t>oined - xNum tags only)</t>
@@ -5220,21 +5367,12 @@
     <t>viņš, viņas, tas</t>
   </si>
   <si>
-    <t>vsk. nominatīvs vīriešu dzimtē, pamata pakāpe, nenoteiktā galotne, izņemot uzvādus - tiem saglabā lielo sākumburtu, kā arī to dzimti, pakāpi un noteiktību, kas ir uzvārdā</t>
-  </si>
-  <si>
-    <t>nelokāmiem vienīgā forma; lokāmiem vsk. nominatīvs vīriešu dzimtē, izņemot uzvādus - tiem saglabā lielo sākumburtu, to dzimti, pakāpi un noteiktību, kas ir uzvārdā</t>
-  </si>
-  <si>
     <t>labāks, labākais</t>
   </si>
   <si>
     <t>vislabākais</t>
   </si>
   <si>
-    <t>ja nenoteiktās formas nav, lieto noteikto (pēdējais, pārējais, galvenais?)</t>
-  </si>
-  <si>
     <t>kas, kurš, kura, kāds, kāda</t>
   </si>
   <si>
@@ -5244,26 +5382,91 @@
     <t>pēdējais, tavējs, savējais</t>
   </si>
   <si>
-    <t>vienīgajam -&gt; vienīgs, savējie -&gt; savējs</t>
-  </si>
-  <si>
-    <t>labs, manējam, pēdējam</t>
-  </si>
-  <si>
-    <t>labais, manējo, pēdējo, [klases] vecākais</t>
+    <t>nelokāmiem vienīgā forma; lokāmiem vsk. nominatīvs vīriešu dzimtē, izņemot uzvārdus - tiem saglabā lielo sākumburtu, to dzimti, pakāpi un noteiktību, kas ir uzvārdā</t>
+  </si>
+  <si>
+    <t>labs, tuvējs</t>
+  </si>
+  <si>
+    <t>labais, manējo, manējam, pēdējo, [klases] vecākais</t>
+  </si>
+  <si>
+    <t>Īpašības vārdiem, kuriem nav nenoteiktās galotnes, lemma ir ar noteikto galotni: pēdējais, pārējais, galvenais).</t>
+  </si>
+  <si>
+    <t>pēdējam, pretējam, iepriekšējā</t>
+  </si>
+  <si>
+    <t>Īpašības vārdiem, kam labskanības dēļ datīvā un lokatīvā nelieto paplašinātās galotnes, šajās formās noteiktību marķē pēc konteksta.</t>
+  </si>
+  <si>
+    <t>vienīgajam -&gt; vienīgs, savējie -&gt; savējs, manējais -&gt; manējs</t>
+  </si>
+  <si>
+    <t>Vsk. nominatīvs vīriešu dzimtē, pamata pakāpe, nenoteiktā galotne, izņemot uzvārdus - tiem saglabā lielo sākumburtu, kā arī to dzimti, pakāpi un noteiktību, kas ir uzvārdā.</t>
+  </si>
+  <si>
+    <t>Nelokāmajiem adjektīviem dzimte, skaitlis, locījums tiek noteikts pēc lietvārda vai vietniekvārda, ar ko kopā tas ir lietots.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vairums attieksmes īp.v. </t>
+  </si>
+  <si>
+    <t>izdarīt</t>
+  </si>
+  <si>
+    <t>neizdarīt</t>
+  </si>
+  <si>
+    <t>nedarīt</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> : (viens pats / only one)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">/  ' </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>•</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="186"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (bumbiņsaraksta bumbuļi / bullets)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="186"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5426,6 +5629,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -5535,7 +5744,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="hair">
         <color auto="1"/>
@@ -5557,12 +5766,12 @@
   </cellStyleXfs>
   <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5572,13 +5781,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5593,7 +5802,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5603,20 +5812,20 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5634,13 +5843,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5655,7 +5864,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5664,22 +5873,22 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5715,7 +5924,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5724,10 +5933,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5739,22 +5948,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5769,7 +5978,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5787,7 +5996,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5811,10 +6020,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5823,49 +6032,49 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5874,7 +6083,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5906,7 +6115,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -5918,16 +6127,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5936,25 +6145,25 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5966,92 +6175,92 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6060,7 +6269,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -6413,7 +6622,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6431,14 +6640,14 @@
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" s="1" customFormat="1" ht="18.95" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>748</v>
+        <v>744</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>744</v>
+        <v>740</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -6447,7 +6656,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -6462,7 +6671,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -6472,7 +6681,7 @@
       <c r="I7" s="22"/>
       <c r="J7" s="22"/>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="D8" s="23"/>
       <c r="E8" s="23"/>
       <c r="F8" s="23"/>
@@ -6483,7 +6692,7 @@
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>751</v>
+        <v>747</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="23"/>
@@ -6496,10 +6705,10 @@
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>749</v>
+        <v>745</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -6511,10 +6720,10 @@
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>750</v>
+        <v>746</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -6544,7 +6753,7 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="42" bestFit="1" customWidth="1"/>
@@ -6556,36 +6765,36 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -6602,31 +6811,31 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K2" s="31">
         <v>1260</v>
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -6634,7 +6843,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -6651,16 +6860,16 @@
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K4" s="39">
         <v>1262</v>
@@ -6674,25 +6883,25 @@
         <v>8</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="78" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K5" s="78">
         <v>1393</v>
       </c>
       <c r="L5" s="76"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="58"/>
       <c r="B6" s="60"/>
       <c r="C6" s="66"/>
@@ -6726,11 +6935,11 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
@@ -6738,36 +6947,36 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -6784,33 +6993,33 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="31" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K2" s="31">
         <v>1318</v>
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58"/>
       <c r="B3" s="60"/>
       <c r="C3" s="66"/>
@@ -6843,7 +7052,7 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
@@ -6855,36 +7064,36 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -6901,33 +7110,33 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="31" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K2" s="31">
         <v>1342</v>
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58"/>
       <c r="B3" s="60"/>
       <c r="C3" s="66"/>
@@ -6950,9 +7159,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6960,7 +7169,7 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="24.28515625" style="42" bestFit="1" customWidth="1"/>
@@ -6972,21 +7181,21 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>13</v>
@@ -6995,13 +7204,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7018,33 +7227,33 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="31"/>
       <c r="I2" s="25" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K2" s="31">
         <v>1372</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -7052,7 +7261,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -7064,23 +7273,23 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="44"/>
       <c r="C4" s="45"/>
       <c r="D4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>663</v>
+        <v>659</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K4" s="39">
         <v>1448</v>
@@ -7088,22 +7297,22 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K5" s="39">
         <v>2081</v>
@@ -7114,45 +7323,45 @@
         <v>8</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K6" s="39">
         <v>2790</v>
       </c>
       <c r="L6" s="40" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
+        <v>290</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>662</v>
+      </c>
+      <c r="F7" s="41" t="s">
+        <v>656</v>
+      </c>
+      <c r="H7" s="39" t="s">
+        <v>291</v>
+      </c>
+      <c r="J7" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="K7" s="43" t="s">
+        <v>299</v>
+      </c>
+      <c r="L7" s="40" t="s">
         <v>292</v>
-      </c>
-      <c r="E7" s="40" t="s">
-        <v>666</v>
-      </c>
-      <c r="F7" s="41" t="s">
-        <v>660</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>293</v>
-      </c>
-      <c r="J7" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="L7" s="40" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -7160,36 +7369,36 @@
         <v>34</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>661</v>
+        <v>657</v>
       </c>
       <c r="H8" s="39" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K8" s="39">
         <v>2077</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D9" s="39" t="s">
         <v>68</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>297</v>
+        <v>776</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K9" s="39">
         <v>1439</v>
@@ -7203,23 +7412,23 @@
         <v>61</v>
       </c>
       <c r="E10" s="76" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G10" s="80" t="s">
-        <v>301</v>
-      </c>
-      <c r="H10" s="78" t="s">
-        <v>300</v>
+        <v>297</v>
+      </c>
+      <c r="H10" s="81" t="s">
+        <v>777</v>
       </c>
       <c r="I10" s="76"/>
       <c r="J10" s="78"/>
       <c r="K10" s="78"/>
       <c r="L10" s="76"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="58"/>
       <c r="B11" s="60"/>
       <c r="C11" s="66"/>
@@ -7235,6 +7444,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7252,7 +7462,7 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.140625" style="40" bestFit="1" customWidth="1"/>
@@ -7264,36 +7474,36 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7310,28 +7520,28 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="H2" s="31" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="K2" s="31">
         <v>1382</v>
@@ -7346,22 +7556,22 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="148" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="149" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>670</v>
+        <v>666</v>
       </c>
       <c r="G3" s="149" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="H3" s="148" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="I3" s="149"/>
       <c r="J3" s="150"/>
@@ -7376,16 +7586,16 @@
         <v>4</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="H4" s="139" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="I4" s="50"/>
       <c r="J4" s="140"/>
@@ -7400,14 +7610,14 @@
         <v>11</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>678</v>
+        <v>674</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="139" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="140"/>
@@ -7422,14 +7632,14 @@
         <v>13</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>679</v>
+        <v>675</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="139" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="140"/>
@@ -7444,14 +7654,14 @@
         <v>14</v>
       </c>
       <c r="E7" s="143" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="G7" s="143"/>
       <c r="H7" s="145" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="I7" s="143"/>
       <c r="J7" s="145"/>
@@ -7466,21 +7676,21 @@
         <v>34</v>
       </c>
       <c r="E8" s="156" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
       <c r="F8" s="157" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="G8" s="153"/>
       <c r="H8" s="155" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="I8" s="153"/>
       <c r="J8" s="155"/>
       <c r="K8" s="155"/>
       <c r="L8" s="153"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="58"/>
       <c r="B9" s="60"/>
       <c r="C9" s="66"/>
@@ -7506,7 +7716,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7514,8 +7724,8 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="55.42578125" style="42" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.7109375" style="39" bestFit="1" customWidth="1"/>
@@ -7526,36 +7736,36 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7572,26 +7782,26 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="25" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="K2" s="31">
         <v>1382</v>
@@ -7606,22 +7816,22 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="I3" s="60"/>
       <c r="J3" s="59"/>
@@ -7633,16 +7843,16 @@
         <v>9</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>688</v>
+        <v>684</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -7650,37 +7860,37 @@
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>690</v>
+        <v>686</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D6" s="39" t="s">
         <v>138</v>
       </c>
       <c r="E6" s="48" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>689</v>
+        <v>685</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="H6" s="124" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="I6" s="122"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="75"/>
       <c r="B7" s="76"/>
       <c r="C7" s="77"/>
@@ -7688,21 +7898,21 @@
         <v>61</v>
       </c>
       <c r="E7" s="76" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="G7" s="80"/>
       <c r="H7" s="78" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="I7" s="76"/>
       <c r="J7" s="78"/>
       <c r="K7" s="78"/>
       <c r="L7" s="76"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="58"/>
       <c r="B8" s="60"/>
       <c r="C8" s="66"/>
@@ -7728,13 +7938,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
     <col min="2" max="2" width="2" style="38" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24.7109375" style="54" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="57" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.7109375" style="54" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" style="55" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.7109375" style="54" customWidth="1"/>
@@ -7743,12 +7953,12 @@
     <col min="11" max="11" width="15.42578125" style="57" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="57" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="19"/>
+    <col min="14" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
@@ -7803,7 +8013,7 @@
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
-        <v>747</v>
+        <v>743</v>
       </c>
       <c r="B4" s="180"/>
       <c r="C4" s="121"/>
@@ -24191,7 +24401,7 @@
     </row>
     <row r="5" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="159" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
@@ -24206,39 +24416,39 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
-    <row r="6" spans="1:16384" s="160" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384" s="160" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="162" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B6" s="134" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="C6" s="163" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="164" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="H6" s="73" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="74" t="s">
+        <v>748</v>
+      </c>
+      <c r="J6" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="K6" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="J6" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="K6" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="L6" s="74" t="s">
         <v>16</v>
@@ -24249,7 +24459,7 @@
     </row>
     <row r="7" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="B7" s="30">
         <v>3</v>
@@ -24258,7 +24468,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>7</v>
@@ -24267,10 +24477,10 @@
         <v>26</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="I7" s="32" t="s">
         <v>27</v>
@@ -24294,7 +24504,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="E8" s="59" t="s">
         <v>8</v>
@@ -24303,10 +24513,10 @@
         <v>45</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="I8" s="63" t="s">
         <v>46</v>
@@ -24318,7 +24528,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B9" s="75"/>
       <c r="C9" s="112"/>
       <c r="D9" s="113"/>
@@ -24334,7 +24544,7 @@
     </row>
     <row r="10" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="B10" s="58">
         <v>2</v>
@@ -24343,7 +24553,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E10" s="59" t="s">
         <v>10</v>
@@ -24353,7 +24563,7 @@
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="62" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="I10" s="63" t="s">
         <v>67</v>
@@ -24365,7 +24575,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B11" s="75"/>
       <c r="C11" s="112"/>
       <c r="D11" s="113"/>
@@ -24381,7 +24591,7 @@
     </row>
     <row r="12" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B12" s="58">
         <v>2</v>
@@ -24390,7 +24600,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E12" s="59" t="s">
         <v>10</v>
@@ -24413,7 +24623,7 @@
       </c>
       <c r="N12" s="14"/>
     </row>
-    <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="B13" s="75"/>
       <c r="C13" s="112"/>
       <c r="D13" s="113"/>
@@ -24429,7 +24639,7 @@
     </row>
     <row r="14" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="15" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="B14" s="58">
         <v>7</v>
@@ -24438,20 +24648,20 @@
         <v>117</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="60" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G14" s="66"/>
       <c r="H14" s="62" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I14" s="63" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="J14" s="62"/>
       <c r="K14" s="59"/>
@@ -24467,14 +24677,14 @@
         <v>4</v>
       </c>
       <c r="F15" s="40" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G15" s="46"/>
       <c r="H15" s="42" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I15" s="43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J15" s="42"/>
       <c r="K15" s="39"/>
@@ -24488,14 +24698,14 @@
         <v>34</v>
       </c>
       <c r="F16" s="40" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G16" s="46"/>
       <c r="H16" s="42" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I16" s="43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J16" s="42"/>
       <c r="K16" s="39"/>
@@ -24509,14 +24719,14 @@
         <v>8</v>
       </c>
       <c r="F17" s="40" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G17" s="46"/>
       <c r="H17" s="42" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I17" s="43" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J17" s="42"/>
       <c r="K17" s="39"/>
@@ -24530,14 +24740,14 @@
         <v>78</v>
       </c>
       <c r="F18" s="42" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G18" s="46"/>
       <c r="H18" s="42" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I18" s="43" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J18" s="42"/>
       <c r="K18" s="39"/>
@@ -24551,12 +24761,12 @@
         <v>5</v>
       </c>
       <c r="F19" s="40" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G19" s="46"/>
       <c r="H19" s="42"/>
       <c r="I19" s="43" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J19" s="42"/>
       <c r="K19" s="39"/>
@@ -24570,12 +24780,12 @@
         <v>14</v>
       </c>
       <c r="F20" s="40" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="G20" s="46"/>
       <c r="H20" s="42"/>
       <c r="I20" s="43" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J20" s="42"/>
       <c r="K20" s="39"/>
@@ -24598,27 +24808,27 @@
     </row>
     <row r="22" spans="1:13" s="161" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="17" t="s">
-        <v>584</v>
+        <v>580</v>
       </c>
       <c r="B22" s="165">
         <v>8</v>
       </c>
       <c r="C22" s="166" t="s">
-        <v>585</v>
+        <v>581</v>
       </c>
       <c r="D22" s="167"/>
       <c r="E22" s="168" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="169" t="s">
-        <v>586</v>
+        <v>582</v>
       </c>
       <c r="G22" s="170"/>
       <c r="H22" s="171" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="I22" s="172" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="J22" s="169"/>
       <c r="K22" s="168"/>
@@ -24632,13 +24842,13 @@
         <v>8</v>
       </c>
       <c r="F23" s="40" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="I23" s="43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J23" s="40"/>
       <c r="K23" s="39"/>
@@ -24676,13 +24886,13 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="B26" s="58">
         <v>5</v>
       </c>
       <c r="C26" s="64" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D26" s="87"/>
       <c r="E26" s="59"/>
@@ -24701,13 +24911,13 @@
         <v>59</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>649</v>
+        <v>645</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="I27" s="43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J27" s="40"/>
       <c r="K27" s="39"/>
@@ -24718,13 +24928,13 @@
         <v>9</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>650</v>
+        <v>646</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>652</v>
+        <v>648</v>
       </c>
       <c r="I28" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J28" s="40"/>
       <c r="K28" s="39"/>
@@ -24745,22 +24955,22 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="15" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="B30" s="58">
         <v>3</v>
       </c>
       <c r="C30" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="60"/>
       <c r="G30" s="87"/>
       <c r="H30" s="60" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I30" s="59"/>
       <c r="J30" s="60"/>
@@ -24775,14 +24985,14 @@
         <v>8</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="43" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="J31" s="42"/>
       <c r="K31" s="39"/>
@@ -24798,14 +25008,14 @@
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="G32" s="41" t="s">
         <v>641</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>645</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="43" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="J32" s="42"/>
       <c r="K32" s="39"/>
@@ -24819,16 +25029,16 @@
         <v>34</v>
       </c>
       <c r="F33" s="40" t="s">
+        <v>638</v>
+      </c>
+      <c r="G33" s="41" t="s">
         <v>642</v>
       </c>
-      <c r="G33" s="41" t="s">
-        <v>646</v>
-      </c>
       <c r="H33" s="125" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="J33" s="42"/>
       <c r="K33" s="39"/>
@@ -24842,14 +25052,14 @@
         <v>14</v>
       </c>
       <c r="F34" s="40" t="s">
+        <v>639</v>
+      </c>
+      <c r="G34" s="41" t="s">
         <v>643</v>
-      </c>
-      <c r="G34" s="41" t="s">
-        <v>647</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="J34" s="42"/>
       <c r="K34" s="39"/>
@@ -24872,16 +25082,16 @@
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="15" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B36" s="58">
         <v>2</v>
       </c>
       <c r="C36" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E36" s="59"/>
       <c r="F36" s="60"/>
@@ -24902,14 +25112,14 @@
         <v>8</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H37" s="40"/>
       <c r="I37" s="39" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J37" s="40"/>
       <c r="K37" s="39"/>
@@ -24922,14 +25132,14 @@
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="G38" s="41" t="s">
         <v>641</v>
-      </c>
-      <c r="G38" s="41" t="s">
-        <v>645</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J38" s="40"/>
       <c r="K38" s="39"/>
@@ -24952,16 +25162,16 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="15" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="B40" s="58">
         <v>2</v>
       </c>
       <c r="C40" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>648</v>
+        <v>644</v>
       </c>
       <c r="E40" s="59"/>
       <c r="F40" s="60"/>
@@ -24982,13 +25192,13 @@
         <v>8</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>644</v>
+        <v>640</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I41" s="39"/>
       <c r="J41" s="40"/>
@@ -25001,13 +25211,13 @@
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
+        <v>637</v>
+      </c>
+      <c r="G42" s="41" t="s">
         <v>641</v>
       </c>
-      <c r="G42" s="41" t="s">
-        <v>645</v>
-      </c>
       <c r="H42" s="40" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="I42" s="39"/>
       <c r="J42" s="40"/>
@@ -25030,7 +25240,7 @@
     </row>
     <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="15" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B44" s="58">
         <v>2</v>
@@ -25039,19 +25249,19 @@
         <v>18</v>
       </c>
       <c r="D44" s="66" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E44" s="174" t="s">
         <v>78</v>
       </c>
       <c r="F44" s="175" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="G44" s="176" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="H44" s="177" t="s">
-        <v>753</v>
+        <v>749</v>
       </c>
       <c r="I44" s="178"/>
       <c r="J44" s="179"/>
@@ -25078,7 +25288,7 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="54" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="55" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
@@ -25090,36 +25300,36 @@
     <col min="13" max="16384" width="8.85546875" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="67" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="67" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -25136,29 +25346,29 @@
         <v>17</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -25166,7 +25376,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -25185,19 +25395,19 @@
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>20</v>
@@ -25215,17 +25425,17 @@
         <v>4</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="J5" s="78" t="s">
         <v>21</v>
@@ -25235,7 +25445,7 @@
       </c>
       <c r="L5" s="76"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <v>3</v>
       </c>
@@ -25243,7 +25453,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
@@ -25266,16 +25476,16 @@
         <v>5</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="I7" s="42"/>
       <c r="J7" s="39" t="s">
@@ -25293,10 +25503,10 @@
         <v>6</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="43" t="s">
@@ -25322,20 +25532,20 @@
         <v>49</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="78"/>
       <c r="K9" s="78"/>
       <c r="L9" s="76"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="58">
         <v>4</v>
       </c>
@@ -25343,7 +25553,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -25366,14 +25576,14 @@
         <v>8</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="43" t="s">
-        <v>740</v>
+        <v>736</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="39" t="s">
@@ -25391,14 +25601,14 @@
         <v>4</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="43" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="39" t="s">
@@ -25416,16 +25626,16 @@
         <v>13</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="39"/>
@@ -25441,19 +25651,19 @@
         <v>34</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
@@ -25473,10 +25683,10 @@
       </c>
       <c r="F15" s="83"/>
       <c r="G15" s="80" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="78"/>
@@ -25491,7 +25701,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="60"/>
@@ -25514,10 +25724,10 @@
         <v>9</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="43" t="s">
@@ -25539,14 +25749,14 @@
         <v>10</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="43" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="39" t="s">
@@ -25564,14 +25774,14 @@
         <v>34</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="43" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="39" t="s">
@@ -25589,14 +25799,14 @@
         <v>11</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="43" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
@@ -25614,14 +25824,14 @@
         <v>12</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="43" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="39" t="s">
@@ -25639,14 +25849,14 @@
         <v>13</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="43" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="39" t="s">
@@ -25668,13 +25878,13 @@
         <v>49</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G23" s="80" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="I23" s="80"/>
       <c r="J23" s="78"/>
@@ -25689,7 +25899,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
@@ -25712,13 +25922,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="39"/>
@@ -25732,13 +25942,13 @@
         <v>2</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="39"/>
@@ -25752,13 +25962,13 @@
         <v>3</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="39"/>
@@ -25772,10 +25982,10 @@
         <v>4</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>60</v>
@@ -25792,13 +26002,13 @@
         <v>5</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="39"/>
@@ -25812,13 +26022,13 @@
         <v>6</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="39"/>
@@ -25835,10 +26045,10 @@
         <v>49</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H31" s="43" t="s">
         <v>50</v>
@@ -25858,17 +26068,17 @@
         <v>10</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="G32" s="42"/>
       <c r="H32" s="43" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
@@ -25884,14 +26094,14 @@
         <v>14</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="81" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="I33" s="80"/>
       <c r="J33" s="78"/>
@@ -25925,16 +26135,16 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="109" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="29.7109375" style="42" customWidth="1"/>
@@ -25942,40 +26152,40 @@
     <col min="9" max="9" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -25984,7 +26194,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -25992,16 +26202,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
@@ -26024,7 +26234,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -26043,10 +26253,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>63</v>
@@ -26063,10 +26273,10 @@
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>69</v>
@@ -26086,10 +26296,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>69</v>
@@ -26106,10 +26316,10 @@
         <v>73</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>69</v>
@@ -26129,7 +26339,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>76</v>
@@ -26152,16 +26362,16 @@
         <v>78</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="78" t="s">
@@ -26182,7 +26392,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -26201,10 +26411,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>81</v>
@@ -26221,10 +26431,10 @@
         <v>59</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>83</v>
@@ -26247,10 +26457,10 @@
         <v>49</v>
       </c>
       <c r="F13" s="104" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
@@ -26266,7 +26476,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="60"/>
@@ -26289,10 +26499,10 @@
         <v>88</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>89</v>
@@ -26309,10 +26519,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>91</v>
@@ -26326,10 +26536,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>92</v>
@@ -26346,10 +26556,10 @@
         <v>34</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>94</v>
@@ -26363,10 +26573,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>95</v>
@@ -26386,7 +26596,7 @@
         <v>106</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>97</v>
@@ -26405,10 +26615,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>131</v>
@@ -26433,7 +26643,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="60"/>
@@ -26454,13 +26664,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="J23" s="39" t="s">
         <v>103</v>
@@ -26474,13 +26684,13 @@
         <v>6</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>104</v>
@@ -26494,13 +26704,13 @@
         <v>8</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="J25" s="39" t="s">
         <v>105</v>
@@ -26520,7 +26730,7 @@
         <v>49</v>
       </c>
       <c r="F26" s="106" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G26" s="80" t="s">
         <v>129</v>
@@ -26541,7 +26751,7 @@
         <v>108</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="60"/>
@@ -26558,10 +26768,10 @@
         <v>78</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>109</v>
@@ -26575,10 +26785,10 @@
         <v>88</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>110</v>
@@ -26598,10 +26808,10 @@
         <v>49</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G30" s="80" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H30" s="81"/>
       <c r="I30" s="80"/>
@@ -26617,7 +26827,7 @@
         <v>111</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="60"/>
@@ -26638,13 +26848,13 @@
         <v>1</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -26652,13 +26862,13 @@
         <v>2</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>736</v>
+        <v>732</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
@@ -26666,13 +26876,13 @@
         <v>3</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>735</v>
+        <v>731</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -26680,10 +26890,10 @@
         <v>88</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="H35" s="95" t="s">
         <v>112</v>
@@ -26704,10 +26914,10 @@
         <v>49</v>
       </c>
       <c r="F36" s="77" t="s">
-        <v>693</v>
+        <v>689</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H36" s="81"/>
       <c r="I36" s="80"/>
@@ -26723,7 +26933,7 @@
         <v>113</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="60"/>
@@ -26744,13 +26954,13 @@
         <v>1</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
@@ -26758,13 +26968,13 @@
         <v>2</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>738</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
@@ -26772,13 +26982,13 @@
         <v>3</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -26792,7 +27002,7 @@
         <v>49</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="G41" s="80"/>
       <c r="H41" s="81" t="s">
@@ -26811,7 +27021,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="60"/>
@@ -26832,13 +27042,13 @@
         <v>8</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>737</v>
+        <v>733</v>
       </c>
       <c r="J43" s="39" t="s">
         <v>32</v>
@@ -26852,13 +27062,13 @@
         <v>4</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>739</v>
+        <v>735</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>33</v>
@@ -26878,10 +27088,10 @@
         <v>49</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="G45" s="80" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="H45" s="81" t="s">
         <v>116</v>
@@ -26899,7 +27109,7 @@
         <v>117</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="60"/>
@@ -26920,10 +27130,10 @@
         <v>11</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="J47" s="39" t="s">
         <v>119</v>
@@ -26937,13 +27147,13 @@
         <v>4</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>120</v>
@@ -26963,7 +27173,7 @@
         <v>49</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>552</v>
+        <v>548</v>
       </c>
       <c r="G49" s="80" t="s">
         <v>106</v>
@@ -26982,7 +27192,7 @@
         <v>121</v>
       </c>
       <c r="C50" s="65" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="60"/>
@@ -27005,13 +27215,16 @@
         <v>9</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H51" s="43" t="s">
         <v>89</v>
+      </c>
+      <c r="I51" s="42" t="s">
+        <v>97</v>
       </c>
       <c r="J51" s="39" t="s">
         <v>82</v>
@@ -27028,16 +27241,18 @@
         <v>59</v>
       </c>
       <c r="E52" s="76" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F52" s="79" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G52" s="80"/>
       <c r="H52" s="81" t="s">
         <v>124</v>
       </c>
-      <c r="I52" s="80"/>
+      <c r="I52" s="80" t="s">
+        <v>775</v>
+      </c>
       <c r="J52" s="78" t="s">
         <v>84</v>
       </c>
@@ -27069,9 +27284,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27079,48 +27294,48 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="30.42578125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="28.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="43" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="52.42578125" style="40" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -27129,7 +27344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -27137,16 +27352,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
@@ -27169,7 +27384,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -27188,10 +27403,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>63</v>
@@ -27208,10 +27423,10 @@
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>69</v>
@@ -27231,10 +27446,10 @@
         <v>4</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>69</v>
@@ -27251,10 +27466,10 @@
         <v>73</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>69</v>
@@ -27274,7 +27489,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>76</v>
@@ -27297,10 +27512,10 @@
         <v>78</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G9" s="80" t="s">
         <v>128</v>
@@ -27327,7 +27542,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -27346,10 +27561,10 @@
         <v>9</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>81</v>
@@ -27366,10 +27581,10 @@
         <v>59</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>83</v>
@@ -27392,10 +27607,10 @@
         <v>49</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>757</v>
+        <v>753</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>694</v>
+        <v>690</v>
       </c>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
@@ -27411,7 +27626,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="60"/>
@@ -27434,10 +27649,10 @@
         <v>88</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>130</v>
@@ -27457,10 +27672,10 @@
         <v>14</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="F16" s="93" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>130</v>
@@ -27477,10 +27692,10 @@
         <v>3</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="F17" s="93" t="s">
-        <v>561</v>
+        <v>557</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>130</v>
@@ -27500,10 +27715,10 @@
         <v>34</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F18" s="93" t="s">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>130</v>
@@ -27520,10 +27735,10 @@
         <v>5</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F19" s="94" t="s">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>130</v>
@@ -27546,7 +27761,7 @@
         <v>106</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="G20" s="42" t="s">
         <v>130</v>
@@ -27569,10 +27784,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="G21" s="80"/>
       <c r="H21" s="81" t="s">
@@ -27595,7 +27810,7 @@
         <v>132</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="86"/>
@@ -27611,17 +27826,17 @@
       </c>
       <c r="L22" s="86"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="54"/>
       <c r="C23" s="55"/>
       <c r="D23" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="G23" s="53" t="s">
         <v>134</v>
@@ -27643,10 +27858,10 @@
         <v>4</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="F24" s="108" t="s">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="G24" s="53" t="s">
         <v>136</v>
@@ -27669,10 +27884,10 @@
         <v>138</v>
       </c>
       <c r="E25" s="112" t="s">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="F25" s="114" t="s">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="G25" s="115" t="s">
         <v>139</v>
@@ -27695,7 +27910,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D26" s="59"/>
       <c r="E26" s="86"/>
@@ -27718,10 +27933,10 @@
         <v>5</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F27" s="108" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="G27" s="53"/>
       <c r="H27" s="56" t="s">
@@ -27743,10 +27958,10 @@
         <v>6</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F28" s="108" t="s">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="G28" s="53"/>
       <c r="H28" s="56" t="s">
@@ -27772,10 +27987,10 @@
         <v>49</v>
       </c>
       <c r="F29" s="118" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G29" s="115" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H29" s="116" t="s">
         <v>140</v>
@@ -27793,7 +28008,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="111" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D30" s="59"/>
       <c r="E30" s="86"/>
@@ -27816,10 +28031,10 @@
         <v>8</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="56" t="s">
@@ -27841,10 +28056,10 @@
         <v>4</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F32" s="108" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G32" s="53"/>
       <c r="H32" s="56" t="s">
@@ -27870,10 +28085,10 @@
         <v>49</v>
       </c>
       <c r="F33" s="118" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G33" s="115" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H33" s="116" t="s">
         <v>140</v>
@@ -27891,7 +28106,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D34" s="59"/>
       <c r="E34" s="86"/>
@@ -27914,14 +28129,14 @@
         <v>9</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G35" s="53"/>
       <c r="H35" s="56" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I35" s="53"/>
       <c r="J35" s="57" t="s">
@@ -27939,14 +28154,14 @@
         <v>10</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G36" s="53"/>
       <c r="H36" s="56" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="I36" s="53"/>
       <c r="J36" s="57" t="s">
@@ -27964,14 +28179,14 @@
         <v>34</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="56" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="I37" s="53"/>
       <c r="J37" s="57" t="s">
@@ -27989,14 +28204,14 @@
         <v>11</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="56" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
       <c r="I38" s="53"/>
       <c r="J38" s="57" t="s">
@@ -28014,14 +28229,14 @@
         <v>12</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G39" s="53"/>
       <c r="H39" s="56" t="s">
-        <v>726</v>
+        <v>722</v>
       </c>
       <c r="I39" s="53"/>
       <c r="J39" s="57" t="s">
@@ -28039,10 +28254,10 @@
         <v>13</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G40" s="53"/>
       <c r="H40" s="56"/>
@@ -28066,10 +28281,10 @@
         <v>49</v>
       </c>
       <c r="F41" s="118" t="s">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="G41" s="115" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H41" s="116" t="s">
         <v>140</v>
@@ -28087,7 +28302,7 @@
         <v>117</v>
       </c>
       <c r="C42" s="111" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="86"/>
@@ -28110,16 +28325,16 @@
         <v>11</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="G43" s="53" t="s">
         <v>145</v>
       </c>
       <c r="H43" s="56" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="I43" s="53"/>
       <c r="J43" s="57" t="s">
@@ -28137,16 +28352,16 @@
         <v>4</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="G44" s="53" t="s">
         <v>146</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>728</v>
+        <v>724</v>
       </c>
       <c r="I44" s="53"/>
       <c r="J44" s="57" t="s">
@@ -28168,13 +28383,13 @@
         <v>49</v>
       </c>
       <c r="F45" s="118" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G45" s="115" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H45" s="116" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I45" s="115"/>
       <c r="J45" s="117"/>
@@ -28189,7 +28404,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="86"/>
@@ -28212,16 +28427,16 @@
         <v>4</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="G47" s="53" t="s">
         <v>147</v>
       </c>
       <c r="H47" s="56" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="I47" s="53"/>
       <c r="J47" s="57" t="s">
@@ -28239,16 +28454,16 @@
         <v>8</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="G48" s="53" t="s">
         <v>148</v>
       </c>
       <c r="H48" s="56" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="I48" s="53"/>
       <c r="J48" s="57" t="s">
@@ -28270,13 +28485,13 @@
         <v>49</v>
       </c>
       <c r="F49" s="118" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G49" s="115" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H49" s="116" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I49" s="115"/>
       <c r="J49" s="117"/>
@@ -28291,7 +28506,7 @@
         <v>149</v>
       </c>
       <c r="C50" s="111" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="86"/>
@@ -28314,10 +28529,10 @@
         <v>9</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F51" s="107" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="G51" s="53"/>
       <c r="H51" s="56" t="s">
@@ -28339,10 +28554,10 @@
         <v>59</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F52" s="107" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G52" s="53"/>
       <c r="H52" s="56" t="s">
@@ -28368,13 +28583,13 @@
         <v>49</v>
       </c>
       <c r="F53" s="118" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G53" s="115" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H53" s="116" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="I53" s="115"/>
       <c r="J53" s="78"/>
@@ -28389,7 +28604,7 @@
         <v>164</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="60"/>
@@ -28413,16 +28628,16 @@
         <v>4</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="I55" s="42"/>
       <c r="J55" s="39" t="s">
@@ -28441,16 +28656,16 @@
         <v>3</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="I56" s="42"/>
       <c r="J56" s="39" t="s">
@@ -28469,16 +28684,16 @@
         <v>8</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="I57" s="42"/>
       <c r="J57" s="39" t="s">
@@ -28500,13 +28715,13 @@
         <v>49</v>
       </c>
       <c r="F58" s="118" t="s">
-        <v>553</v>
+        <v>549</v>
       </c>
       <c r="G58" s="80" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H58" s="81" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="I58" s="80"/>
       <c r="J58" s="78"/>
@@ -28521,7 +28736,7 @@
         <v>121</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D59" s="59"/>
       <c r="E59" s="60"/>
@@ -28547,16 +28762,18 @@
         <v>9</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="G60" s="42"/>
       <c r="H60" s="43" t="s">
-        <v>382</v>
-      </c>
-      <c r="I60" s="42"/>
+        <v>378</v>
+      </c>
+      <c r="I60" s="42" t="s">
+        <v>773</v>
+      </c>
       <c r="J60" s="39" t="s">
         <v>82</v>
       </c>
@@ -28573,16 +28790,18 @@
         <v>59</v>
       </c>
       <c r="E61" s="76" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F61" s="79" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G61" s="80"/>
       <c r="H61" s="81" t="s">
-        <v>383</v>
-      </c>
-      <c r="I61" s="80"/>
+        <v>379</v>
+      </c>
+      <c r="I61" s="80" t="s">
+        <v>774</v>
+      </c>
       <c r="J61" s="78" t="s">
         <v>84</v>
       </c>
@@ -28615,9 +28834,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28625,7 +28844,7 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" style="42" bestFit="1" customWidth="1"/>
@@ -28637,36 +28856,36 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -28675,7 +28894,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -28683,21 +28902,21 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>762</v>
+        <v>770</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>155</v>
@@ -28707,7 +28926,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -28715,7 +28934,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -28732,10 +28951,10 @@
         <v>6</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>565</v>
+        <v>561</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>156</v>
@@ -28755,14 +28974,14 @@
         <v>14</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>769</v>
+        <v>762</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="78"/>
@@ -28771,7 +28990,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <v>3</v>
       </c>
@@ -28779,16 +28998,16 @@
         <v>22</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
       <c r="F6" s="66"/>
       <c r="G6" s="62" t="s">
+        <v>771</v>
+      </c>
+      <c r="H6" s="63" t="s">
         <v>170</v>
-      </c>
-      <c r="H6" s="63" t="s">
-        <v>171</v>
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="59" t="s">
@@ -28804,13 +29023,13 @@
         <v>5</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>24</v>
@@ -28827,14 +29046,14 @@
         <v>6</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="81" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="I8" s="80"/>
       <c r="J8" s="78" t="s">
@@ -28845,7 +29064,7 @@
       </c>
       <c r="L8" s="76"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="58">
         <v>4</v>
       </c>
@@ -28853,7 +29072,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
@@ -28869,18 +29088,18 @@
       </c>
       <c r="L9" s="60"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>32</v>
@@ -28889,7 +29108,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
@@ -28897,14 +29116,14 @@
         <v>4</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="81" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="I11" s="80"/>
       <c r="J11" s="78" t="s">
@@ -28923,7 +29142,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -28944,13 +29163,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>158</v>
@@ -28964,13 +29183,13 @@
         <v>10</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J14" s="39" t="s">
         <v>159</v>
@@ -28984,13 +29203,13 @@
         <v>34</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>160</v>
@@ -29004,13 +29223,13 @@
         <v>11</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>161</v>
@@ -29024,13 +29243,13 @@
         <v>12</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>162</v>
@@ -29047,10 +29266,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F18" s="79" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G18" s="80"/>
       <c r="H18" s="81"/>
@@ -29063,7 +29282,7 @@
       </c>
       <c r="L18" s="76"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <v>6</v>
       </c>
@@ -29071,13 +29290,17 @@
         <v>149</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="60"/>
       <c r="F19" s="66"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="63"/>
+      <c r="G19" s="62" t="s">
+        <v>768</v>
+      </c>
+      <c r="H19" s="63" t="s">
+        <v>767</v>
+      </c>
       <c r="I19" s="62"/>
       <c r="J19" s="59" t="s">
         <v>150</v>
@@ -29087,21 +29310,21 @@
       </c>
       <c r="L19" s="60"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D20" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>554</v>
+        <v>550</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>771</v>
+        <v>764</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>152</v>
@@ -29110,7 +29333,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
       <c r="B21" s="76"/>
       <c r="C21" s="77"/>
@@ -29118,14 +29341,14 @@
         <v>59</v>
       </c>
       <c r="E21" s="112" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F21" s="114" t="s">
-        <v>555</v>
+        <v>551</v>
       </c>
       <c r="G21" s="80"/>
       <c r="H21" s="81" t="s">
-        <v>772</v>
+        <v>765</v>
       </c>
       <c r="I21" s="80" t="s">
         <v>766</v>
@@ -29146,7 +29369,7 @@
         <v>164</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="60"/>
@@ -29167,13 +29390,13 @@
         <v>4</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>556</v>
+        <v>552</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>172</v>
+        <v>772</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>166</v>
@@ -29190,13 +29413,13 @@
         <v>3</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>559</v>
+        <v>555</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>168</v>
@@ -29213,14 +29436,14 @@
         <v>8</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F25" s="79" t="s">
-        <v>560</v>
+        <v>556</v>
       </c>
       <c r="G25" s="80"/>
       <c r="H25" s="81" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I25" s="80"/>
       <c r="J25" s="78" t="s">
@@ -29256,7 +29479,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29264,7 +29487,7 @@
     <col min="1" max="1" width="3" style="127" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="122" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" style="123" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="124" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="124" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="122" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.140625" style="123" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.140625" style="125" customWidth="1"/>
@@ -29276,36 +29499,36 @@
     <col min="13" max="16384" width="8.85546875" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -29314,7 +29537,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -29322,33 +29545,33 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="G2" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
         <v>763</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K2" s="31">
         <v>1334</v>
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -29356,7 +29579,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -29368,7 +29591,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="44"/>
       <c r="C4" s="45"/>
@@ -29376,20 +29599,20 @@
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>575</v>
+        <v>571</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I4" s="42"/>
       <c r="J4" s="39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K4" s="39">
         <v>3027</v>
@@ -29404,26 +29627,26 @@
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>576</v>
+        <v>572</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I5" s="42"/>
       <c r="J5" s="39" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K5" s="39">
         <v>3361</v>
       </c>
       <c r="L5" s="40" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -29434,18 +29657,18 @@
         <v>6</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>577</v>
+        <v>573</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>578</v>
+        <v>574</v>
       </c>
       <c r="G6" s="80"/>
       <c r="H6" s="81" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I6" s="80"/>
       <c r="J6" s="78" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K6" s="78">
         <v>3026</v>
@@ -29457,10 +29680,10 @@
         <v>3</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="60"/>
@@ -29482,21 +29705,21 @@
         <v>8</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>581</v>
+        <v>577</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>579</v>
+        <v>575</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="43" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I8" s="42"/>
       <c r="J8" s="39"/>
       <c r="K8" s="39"/>
       <c r="L8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="40"/>
       <c r="C9" s="46"/>
@@ -29504,14 +29727,14 @@
         <v>3</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>582</v>
+        <v>578</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>580</v>
+        <v>576</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="43" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I9" s="42"/>
       <c r="J9" s="39"/>
@@ -29523,26 +29746,26 @@
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
       <c r="D10" s="99" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>583</v>
+        <v>579</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="G10" s="102" t="s">
-        <v>695</v>
+        <v>691</v>
       </c>
       <c r="H10" s="103" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I10" s="102"/>
       <c r="J10" s="99"/>
       <c r="K10" s="99"/>
       <c r="L10" s="100"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="58">
         <v>4</v>
       </c>
@@ -29550,7 +29773,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D11" s="59"/>
       <c r="E11" s="60"/>
@@ -29574,14 +29797,14 @@
         <v>5</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="43" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="39" t="s">
@@ -29600,14 +29823,14 @@
         <v>6</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="43" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="39" t="s">
@@ -29629,18 +29852,18 @@
         <v>49</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I14" s="80"/>
       <c r="J14" s="78"/>
       <c r="K14" s="78"/>
       <c r="L14" s="76"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="58">
         <v>5</v>
       </c>
@@ -29648,7 +29871,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="60"/>
@@ -29672,16 +29895,16 @@
         <v>8</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G16" s="42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I16" s="42"/>
       <c r="J16" s="39" t="s">
@@ -29700,17 +29923,17 @@
         <v>4</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F17" s="79" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G17" s="80"/>
       <c r="H17" s="81" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>600</v>
+        <v>596</v>
       </c>
       <c r="J17" s="78" t="s">
         <v>33</v>
@@ -29728,7 +29951,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
@@ -29752,14 +29975,14 @@
         <v>9</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="43" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="39" t="s">
@@ -29778,14 +30001,14 @@
         <v>10</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="43" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
@@ -29804,14 +30027,14 @@
         <v>34</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="43" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="39" t="s">
@@ -29830,14 +30053,14 @@
         <v>11</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="43" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="39" t="s">
@@ -29856,14 +30079,14 @@
         <v>12</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G23" s="42"/>
       <c r="H23" s="43" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="39" t="s">
@@ -29882,10 +30105,10 @@
         <v>13</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="43"/>
@@ -29909,11 +30132,11 @@
         <v>49</v>
       </c>
       <c r="F25" s="77" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G25" s="80"/>
       <c r="H25" s="81" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I25" s="80"/>
       <c r="J25" s="78"/>
@@ -29922,7 +30145,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="128" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="B26" s="129"/>
       <c r="C26" s="130"/>
@@ -29955,7 +30178,7 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.85546875" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.28515625" style="42" bestFit="1" customWidth="1"/>
@@ -29967,36 +30190,36 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -30013,24 +30236,24 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>588</v>
+        <v>584</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>587</v>
+        <v>583</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K2" s="31">
         <v>1370</v>
@@ -30045,13 +30268,13 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
       <c r="F3" s="66"/>
       <c r="G3" s="62" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H3" s="63"/>
       <c r="I3" s="62"/>
@@ -30059,43 +30282,43 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B4" s="44"/>
       <c r="C4" s="45"/>
       <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>595</v>
+        <v>591</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>589</v>
+        <v>585</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="J4" s="39" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K4" s="39">
         <v>1463</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5" s="39" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>596</v>
+        <v>592</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>590</v>
+        <v>586</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="J5" s="39" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K5" s="39">
         <v>3014</v>
@@ -30106,16 +30329,16 @@
         <v>8</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>597</v>
+        <v>593</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>591</v>
+        <v>587</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>698</v>
+        <v>694</v>
       </c>
       <c r="J6" s="39" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K6" s="39">
         <v>1359</v>
@@ -30126,16 +30349,16 @@
         <v>34</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>598</v>
+        <v>594</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="J7" s="39" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="K7" s="39">
         <v>1270</v>
@@ -30146,16 +30369,16 @@
         <v>88</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>557</v>
+        <v>553</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>593</v>
+        <v>589</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>768</v>
+        <v>761</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K8" s="39">
         <v>1309</v>
@@ -30163,19 +30386,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>599</v>
+        <v>595</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>594</v>
+        <v>590</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="J9" s="39" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K9" s="39">
         <v>1321</v>
@@ -30186,22 +30409,22 @@
         <v>14</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>567</v>
+        <v>563</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>767</v>
+        <v>760</v>
       </c>
       <c r="J10" s="39" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K10" s="39">
         <v>1380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
@@ -30209,25 +30432,25 @@
         <v>10</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>558</v>
+        <v>554</v>
       </c>
       <c r="F11" s="85" t="s">
         <v>152</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="81" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="I11" s="80"/>
       <c r="J11" s="78" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="K11" s="78">
         <v>3006</v>
       </c>
       <c r="L11" s="76"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="58">
         <v>3</v>
       </c>
@@ -30235,7 +30458,7 @@
         <v>113</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -30256,16 +30479,16 @@
         <v>1</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="J13" s="39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K13" s="39">
         <v>1288</v>
@@ -30276,16 +30499,16 @@
         <v>2</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="J14" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K14" s="39">
         <v>1384</v>
@@ -30296,19 +30519,19 @@
         <v>3</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="G15" s="42" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>761</v>
+        <v>757</v>
       </c>
       <c r="J15" s="39" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K15" s="39">
         <v>1402</v>
@@ -30325,13 +30548,13 @@
         <v>49</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G16" s="80" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H16" s="81" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I16" s="80"/>
       <c r="J16" s="78"/>
@@ -30346,7 +30569,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="60"/>
@@ -30367,16 +30590,16 @@
         <v>5</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
@@ -30390,16 +30613,16 @@
         <v>6</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>25</v>
@@ -30419,13 +30642,13 @@
         <v>49</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G20" s="80" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H20" s="81" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="I20" s="80"/>
       <c r="J20" s="78"/>
@@ -30440,7 +30663,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D21" s="59"/>
       <c r="E21" s="60"/>
@@ -30461,13 +30684,13 @@
         <v>8</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>32</v>
@@ -30481,16 +30704,16 @@
         <v>4</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="J23" s="39" t="s">
         <v>33</v>
@@ -30510,11 +30733,11 @@
         <v>49</v>
       </c>
       <c r="F24" s="77" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G24" s="80"/>
       <c r="H24" s="81" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="I24" s="80"/>
       <c r="J24" s="78"/>
@@ -30529,7 +30752,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="60"/>
@@ -30550,13 +30773,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>158</v>
@@ -30570,13 +30793,13 @@
         <v>10</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="J27" s="39" t="s">
         <v>159</v>
@@ -30590,13 +30813,13 @@
         <v>34</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>160</v>
@@ -30610,13 +30833,13 @@
         <v>11</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>161</v>
@@ -30633,14 +30856,14 @@
         <v>12</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F30" s="79" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="G30" s="80"/>
       <c r="H30" s="81" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="I30" s="80"/>
       <c r="J30" s="78" t="s">
@@ -30659,7 +30882,7 @@
         <v>121</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="60"/>
@@ -30680,13 +30903,13 @@
         <v>9</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>82</v>
@@ -30703,19 +30926,19 @@
         <v>59</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="F33" s="79" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="G33" s="80" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="H33" s="81" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="J33" s="78" t="s">
         <v>84</v>
@@ -30757,8 +30980,8 @@
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
@@ -30770,36 +30993,36 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="70" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="70" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -30816,24 +31039,24 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>603</v>
+        <v>599</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>602</v>
+        <v>598</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="31"/>
       <c r="I2" s="26" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="J2" s="31" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K2" s="31">
         <v>1232</v>
@@ -30848,7 +31071,7 @@
         <v>164</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>551</v>
+        <v>547</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -30865,13 +31088,13 @@
         <v>14</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>566</v>
+        <v>562</v>
       </c>
       <c r="G4" s="40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H4" s="39" t="s">
         <v>58</v>
@@ -30880,18 +31103,18 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>568</v>
+        <v>564</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>605</v>
+        <v>601</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>167</v>
@@ -30905,13 +31128,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>569</v>
+        <v>565</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>168</v>
@@ -30925,13 +31148,13 @@
         <v>8</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>607</v>
+        <v>603</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>169</v>
@@ -30951,13 +31174,13 @@
         <v>49</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="I8" s="76"/>
       <c r="J8" s="78"/>
@@ -30969,10 +31192,10 @@
         <v>3</v>
       </c>
       <c r="B9" s="64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>601</v>
+        <v>597</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
@@ -30983,21 +31206,21 @@
       <c r="J9" s="59"/>
       <c r="K9" s="59"/>
       <c r="L9" s="60" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="39" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>614</v>
+        <v>610</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>610</v>
+        <v>606</v>
       </c>
       <c r="H10" s="39" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
@@ -31005,27 +31228,27 @@
         <v>5</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>616</v>
+        <v>612</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>612</v>
+        <v>608</v>
       </c>
       <c r="H12" s="39" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -31033,13 +31256,13 @@
         <v>78</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>613</v>
+        <v>609</v>
       </c>
       <c r="H13" s="39" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
@@ -31050,21 +31273,21 @@
         <v>3</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>609</v>
+        <v>605</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="G14" s="76"/>
       <c r="H14" s="78" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="I14" s="76"/>
       <c r="J14" s="78"/>
       <c r="K14" s="78"/>
       <c r="L14" s="76"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="58"/>
       <c r="B15" s="60"/>
       <c r="C15" s="66"/>
@@ -31097,7 +31320,7 @@
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="46" customWidth="1"/>
     <col min="7" max="7" width="30.7109375" style="42" bestFit="1" customWidth="1"/>
@@ -31109,36 +31332,36 @@
     <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
+        <v>748</v>
+      </c>
+      <c r="I1" s="73" t="s">
+        <v>355</v>
+      </c>
+      <c r="J1" s="74" t="s">
         <v>752</v>
-      </c>
-      <c r="I1" s="73" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="74" t="s">
-        <v>756</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -31155,21 +31378,21 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>56</v>
@@ -31179,15 +31402,15 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
       <c r="B3" s="64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -31203,18 +31426,18 @@
       </c>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>56</v>
@@ -31231,14 +31454,14 @@
         <v>78</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
       <c r="F5" s="84" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="78" t="s">
@@ -31249,7 +31472,7 @@
       </c>
       <c r="L5" s="76"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <v>3</v>
       </c>
@@ -31257,7 +31480,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
@@ -31278,16 +31501,16 @@
         <v>8</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>32</v>
@@ -31301,16 +31524,16 @@
         <v>4</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="G8" s="42" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J8" s="39" t="s">
         <v>33</v>
@@ -31330,13 +31553,13 @@
         <v>49</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="78"/>
@@ -31348,10 +31571,10 @@
         <v>4</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -31360,13 +31583,13 @@
       <c r="H10" s="63"/>
       <c r="I10" s="62"/>
       <c r="J10" s="59" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K10" s="59">
         <v>3193</v>
       </c>
       <c r="L10" s="60" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -31377,13 +31600,13 @@
         <v>38</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -31394,13 +31617,13 @@
         <v>40</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="G12" s="42" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H12" s="43" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
@@ -31408,13 +31631,13 @@
         <v>11</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
@@ -31428,20 +31651,20 @@
         <v>49</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="G14" s="80" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H14" s="81" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="I14" s="80"/>
       <c r="J14" s="78"/>
       <c r="K14" s="78"/>
       <c r="L14" s="76"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="58"/>
       <c r="B15" s="60"/>
       <c r="C15" s="66"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10512"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/laura/Git/Treebank/Docs/Annotation how-to/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{224BE7DB-4C11-BF42-8EEB-701C27B38769}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4740" windowWidth="28920" windowHeight="18675" tabRatio="725" firstSheet="9" activeTab="12"/>
+    <workbookView xWindow="51860" yWindow="-5320" windowWidth="25060" windowHeight="18680" tabRatio="725" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -1407,9 +1413,6 @@
     <t>nelokāms lietvārds, ģenitīvenis</t>
   </si>
   <si>
-    <t>nelokāms lietvārds, ģenitīvenis, x-vārds</t>
-  </si>
-  <si>
     <t>ziedošs</t>
   </si>
   <si>
@@ -1461,9 +1464,6 @@
     <t>Ar laiku jāpārceļ uz lex īpašībām.</t>
   </si>
   <si>
-    <t>Lattelecom, augstpapēžu, kino, Peru</t>
-  </si>
-  <si>
     <t>kino, augstpapēžu, Peru</t>
   </si>
   <si>
@@ -1527,9 +1527,6 @@
     <t>ja vsk. nominatīva nav, lieto dsk. nominatīvu (abi)</t>
   </si>
   <si>
-    <t>pamata pakāpe vai vienīgā forma</t>
-  </si>
-  <si>
     <t>vienīgā forma</t>
   </si>
   <si>
@@ -1567,9 +1564,6 @@
   </si>
   <si>
     <t>tai skaitā sugasvārdi, kas kopā vairāki veido nosaukumu, piemēram, Vanšu tilts</t>
-  </si>
-  <si>
-    <t>ģenitīvs (vienīgā forma)</t>
   </si>
   <si>
     <t>izdarīts</t>
@@ -1710,9 +1704,6 @@
   </si>
   <si>
     <t>māja, miljons, trešdaļa, vecāks (vecāki - tēvs un mamma)</t>
-  </si>
-  <si>
-    <t>daudzstāvu, arī milzu, papildu, pagaidu, piespiedu</t>
   </si>
   <si>
     <t xml:space="preserve"> pie izteicēja subjekts ģenitīvā. Vairs nelietojam no 2018.gada</t>
@@ -5364,9 +5355,6 @@
     <t>ik, vien, ne, nē, jā</t>
   </si>
   <si>
-    <t>viņš, viņas, tas</t>
-  </si>
-  <si>
     <t>labāks, labākais</t>
   </si>
   <si>
@@ -5448,11 +5436,29 @@
       <t xml:space="preserve"> (bumbiņsaraksta bumbuļi / bullets)</t>
     </r>
   </si>
+  <si>
+    <t>pamata pakāpe vai vienīgā forma, ļoti retos gadījumos ar lielo burtu - Ellasprāt</t>
+  </si>
+  <si>
+    <t>viņš, viņa, tas, tā, šis, šī</t>
+  </si>
+  <si>
+    <t>daudzstāvu, arī milzu, papildu, pagaidu, piespiedu, augstpapēžu, augstpapēža</t>
+  </si>
+  <si>
+    <t>ģenitīvs (vienīgā forma), ja ir forma vienskaitlī un daudzskaitlī, tad katrs ir atsevišķs ģenitīvenis</t>
+  </si>
+  <si>
+    <t>nelokāms lietvārds, ja Tezaurs.lv nav norādīta dzimte; ģenitīvenis, x-vārds</t>
+  </si>
+  <si>
+    <t>Lattelecom, augstpapēžu,  Peru</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6282,6 +6288,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -6303,7 +6312,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17409" name="AutoShape 1" descr=":)"/>
+        <xdr:cNvPr id="17409" name="AutoShape 1" descr=":)">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001440000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr>
           <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
@@ -6619,44 +6634,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="97.140625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.85546875" style="2"/>
+    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="97.1640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:10" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:10" s="1" customFormat="1" ht="18.95" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="4" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
@@ -6666,12 +6681,12 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="8">
         <v>0</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="D7" s="22"/>
       <c r="E7" s="22"/>
@@ -6690,9 +6705,9 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="4" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="23"/>
@@ -6703,12 +6718,12 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10" s="24" t="s">
         <v>304</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D10" s="23"/>
       <c r="E10" s="23"/>
@@ -6718,12 +6733,12 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>304</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
       <c r="D11" s="23"/>
       <c r="E11" s="23"/>
@@ -6740,7 +6755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6748,53 +6763,53 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -6803,7 +6818,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -6811,21 +6826,21 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>628</v>
+        <v>623</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>631</v>
+        <v>626</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>228</v>
@@ -6843,7 +6858,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -6855,15 +6870,15 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="D4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>629</v>
+        <v>624</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>632</v>
+        <v>627</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>235</v>
@@ -6875,7 +6890,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="75"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -6883,10 +6898,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>630</v>
+        <v>625</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>633</v>
+        <v>628</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
@@ -6922,7 +6937,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6930,53 +6945,53 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -6985,7 +7000,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -6993,23 +7008,23 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>88</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>635</v>
+        <v>630</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>634</v>
+        <v>629</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="31" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>276</v>
@@ -7039,7 +7054,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7047,53 +7062,53 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6640625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7102,7 +7117,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7110,23 +7125,23 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>177</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>649</v>
+        <v>644</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>279</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="31" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>279</v>
@@ -7156,46 +7171,46 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.28515625" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
         <v>13</v>
@@ -7204,13 +7219,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7219,7 +7234,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7227,13 +7242,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>280</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>651</v>
+        <v>646</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>281</v>
@@ -7241,7 +7256,7 @@
       <c r="G2" s="26"/>
       <c r="H2" s="31"/>
       <c r="I2" s="25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>281</v>
@@ -7261,7 +7276,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -7280,10 +7295,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>659</v>
+        <v>654</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>653</v>
+        <v>648</v>
       </c>
       <c r="H4" s="39" t="s">
         <v>283</v>
@@ -7295,21 +7310,21 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D5" s="39" t="s">
         <v>177</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>660</v>
+        <v>655</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>654</v>
+        <v>649</v>
       </c>
       <c r="H5" s="39" t="s">
         <v>285</v>
       </c>
       <c r="I5" s="40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>286</v>
@@ -7318,15 +7333,15 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D6" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>661</v>
+        <v>656</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>655</v>
+        <v>650</v>
       </c>
       <c r="H6" s="39" t="s">
         <v>287</v>
@@ -7341,15 +7356,15 @@
         <v>289</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="D7" s="39" t="s">
         <v>290</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>662</v>
+        <v>657</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>656</v>
+        <v>651</v>
       </c>
       <c r="H7" s="39" t="s">
         <v>291</v>
@@ -7364,15 +7379,15 @@
         <v>292</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D8" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E8" s="136" t="s">
-        <v>663</v>
+        <v>658</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>657</v>
+        <v>652</v>
       </c>
       <c r="H8" s="39" t="s">
         <v>293</v>
@@ -7389,13 +7404,13 @@
         <v>68</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>664</v>
+        <v>659</v>
       </c>
       <c r="F9" s="41" t="s">
-        <v>658</v>
+        <v>653</v>
       </c>
       <c r="H9" s="39" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>295</v>
@@ -7404,7 +7419,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A10" s="75"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
@@ -7415,13 +7430,13 @@
         <v>296</v>
       </c>
       <c r="F10" s="85" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G10" s="80" t="s">
         <v>297</v>
       </c>
       <c r="H10" s="81" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
       <c r="I10" s="76"/>
       <c r="J10" s="78"/>
@@ -7449,7 +7464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7457,53 +7472,53 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.140625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7512,7 +7527,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7520,16 +7535,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>59</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>665</v>
+        <v>660</v>
       </c>
       <c r="G2" s="25" t="s">
         <v>300</v>
@@ -7538,7 +7553,7 @@
         <v>305</v>
       </c>
       <c r="I2" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>301</v>
@@ -7548,7 +7563,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="147">
         <v>2</v>
       </c>
@@ -7556,29 +7571,29 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="148" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="149" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
       <c r="F3" s="61" t="s">
-        <v>666</v>
+        <v>661</v>
       </c>
       <c r="G3" s="149" t="s">
         <v>303</v>
       </c>
       <c r="H3" s="148" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I3" s="149"/>
       <c r="J3" s="150"/>
       <c r="K3" s="150"/>
       <c r="L3" s="151"/>
     </row>
-    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="138"/>
       <c r="B4" s="50"/>
       <c r="C4" s="51"/>
@@ -7586,10 +7601,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="50" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>667</v>
+        <v>662</v>
       </c>
       <c r="G4" s="50" t="s">
         <v>302</v>
@@ -7602,7 +7617,7 @@
       <c r="K4" s="140"/>
       <c r="L4" s="141"/>
     </row>
-    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="138"/>
       <c r="B5" s="50"/>
       <c r="C5" s="51"/>
@@ -7610,21 +7625,21 @@
         <v>11</v>
       </c>
       <c r="E5" s="50" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>668</v>
+        <v>663</v>
       </c>
       <c r="G5" s="50"/>
       <c r="H5" s="139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="I5" s="50"/>
       <c r="J5" s="140"/>
       <c r="K5" s="140"/>
       <c r="L5" s="141"/>
     </row>
-    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="138"/>
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
@@ -7632,21 +7647,21 @@
         <v>13</v>
       </c>
       <c r="E6" s="136" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="G6" s="50"/>
       <c r="H6" s="139" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I6" s="50"/>
       <c r="J6" s="140"/>
       <c r="K6" s="140"/>
       <c r="L6" s="141"/>
     </row>
-    <row r="7" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="142"/>
       <c r="B7" s="143"/>
       <c r="C7" s="144"/>
@@ -7654,21 +7669,21 @@
         <v>14</v>
       </c>
       <c r="E7" s="143" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="F7" s="146" t="s">
-        <v>669</v>
+        <v>664</v>
       </c>
       <c r="G7" s="143"/>
       <c r="H7" s="145" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="I7" s="143"/>
       <c r="J7" s="145"/>
       <c r="K7" s="145"/>
       <c r="L7" s="143"/>
     </row>
-    <row r="8" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="152"/>
       <c r="B8" s="153"/>
       <c r="C8" s="154"/>
@@ -7676,14 +7691,14 @@
         <v>34</v>
       </c>
       <c r="E8" s="156" t="s">
-        <v>677</v>
+        <v>672</v>
       </c>
       <c r="F8" s="157" t="s">
-        <v>670</v>
+        <v>665</v>
       </c>
       <c r="G8" s="153"/>
       <c r="H8" s="155" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="I8" s="153"/>
       <c r="J8" s="155"/>
@@ -7711,7 +7726,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7719,53 +7734,53 @@
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.7109375" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1640625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="74" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -7774,7 +7789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7782,13 +7797,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>61</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="F2" s="29" t="s">
         <v>306</v>
@@ -7798,7 +7813,7 @@
       </c>
       <c r="H2" s="31"/>
       <c r="I2" s="25" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>306</v>
@@ -7808,7 +7823,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -7816,16 +7831,16 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="59" t="s">
         <v>6</v>
       </c>
       <c r="E3" s="60" t="s">
-        <v>680</v>
+        <v>675</v>
       </c>
       <c r="F3" s="97" t="s">
-        <v>679</v>
+        <v>674</v>
       </c>
       <c r="G3" s="62" t="s">
         <v>315</v>
@@ -7838,32 +7853,32 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D4" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>683</v>
+        <v>678</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>684</v>
+        <v>679</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="H4" s="39" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D5" s="39" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>686</v>
+        <v>681</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>308</v>
@@ -7872,7 +7887,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D6" s="39" t="s">
         <v>138</v>
       </c>
@@ -7880,7 +7895,7 @@
         <v>310</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>685</v>
+        <v>680</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>311</v>
@@ -7901,7 +7916,7 @@
         <v>296</v>
       </c>
       <c r="F7" s="77" t="s">
-        <v>652</v>
+        <v>647</v>
       </c>
       <c r="G7" s="80"/>
       <c r="H7" s="78" t="s">
@@ -7933,32 +7948,32 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
   <dimension ref="A1:XFD44"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
     <col min="2" max="2" width="2" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" style="54" customWidth="1"/>
-    <col min="4" max="4" width="12.85546875" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.7109375" style="54" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.7109375" style="54" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" style="54" customWidth="1"/>
+    <col min="4" max="4" width="12.83203125" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6640625" style="54" customWidth="1"/>
+    <col min="7" max="7" width="14.5" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6640625" style="54" customWidth="1"/>
     <col min="9" max="9" width="21" style="57" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" style="54" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" style="54" customWidth="1"/>
+    <col min="11" max="11" width="15.5" style="57" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="57" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="19"/>
+    <col min="14" max="16384" width="8.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A1" s="121" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="19"/>
@@ -7973,7 +7988,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
@@ -7992,7 +8007,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A3" s="121" t="s">
         <v>2</v>
       </c>
@@ -8011,9 +8026,9 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A4" s="121" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B4" s="180"/>
       <c r="C4" s="121"/>
@@ -24399,9 +24414,9 @@
       <c r="XFC4" s="121"/>
       <c r="XFD4" s="121"/>
     </row>
-    <row r="5" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16384" ht="19" x14ac:dyDescent="0.2">
       <c r="A5" s="159" t="s">
-        <v>688</v>
+        <v>683</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="19"/>
@@ -24416,39 +24431,39 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
-    <row r="6" spans="1:16384" s="160" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16384" s="160" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="162" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="B6" s="134" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="C6" s="163" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="164" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E6" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F6" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G6" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="H6" s="73" t="s">
         <v>52</v>
       </c>
       <c r="I6" s="74" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="J6" s="73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K6" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="L6" s="74" t="s">
         <v>16</v>
@@ -24457,9 +24472,9 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="B7" s="30">
         <v>3</v>
@@ -24468,7 +24483,7 @@
         <v>22</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E7" s="31" t="s">
         <v>7</v>
@@ -24477,7 +24492,7 @@
         <v>26</v>
       </c>
       <c r="G7" s="28" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>319</v>
@@ -24496,7 +24511,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16384" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="58">
         <v>5</v>
       </c>
@@ -24504,7 +24519,7 @@
         <v>35</v>
       </c>
       <c r="D8" s="66" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E8" s="59" t="s">
         <v>8</v>
@@ -24513,10 +24528,10 @@
         <v>45</v>
       </c>
       <c r="G8" s="66" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="H8" s="62" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I8" s="63" t="s">
         <v>46</v>
@@ -24542,9 +24557,9 @@
       <c r="L9" s="117"/>
       <c r="M9" s="112"/>
     </row>
-    <row r="10" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="16" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="B10" s="58">
         <v>2</v>
@@ -24553,7 +24568,7 @@
         <v>18</v>
       </c>
       <c r="D10" s="66" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E10" s="59" t="s">
         <v>10</v>
@@ -24563,7 +24578,7 @@
       </c>
       <c r="G10" s="66"/>
       <c r="H10" s="62" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="I10" s="63" t="s">
         <v>67</v>
@@ -24589,9 +24604,9 @@
       <c r="L11" s="117"/>
       <c r="M11" s="112"/>
     </row>
-    <row r="12" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="16" t="s">
-        <v>535</v>
+        <v>530</v>
       </c>
       <c r="B12" s="58">
         <v>2</v>
@@ -24600,7 +24615,7 @@
         <v>18</v>
       </c>
       <c r="D12" s="66" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E12" s="59" t="s">
         <v>10</v>
@@ -24637,9 +24652,9 @@
       <c r="L13" s="117"/>
       <c r="M13" s="112"/>
     </row>
-    <row r="14" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16384" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>570</v>
+        <v>565</v>
       </c>
       <c r="B14" s="58">
         <v>7</v>
@@ -24648,7 +24663,7 @@
         <v>117</v>
       </c>
       <c r="D14" s="65" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="E14" s="59" t="s">
         <v>13</v>
@@ -24670,7 +24685,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
       <c r="C15" s="40"/>
       <c r="D15" s="46"/>
       <c r="E15" s="39" t="s">
@@ -24691,7 +24706,7 @@
       <c r="L15" s="39"/>
       <c r="M15" s="40"/>
     </row>
-    <row r="16" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
       <c r="C16" s="40"/>
       <c r="D16" s="46"/>
       <c r="E16" s="39" t="s">
@@ -24712,7 +24727,7 @@
       <c r="L16" s="39"/>
       <c r="M16" s="40"/>
     </row>
-    <row r="17" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="C17" s="40"/>
       <c r="D17" s="46"/>
       <c r="E17" s="39" t="s">
@@ -24733,7 +24748,7 @@
       <c r="L17" s="39"/>
       <c r="M17" s="40"/>
     </row>
-    <row r="18" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="C18" s="40"/>
       <c r="D18" s="46"/>
       <c r="E18" s="39" t="s">
@@ -24754,7 +24769,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="40"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C19" s="40"/>
       <c r="D19" s="46"/>
       <c r="E19" s="39" t="s">
@@ -24773,7 +24788,7 @@
       <c r="L19" s="39"/>
       <c r="M19" s="40"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C20" s="40"/>
       <c r="D20" s="46"/>
       <c r="E20" s="39" t="s">
@@ -24792,7 +24807,7 @@
       <c r="L20" s="39"/>
       <c r="M20" s="40"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B21" s="75"/>
       <c r="C21" s="112"/>
       <c r="D21" s="113"/>
@@ -24806,22 +24821,22 @@
       <c r="L21" s="117"/>
       <c r="M21" s="112"/>
     </row>
-    <row r="22" spans="1:13" s="161" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" s="161" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="17" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="B22" s="165">
         <v>8</v>
       </c>
       <c r="C22" s="166" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
       <c r="D22" s="167"/>
       <c r="E22" s="168" t="s">
         <v>11</v>
       </c>
       <c r="F22" s="169" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="G22" s="170"/>
       <c r="H22" s="171" t="s">
@@ -24835,7 +24850,7 @@
       <c r="L22" s="168"/>
       <c r="M22" s="173"/>
     </row>
-    <row r="23" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="C23" s="40"/>
       <c r="D23" s="46"/>
       <c r="E23" s="39" t="s">
@@ -24854,7 +24869,7 @@
       <c r="K23" s="39"/>
       <c r="L23" s="39"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C24" s="40"/>
       <c r="D24" s="46"/>
       <c r="E24" s="39">
@@ -24870,7 +24885,7 @@
       <c r="K24" s="39"/>
       <c r="L24" s="39"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B25" s="75"/>
       <c r="C25" s="112"/>
       <c r="D25" s="113"/>
@@ -24884,9 +24899,9 @@
       <c r="L25" s="117"/>
       <c r="M25" s="112"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>614</v>
+        <v>609</v>
       </c>
       <c r="B26" s="58">
         <v>5</v>
@@ -24905,16 +24920,16 @@
       <c r="L26" s="90"/>
       <c r="M26" s="86"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C27" s="40"/>
       <c r="E27" s="39" t="s">
         <v>59</v>
       </c>
       <c r="F27" s="40" t="s">
-        <v>645</v>
+        <v>640</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>647</v>
+        <v>642</v>
       </c>
       <c r="I27" s="43" t="s">
         <v>211</v>
@@ -24922,16 +24937,16 @@
       <c r="J27" s="40"/>
       <c r="K27" s="39"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C28" s="40"/>
       <c r="E28" s="39" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="40" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="G28" s="41" t="s">
-        <v>648</v>
+        <v>643</v>
       </c>
       <c r="I28" s="43" t="s">
         <v>222</v>
@@ -24939,7 +24954,7 @@
       <c r="J28" s="40"/>
       <c r="K28" s="39"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B29" s="75"/>
       <c r="C29" s="112"/>
       <c r="D29" s="113"/>
@@ -24953,9 +24968,9 @@
       <c r="L29" s="117"/>
       <c r="M29" s="112"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="B30" s="58">
         <v>3</v>
@@ -24964,13 +24979,13 @@
         <v>232</v>
       </c>
       <c r="D30" s="65" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E30" s="59"/>
       <c r="F30" s="60"/>
       <c r="G30" s="87"/>
       <c r="H30" s="60" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I30" s="59"/>
       <c r="J30" s="60"/>
@@ -24978,17 +24993,17 @@
       <c r="L30" s="59"/>
       <c r="M30" s="60"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C31" s="44"/>
       <c r="D31" s="45"/>
       <c r="E31" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="40" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G31" s="41" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H31" s="42"/>
       <c r="I31" s="43" t="s">
@@ -25001,17 +25016,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C32" s="40"/>
       <c r="D32" s="46"/>
       <c r="E32" s="39" t="s">
         <v>3</v>
       </c>
       <c r="F32" s="40" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G32" s="41" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H32" s="42"/>
       <c r="I32" s="43" t="s">
@@ -25022,40 +25037,40 @@
       <c r="L32" s="39"/>
       <c r="M32" s="40"/>
     </row>
-    <row r="33" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="80" x14ac:dyDescent="0.2">
       <c r="C33" s="40"/>
       <c r="D33" s="46"/>
       <c r="E33" s="39" t="s">
         <v>34</v>
       </c>
       <c r="F33" s="40" t="s">
-        <v>638</v>
+        <v>633</v>
       </c>
       <c r="G33" s="41" t="s">
-        <v>642</v>
+        <v>637</v>
       </c>
       <c r="H33" s="125" t="s">
         <v>236</v>
       </c>
       <c r="I33" s="43" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J33" s="42"/>
       <c r="K33" s="39"/>
       <c r="L33" s="39"/>
       <c r="M33" s="40"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
       <c r="C34" s="40"/>
       <c r="D34" s="46"/>
       <c r="E34" s="39" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="40" t="s">
-        <v>639</v>
+        <v>634</v>
       </c>
       <c r="G34" s="41" t="s">
-        <v>643</v>
+        <v>638</v>
       </c>
       <c r="H34" s="42"/>
       <c r="I34" s="43" t="s">
@@ -25066,7 +25081,7 @@
       <c r="L34" s="39"/>
       <c r="M34" s="40"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B35" s="75"/>
       <c r="C35" s="76"/>
       <c r="D35" s="77"/>
@@ -25080,9 +25095,9 @@
       <c r="L35" s="78"/>
       <c r="M35" s="76"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>636</v>
+        <v>631</v>
       </c>
       <c r="B36" s="58">
         <v>2</v>
@@ -25091,7 +25106,7 @@
         <v>232</v>
       </c>
       <c r="D36" s="65" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E36" s="59"/>
       <c r="F36" s="60"/>
@@ -25105,17 +25120,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C37" s="44"/>
       <c r="D37" s="45"/>
       <c r="E37" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="40" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G37" s="41" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H37" s="40"/>
       <c r="I37" s="39" t="s">
@@ -25125,17 +25140,17 @@
       <c r="K37" s="39"/>
       <c r="L37" s="39"/>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="C38" s="40"/>
       <c r="D38" s="46"/>
       <c r="E38" s="39" t="s">
         <v>3</v>
       </c>
       <c r="F38" s="40" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G38" s="41" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H38" s="40"/>
       <c r="I38" s="43" t="s">
@@ -25146,7 +25161,7 @@
       <c r="L38" s="39"/>
       <c r="M38" s="40"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B39" s="75"/>
       <c r="C39" s="112"/>
       <c r="D39" s="113"/>
@@ -25160,9 +25175,9 @@
       <c r="L39" s="117"/>
       <c r="M39" s="112"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>650</v>
+        <v>645</v>
       </c>
       <c r="B40" s="58">
         <v>2</v>
@@ -25171,7 +25186,7 @@
         <v>232</v>
       </c>
       <c r="D40" s="65" t="s">
-        <v>644</v>
+        <v>639</v>
       </c>
       <c r="E40" s="59"/>
       <c r="F40" s="60"/>
@@ -25185,17 +25200,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C41" s="44"/>
       <c r="D41" s="45"/>
       <c r="E41" s="39" t="s">
         <v>8</v>
       </c>
       <c r="F41" s="40" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="G41" s="41" t="s">
-        <v>640</v>
+        <v>635</v>
       </c>
       <c r="H41" s="40" t="s">
         <v>233</v>
@@ -25204,17 +25219,17 @@
       <c r="J41" s="40"/>
       <c r="K41" s="39"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C42" s="40"/>
       <c r="D42" s="46"/>
       <c r="E42" s="39" t="s">
         <v>3</v>
       </c>
       <c r="F42" s="40" t="s">
-        <v>637</v>
+        <v>632</v>
       </c>
       <c r="G42" s="41" t="s">
-        <v>641</v>
+        <v>636</v>
       </c>
       <c r="H42" s="40" t="s">
         <v>234</v>
@@ -25224,7 +25239,7 @@
       <c r="K42" s="39"/>
       <c r="L42" s="39"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B43" s="75"/>
       <c r="C43" s="112"/>
       <c r="D43" s="113"/>
@@ -25238,9 +25253,9 @@
       <c r="L43" s="117"/>
       <c r="M43" s="112"/>
     </row>
-    <row r="44" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
-        <v>687</v>
+        <v>682</v>
       </c>
       <c r="B44" s="58">
         <v>2</v>
@@ -25249,19 +25264,19 @@
         <v>18</v>
       </c>
       <c r="D44" s="66" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E44" s="174" t="s">
         <v>78</v>
       </c>
       <c r="F44" s="175" t="s">
-        <v>682</v>
+        <v>677</v>
       </c>
       <c r="G44" s="176" t="s">
-        <v>681</v>
+        <v>676</v>
       </c>
       <c r="H44" s="177" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="I44" s="178"/>
       <c r="J44" s="179"/>
@@ -25275,61 +25290,61 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.140625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="33.7109375" style="53" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1640625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="33.6640625" style="53" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="57" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="68"/>
+    <col min="12" max="12" width="23.5" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="67" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="67" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -25338,7 +25353,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -25346,23 +25361,23 @@
         <v>17</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="I2" s="26" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
@@ -25376,7 +25391,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -25388,26 +25403,26 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="40"/>
       <c r="C4" s="46"/>
       <c r="D4" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G4" s="42" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="I4" s="42" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>20</v>
@@ -25417,7 +25432,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="75"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -25425,17 +25440,17 @@
         <v>4</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F5" s="79" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="I5" s="80" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="J5" s="78" t="s">
         <v>21</v>
@@ -25453,7 +25468,7 @@
         <v>22</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
@@ -25469,17 +25484,17 @@
       </c>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="40"/>
       <c r="C7" s="46"/>
       <c r="D7" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>320</v>
@@ -25496,17 +25511,17 @@
       </c>
       <c r="L7" s="40"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="40"/>
       <c r="C8" s="46"/>
       <c r="D8" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="43" t="s">
@@ -25521,7 +25536,7 @@
       </c>
       <c r="L8" s="40"/>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="75"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77"/>
@@ -25532,13 +25547,13 @@
         <v>49</v>
       </c>
       <c r="F9" s="77" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>323</v>
+        <v>776</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>341</v>
+        <v>777</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="78"/>
@@ -25553,7 +25568,7 @@
         <v>30</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -25569,21 +25584,21 @@
       </c>
       <c r="L10" s="60"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="40"/>
       <c r="C11" s="46"/>
       <c r="D11" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G11" s="42"/>
       <c r="H11" s="43" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="I11" s="42"/>
       <c r="J11" s="39" t="s">
@@ -25594,21 +25609,21 @@
       </c>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="40"/>
       <c r="C12" s="46"/>
       <c r="D12" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="43" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
       <c r="I12" s="42"/>
       <c r="J12" s="39" t="s">
@@ -25619,23 +25634,23 @@
       </c>
       <c r="L12" s="40"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="40"/>
       <c r="C13" s="46"/>
       <c r="D13" s="39" t="s">
         <v>13</v>
       </c>
       <c r="E13" s="48" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="G13" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="I13" s="42"/>
       <c r="J13" s="39"/>
@@ -25644,26 +25659,26 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B14" s="40"/>
       <c r="C14" s="46"/>
       <c r="D14" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E14" s="48" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="F14" s="41" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="G14" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="I14" s="42" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="J14" s="39"/>
       <c r="K14" s="39"/>
@@ -25671,7 +25686,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="75"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
@@ -25686,14 +25701,14 @@
         <v>322</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="I15" s="80"/>
       <c r="J15" s="78"/>
       <c r="K15" s="78"/>
       <c r="L15" s="76"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="58">
         <v>5</v>
       </c>
@@ -25701,7 +25716,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="65" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D16" s="59"/>
       <c r="E16" s="60"/>
@@ -25717,17 +25732,17 @@
       </c>
       <c r="L16" s="60"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="40"/>
       <c r="C17" s="46"/>
       <c r="D17" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G17" s="42"/>
       <c r="H17" s="43" t="s">
@@ -25742,21 +25757,21 @@
       </c>
       <c r="L17" s="40"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B18" s="40"/>
       <c r="C18" s="46"/>
       <c r="D18" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G18" s="42"/>
       <c r="H18" s="43" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I18" s="42"/>
       <c r="J18" s="39" t="s">
@@ -25767,21 +25782,21 @@
       </c>
       <c r="L18" s="40"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="40"/>
       <c r="C19" s="46"/>
       <c r="D19" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="43" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="39" t="s">
@@ -25792,21 +25807,21 @@
       </c>
       <c r="L19" s="40"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="40"/>
       <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F20" s="41" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="43" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
@@ -25817,21 +25832,21 @@
       </c>
       <c r="L20" s="40"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="40"/>
       <c r="C21" s="46"/>
       <c r="D21" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="43" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="39" t="s">
@@ -25842,21 +25857,21 @@
       </c>
       <c r="L21" s="40"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="40"/>
       <c r="C22" s="46"/>
       <c r="D22" s="39" t="s">
         <v>13</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="43" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="39" t="s">
@@ -25867,7 +25882,7 @@
       </c>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="75"/>
       <c r="B23" s="76"/>
       <c r="C23" s="77"/>
@@ -25878,20 +25893,20 @@
         <v>49</v>
       </c>
       <c r="F23" s="84" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G23" s="80" t="s">
         <v>318</v>
       </c>
       <c r="H23" s="81" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="I23" s="80"/>
       <c r="J23" s="78"/>
       <c r="K23" s="78"/>
       <c r="L23" s="76"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="58">
         <v>6</v>
       </c>
@@ -25899,7 +25914,7 @@
         <v>47</v>
       </c>
       <c r="C24" s="65" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D24" s="59"/>
       <c r="E24" s="60"/>
@@ -25915,77 +25930,77 @@
       </c>
       <c r="L24" s="60"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="40"/>
       <c r="C25" s="46"/>
       <c r="D25" s="39">
         <v>1</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="I25" s="42"/>
       <c r="J25" s="39"/>
       <c r="K25" s="39"/>
       <c r="L25" s="40"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="40"/>
       <c r="C26" s="46"/>
       <c r="D26" s="39">
         <v>2</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F26" s="46" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="I26" s="42"/>
       <c r="J26" s="39"/>
       <c r="K26" s="39"/>
       <c r="L26" s="40"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="40"/>
       <c r="C27" s="46"/>
       <c r="D27" s="39">
         <v>3</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F27" s="46" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I27" s="42"/>
       <c r="J27" s="39"/>
       <c r="K27" s="39"/>
       <c r="L27" s="40"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="40"/>
       <c r="C28" s="46"/>
       <c r="D28" s="39">
         <v>4</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F28" s="46" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="H28" s="43" t="s">
         <v>60</v>
@@ -25995,47 +26010,47 @@
       <c r="K28" s="39"/>
       <c r="L28" s="40"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B29" s="40"/>
       <c r="C29" s="46"/>
       <c r="D29" s="39">
         <v>5</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F29" s="46" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="I29" s="42"/>
       <c r="J29" s="39"/>
       <c r="K29" s="39"/>
       <c r="L29" s="40"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="40"/>
       <c r="C30" s="46"/>
       <c r="D30" s="39">
         <v>6</v>
       </c>
       <c r="E30" s="40" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F30" s="46" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="H30" s="43" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I30" s="42"/>
       <c r="J30" s="39"/>
       <c r="K30" s="39"/>
       <c r="L30" s="40"/>
     </row>
-    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="B31" s="40"/>
       <c r="C31" s="46"/>
       <c r="D31" s="39">
@@ -26045,10 +26060,10 @@
         <v>49</v>
       </c>
       <c r="F31" s="52" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G31" s="42" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="H31" s="43" t="s">
         <v>50</v>
@@ -26060,7 +26075,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" s="19" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A32" s="38"/>
       <c r="B32" s="40"/>
       <c r="C32" s="46"/>
@@ -26068,17 +26083,17 @@
         <v>10</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="F32" s="41" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="G32" s="42"/>
       <c r="H32" s="43" t="s">
-        <v>392</v>
+        <v>774</v>
       </c>
       <c r="I32" s="42" t="s">
-        <v>377</v>
+        <v>775</v>
       </c>
       <c r="J32" s="39"/>
       <c r="K32" s="39"/>
@@ -26086,7 +26101,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="75"/>
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
@@ -26094,14 +26109,14 @@
         <v>14</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G33" s="80"/>
       <c r="H33" s="81" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="I33" s="80"/>
       <c r="J33" s="78"/>
@@ -26110,7 +26125,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="58"/>
       <c r="B34" s="86"/>
       <c r="C34" s="87"/>
@@ -26131,7 +26146,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -26139,53 +26154,53 @@
       <selection pane="bottomLeft" activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="109" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" style="42" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="42" customWidth="1"/>
+    <col min="8" max="8" width="30.6640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="52.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -26194,7 +26209,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -26202,16 +26217,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
@@ -26226,7 +26241,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="119">
         <v>2</v>
       </c>
@@ -26234,7 +26249,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -26248,15 +26263,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D4" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>63</v>
@@ -26268,15 +26283,15 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D5" s="39" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>69</v>
@@ -26291,15 +26306,15 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>69</v>
@@ -26311,15 +26326,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D7" s="39" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>69</v>
@@ -26331,7 +26346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D8" s="39" t="s">
         <v>3</v>
       </c>
@@ -26339,7 +26354,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>76</v>
@@ -26354,7 +26369,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="80" x14ac:dyDescent="0.2">
       <c r="A9" s="181"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77"/>
@@ -26362,16 +26377,16 @@
         <v>78</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G9" s="80" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="H9" s="81" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="I9" s="80"/>
       <c r="J9" s="78" t="s">
@@ -26384,7 +26399,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="119">
         <v>3</v>
       </c>
@@ -26392,7 +26407,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -26406,15 +26421,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D11" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>81</v>
@@ -26426,15 +26441,15 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D12" s="39" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>83</v>
@@ -26446,7 +26461,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="181"/>
       <c r="B13" s="76"/>
       <c r="C13" s="77"/>
@@ -26457,10 +26472,10 @@
         <v>49</v>
       </c>
       <c r="F13" s="104" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
@@ -26468,7 +26483,7 @@
       <c r="K13" s="99"/>
       <c r="L13" s="100"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="119">
         <v>4</v>
       </c>
@@ -26476,7 +26491,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="60"/>
@@ -26494,15 +26509,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D15" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="H15" s="43" t="s">
         <v>89</v>
@@ -26514,15 +26529,15 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D16" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H16" s="43" t="s">
         <v>91</v>
@@ -26531,15 +26546,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D17" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="H17" s="43" t="s">
         <v>92</v>
@@ -26551,15 +26566,15 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D18" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F18" s="47" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="H18" s="43" t="s">
         <v>94</v>
@@ -26568,15 +26583,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D19" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="H19" s="43" t="s">
         <v>95</v>
@@ -26588,7 +26603,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D20" s="39" t="s">
         <v>9</v>
       </c>
@@ -26596,7 +26611,7 @@
         <v>106</v>
       </c>
       <c r="F20" s="46" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="H20" s="43" t="s">
         <v>97</v>
@@ -26608,17 +26623,17 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B21" s="76"/>
       <c r="C21" s="77"/>
       <c r="D21" s="78" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F21" s="105" t="s">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="G21" s="80" t="s">
         <v>131</v>
@@ -26635,7 +26650,7 @@
       </c>
       <c r="L21" s="76"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="109">
         <v>5</v>
       </c>
@@ -26643,7 +26658,7 @@
         <v>101</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="60"/>
@@ -26659,18 +26674,18 @@
       </c>
       <c r="L22" s="60"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D23" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>727</v>
+        <v>722</v>
       </c>
       <c r="J23" s="39" t="s">
         <v>103</v>
@@ -26679,18 +26694,18 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D24" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>728</v>
+        <v>723</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>104</v>
@@ -26699,18 +26714,18 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D25" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F25" s="46" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H25" s="43" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="J25" s="39" t="s">
         <v>105</v>
@@ -26719,7 +26734,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A26" s="181"/>
       <c r="B26" s="76"/>
       <c r="C26" s="77"/>
@@ -26730,7 +26745,7 @@
         <v>49</v>
       </c>
       <c r="F26" s="106" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G26" s="80" t="s">
         <v>129</v>
@@ -26743,7 +26758,7 @@
       <c r="K26" s="78"/>
       <c r="L26" s="76"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="119">
         <v>6</v>
       </c>
@@ -26751,7 +26766,7 @@
         <v>108</v>
       </c>
       <c r="C27" s="65" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D27" s="59"/>
       <c r="E27" s="60"/>
@@ -26763,15 +26778,15 @@
       <c r="K27" s="59"/>
       <c r="L27" s="60"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D28" s="39" t="s">
         <v>78</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>518</v>
+        <v>513</v>
       </c>
       <c r="F28" s="41" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>109</v>
@@ -26780,15 +26795,15 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D29" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="F29" s="47" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>110</v>
@@ -26797,7 +26812,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="30" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="181"/>
       <c r="B30" s="76"/>
       <c r="C30" s="77"/>
@@ -26808,10 +26823,10 @@
         <v>49</v>
       </c>
       <c r="F30" s="77" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G30" s="80" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H30" s="81"/>
       <c r="I30" s="80"/>
@@ -26819,7 +26834,7 @@
       <c r="K30" s="78"/>
       <c r="L30" s="76"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="119">
         <v>7</v>
       </c>
@@ -26827,7 +26842,7 @@
         <v>111</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="60"/>
@@ -26843,57 +26858,57 @@
       </c>
       <c r="L31" s="60"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D32" s="39">
         <v>1</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="F32" s="46" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>730</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D33" s="39">
         <v>2</v>
       </c>
       <c r="E33" s="40" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="F33" s="46" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="H33" s="43" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D34" s="39">
         <v>3</v>
       </c>
       <c r="E34" s="40" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F34" s="46" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="H34" s="43" t="s">
-        <v>731</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D35" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="H35" s="95" t="s">
         <v>112</v>
@@ -26903,7 +26918,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="181"/>
       <c r="B36" s="76"/>
       <c r="C36" s="77"/>
@@ -26914,10 +26929,10 @@
         <v>49</v>
       </c>
       <c r="F36" s="77" t="s">
-        <v>689</v>
+        <v>684</v>
       </c>
       <c r="G36" s="80" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H36" s="81"/>
       <c r="I36" s="80"/>
@@ -26925,7 +26940,7 @@
       <c r="K36" s="78"/>
       <c r="L36" s="76"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" s="119">
         <v>8</v>
       </c>
@@ -26933,7 +26948,7 @@
         <v>113</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D37" s="59"/>
       <c r="E37" s="60"/>
@@ -26949,49 +26964,49 @@
       </c>
       <c r="L37" s="60"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D38" s="39">
         <v>1</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F38" s="46" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H38" s="43" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D39" s="39">
         <v>2</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F39" s="46" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H39" s="43" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D40" s="39">
         <v>3</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F40" s="46" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="H40" s="43" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A41" s="181"/>
       <c r="B41" s="76"/>
       <c r="C41" s="77"/>
@@ -27002,7 +27017,7 @@
         <v>49</v>
       </c>
       <c r="F41" s="84" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="G41" s="80"/>
       <c r="H41" s="81" t="s">
@@ -27013,7 +27028,7 @@
       <c r="K41" s="78"/>
       <c r="L41" s="76"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="119">
         <v>9</v>
       </c>
@@ -27021,7 +27036,7 @@
         <v>30</v>
       </c>
       <c r="C42" s="65" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="60"/>
@@ -27037,18 +27052,18 @@
       </c>
       <c r="L42" s="60"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D43" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H43" s="43" t="s">
-        <v>733</v>
+        <v>728</v>
       </c>
       <c r="J43" s="39" t="s">
         <v>32</v>
@@ -27057,18 +27072,18 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D44" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H44" s="43" t="s">
-        <v>735</v>
+        <v>730</v>
       </c>
       <c r="J44" s="39" t="s">
         <v>33</v>
@@ -27077,7 +27092,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A45" s="181"/>
       <c r="B45" s="76"/>
       <c r="C45" s="77"/>
@@ -27088,7 +27103,7 @@
         <v>49</v>
       </c>
       <c r="F45" s="84" t="s">
-        <v>527</v>
+        <v>522</v>
       </c>
       <c r="G45" s="80" t="s">
         <v>316</v>
@@ -27101,7 +27116,7 @@
       <c r="K45" s="78"/>
       <c r="L45" s="76"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="119">
         <v>10</v>
       </c>
@@ -27109,7 +27124,7 @@
         <v>117</v>
       </c>
       <c r="C46" s="65" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="60"/>
@@ -27125,15 +27140,15 @@
       </c>
       <c r="L46" s="60"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D47" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F47" s="47" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="J47" s="39" t="s">
         <v>119</v>
@@ -27142,18 +27157,18 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D48" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F48" s="47" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
       <c r="G48" s="42" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="J48" s="39" t="s">
         <v>120</v>
@@ -27162,7 +27177,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="181"/>
       <c r="B49" s="76"/>
       <c r="C49" s="77"/>
@@ -27173,7 +27188,7 @@
         <v>49</v>
       </c>
       <c r="F49" s="84" t="s">
-        <v>548</v>
+        <v>543</v>
       </c>
       <c r="G49" s="80" t="s">
         <v>106</v>
@@ -27184,7 +27199,7 @@
       <c r="K49" s="78"/>
       <c r="L49" s="76"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="119">
         <v>11</v>
       </c>
@@ -27192,7 +27207,7 @@
         <v>121</v>
       </c>
       <c r="C50" s="65" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="60"/>
@@ -27210,15 +27225,15 @@
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D51" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="40" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F51" s="47" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H51" s="43" t="s">
         <v>89</v>
@@ -27233,7 +27248,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="181"/>
       <c r="B52" s="76"/>
       <c r="C52" s="77"/>
@@ -27241,17 +27256,17 @@
         <v>59</v>
       </c>
       <c r="E52" s="76" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F52" s="79" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G52" s="80"/>
       <c r="H52" s="81" t="s">
         <v>124</v>
       </c>
       <c r="I52" s="80" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="J52" s="78" t="s">
         <v>84</v>
@@ -27261,7 +27276,7 @@
       </c>
       <c r="L52" s="76"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="119"/>
       <c r="B53" s="60"/>
       <c r="C53" s="66"/>
@@ -27281,61 +27296,61 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L62"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.42578125" style="42" customWidth="1"/>
-    <col min="8" max="8" width="28.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5" style="42" customWidth="1"/>
+    <col min="8" max="8" width="28.5" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.83203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="52.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -27344,7 +27359,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -27352,16 +27367,16 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>13</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
@@ -27376,7 +27391,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -27384,7 +27399,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -27398,15 +27413,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D4" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>63</v>
@@ -27418,15 +27433,15 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D5" s="39" t="s">
         <v>68</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>69</v>
@@ -27441,15 +27456,15 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="G6" s="42" t="s">
         <v>69</v>
@@ -27461,15 +27476,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D7" s="39" t="s">
         <v>73</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>69</v>
@@ -27481,7 +27496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D8" s="39" t="s">
         <v>3</v>
       </c>
@@ -27489,7 +27504,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="52" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>76</v>
@@ -27504,7 +27519,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A9" s="75"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77"/>
@@ -27512,10 +27527,10 @@
         <v>78</v>
       </c>
       <c r="E9" s="80" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G9" s="80" t="s">
         <v>128</v>
@@ -27534,7 +27549,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="58">
         <v>3</v>
       </c>
@@ -27542,7 +27557,7 @@
         <v>80</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -27556,15 +27571,15 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D11" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="H11" s="43" t="s">
         <v>81</v>
@@ -27576,15 +27591,15 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D12" s="39" t="s">
         <v>59</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>525</v>
+        <v>520</v>
       </c>
       <c r="H12" s="43" t="s">
         <v>83</v>
@@ -27596,7 +27611,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="75"/>
       <c r="B13" s="76"/>
       <c r="C13" s="77"/>
@@ -27607,10 +27622,10 @@
         <v>49</v>
       </c>
       <c r="F13" s="101" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="G13" s="102" t="s">
-        <v>690</v>
+        <v>685</v>
       </c>
       <c r="H13" s="103"/>
       <c r="I13" s="102"/>
@@ -27618,7 +27633,7 @@
       <c r="K13" s="99"/>
       <c r="L13" s="100"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="58">
         <v>4</v>
       </c>
@@ -27626,7 +27641,7 @@
         <v>85</v>
       </c>
       <c r="C14" s="65" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D14" s="59"/>
       <c r="E14" s="60"/>
@@ -27644,15 +27659,15 @@
         <v>87</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D15" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="F15" s="94" t="s">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>130</v>
@@ -27667,15 +27682,15 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D16" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="F16" s="93" t="s">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>130</v>
@@ -27687,15 +27702,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D17" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="F17" s="93" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
       <c r="G17" s="42" t="s">
         <v>130</v>
@@ -27710,15 +27725,15 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D18" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>492</v>
+        <v>487</v>
       </c>
       <c r="F18" s="93" t="s">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="G18" s="42" t="s">
         <v>130</v>
@@ -27730,15 +27745,15 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D19" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>493</v>
+        <v>488</v>
       </c>
       <c r="F19" s="94" t="s">
-        <v>533</v>
+        <v>528</v>
       </c>
       <c r="G19" s="42" t="s">
         <v>130</v>
@@ -27753,7 +27768,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D20" s="39" t="s">
         <v>9</v>
       </c>
@@ -27761,7 +27776,7 @@
         <v>106</v>
       </c>
       <c r="F20" s="52" t="s">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="G20" s="42" t="s">
         <v>130</v>
@@ -27776,7 +27791,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="75"/>
       <c r="B21" s="76"/>
       <c r="C21" s="77"/>
@@ -27784,10 +27799,10 @@
         <v>4</v>
       </c>
       <c r="E21" s="76" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="F21" s="79" t="s">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="G21" s="80"/>
       <c r="H21" s="81" t="s">
@@ -27802,7 +27817,7 @@
       </c>
       <c r="L21" s="76"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="58">
         <v>5</v>
       </c>
@@ -27810,7 +27825,7 @@
         <v>132</v>
       </c>
       <c r="C22" s="111" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="86"/>
@@ -27826,17 +27841,17 @@
       </c>
       <c r="L22" s="86"/>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="54"/>
       <c r="C23" s="55"/>
       <c r="D23" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E23" s="54" t="s">
-        <v>536</v>
+        <v>531</v>
       </c>
       <c r="F23" s="107" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G23" s="53" t="s">
         <v>134</v>
@@ -27851,17 +27866,17 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="54"/>
       <c r="C24" s="55"/>
       <c r="D24" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="54" t="s">
-        <v>541</v>
+        <v>536</v>
       </c>
       <c r="F24" s="108" t="s">
-        <v>540</v>
+        <v>535</v>
       </c>
       <c r="G24" s="53" t="s">
         <v>136</v>
@@ -27876,7 +27891,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="75"/>
       <c r="B25" s="112"/>
       <c r="C25" s="113"/>
@@ -27884,10 +27899,10 @@
         <v>138</v>
       </c>
       <c r="E25" s="112" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="F25" s="114" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="G25" s="115" t="s">
         <v>139</v>
@@ -27902,7 +27917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="58">
         <v>6</v>
       </c>
@@ -27910,7 +27925,7 @@
         <v>22</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D26" s="59"/>
       <c r="E26" s="86"/>
@@ -27926,17 +27941,17 @@
       </c>
       <c r="L26" s="86"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="54"/>
       <c r="C27" s="55"/>
       <c r="D27" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E27" s="54" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F27" s="108" t="s">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="G27" s="53"/>
       <c r="H27" s="56" t="s">
@@ -27951,17 +27966,17 @@
       </c>
       <c r="L27" s="54"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
       <c r="D28" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E28" s="54" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F28" s="108" t="s">
-        <v>543</v>
+        <v>538</v>
       </c>
       <c r="G28" s="53"/>
       <c r="H28" s="56" t="s">
@@ -27976,7 +27991,7 @@
       </c>
       <c r="L28" s="54"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="75"/>
       <c r="B29" s="112"/>
       <c r="C29" s="113"/>
@@ -27987,10 +28002,10 @@
         <v>49</v>
       </c>
       <c r="F29" s="118" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G29" s="115" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H29" s="116" t="s">
         <v>140</v>
@@ -28000,7 +28015,7 @@
       <c r="K29" s="117"/>
       <c r="L29" s="112"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="58">
         <v>7</v>
       </c>
@@ -28008,7 +28023,7 @@
         <v>30</v>
       </c>
       <c r="C30" s="111" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D30" s="59"/>
       <c r="E30" s="86"/>
@@ -28024,17 +28039,17 @@
       </c>
       <c r="L30" s="86"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="54"/>
       <c r="C31" s="55"/>
       <c r="D31" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E31" s="54" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F31" s="108" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G31" s="53"/>
       <c r="H31" s="56" t="s">
@@ -28049,17 +28064,17 @@
       </c>
       <c r="L31" s="54"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
       <c r="D32" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="54" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F32" s="108" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G32" s="53"/>
       <c r="H32" s="56" t="s">
@@ -28074,7 +28089,7 @@
       </c>
       <c r="L32" s="54"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="75"/>
       <c r="B33" s="112"/>
       <c r="C33" s="113"/>
@@ -28085,10 +28100,10 @@
         <v>49</v>
       </c>
       <c r="F33" s="118" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G33" s="115" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H33" s="116" t="s">
         <v>140</v>
@@ -28098,7 +28113,7 @@
       <c r="K33" s="117"/>
       <c r="L33" s="112"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="58">
         <v>8</v>
       </c>
@@ -28106,7 +28121,7 @@
         <v>35</v>
       </c>
       <c r="C34" s="111" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D34" s="59"/>
       <c r="E34" s="86"/>
@@ -28122,21 +28137,21 @@
       </c>
       <c r="L34" s="86"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B35" s="54"/>
       <c r="C35" s="55"/>
       <c r="D35" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="40" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F35" s="47" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G35" s="53"/>
       <c r="H35" s="56" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I35" s="53"/>
       <c r="J35" s="57" t="s">
@@ -28147,21 +28162,21 @@
       </c>
       <c r="L35" s="54"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="54"/>
       <c r="C36" s="55"/>
       <c r="D36" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E36" s="40" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F36" s="47" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G36" s="53"/>
       <c r="H36" s="56" t="s">
-        <v>719</v>
+        <v>714</v>
       </c>
       <c r="I36" s="53"/>
       <c r="J36" s="57" t="s">
@@ -28172,21 +28187,21 @@
       </c>
       <c r="L36" s="54"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B37" s="54"/>
       <c r="C37" s="55"/>
       <c r="D37" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F37" s="47" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G37" s="53"/>
       <c r="H37" s="56" t="s">
-        <v>720</v>
+        <v>715</v>
       </c>
       <c r="I37" s="53"/>
       <c r="J37" s="57" t="s">
@@ -28197,21 +28212,21 @@
       </c>
       <c r="L37" s="54"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B38" s="54"/>
       <c r="C38" s="55"/>
       <c r="D38" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E38" s="40" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F38" s="41" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G38" s="53"/>
       <c r="H38" s="56" t="s">
-        <v>721</v>
+        <v>716</v>
       </c>
       <c r="I38" s="53"/>
       <c r="J38" s="57" t="s">
@@ -28222,21 +28237,21 @@
       </c>
       <c r="L38" s="54"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B39" s="54"/>
       <c r="C39" s="55"/>
       <c r="D39" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F39" s="47" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G39" s="53"/>
       <c r="H39" s="56" t="s">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="I39" s="53"/>
       <c r="J39" s="57" t="s">
@@ -28247,17 +28262,17 @@
       </c>
       <c r="L39" s="54"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B40" s="54"/>
       <c r="C40" s="55"/>
       <c r="D40" s="39" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="40" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F40" s="47" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G40" s="53"/>
       <c r="H40" s="56"/>
@@ -28270,7 +28285,7 @@
       </c>
       <c r="L40" s="54"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="75"/>
       <c r="B41" s="112"/>
       <c r="C41" s="113"/>
@@ -28281,10 +28296,10 @@
         <v>49</v>
       </c>
       <c r="F41" s="118" t="s">
-        <v>544</v>
+        <v>539</v>
       </c>
       <c r="G41" s="115" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="H41" s="116" t="s">
         <v>140</v>
@@ -28294,7 +28309,7 @@
       <c r="K41" s="117"/>
       <c r="L41" s="112"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="58">
         <v>9</v>
       </c>
@@ -28302,7 +28317,7 @@
         <v>117</v>
       </c>
       <c r="C42" s="111" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D42" s="59"/>
       <c r="E42" s="86"/>
@@ -28318,23 +28333,23 @@
       </c>
       <c r="L42" s="86"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="54"/>
       <c r="C43" s="55"/>
       <c r="D43" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E43" s="40" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="F43" s="47" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="G43" s="53" t="s">
         <v>145</v>
       </c>
       <c r="H43" s="56" t="s">
-        <v>723</v>
+        <v>718</v>
       </c>
       <c r="I43" s="53"/>
       <c r="J43" s="57" t="s">
@@ -28345,23 +28360,23 @@
       </c>
       <c r="L43" s="54"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="54"/>
       <c r="C44" s="55"/>
       <c r="D44" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E44" s="40" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="F44" s="47" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G44" s="53" t="s">
         <v>146</v>
       </c>
       <c r="H44" s="56" t="s">
-        <v>724</v>
+        <v>719</v>
       </c>
       <c r="I44" s="53"/>
       <c r="J44" s="57" t="s">
@@ -28372,7 +28387,7 @@
       </c>
       <c r="L44" s="54"/>
     </row>
-    <row r="45" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A45" s="75"/>
       <c r="B45" s="112"/>
       <c r="C45" s="113"/>
@@ -28383,20 +28398,20 @@
         <v>49</v>
       </c>
       <c r="F45" s="118" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G45" s="115" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H45" s="116" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I45" s="115"/>
       <c r="J45" s="117"/>
       <c r="K45" s="117"/>
       <c r="L45" s="112"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" s="58">
         <v>10</v>
       </c>
@@ -28404,7 +28419,7 @@
         <v>101</v>
       </c>
       <c r="C46" s="111" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D46" s="59"/>
       <c r="E46" s="86"/>
@@ -28420,23 +28435,23 @@
       </c>
       <c r="L46" s="86"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B47" s="54"/>
       <c r="C47" s="55"/>
       <c r="D47" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E47" s="40" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="F47" s="41" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="G47" s="53" t="s">
         <v>147</v>
       </c>
       <c r="H47" s="56" t="s">
-        <v>725</v>
+        <v>720</v>
       </c>
       <c r="I47" s="53"/>
       <c r="J47" s="57" t="s">
@@ -28447,23 +28462,23 @@
       </c>
       <c r="L47" s="54"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="54"/>
       <c r="C48" s="55"/>
       <c r="D48" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="40" t="s">
-        <v>517</v>
+        <v>512</v>
       </c>
       <c r="F48" s="46" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="G48" s="53" t="s">
         <v>148</v>
       </c>
       <c r="H48" s="56" t="s">
-        <v>726</v>
+        <v>721</v>
       </c>
       <c r="I48" s="53"/>
       <c r="J48" s="57" t="s">
@@ -28474,7 +28489,7 @@
       </c>
       <c r="L48" s="54"/>
     </row>
-    <row r="49" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A49" s="75"/>
       <c r="B49" s="112"/>
       <c r="C49" s="113"/>
@@ -28485,20 +28500,20 @@
         <v>49</v>
       </c>
       <c r="F49" s="118" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G49" s="115" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H49" s="116" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I49" s="115"/>
       <c r="J49" s="117"/>
       <c r="K49" s="117"/>
       <c r="L49" s="112"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50" s="58">
         <v>11</v>
       </c>
@@ -28506,7 +28521,7 @@
         <v>149</v>
       </c>
       <c r="C50" s="111" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D50" s="59"/>
       <c r="E50" s="86"/>
@@ -28522,17 +28537,17 @@
       </c>
       <c r="L50" s="86"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="54"/>
       <c r="C51" s="55"/>
       <c r="D51" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E51" s="54" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F51" s="107" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G51" s="53"/>
       <c r="H51" s="56" t="s">
@@ -28547,17 +28562,17 @@
       </c>
       <c r="L51" s="54"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="54"/>
       <c r="C52" s="55"/>
       <c r="D52" s="39" t="s">
         <v>59</v>
       </c>
       <c r="E52" s="54" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F52" s="107" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G52" s="53"/>
       <c r="H52" s="56" t="s">
@@ -28572,7 +28587,7 @@
       </c>
       <c r="L52" s="54"/>
     </row>
-    <row r="53" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A53" s="75"/>
       <c r="B53" s="112"/>
       <c r="C53" s="113"/>
@@ -28583,20 +28598,20 @@
         <v>49</v>
       </c>
       <c r="F53" s="118" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G53" s="115" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H53" s="116" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="I53" s="115"/>
       <c r="J53" s="78"/>
       <c r="K53" s="117"/>
       <c r="L53" s="54"/>
     </row>
-    <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A54" s="58">
         <v>12</v>
       </c>
@@ -28604,7 +28619,7 @@
         <v>164</v>
       </c>
       <c r="C54" s="65" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D54" s="59"/>
       <c r="E54" s="60"/>
@@ -28620,7 +28635,7 @@
       </c>
       <c r="L54" s="40"/>
     </row>
-    <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="38"/>
       <c r="B55" s="40"/>
       <c r="C55" s="46"/>
@@ -28628,16 +28643,16 @@
         <v>4</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F55" s="47" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G55" s="42" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H55" s="43" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I55" s="42"/>
       <c r="J55" s="39" t="s">
@@ -28648,7 +28663,7 @@
       </c>
       <c r="L55" s="40"/>
     </row>
-    <row r="56" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A56" s="38"/>
       <c r="B56" s="40"/>
       <c r="C56" s="46"/>
@@ -28656,16 +28671,16 @@
         <v>3</v>
       </c>
       <c r="E56" s="40" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F56" s="47" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="G56" s="42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H56" s="43" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I56" s="42"/>
       <c r="J56" s="39" t="s">
@@ -28676,7 +28691,7 @@
       </c>
       <c r="L56" s="40"/>
     </row>
-    <row r="57" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A57" s="38"/>
       <c r="B57" s="40"/>
       <c r="C57" s="46"/>
@@ -28684,16 +28699,16 @@
         <v>8</v>
       </c>
       <c r="E57" s="40" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F57" s="47" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G57" s="42" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="H57" s="43" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I57" s="42"/>
       <c r="J57" s="39" t="s">
@@ -28704,7 +28719,7 @@
       </c>
       <c r="L57" s="40"/>
     </row>
-    <row r="58" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A58" s="75"/>
       <c r="B58" s="76"/>
       <c r="C58" s="77"/>
@@ -28715,20 +28730,20 @@
         <v>49</v>
       </c>
       <c r="F58" s="118" t="s">
-        <v>549</v>
+        <v>544</v>
       </c>
       <c r="G58" s="80" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="H58" s="81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I58" s="80"/>
       <c r="J58" s="78"/>
       <c r="K58" s="78"/>
       <c r="L58" s="76"/>
     </row>
-    <row r="59" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="119">
         <v>13</v>
       </c>
@@ -28736,7 +28751,7 @@
         <v>121</v>
       </c>
       <c r="C59" s="65" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D59" s="59"/>
       <c r="E59" s="60"/>
@@ -28754,7 +28769,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="60" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="92"/>
       <c r="B60" s="40"/>
       <c r="C60" s="46"/>
@@ -28762,17 +28777,17 @@
         <v>9</v>
       </c>
       <c r="E60" s="40" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F60" s="47" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="G60" s="42"/>
       <c r="H60" s="43" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="I60" s="42" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="J60" s="39" t="s">
         <v>82</v>
@@ -28782,7 +28797,7 @@
       </c>
       <c r="L60" s="40"/>
     </row>
-    <row r="61" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="98"/>
       <c r="B61" s="76"/>
       <c r="C61" s="77"/>
@@ -28790,17 +28805,17 @@
         <v>59</v>
       </c>
       <c r="E61" s="76" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F61" s="79" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G61" s="80"/>
       <c r="H61" s="81" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="I61" s="80" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="J61" s="78" t="s">
         <v>84</v>
@@ -28810,7 +28825,7 @@
       </c>
       <c r="L61" s="76"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="58"/>
       <c r="B62" s="60"/>
       <c r="C62" s="66"/>
@@ -28831,61 +28846,61 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.42578125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.28515625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -28894,7 +28909,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -28902,21 +28917,21 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>155</v>
@@ -28934,7 +28949,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -28946,15 +28961,15 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D4" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="F4" s="46" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>156</v>
@@ -28966,7 +28981,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="75"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -28974,14 +28989,14 @@
         <v>14</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F5" s="85" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
       <c r="I5" s="80"/>
       <c r="J5" s="78"/>
@@ -28990,7 +29005,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A6" s="58">
         <v>3</v>
       </c>
@@ -28998,13 +29013,13 @@
         <v>22</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
       <c r="F6" s="66"/>
       <c r="G6" s="62" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
       <c r="H6" s="63" t="s">
         <v>170</v>
@@ -29018,18 +29033,18 @@
       </c>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D7" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>24</v>
@@ -29038,7 +29053,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
       <c r="C8" s="77"/>
@@ -29046,14 +29061,14 @@
         <v>6</v>
       </c>
       <c r="E8" s="76" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F8" s="85" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G8" s="80"/>
       <c r="H8" s="81" t="s">
-        <v>712</v>
+        <v>707</v>
       </c>
       <c r="I8" s="80"/>
       <c r="J8" s="78" t="s">
@@ -29072,7 +29087,7 @@
         <v>30</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
@@ -29088,18 +29103,18 @@
       </c>
       <c r="L9" s="60"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D10" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>711</v>
+        <v>706</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>32</v>
@@ -29108,7 +29123,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
@@ -29116,14 +29131,14 @@
         <v>4</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F11" s="79" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="81" t="s">
-        <v>713</v>
+        <v>708</v>
       </c>
       <c r="I11" s="80"/>
       <c r="J11" s="78" t="s">
@@ -29134,7 +29149,7 @@
       </c>
       <c r="L11" s="76"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" s="58">
         <v>5</v>
       </c>
@@ -29142,7 +29157,7 @@
         <v>35</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -29158,18 +29173,18 @@
       </c>
       <c r="L12" s="60"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D13" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>714</v>
+        <v>709</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>158</v>
@@ -29178,18 +29193,18 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D14" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F14" s="47" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>715</v>
+        <v>710</v>
       </c>
       <c r="J14" s="39" t="s">
         <v>159</v>
@@ -29198,18 +29213,18 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D15" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F15" s="47" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>160</v>
@@ -29218,18 +29233,18 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D16" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F16" s="41" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H16" s="43" t="s">
-        <v>717</v>
+        <v>712</v>
       </c>
       <c r="J16" s="39" t="s">
         <v>161</v>
@@ -29238,18 +29253,18 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D17" s="39" t="s">
         <v>12</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F17" s="47" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="H17" s="43" t="s">
-        <v>718</v>
+        <v>713</v>
       </c>
       <c r="J17" s="39" t="s">
         <v>162</v>
@@ -29258,7 +29273,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="75"/>
       <c r="B18" s="76"/>
       <c r="C18" s="77"/>
@@ -29266,10 +29281,10 @@
         <v>13</v>
       </c>
       <c r="E18" s="76" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F18" s="79" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G18" s="80"/>
       <c r="H18" s="81"/>
@@ -29282,7 +29297,7 @@
       </c>
       <c r="L18" s="76"/>
     </row>
-    <row r="19" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A19" s="58">
         <v>6</v>
       </c>
@@ -29290,16 +29305,16 @@
         <v>149</v>
       </c>
       <c r="C19" s="65" t="s">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="D19" s="59"/>
       <c r="E19" s="60"/>
       <c r="F19" s="66"/>
       <c r="G19" s="62" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
       <c r="H19" s="63" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
       <c r="I19" s="62"/>
       <c r="J19" s="59" t="s">
@@ -29310,21 +29325,21 @@
       </c>
       <c r="L19" s="60"/>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D20" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E20" s="54" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F20" s="107" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="H20" s="43" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
       <c r="I20" s="42" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
       <c r="J20" s="39" t="s">
         <v>152</v>
@@ -29333,7 +29348,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A21" s="75"/>
       <c r="B21" s="76"/>
       <c r="C21" s="77"/>
@@ -29341,17 +29356,17 @@
         <v>59</v>
       </c>
       <c r="E21" s="112" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F21" s="114" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="G21" s="80"/>
       <c r="H21" s="81" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
       <c r="I21" s="80" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
       <c r="J21" s="78" t="s">
         <v>154</v>
@@ -29361,7 +29376,7 @@
       </c>
       <c r="L21" s="76"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="58">
         <v>7</v>
       </c>
@@ -29369,7 +29384,7 @@
         <v>164</v>
       </c>
       <c r="C22" s="65" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="60"/>
@@ -29385,18 +29400,18 @@
       </c>
       <c r="L22" s="60"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D23" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="G23" s="42" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="H23" s="43" t="s">
         <v>166</v>
@@ -29408,18 +29423,18 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D24" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="H24" s="43" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
       <c r="J24" s="39" t="s">
         <v>168</v>
@@ -29428,7 +29443,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="75"/>
       <c r="B25" s="76"/>
       <c r="C25" s="77"/>
@@ -29436,14 +29451,14 @@
         <v>8</v>
       </c>
       <c r="E25" s="76" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F25" s="79" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="G25" s="80"/>
       <c r="H25" s="81" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
       <c r="I25" s="80"/>
       <c r="J25" s="78" t="s">
@@ -29454,7 +29469,7 @@
       </c>
       <c r="L25" s="76"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="58"/>
       <c r="B26" s="60"/>
       <c r="C26" s="66"/>
@@ -29474,7 +29489,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -29482,53 +29497,53 @@
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="127" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="122" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="123" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="124" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="122" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.140625" style="123" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" style="125" customWidth="1"/>
-    <col min="8" max="8" width="23.85546875" style="126" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.140625" style="125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="124" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="122" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="124" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="122" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" style="123" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" style="125" customWidth="1"/>
+    <col min="8" max="8" width="23.83203125" style="126" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.1640625" style="125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" style="124" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="124" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="122" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="120"/>
+    <col min="12" max="12" width="23.33203125" style="122" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -29537,7 +29552,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -29545,23 +29560,23 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="G2" s="26" t="s">
         <v>270</v>
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>238</v>
@@ -29579,7 +29594,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -29591,7 +29606,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="44"/>
       <c r="C4" s="45"/>
@@ -29599,10 +29614,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="G4" s="42" t="s">
         <v>239</v>
@@ -29619,7 +29634,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="38"/>
       <c r="B5" s="40"/>
       <c r="C5" s="46"/>
@@ -29630,7 +29645,7 @@
         <v>255</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>572</v>
+        <v>567</v>
       </c>
       <c r="G5" s="42" t="s">
         <v>242</v>
@@ -29649,7 +29664,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="75"/>
       <c r="B6" s="76"/>
       <c r="C6" s="77"/>
@@ -29657,10 +29672,10 @@
         <v>6</v>
       </c>
       <c r="E6" s="76" t="s">
-        <v>573</v>
+        <v>568</v>
       </c>
       <c r="F6" s="79" t="s">
-        <v>574</v>
+        <v>569</v>
       </c>
       <c r="G6" s="80"/>
       <c r="H6" s="81" t="s">
@@ -29675,7 +29690,7 @@
       </c>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" s="58">
         <v>3</v>
       </c>
@@ -29683,7 +29698,7 @@
         <v>232</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="D7" s="59"/>
       <c r="E7" s="60"/>
@@ -29697,7 +29712,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="38"/>
       <c r="B8" s="44"/>
       <c r="C8" s="45"/>
@@ -29705,10 +29720,10 @@
         <v>8</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>575</v>
+        <v>570</v>
       </c>
       <c r="G8" s="42"/>
       <c r="H8" s="43" t="s">
@@ -29719,7 +29734,7 @@
       <c r="K8" s="39"/>
       <c r="L8" s="54"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="40"/>
       <c r="C9" s="46"/>
@@ -29727,10 +29742,10 @@
         <v>3</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="F9" s="47" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="G9" s="42"/>
       <c r="H9" s="43" t="s">
@@ -29741,7 +29756,7 @@
       <c r="K9" s="39"/>
       <c r="L9" s="40"/>
     </row>
-    <row r="10" spans="1:12" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" s="121" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="75"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
@@ -29749,13 +29764,13 @@
         <v>250</v>
       </c>
       <c r="E10" s="100" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="F10" s="104" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
       <c r="G10" s="102" t="s">
-        <v>691</v>
+        <v>686</v>
       </c>
       <c r="H10" s="103" t="s">
         <v>251</v>
@@ -29773,7 +29788,7 @@
         <v>22</v>
       </c>
       <c r="C11" s="65" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D11" s="59"/>
       <c r="E11" s="60"/>
@@ -29789,7 +29804,7 @@
       </c>
       <c r="L11" s="60"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="38"/>
       <c r="B12" s="44"/>
       <c r="C12" s="45"/>
@@ -29797,10 +29812,10 @@
         <v>5</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G12" s="42"/>
       <c r="H12" s="43" t="s">
@@ -29815,7 +29830,7 @@
       </c>
       <c r="L12" s="40"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="38"/>
       <c r="B13" s="40"/>
       <c r="C13" s="46"/>
@@ -29823,10 +29838,10 @@
         <v>6</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="G13" s="42"/>
       <c r="H13" s="43" t="s">
@@ -29841,7 +29856,7 @@
       </c>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="75"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -29852,7 +29867,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="77" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G14" s="80"/>
       <c r="H14" s="81" t="s">
@@ -29871,7 +29886,7 @@
         <v>30</v>
       </c>
       <c r="C15" s="65" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D15" s="59"/>
       <c r="E15" s="60"/>
@@ -29887,7 +29902,7 @@
       </c>
       <c r="L15" s="60"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="38"/>
       <c r="B16" s="44"/>
       <c r="C16" s="45"/>
@@ -29895,10 +29910,10 @@
         <v>8</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F16" s="47" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G16" s="42" t="s">
         <v>255</v>
@@ -29915,7 +29930,7 @@
       </c>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="75"/>
       <c r="B17" s="76"/>
       <c r="C17" s="77"/>
@@ -29923,17 +29938,17 @@
         <v>4</v>
       </c>
       <c r="E17" s="76" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F17" s="79" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G17" s="80"/>
       <c r="H17" s="81" t="s">
         <v>257</v>
       </c>
       <c r="I17" s="80" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="J17" s="78" t="s">
         <v>33</v>
@@ -29943,7 +29958,7 @@
       </c>
       <c r="L17" s="76"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="58">
         <v>6</v>
       </c>
@@ -29951,7 +29966,7 @@
         <v>35</v>
       </c>
       <c r="C18" s="65" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D18" s="59"/>
       <c r="E18" s="60"/>
@@ -29967,7 +29982,7 @@
       </c>
       <c r="L18" s="60"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="38"/>
       <c r="B19" s="44"/>
       <c r="C19" s="45"/>
@@ -29975,14 +29990,14 @@
         <v>9</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F19" s="47" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G19" s="42"/>
       <c r="H19" s="43" t="s">
-        <v>706</v>
+        <v>701</v>
       </c>
       <c r="I19" s="42"/>
       <c r="J19" s="39" t="s">
@@ -29993,7 +30008,7 @@
       </c>
       <c r="L19" s="40"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="38"/>
       <c r="B20" s="40"/>
       <c r="C20" s="46"/>
@@ -30001,14 +30016,14 @@
         <v>10</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F20" s="47" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="G20" s="42"/>
       <c r="H20" s="43" t="s">
-        <v>707</v>
+        <v>702</v>
       </c>
       <c r="I20" s="42"/>
       <c r="J20" s="39" t="s">
@@ -30019,7 +30034,7 @@
       </c>
       <c r="L20" s="40"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="38"/>
       <c r="B21" s="40"/>
       <c r="C21" s="46"/>
@@ -30027,14 +30042,14 @@
         <v>34</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F21" s="47" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G21" s="42"/>
       <c r="H21" s="43" t="s">
-        <v>708</v>
+        <v>703</v>
       </c>
       <c r="I21" s="42"/>
       <c r="J21" s="39" t="s">
@@ -30045,7 +30060,7 @@
       </c>
       <c r="L21" s="40"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="38"/>
       <c r="B22" s="40"/>
       <c r="C22" s="46"/>
@@ -30053,14 +30068,14 @@
         <v>11</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="43" t="s">
-        <v>709</v>
+        <v>704</v>
       </c>
       <c r="I22" s="42"/>
       <c r="J22" s="39" t="s">
@@ -30071,7 +30086,7 @@
       </c>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="38"/>
       <c r="B23" s="40"/>
       <c r="C23" s="46"/>
@@ -30079,14 +30094,14 @@
         <v>12</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G23" s="42"/>
       <c r="H23" s="43" t="s">
-        <v>710</v>
+        <v>705</v>
       </c>
       <c r="I23" s="42"/>
       <c r="J23" s="39" t="s">
@@ -30097,7 +30112,7 @@
       </c>
       <c r="L23" s="40"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="38"/>
       <c r="B24" s="40"/>
       <c r="C24" s="46"/>
@@ -30105,10 +30120,10 @@
         <v>13</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="G24" s="42"/>
       <c r="H24" s="43"/>
@@ -30121,7 +30136,7 @@
       </c>
       <c r="L24" s="40"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="75"/>
       <c r="B25" s="76"/>
       <c r="C25" s="77"/>
@@ -30132,7 +30147,7 @@
         <v>49</v>
       </c>
       <c r="F25" s="77" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G25" s="80"/>
       <c r="H25" s="81" t="s">
@@ -30143,9 +30158,9 @@
       <c r="K25" s="78"/>
       <c r="L25" s="76"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="128" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B26" s="129"/>
       <c r="C26" s="130"/>
@@ -30165,61 +30180,61 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.33203125" style="42" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.85546875" style="42" customWidth="1"/>
-    <col min="10" max="10" width="24.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.83203125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="24.83203125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="23.5" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -30228,7 +30243,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -30236,21 +30251,21 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>584</v>
+        <v>579</v>
       </c>
       <c r="F2" s="36" t="s">
-        <v>583</v>
+        <v>578</v>
       </c>
       <c r="G2" s="26"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>171</v>
@@ -30260,7 +30275,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -30268,7 +30283,7 @@
         <v>18</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -30282,20 +30297,20 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="44"/>
       <c r="C4" s="45"/>
       <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>591</v>
+        <v>586</v>
       </c>
       <c r="F4" s="47" t="s">
-        <v>585</v>
+        <v>580</v>
       </c>
       <c r="H4" s="43" t="s">
-        <v>692</v>
+        <v>687</v>
       </c>
       <c r="J4" s="39" t="s">
         <v>172</v>
@@ -30304,18 +30319,18 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D5" s="39" t="s">
         <v>61</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>592</v>
+        <v>587</v>
       </c>
       <c r="F5" s="46" t="s">
-        <v>586</v>
+        <v>581</v>
       </c>
       <c r="H5" s="43" t="s">
-        <v>693</v>
+        <v>688</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>173</v>
@@ -30324,18 +30339,18 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D6" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>593</v>
+        <v>588</v>
       </c>
       <c r="F6" s="47" t="s">
-        <v>587</v>
+        <v>582</v>
       </c>
       <c r="H6" s="43" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>174</v>
@@ -30344,18 +30359,18 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D7" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>594</v>
+        <v>589</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
       <c r="H7" s="43" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>175</v>
@@ -30364,18 +30379,18 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="D8" s="39" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="F8" s="41" t="s">
-        <v>589</v>
+        <v>584</v>
       </c>
       <c r="H8" s="43" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
       <c r="J8" s="39" t="s">
         <v>176</v>
@@ -30384,18 +30399,18 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D9" s="39" t="s">
         <v>177</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="F9" s="46" t="s">
-        <v>590</v>
+        <v>585</v>
       </c>
       <c r="H9" s="43" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="J9" s="39" t="s">
         <v>178</v>
@@ -30404,18 +30419,18 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D10" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="H10" s="43" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
       <c r="J10" s="39" t="s">
         <v>179</v>
@@ -30424,7 +30439,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
@@ -30432,14 +30447,14 @@
         <v>10</v>
       </c>
       <c r="E11" s="76" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="F11" s="85" t="s">
         <v>152</v>
       </c>
       <c r="G11" s="80"/>
       <c r="H11" s="81" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="I11" s="80"/>
       <c r="J11" s="78" t="s">
@@ -30458,7 +30473,7 @@
         <v>113</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D12" s="59"/>
       <c r="E12" s="60"/>
@@ -30474,18 +30489,18 @@
       </c>
       <c r="L12" s="60"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D13" s="39">
         <v>1</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F13" s="46" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="H13" s="43" t="s">
-        <v>696</v>
+        <v>691</v>
       </c>
       <c r="J13" s="39" t="s">
         <v>181</v>
@@ -30494,18 +30509,18 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D14" s="39">
         <v>2</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F14" s="46" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="H14" s="43" t="s">
-        <v>697</v>
+        <v>692</v>
       </c>
       <c r="J14" s="39" t="s">
         <v>182</v>
@@ -30514,21 +30529,21 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D15" s="39">
         <v>3</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
       <c r="F15" s="46" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="G15" s="42" t="s">
         <v>190</v>
       </c>
       <c r="H15" s="43" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="J15" s="39" t="s">
         <v>183</v>
@@ -30537,7 +30552,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="75"/>
       <c r="B16" s="76"/>
       <c r="C16" s="77"/>
@@ -30548,7 +30563,7 @@
         <v>49</v>
       </c>
       <c r="F16" s="77" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G16" s="80" t="s">
         <v>191</v>
@@ -30561,7 +30576,7 @@
       <c r="K16" s="78"/>
       <c r="L16" s="76"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="58">
         <v>4</v>
       </c>
@@ -30569,7 +30584,7 @@
         <v>22</v>
       </c>
       <c r="C17" s="65" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="D17" s="59"/>
       <c r="E17" s="60"/>
@@ -30585,21 +30600,21 @@
       </c>
       <c r="L17" s="60"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D18" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="F18" s="41" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="H18" s="43" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="I18" s="42" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="J18" s="39" t="s">
         <v>24</v>
@@ -30608,21 +30623,21 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D19" s="39" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F19" s="41" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="H19" s="43" t="s">
-        <v>699</v>
+        <v>694</v>
       </c>
       <c r="I19" s="42" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="J19" s="39" t="s">
         <v>25</v>
@@ -30631,7 +30646,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A20" s="75"/>
       <c r="B20" s="76"/>
       <c r="C20" s="77"/>
@@ -30642,7 +30657,7 @@
         <v>49</v>
       </c>
       <c r="F20" s="77" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G20" s="80" t="s">
         <v>194</v>
@@ -30655,7 +30670,7 @@
       <c r="K20" s="78"/>
       <c r="L20" s="76"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="58">
         <v>5</v>
       </c>
@@ -30663,7 +30678,7 @@
         <v>30</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="D21" s="59"/>
       <c r="E21" s="60"/>
@@ -30679,18 +30694,18 @@
       </c>
       <c r="L21" s="60"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D22" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F22" s="47" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="H22" s="43" t="s">
-        <v>698</v>
+        <v>693</v>
       </c>
       <c r="J22" s="39" t="s">
         <v>32</v>
@@ -30699,21 +30714,21 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="D23" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="H23" s="43" t="s">
-        <v>700</v>
+        <v>695</v>
       </c>
       <c r="I23" s="42" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="J23" s="39" t="s">
         <v>33</v>
@@ -30722,7 +30737,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="75"/>
       <c r="B24" s="76"/>
       <c r="C24" s="77"/>
@@ -30733,7 +30748,7 @@
         <v>49</v>
       </c>
       <c r="F24" s="77" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G24" s="80"/>
       <c r="H24" s="81" t="s">
@@ -30744,7 +30759,7 @@
       <c r="K24" s="78"/>
       <c r="L24" s="76"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="58">
         <v>6</v>
       </c>
@@ -30752,7 +30767,7 @@
         <v>35</v>
       </c>
       <c r="C25" s="65" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D25" s="59"/>
       <c r="E25" s="60"/>
@@ -30768,18 +30783,18 @@
       </c>
       <c r="L25" s="60"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D26" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="F26" s="47" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="H26" s="43" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="J26" s="39" t="s">
         <v>158</v>
@@ -30788,18 +30803,18 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D27" s="39" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="F27" s="47" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H27" s="43" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="J27" s="39" t="s">
         <v>159</v>
@@ -30808,18 +30823,18 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D28" s="39" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="F28" s="47" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="H28" s="43" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
       <c r="J28" s="39" t="s">
         <v>160</v>
@@ -30828,18 +30843,18 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D29" s="39" t="s">
         <v>11</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="F29" s="41" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H29" s="43" t="s">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="J29" s="39" t="s">
         <v>161</v>
@@ -30848,7 +30863,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="75"/>
       <c r="B30" s="76"/>
       <c r="C30" s="77"/>
@@ -30856,14 +30871,14 @@
         <v>12</v>
       </c>
       <c r="E30" s="76" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="F30" s="79" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="G30" s="80"/>
       <c r="H30" s="81" t="s">
-        <v>704</v>
+        <v>699</v>
       </c>
       <c r="I30" s="80"/>
       <c r="J30" s="78" t="s">
@@ -30874,7 +30889,7 @@
       </c>
       <c r="L30" s="76"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="58">
         <v>7</v>
       </c>
@@ -30882,7 +30897,7 @@
         <v>121</v>
       </c>
       <c r="C31" s="65" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D31" s="59"/>
       <c r="E31" s="60"/>
@@ -30898,18 +30913,18 @@
       </c>
       <c r="L31" s="60"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D32" s="39" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="40" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="F32" s="47" t="s">
-        <v>526</v>
+        <v>521</v>
       </c>
       <c r="H32" s="43" t="s">
-        <v>705</v>
+        <v>700</v>
       </c>
       <c r="J32" s="39" t="s">
         <v>82</v>
@@ -30918,7 +30933,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A33" s="75"/>
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
@@ -30926,10 +30941,10 @@
         <v>59</v>
       </c>
       <c r="E33" s="76" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="F33" s="79" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="G33" s="80" t="s">
         <v>195</v>
@@ -30938,7 +30953,7 @@
         <v>185</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="J33" s="78" t="s">
         <v>84</v>
@@ -30948,7 +30963,7 @@
       </c>
       <c r="L33" s="76"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="58"/>
       <c r="B34" s="60"/>
       <c r="C34" s="66"/>
@@ -30968,61 +30983,61 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7109375" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" style="40" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="47.1640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="69" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="70" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="70" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -31031,7 +31046,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -31039,21 +31054,21 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>599</v>
+        <v>594</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="31"/>
       <c r="I2" s="26" t="s">
-        <v>363</v>
+        <v>772</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>198</v>
@@ -31063,7 +31078,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -31071,7 +31086,7 @@
         <v>164</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>547</v>
+        <v>542</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -31083,15 +31098,15 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D4" s="39" t="s">
         <v>14</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>604</v>
+        <v>599</v>
       </c>
       <c r="F4" s="41" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>199</v>
@@ -31108,13 +31123,13 @@
         <v>4</v>
       </c>
       <c r="E5" s="40" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="F5" s="41" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="H5" s="39" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="J5" s="39" t="s">
         <v>167</v>
@@ -31123,18 +31138,18 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D6" s="39" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="40" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="F6" s="41" t="s">
-        <v>602</v>
+        <v>597</v>
       </c>
       <c r="H6" s="39" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="J6" s="39" t="s">
         <v>168</v>
@@ -31143,18 +31158,18 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D7" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
       <c r="F7" s="41" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="H7" s="39" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="J7" s="39" t="s">
         <v>169</v>
@@ -31163,7 +31178,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
       <c r="C8" s="77"/>
@@ -31174,20 +31189,20 @@
         <v>49</v>
       </c>
       <c r="F8" s="77" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="G8" s="76" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="H8" s="78" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="I8" s="76"/>
       <c r="J8" s="78"/>
       <c r="K8" s="78"/>
       <c r="L8" s="76"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="58">
         <v>3</v>
       </c>
@@ -31195,7 +31210,7 @@
         <v>200</v>
       </c>
       <c r="C9" s="65" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="60"/>
@@ -31209,29 +31224,29 @@
         <v>201</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D10" s="39" t="s">
         <v>177</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="F10" s="47" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="H10" s="39" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D11" s="39" t="s">
         <v>5</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="F11" s="47" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="H11" s="39" t="s">
         <v>203</v>
@@ -31242,30 +31257,30 @@
         <v>4</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="F12" s="47" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H12" s="39" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D13" s="39" t="s">
         <v>78</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>613</v>
+        <v>608</v>
       </c>
       <c r="F13" s="47" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="H13" s="39" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="75"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -31273,10 +31288,10 @@
         <v>3</v>
       </c>
       <c r="E14" s="76" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
       <c r="F14" s="85" t="s">
-        <v>600</v>
+        <v>595</v>
       </c>
       <c r="G14" s="76"/>
       <c r="H14" s="78" t="s">
@@ -31307,7 +31322,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31315,53 +31330,53 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.83203125" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="46" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.140625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.33203125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.85546875" style="9"/>
+    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="134" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="B1" s="70" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="71" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D1" s="72" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="E1" s="70" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="F1" s="71" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G1" s="73" t="s">
         <v>52</v>
       </c>
       <c r="H1" s="72" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
       <c r="I1" s="73" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="J1" s="74" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="K1" s="74" t="s">
         <v>16</v>
@@ -31370,7 +31385,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -31378,21 +31393,21 @@
         <v>17</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>617</v>
+        <v>612</v>
       </c>
       <c r="F2" s="37" t="s">
-        <v>616</v>
+        <v>611</v>
       </c>
       <c r="G2" s="25"/>
       <c r="H2" s="32"/>
       <c r="I2" s="26" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="J2" s="31" t="s">
         <v>56</v>
@@ -31410,7 +31425,7 @@
         <v>207</v>
       </c>
       <c r="C3" s="65" t="s">
-        <v>615</v>
+        <v>610</v>
       </c>
       <c r="D3" s="59"/>
       <c r="E3" s="60"/>
@@ -31426,15 +31441,15 @@
       </c>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>620</v>
+        <v>615</v>
       </c>
       <c r="F4" s="94" t="s">
-        <v>618</v>
+        <v>613</v>
       </c>
       <c r="H4" s="43" t="s">
         <v>208</v>
@@ -31446,7 +31461,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="75"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -31454,10 +31469,10 @@
         <v>78</v>
       </c>
       <c r="E5" s="76" t="s">
-        <v>621</v>
+        <v>616</v>
       </c>
       <c r="F5" s="84" t="s">
-        <v>619</v>
+        <v>614</v>
       </c>
       <c r="G5" s="80"/>
       <c r="H5" s="81" t="s">
@@ -31480,7 +31495,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="D6" s="59"/>
       <c r="E6" s="60"/>
@@ -31496,15 +31511,15 @@
       </c>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D7" s="39" t="s">
         <v>8</v>
       </c>
       <c r="E7" s="40" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="F7" s="47" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G7" s="42" t="s">
         <v>210</v>
@@ -31519,15 +31534,15 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D8" s="39" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="40" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="F8" s="47" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G8" s="42" t="s">
         <v>212</v>
@@ -31542,7 +31557,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="75"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77"/>
@@ -31553,7 +31568,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="84" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G9" s="80" t="s">
         <v>223</v>
@@ -31566,7 +31581,7 @@
       <c r="K9" s="78"/>
       <c r="L9" s="76"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="58">
         <v>4</v>
       </c>
@@ -31574,7 +31589,7 @@
         <v>215</v>
       </c>
       <c r="C10" s="65" t="s">
-        <v>626</v>
+        <v>621</v>
       </c>
       <c r="D10" s="59"/>
       <c r="E10" s="60"/>
@@ -31592,7 +31607,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="D11" s="39" t="s">
         <v>10</v>
       </c>
@@ -31600,7 +31615,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="41" t="s">
-        <v>623</v>
+        <v>618</v>
       </c>
       <c r="G11" s="42" t="s">
         <v>218</v>
@@ -31609,7 +31624,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D12" s="39" t="s">
         <v>34</v>
       </c>
@@ -31617,7 +31632,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="41" t="s">
-        <v>624</v>
+        <v>619</v>
       </c>
       <c r="G12" s="42" t="s">
         <v>227</v>
@@ -31626,7 +31641,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="D13" s="39" t="s">
         <v>11</v>
       </c>
@@ -31634,13 +31649,13 @@
         <v>220</v>
       </c>
       <c r="F13" s="41" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="H13" s="43" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
       <c r="A14" s="75"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -31651,7 +31666,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="84" t="s">
-        <v>622</v>
+        <v>617</v>
       </c>
       <c r="G14" s="80" t="s">
         <v>223</v>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pet/Documents/NLP/Treebank/Docs/Annotation how-to/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69F54526-C9F9-374C-8451-A367D5645562}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="20500" tabRatio="725" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20610" windowHeight="11640" tabRatio="725" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -40,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1656" uniqueCount="788">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1657" uniqueCount="789">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -5615,11 +5609,14 @@
   <si>
     <t>darot, darām, locīdamies</t>
   </si>
+  <si>
+    <t>Ja vārdam ir tikai noteiktās formas (lemma ar noteikto galotni), tad marķē noteikto arī, ja nav paplašinātā galotnes.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -6479,7 +6476,7 @@
         <xdr:cNvPr id="17409" name="AutoShape 1" descr=":)">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001440000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0E00-000001440000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6798,39 +6795,39 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="97.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="3.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="97.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" s="1" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:10" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" s="1" customFormat="1" ht="18.95" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>732</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>728</v>
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
@@ -6845,7 +6842,7 @@
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="8">
         <v>0</v>
       </c>
@@ -6869,7 +6866,7 @@
       <c r="I8" s="23"/>
       <c r="J8" s="23"/>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>735</v>
       </c>
@@ -6882,7 +6879,7 @@
       <c r="I9" s="23"/>
       <c r="J9" s="23"/>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="24" t="s">
         <v>301</v>
       </c>
@@ -6897,7 +6894,7 @@
       <c r="I10" s="23"/>
       <c r="J10" s="23"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>301</v>
       </c>
@@ -6919,7 +6916,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6927,24 +6924,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -6982,7 +6979,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7034,7 +7031,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D4" s="39" t="s">
         <v>3</v>
       </c>
@@ -7054,7 +7051,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -7101,7 +7098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7109,24 +7106,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -7164,7 +7161,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7218,7 +7215,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7226,24 +7223,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -7281,7 +7278,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7335,7 +7332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7343,24 +7340,24 @@
       <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.85546875" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" style="39" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -7398,7 +7395,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7474,7 +7471,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
         <v>174</v>
       </c>
@@ -7497,7 +7494,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="39" t="s">
         <v>8</v>
       </c>
@@ -7520,7 +7517,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
         <v>287</v>
       </c>
@@ -7543,7 +7540,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="39" t="s">
         <v>34</v>
       </c>
@@ -7583,7 +7580,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="75"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
@@ -7628,7 +7625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7636,24 +7633,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -7691,7 +7688,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7727,7 +7724,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="147">
         <v>2</v>
       </c>
@@ -7757,7 +7754,7 @@
       <c r="K3" s="150"/>
       <c r="L3" s="151"/>
     </row>
-    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="138"/>
       <c r="B4" s="50"/>
       <c r="C4" s="51"/>
@@ -7781,7 +7778,7 @@
       <c r="K4" s="140"/>
       <c r="L4" s="141"/>
     </row>
-    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="138"/>
       <c r="B5" s="50"/>
       <c r="C5" s="51"/>
@@ -7803,7 +7800,7 @@
       <c r="K5" s="140"/>
       <c r="L5" s="141"/>
     </row>
-    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="138"/>
       <c r="B6" s="50"/>
       <c r="C6" s="51"/>
@@ -7825,7 +7822,7 @@
       <c r="K6" s="140"/>
       <c r="L6" s="141"/>
     </row>
-    <row r="7" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="142"/>
       <c r="B7" s="143"/>
       <c r="C7" s="144"/>
@@ -7847,7 +7844,7 @@
       <c r="K7" s="145"/>
       <c r="L7" s="143"/>
     </row>
-    <row r="8" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="137" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="152"/>
       <c r="B8" s="153"/>
       <c r="C8" s="154"/>
@@ -7890,7 +7887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7898,24 +7895,24 @@
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.42578125" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7109375" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.140625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -7953,7 +7950,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -7987,7 +7984,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -8017,7 +8014,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="39" t="s">
         <v>9</v>
       </c>
@@ -8034,7 +8031,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
         <v>68</v>
       </c>
@@ -8051,7 +8048,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="D6" s="39" t="s">
         <v>135</v>
       </c>
@@ -8112,32 +8109,32 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16" style="19" customWidth="1"/>
     <col min="2" max="2" width="2" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="54" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="55" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="57" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="54" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="55" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="54" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" style="54" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="55" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.7109375" style="54" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="55" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.7109375" style="54" customWidth="1"/>
     <col min="9" max="9" width="21" style="57" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="54" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="57" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" style="54" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="57" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="57" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53" style="54" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="19"/>
+    <col min="14" max="16384" width="8.85546875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="121" t="s">
         <v>738</v>
       </c>
@@ -8154,7 +8151,7 @@
       <c r="L1" s="19"/>
       <c r="M1" s="19"/>
     </row>
-    <row r="2" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="121" t="s">
         <v>1</v>
       </c>
@@ -8173,7 +8170,7 @@
       <c r="L2" s="19"/>
       <c r="M2" s="19"/>
     </row>
-    <row r="3" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A3" s="121" t="s">
         <v>2</v>
       </c>
@@ -8192,7 +8189,7 @@
       <c r="L3" s="19"/>
       <c r="M3" s="19"/>
     </row>
-    <row r="4" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A4" s="121" t="s">
         <v>731</v>
       </c>
@@ -24580,7 +24577,7 @@
       <c r="XFC4" s="121"/>
       <c r="XFD4" s="121"/>
     </row>
-    <row r="5" spans="1:16384" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A5" s="159" t="s">
         <v>773</v>
       </c>
@@ -24597,7 +24594,7 @@
       <c r="L5" s="19"/>
       <c r="M5" s="19"/>
     </row>
-    <row r="6" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A6" s="121" t="s">
         <v>774</v>
       </c>
@@ -57371,7 +57368,7 @@
       <c r="XFC7" s="121"/>
       <c r="XFD7" s="121"/>
     </row>
-    <row r="8" spans="1:16384" ht="19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16384" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A8" s="159" t="s">
         <v>676</v>
       </c>
@@ -57388,7 +57385,7 @@
       <c r="L8" s="19"/>
       <c r="M8" s="19"/>
     </row>
-    <row r="9" spans="1:16384" s="160" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16384" s="160" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="162" t="s">
         <v>410</v>
       </c>
@@ -57429,7 +57426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>409</v>
       </c>
@@ -57468,7 +57465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:16384" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="B11" s="58">
         <v>5</v>
       </c>
@@ -57514,7 +57511,7 @@
       <c r="L12" s="117"/>
       <c r="M12" s="112"/>
     </row>
-    <row r="13" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16384" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
         <v>458</v>
       </c>
@@ -57561,7 +57558,7 @@
       <c r="L14" s="117"/>
       <c r="M14" s="112"/>
     </row>
-    <row r="15" spans="1:16384" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16384" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="16" t="s">
         <v>523</v>
       </c>
@@ -57609,7 +57606,7 @@
       <c r="L16" s="117"/>
       <c r="M16" s="112"/>
     </row>
-    <row r="17" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="15" t="s">
         <v>558</v>
       </c>
@@ -57642,7 +57639,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="C18" s="40"/>
       <c r="D18" s="46"/>
       <c r="E18" s="39" t="s">
@@ -57663,7 +57660,7 @@
       <c r="L18" s="39"/>
       <c r="M18" s="40"/>
     </row>
-    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C19" s="40"/>
       <c r="D19" s="46"/>
       <c r="E19" s="39" t="s">
@@ -57684,7 +57681,7 @@
       <c r="L19" s="39"/>
       <c r="M19" s="40"/>
     </row>
-    <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C20" s="40"/>
       <c r="D20" s="46"/>
       <c r="E20" s="39" t="s">
@@ -57705,7 +57702,7 @@
       <c r="L20" s="39"/>
       <c r="M20" s="40"/>
     </row>
-    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C21" s="40"/>
       <c r="D21" s="46"/>
       <c r="E21" s="39" t="s">
@@ -57726,7 +57723,7 @@
       <c r="L21" s="39"/>
       <c r="M21" s="40"/>
     </row>
-    <row r="22" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C22" s="40"/>
       <c r="D22" s="46"/>
       <c r="E22" s="39" t="s">
@@ -57745,7 +57742,7 @@
       <c r="L22" s="39"/>
       <c r="M22" s="40"/>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C23" s="40"/>
       <c r="D23" s="46"/>
       <c r="E23" s="39" t="s">
@@ -57764,7 +57761,7 @@
       <c r="L23" s="39"/>
       <c r="M23" s="40"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="75"/>
       <c r="C24" s="112"/>
       <c r="D24" s="113"/>
@@ -57778,7 +57775,7 @@
       <c r="L24" s="117"/>
       <c r="M24" s="112"/>
     </row>
-    <row r="25" spans="1:13" s="161" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" s="161" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="17" t="s">
         <v>568</v>
       </c>
@@ -57807,7 +57804,7 @@
       <c r="L25" s="168"/>
       <c r="M25" s="173"/>
     </row>
-    <row r="26" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="40"/>
       <c r="D26" s="46"/>
       <c r="E26" s="39" t="s">
@@ -57826,7 +57823,7 @@
       <c r="K26" s="39"/>
       <c r="L26" s="39"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C27" s="40"/>
       <c r="D27" s="46"/>
       <c r="E27" s="39">
@@ -57842,7 +57839,7 @@
       <c r="K27" s="39"/>
       <c r="L27" s="39"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="75"/>
       <c r="C28" s="112"/>
       <c r="D28" s="113"/>
@@ -57856,7 +57853,7 @@
       <c r="L28" s="117"/>
       <c r="M28" s="112"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="15" t="s">
         <v>602</v>
       </c>
@@ -57877,7 +57874,7 @@
       <c r="L29" s="90"/>
       <c r="M29" s="86"/>
     </row>
-    <row r="30" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C30" s="40"/>
       <c r="E30" s="39" t="s">
         <v>59</v>
@@ -57894,7 +57891,7 @@
       <c r="J30" s="40"/>
       <c r="K30" s="39"/>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C31" s="40"/>
       <c r="E31" s="39" t="s">
         <v>9</v>
@@ -57911,7 +57908,7 @@
       <c r="J31" s="40"/>
       <c r="K31" s="39"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="75"/>
       <c r="C32" s="112"/>
       <c r="D32" s="113"/>
@@ -57925,7 +57922,7 @@
       <c r="L32" s="117"/>
       <c r="M32" s="112"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="15" t="s">
         <v>615</v>
       </c>
@@ -57950,7 +57947,7 @@
       <c r="L33" s="59"/>
       <c r="M33" s="60"/>
     </row>
-    <row r="34" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C34" s="44"/>
       <c r="D34" s="45"/>
       <c r="E34" s="39" t="s">
@@ -57973,7 +57970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C35" s="40"/>
       <c r="D35" s="46"/>
       <c r="E35" s="39" t="s">
@@ -57994,7 +57991,7 @@
       <c r="L35" s="39"/>
       <c r="M35" s="40"/>
     </row>
-    <row r="36" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="C36" s="40"/>
       <c r="D36" s="46"/>
       <c r="E36" s="39" t="s">
@@ -58017,7 +58014,7 @@
       <c r="L36" s="39"/>
       <c r="M36" s="40"/>
     </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C37" s="40"/>
       <c r="D37" s="46"/>
       <c r="E37" s="39" t="s">
@@ -58038,7 +58035,7 @@
       <c r="L37" s="39"/>
       <c r="M37" s="40"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38" s="75"/>
       <c r="C38" s="76"/>
       <c r="D38" s="77"/>
@@ -58052,7 +58049,7 @@
       <c r="L38" s="78"/>
       <c r="M38" s="76"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="15" t="s">
         <v>624</v>
       </c>
@@ -58077,7 +58074,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C40" s="44"/>
       <c r="D40" s="45"/>
       <c r="E40" s="39" t="s">
@@ -58097,7 +58094,7 @@
       <c r="K40" s="39"/>
       <c r="L40" s="39"/>
     </row>
-    <row r="41" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="C41" s="40"/>
       <c r="D41" s="46"/>
       <c r="E41" s="39" t="s">
@@ -58118,7 +58115,7 @@
       <c r="L41" s="39"/>
       <c r="M41" s="40"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42" s="75"/>
       <c r="C42" s="112"/>
       <c r="D42" s="113"/>
@@ -58132,7 +58129,7 @@
       <c r="L42" s="117"/>
       <c r="M42" s="112"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="15" t="s">
         <v>638</v>
       </c>
@@ -58157,7 +58154,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C44" s="44"/>
       <c r="D44" s="45"/>
       <c r="E44" s="39" t="s">
@@ -58176,7 +58173,7 @@
       <c r="J44" s="40"/>
       <c r="K44" s="39"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C45" s="40"/>
       <c r="D45" s="46"/>
       <c r="E45" s="39" t="s">
@@ -58196,7 +58193,7 @@
       <c r="K45" s="39"/>
       <c r="L45" s="39"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B46" s="75"/>
       <c r="C46" s="112"/>
       <c r="D46" s="113"/>
@@ -58210,7 +58207,7 @@
       <c r="L46" s="117"/>
       <c r="M46" s="112"/>
     </row>
-    <row r="47" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="15" t="s">
         <v>675</v>
       </c>
@@ -58241,7 +58238,7 @@
       <c r="L47" s="177"/>
       <c r="M47" s="178"/>
     </row>
-    <row r="48" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" s="15" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="58"/>
       <c r="C48" s="86"/>
       <c r="D48" s="87"/>
@@ -58262,7 +58259,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -58270,24 +58267,24 @@
       <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="54" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="55" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="54" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="54" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" style="55" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="54" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="55" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="53" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="56" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="53" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" style="53" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.140625" style="56" customWidth="1"/>
+    <col min="9" max="9" width="33.7109375" style="53" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="57" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="57" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="54" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="68"/>
+    <col min="12" max="12" width="23.42578125" style="54" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="67" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="67" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -58325,7 +58322,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -58375,7 +58372,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B4" s="40"/>
       <c r="C4" s="46"/>
       <c r="D4" s="39" t="s">
@@ -58404,7 +58401,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -58456,7 +58453,7 @@
       </c>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="40"/>
       <c r="C7" s="46"/>
       <c r="D7" s="39" t="s">
@@ -58483,7 +58480,7 @@
       </c>
       <c r="L7" s="40"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B8" s="40"/>
       <c r="C8" s="46"/>
       <c r="D8" s="39" t="s">
@@ -58508,7 +58505,7 @@
       </c>
       <c r="L8" s="40"/>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="75"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77"/>
@@ -58556,7 +58553,7 @@
       </c>
       <c r="L10" s="60"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B11" s="40"/>
       <c r="C11" s="46"/>
       <c r="D11" s="39" t="s">
@@ -58581,7 +58578,7 @@
       </c>
       <c r="L11" s="40"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B12" s="40"/>
       <c r="C12" s="46"/>
       <c r="D12" s="39" t="s">
@@ -58606,7 +58603,7 @@
       </c>
       <c r="L12" s="40"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B13" s="40"/>
       <c r="C13" s="46"/>
       <c r="D13" s="39" t="s">
@@ -58631,7 +58628,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="40"/>
       <c r="C14" s="46"/>
       <c r="D14" s="39" t="s">
@@ -58658,7 +58655,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
       <c r="B15" s="76"/>
       <c r="C15" s="77"/>
@@ -58680,7 +58677,7 @@
       <c r="K15" s="78"/>
       <c r="L15" s="76"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="58">
         <v>5</v>
       </c>
@@ -58704,7 +58701,7 @@
       </c>
       <c r="L16" s="60"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B17" s="40"/>
       <c r="C17" s="46"/>
       <c r="D17" s="39" t="s">
@@ -58729,7 +58726,7 @@
       </c>
       <c r="L17" s="40"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B18" s="40"/>
       <c r="C18" s="46"/>
       <c r="D18" s="39" t="s">
@@ -58754,7 +58751,7 @@
       </c>
       <c r="L18" s="40"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B19" s="40"/>
       <c r="C19" s="46"/>
       <c r="D19" s="39" t="s">
@@ -58779,7 +58776,7 @@
       </c>
       <c r="L19" s="40"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" s="40"/>
       <c r="C20" s="46"/>
       <c r="D20" s="39" t="s">
@@ -58804,7 +58801,7 @@
       </c>
       <c r="L20" s="40"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" s="40"/>
       <c r="C21" s="46"/>
       <c r="D21" s="39" t="s">
@@ -58829,7 +58826,7 @@
       </c>
       <c r="L21" s="40"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" s="40"/>
       <c r="C22" s="46"/>
       <c r="D22" s="39" t="s">
@@ -58854,7 +58851,7 @@
       </c>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="75"/>
       <c r="B23" s="76"/>
       <c r="C23" s="77"/>
@@ -58878,7 +58875,7 @@
       <c r="K23" s="78"/>
       <c r="L23" s="76"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="58">
         <v>6</v>
       </c>
@@ -58902,7 +58899,7 @@
       </c>
       <c r="L24" s="60"/>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="40"/>
       <c r="C25" s="46"/>
       <c r="D25" s="39">
@@ -58922,7 +58919,7 @@
       <c r="K25" s="39"/>
       <c r="L25" s="40"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" s="40"/>
       <c r="C26" s="46"/>
       <c r="D26" s="39">
@@ -58942,7 +58939,7 @@
       <c r="K26" s="39"/>
       <c r="L26" s="40"/>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" s="40"/>
       <c r="C27" s="46"/>
       <c r="D27" s="39">
@@ -58962,7 +58959,7 @@
       <c r="K27" s="39"/>
       <c r="L27" s="40"/>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="40"/>
       <c r="C28" s="46"/>
       <c r="D28" s="39">
@@ -58982,7 +58979,7 @@
       <c r="K28" s="39"/>
       <c r="L28" s="40"/>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="40"/>
       <c r="C29" s="46"/>
       <c r="D29" s="39">
@@ -59002,7 +58999,7 @@
       <c r="K29" s="39"/>
       <c r="L29" s="40"/>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" s="40"/>
       <c r="C30" s="46"/>
       <c r="D30" s="39">
@@ -59022,7 +59019,7 @@
       <c r="K30" s="39"/>
       <c r="L30" s="40"/>
     </row>
-    <row r="31" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B31" s="40"/>
       <c r="C31" s="46"/>
       <c r="D31" s="39">
@@ -59047,7 +59044,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:12" s="19" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="38"/>
       <c r="B32" s="40"/>
       <c r="C32" s="46"/>
@@ -59073,7 +59070,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="75"/>
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
@@ -59097,7 +59094,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="86"/>
       <c r="C34" s="87"/>
@@ -59118,7 +59115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -59126,24 +59123,24 @@
       <selection pane="bottomLeft" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="109" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="42" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" style="42" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="52.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -59181,7 +59178,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A2" s="33">
         <v>1</v>
       </c>
@@ -59213,7 +59210,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="119">
         <v>2</v>
       </c>
@@ -59235,7 +59232,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="39" t="s">
         <v>5</v>
       </c>
@@ -59255,7 +59252,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
         <v>68</v>
       </c>
@@ -59278,7 +59275,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
@@ -59298,7 +59295,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
         <v>73</v>
       </c>
@@ -59318,7 +59315,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D8" s="39" t="s">
         <v>3</v>
       </c>
@@ -59341,7 +59338,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="175"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77"/>
@@ -59371,7 +59368,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="175"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
@@ -59401,7 +59398,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="119">
         <v>3</v>
       </c>
@@ -59423,7 +59420,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
@@ -59443,7 +59440,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="39" t="s">
         <v>59</v>
       </c>
@@ -59463,7 +59460,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="175"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -59485,7 +59482,7 @@
       <c r="K14" s="99"/>
       <c r="L14" s="100"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="119">
         <v>4</v>
       </c>
@@ -59511,7 +59508,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="39" t="s">
         <v>87</v>
       </c>
@@ -59531,7 +59528,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -59548,7 +59545,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D18" s="39" t="s">
         <v>3</v>
       </c>
@@ -59568,7 +59565,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D19" s="39" t="s">
         <v>34</v>
       </c>
@@ -59585,7 +59582,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D20" s="39" t="s">
         <v>5</v>
       </c>
@@ -59605,7 +59602,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D21" s="39" t="s">
         <v>9</v>
       </c>
@@ -59625,7 +59622,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="B22" s="76"/>
       <c r="C22" s="77"/>
       <c r="D22" s="78" t="s">
@@ -59676,7 +59673,7 @@
       </c>
       <c r="L23" s="60"/>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24" s="39" t="s">
         <v>4</v>
       </c>
@@ -59696,7 +59693,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D25" s="39" t="s">
         <v>6</v>
       </c>
@@ -59716,7 +59713,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" s="39" t="s">
         <v>8</v>
       </c>
@@ -59736,7 +59733,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A27" s="175"/>
       <c r="B27" s="76"/>
       <c r="C27" s="77"/>
@@ -59760,7 +59757,7 @@
       <c r="K27" s="78"/>
       <c r="L27" s="76"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="119">
         <v>6</v>
       </c>
@@ -59780,7 +59777,7 @@
       <c r="K28" s="59"/>
       <c r="L28" s="60"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D29" s="39" t="s">
         <v>78</v>
       </c>
@@ -59797,7 +59794,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D30" s="39" t="s">
         <v>87</v>
       </c>
@@ -59814,7 +59811,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="31" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A31" s="175"/>
       <c r="B31" s="76"/>
       <c r="C31" s="77"/>
@@ -59836,7 +59833,7 @@
       <c r="K31" s="78"/>
       <c r="L31" s="76"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="119">
         <v>7</v>
       </c>
@@ -59860,7 +59857,7 @@
       </c>
       <c r="L32" s="60"/>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D33" s="39">
         <v>1</v>
       </c>
@@ -59874,7 +59871,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D34" s="39">
         <v>2</v>
       </c>
@@ -59888,7 +59885,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D35" s="39">
         <v>3</v>
       </c>
@@ -59902,7 +59899,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D36" s="39" t="s">
         <v>87</v>
       </c>
@@ -59920,7 +59917,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="175"/>
       <c r="B37" s="76"/>
       <c r="C37" s="77"/>
@@ -59942,7 +59939,7 @@
       <c r="K37" s="78"/>
       <c r="L37" s="76"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="119">
         <v>8</v>
       </c>
@@ -59966,7 +59963,7 @@
       </c>
       <c r="L38" s="60"/>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D39" s="39">
         <v>1</v>
       </c>
@@ -59980,7 +59977,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D40" s="39">
         <v>2</v>
       </c>
@@ -59994,7 +59991,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D41" s="39">
         <v>3</v>
       </c>
@@ -60008,7 +60005,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="175"/>
       <c r="B42" s="76"/>
       <c r="C42" s="77"/>
@@ -60030,7 +60027,7 @@
       <c r="K42" s="78"/>
       <c r="L42" s="76"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="119">
         <v>9</v>
       </c>
@@ -60054,7 +60051,7 @@
       </c>
       <c r="L43" s="60"/>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D44" s="39" t="s">
         <v>8</v>
       </c>
@@ -60074,7 +60071,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D45" s="39" t="s">
         <v>4</v>
       </c>
@@ -60094,7 +60091,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="175"/>
       <c r="B46" s="76"/>
       <c r="C46" s="77"/>
@@ -60118,7 +60115,7 @@
       <c r="K46" s="78"/>
       <c r="L46" s="76"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="119">
         <v>10</v>
       </c>
@@ -60142,7 +60139,7 @@
       </c>
       <c r="L47" s="60"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D48" s="39" t="s">
         <v>11</v>
       </c>
@@ -60159,7 +60156,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D49" s="39" t="s">
         <v>4</v>
       </c>
@@ -60179,7 +60176,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="175"/>
       <c r="B50" s="76"/>
       <c r="C50" s="77"/>
@@ -60201,7 +60198,7 @@
       <c r="K50" s="78"/>
       <c r="L50" s="76"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="119">
         <v>11</v>
       </c>
@@ -60227,7 +60224,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D52" s="39" t="s">
         <v>9</v>
       </c>
@@ -60250,7 +60247,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="175"/>
       <c r="B53" s="76"/>
       <c r="C53" s="77"/>
@@ -60278,7 +60275,7 @@
       </c>
       <c r="L53" s="76"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="119"/>
       <c r="B54" s="60"/>
       <c r="C54" s="66"/>
@@ -60299,32 +60296,32 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="42" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.83203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.42578125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="28.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="52.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -60362,7 +60359,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -60394,7 +60391,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -60416,7 +60413,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="39" t="s">
         <v>5</v>
       </c>
@@ -60436,7 +60433,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D5" s="39" t="s">
         <v>68</v>
       </c>
@@ -60459,7 +60456,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="39" t="s">
         <v>4</v>
       </c>
@@ -60479,7 +60476,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
         <v>73</v>
       </c>
@@ -60499,7 +60496,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D8" s="39" t="s">
         <v>3</v>
       </c>
@@ -60522,7 +60519,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="75"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77"/>
@@ -60552,7 +60549,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="75"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
@@ -60582,7 +60579,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="58">
         <v>3</v>
       </c>
@@ -60604,7 +60601,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="39" t="s">
         <v>9</v>
       </c>
@@ -60624,7 +60621,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="39" t="s">
         <v>59</v>
       </c>
@@ -60644,7 +60641,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -60666,7 +60663,7 @@
       <c r="K14" s="99"/>
       <c r="L14" s="100"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="58">
         <v>4</v>
       </c>
@@ -60692,7 +60689,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D16" s="39" t="s">
         <v>87</v>
       </c>
@@ -60715,7 +60712,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D17" s="39" t="s">
         <v>14</v>
       </c>
@@ -60735,7 +60732,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D18" s="39" t="s">
         <v>3</v>
       </c>
@@ -60758,7 +60755,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D19" s="39" t="s">
         <v>34</v>
       </c>
@@ -60778,7 +60775,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D20" s="39" t="s">
         <v>5</v>
       </c>
@@ -60801,7 +60798,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D21" s="39" t="s">
         <v>9</v>
       </c>
@@ -60824,7 +60821,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="75"/>
       <c r="B22" s="76"/>
       <c r="C22" s="77"/>
@@ -60850,7 +60847,7 @@
       </c>
       <c r="L22" s="76"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="58">
         <v>5</v>
       </c>
@@ -60874,7 +60871,7 @@
       </c>
       <c r="L23" s="86"/>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="54"/>
       <c r="C24" s="55"/>
       <c r="D24" s="39" t="s">
@@ -60899,7 +60896,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" s="54"/>
       <c r="C25" s="55"/>
       <c r="D25" s="39" t="s">
@@ -60924,7 +60921,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="75"/>
       <c r="B26" s="112"/>
       <c r="C26" s="113"/>
@@ -60974,7 +60971,7 @@
       </c>
       <c r="L27" s="86"/>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" s="54"/>
       <c r="C28" s="55"/>
       <c r="D28" s="39" t="s">
@@ -60999,7 +60996,7 @@
       </c>
       <c r="L28" s="54"/>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" s="54"/>
       <c r="C29" s="55"/>
       <c r="D29" s="39" t="s">
@@ -61024,7 +61021,7 @@
       </c>
       <c r="L29" s="54"/>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="75"/>
       <c r="B30" s="112"/>
       <c r="C30" s="113"/>
@@ -61072,7 +61069,7 @@
       </c>
       <c r="L31" s="86"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" s="54"/>
       <c r="C32" s="55"/>
       <c r="D32" s="39" t="s">
@@ -61097,7 +61094,7 @@
       </c>
       <c r="L32" s="54"/>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B33" s="54"/>
       <c r="C33" s="55"/>
       <c r="D33" s="39" t="s">
@@ -61122,7 +61119,7 @@
       </c>
       <c r="L33" s="54"/>
     </row>
-    <row r="34" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="75"/>
       <c r="B34" s="112"/>
       <c r="C34" s="113"/>
@@ -61146,7 +61143,7 @@
       <c r="K34" s="117"/>
       <c r="L34" s="112"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="58">
         <v>8</v>
       </c>
@@ -61170,7 +61167,7 @@
       </c>
       <c r="L35" s="86"/>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B36" s="54"/>
       <c r="C36" s="55"/>
       <c r="D36" s="39" t="s">
@@ -61195,7 +61192,7 @@
       </c>
       <c r="L36" s="54"/>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B37" s="54"/>
       <c r="C37" s="55"/>
       <c r="D37" s="39" t="s">
@@ -61220,7 +61217,7 @@
       </c>
       <c r="L37" s="54"/>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B38" s="54"/>
       <c r="C38" s="55"/>
       <c r="D38" s="39" t="s">
@@ -61245,7 +61242,7 @@
       </c>
       <c r="L38" s="54"/>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B39" s="54"/>
       <c r="C39" s="55"/>
       <c r="D39" s="39" t="s">
@@ -61270,7 +61267,7 @@
       </c>
       <c r="L39" s="54"/>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B40" s="54"/>
       <c r="C40" s="55"/>
       <c r="D40" s="39" t="s">
@@ -61295,7 +61292,7 @@
       </c>
       <c r="L40" s="54"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B41" s="54"/>
       <c r="C41" s="55"/>
       <c r="D41" s="39" t="s">
@@ -61318,7 +61315,7 @@
       </c>
       <c r="L41" s="54"/>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="75"/>
       <c r="B42" s="112"/>
       <c r="C42" s="113"/>
@@ -61342,7 +61339,7 @@
       <c r="K42" s="117"/>
       <c r="L42" s="112"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="58">
         <v>9</v>
       </c>
@@ -61366,7 +61363,7 @@
       </c>
       <c r="L43" s="86"/>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B44" s="54"/>
       <c r="C44" s="55"/>
       <c r="D44" s="39" t="s">
@@ -61393,7 +61390,7 @@
       </c>
       <c r="L44" s="54"/>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B45" s="54"/>
       <c r="C45" s="55"/>
       <c r="D45" s="39" t="s">
@@ -61420,7 +61417,7 @@
       </c>
       <c r="L45" s="54"/>
     </row>
-    <row r="46" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A46" s="75"/>
       <c r="B46" s="112"/>
       <c r="C46" s="113"/>
@@ -61444,7 +61441,7 @@
       <c r="K46" s="117"/>
       <c r="L46" s="112"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="58">
         <v>10</v>
       </c>
@@ -61468,7 +61465,7 @@
       </c>
       <c r="L47" s="86"/>
     </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B48" s="54"/>
       <c r="C48" s="55"/>
       <c r="D48" s="39" t="s">
@@ -61495,7 +61492,7 @@
       </c>
       <c r="L48" s="54"/>
     </row>
-    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B49" s="54"/>
       <c r="C49" s="55"/>
       <c r="D49" s="39" t="s">
@@ -61522,7 +61519,7 @@
       </c>
       <c r="L49" s="54"/>
     </row>
-    <row r="50" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="75"/>
       <c r="B50" s="112"/>
       <c r="C50" s="113"/>
@@ -61546,7 +61543,7 @@
       <c r="K50" s="117"/>
       <c r="L50" s="112"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="58">
         <v>11</v>
       </c>
@@ -61570,7 +61567,7 @@
       </c>
       <c r="L51" s="86"/>
     </row>
-    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B52" s="54"/>
       <c r="C52" s="55"/>
       <c r="D52" s="39" t="s">
@@ -61595,7 +61592,7 @@
       </c>
       <c r="L52" s="54"/>
     </row>
-    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B53" s="54"/>
       <c r="C53" s="55"/>
       <c r="D53" s="39" t="s">
@@ -61620,7 +61617,7 @@
       </c>
       <c r="L53" s="54"/>
     </row>
-    <row r="54" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="75"/>
       <c r="B54" s="112"/>
       <c r="C54" s="113"/>
@@ -61644,7 +61641,7 @@
       <c r="K54" s="117"/>
       <c r="L54" s="54"/>
     </row>
-    <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A55" s="58">
         <v>12</v>
       </c>
@@ -61668,7 +61665,7 @@
       </c>
       <c r="L55" s="40"/>
     </row>
-    <row r="56" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A56" s="38"/>
       <c r="B56" s="40"/>
       <c r="C56" s="46"/>
@@ -61696,7 +61693,7 @@
       </c>
       <c r="L56" s="40"/>
     </row>
-    <row r="57" spans="1:12" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="38"/>
       <c r="B57" s="40"/>
       <c r="C57" s="46"/>
@@ -61724,7 +61721,7 @@
       </c>
       <c r="L57" s="40"/>
     </row>
-    <row r="58" spans="1:12" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="38"/>
       <c r="B58" s="40"/>
       <c r="C58" s="46"/>
@@ -61752,7 +61749,7 @@
       </c>
       <c r="L58" s="40"/>
     </row>
-    <row r="59" spans="1:12" s="14" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" s="14" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="75"/>
       <c r="B59" s="76"/>
       <c r="C59" s="77"/>
@@ -61776,7 +61773,7 @@
       <c r="K59" s="78"/>
       <c r="L59" s="76"/>
     </row>
-    <row r="60" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="119">
         <v>13</v>
       </c>
@@ -61802,7 +61799,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A61" s="92"/>
       <c r="B61" s="40"/>
       <c r="C61" s="46"/>
@@ -61830,7 +61827,7 @@
       </c>
       <c r="L61" s="40"/>
     </row>
-    <row r="62" spans="1:12" s="14" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="98"/>
       <c r="B62" s="76"/>
       <c r="C62" s="77"/>
@@ -61858,7 +61855,7 @@
       </c>
       <c r="L62" s="76"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="58"/>
       <c r="B63" s="60"/>
       <c r="C63" s="66"/>
@@ -61879,32 +61876,32 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" style="42" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.28515625" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -61942,7 +61939,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -61994,7 +61991,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="39" t="s">
         <v>6</v>
       </c>
@@ -62014,7 +62011,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -62038,7 +62035,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A6" s="58">
         <v>3</v>
       </c>
@@ -62066,7 +62063,7 @@
       </c>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
         <v>5</v>
       </c>
@@ -62086,7 +62083,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
       <c r="C8" s="77"/>
@@ -62136,7 +62133,7 @@
       </c>
       <c r="L9" s="60"/>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="D10" s="39" t="s">
         <v>8</v>
       </c>
@@ -62156,7 +62153,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
@@ -62182,7 +62179,7 @@
       </c>
       <c r="L11" s="76"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="58">
         <v>5</v>
       </c>
@@ -62206,7 +62203,7 @@
       </c>
       <c r="L12" s="60"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="39" t="s">
         <v>9</v>
       </c>
@@ -62226,7 +62223,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="39" t="s">
         <v>10</v>
       </c>
@@ -62246,7 +62243,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="39" t="s">
         <v>34</v>
       </c>
@@ -62266,7 +62263,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D16" s="39" t="s">
         <v>11</v>
       </c>
@@ -62286,7 +62283,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D17" s="39" t="s">
         <v>12</v>
       </c>
@@ -62306,7 +62303,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="75"/>
       <c r="B18" s="76"/>
       <c r="C18" s="77"/>
@@ -62330,7 +62327,7 @@
       </c>
       <c r="L18" s="76"/>
     </row>
-    <row r="19" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="58">
         <v>6</v>
       </c>
@@ -62358,7 +62355,7 @@
       </c>
       <c r="L19" s="60"/>
     </row>
-    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D20" s="39" t="s">
         <v>9</v>
       </c>
@@ -62381,7 +62378,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="75"/>
       <c r="B21" s="76"/>
       <c r="C21" s="77"/>
@@ -62394,7 +62391,9 @@
       <c r="F21" s="114" t="s">
         <v>539</v>
       </c>
-      <c r="G21" s="80"/>
+      <c r="G21" s="80" t="s">
+        <v>788</v>
+      </c>
       <c r="H21" s="81" t="s">
         <v>752</v>
       </c>
@@ -62409,7 +62408,7 @@
       </c>
       <c r="L21" s="76"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="58">
         <v>7</v>
       </c>
@@ -62433,7 +62432,7 @@
       </c>
       <c r="L22" s="60"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D23" s="39" t="s">
         <v>4</v>
       </c>
@@ -62456,7 +62455,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D24" s="39" t="s">
         <v>3</v>
       </c>
@@ -62476,7 +62475,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="75"/>
       <c r="B25" s="76"/>
       <c r="C25" s="77"/>
@@ -62502,7 +62501,7 @@
       </c>
       <c r="L25" s="76"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="58"/>
       <c r="B26" s="60"/>
       <c r="C26" s="66"/>
@@ -62522,7 +62521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -62530,24 +62529,24 @@
       <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="127" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="122" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="123" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="124" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="122" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="123" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" style="125" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" style="126" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.1640625" style="125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="124" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="122" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="123" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="124" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="122" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.140625" style="123" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" style="125" customWidth="1"/>
+    <col min="8" max="8" width="23.85546875" style="126" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.140625" style="125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.28515625" style="124" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="124" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="122" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="120"/>
+    <col min="12" max="12" width="23.28515625" style="122" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="120"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -62585,7 +62584,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -62639,7 +62638,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A4" s="38"/>
       <c r="B4" s="44"/>
       <c r="C4" s="45"/>
@@ -62667,7 +62666,7 @@
       </c>
       <c r="L4" s="40"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="38"/>
       <c r="B5" s="40"/>
       <c r="C5" s="46"/>
@@ -62697,7 +62696,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="75"/>
       <c r="B6" s="76"/>
       <c r="C6" s="77"/>
@@ -62723,7 +62722,7 @@
       </c>
       <c r="L6" s="76"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="58">
         <v>3</v>
       </c>
@@ -62745,7 +62744,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="38"/>
       <c r="B8" s="44"/>
       <c r="C8" s="45"/>
@@ -62767,7 +62766,7 @@
       <c r="K8" s="39"/>
       <c r="L8" s="54"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A9" s="38"/>
       <c r="B9" s="40"/>
       <c r="C9" s="46"/>
@@ -62789,7 +62788,7 @@
       <c r="K9" s="39"/>
       <c r="L9" s="40"/>
     </row>
-    <row r="10" spans="1:12" s="121" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="121" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="75"/>
       <c r="B10" s="76"/>
       <c r="C10" s="77"/>
@@ -62837,7 +62836,7 @@
       </c>
       <c r="L11" s="60"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="38"/>
       <c r="B12" s="44"/>
       <c r="C12" s="45"/>
@@ -62863,7 +62862,7 @@
       </c>
       <c r="L12" s="40"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="38"/>
       <c r="B13" s="40"/>
       <c r="C13" s="46"/>
@@ -62889,7 +62888,7 @@
       </c>
       <c r="L13" s="40"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -62935,7 +62934,7 @@
       </c>
       <c r="L15" s="60"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="38"/>
       <c r="B16" s="44"/>
       <c r="C16" s="45"/>
@@ -62963,7 +62962,7 @@
       </c>
       <c r="L16" s="40"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="75"/>
       <c r="B17" s="76"/>
       <c r="C17" s="77"/>
@@ -62991,7 +62990,7 @@
       </c>
       <c r="L17" s="76"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="58">
         <v>6</v>
       </c>
@@ -63015,7 +63014,7 @@
       </c>
       <c r="L18" s="60"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="38"/>
       <c r="B19" s="44"/>
       <c r="C19" s="45"/>
@@ -63041,7 +63040,7 @@
       </c>
       <c r="L19" s="40"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="38"/>
       <c r="B20" s="40"/>
       <c r="C20" s="46"/>
@@ -63067,7 +63066,7 @@
       </c>
       <c r="L20" s="40"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="38"/>
       <c r="B21" s="40"/>
       <c r="C21" s="46"/>
@@ -63093,7 +63092,7 @@
       </c>
       <c r="L21" s="40"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="38"/>
       <c r="B22" s="40"/>
       <c r="C22" s="46"/>
@@ -63119,7 +63118,7 @@
       </c>
       <c r="L22" s="40"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="38"/>
       <c r="B23" s="40"/>
       <c r="C23" s="46"/>
@@ -63145,7 +63144,7 @@
       </c>
       <c r="L23" s="40"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="38"/>
       <c r="B24" s="40"/>
       <c r="C24" s="46"/>
@@ -63169,7 +63168,7 @@
       </c>
       <c r="L24" s="40"/>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="75"/>
       <c r="B25" s="76"/>
       <c r="C25" s="77"/>
@@ -63191,7 +63190,7 @@
       <c r="K25" s="78"/>
       <c r="L25" s="76"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="128" t="s">
         <v>324</v>
       </c>
@@ -63213,7 +63212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -63221,24 +63220,24 @@
       <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.28515625" style="42" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" style="42" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.85546875" style="42" customWidth="1"/>
+    <col min="10" max="10" width="24.85546875" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -63276,7 +63275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -63308,7 +63307,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -63330,7 +63329,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="B4" s="44"/>
       <c r="C4" s="45"/>
       <c r="D4" s="39" t="s">
@@ -63352,7 +63351,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="D5" s="39" t="s">
         <v>61</v>
       </c>
@@ -63372,7 +63371,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="39" t="s">
         <v>8</v>
       </c>
@@ -63392,7 +63391,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
         <v>34</v>
       </c>
@@ -63412,7 +63411,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D8" s="39" t="s">
         <v>87</v>
       </c>
@@ -63432,7 +63431,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D9" s="39" t="s">
         <v>174</v>
       </c>
@@ -63452,7 +63451,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="39" t="s">
         <v>14</v>
       </c>
@@ -63472,7 +63471,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="A11" s="75"/>
       <c r="B11" s="76"/>
       <c r="C11" s="77"/>
@@ -63522,7 +63521,7 @@
       </c>
       <c r="L12" s="60"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="39">
         <v>1</v>
       </c>
@@ -63542,7 +63541,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D14" s="39">
         <v>2</v>
       </c>
@@ -63562,7 +63561,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D15" s="39">
         <v>3</v>
       </c>
@@ -63585,7 +63584,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="75"/>
       <c r="B16" s="76"/>
       <c r="C16" s="77"/>
@@ -63633,7 +63632,7 @@
       </c>
       <c r="L17" s="60"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D18" s="39" t="s">
         <v>5</v>
       </c>
@@ -63656,7 +63655,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D19" s="39" t="s">
         <v>6</v>
       </c>
@@ -63679,7 +63678,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="75"/>
       <c r="B20" s="76"/>
       <c r="C20" s="77"/>
@@ -63727,7 +63726,7 @@
       </c>
       <c r="L21" s="60"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D22" s="39" t="s">
         <v>8</v>
       </c>
@@ -63747,7 +63746,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="D23" s="39" t="s">
         <v>4</v>
       </c>
@@ -63770,7 +63769,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="75"/>
       <c r="B24" s="76"/>
       <c r="C24" s="77"/>
@@ -63792,7 +63791,7 @@
       <c r="K24" s="78"/>
       <c r="L24" s="76"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="58">
         <v>6</v>
       </c>
@@ -63816,7 +63815,7 @@
       </c>
       <c r="L25" s="60"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D26" s="39" t="s">
         <v>9</v>
       </c>
@@ -63836,7 +63835,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D27" s="39" t="s">
         <v>10</v>
       </c>
@@ -63856,7 +63855,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D28" s="39" t="s">
         <v>34</v>
       </c>
@@ -63876,7 +63875,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D29" s="39" t="s">
         <v>11</v>
       </c>
@@ -63896,7 +63895,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="75"/>
       <c r="B30" s="76"/>
       <c r="C30" s="77"/>
@@ -63922,7 +63921,7 @@
       </c>
       <c r="L30" s="76"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="58">
         <v>7</v>
       </c>
@@ -63946,7 +63945,7 @@
       </c>
       <c r="L31" s="60"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D32" s="39" t="s">
         <v>9</v>
       </c>
@@ -63966,7 +63965,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="75"/>
       <c r="B33" s="76"/>
       <c r="C33" s="77"/>
@@ -63996,7 +63995,7 @@
       </c>
       <c r="L33" s="76"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="58"/>
       <c r="B34" s="60"/>
       <c r="C34" s="66"/>
@@ -64016,7 +64015,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64024,24 +64023,24 @@
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="46" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="40" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="47.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="69" t="s">
         <v>398</v>
       </c>
@@ -64079,7 +64078,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -64111,7 +64110,7 @@
       </c>
       <c r="L2" s="25"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="58">
         <v>2</v>
       </c>
@@ -64131,7 +64130,7 @@
       <c r="K3" s="59"/>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D4" s="39" t="s">
         <v>14</v>
       </c>
@@ -64171,7 +64170,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D6" s="39" t="s">
         <v>3</v>
       </c>
@@ -64191,7 +64190,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
         <v>8</v>
       </c>
@@ -64211,7 +64210,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="75"/>
       <c r="B8" s="76"/>
       <c r="C8" s="77"/>
@@ -64235,7 +64234,7 @@
       <c r="K8" s="78"/>
       <c r="L8" s="76"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="58">
         <v>3</v>
       </c>
@@ -64257,7 +64256,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D10" s="39" t="s">
         <v>174</v>
       </c>
@@ -64271,7 +64270,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D11" s="39" t="s">
         <v>5</v>
       </c>
@@ -64299,7 +64298,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="39" t="s">
         <v>78</v>
       </c>
@@ -64313,7 +64312,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>
@@ -64355,7 +64354,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -64363,24 +64362,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.85546875" style="40" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="46" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="42" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" style="42" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" style="42" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.28515625" style="39" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="39" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.28515625" style="40" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.85546875" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="91" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="91" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="134" t="s">
         <v>398</v>
       </c>
@@ -64418,7 +64417,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -64474,7 +64473,7 @@
       </c>
       <c r="L3" s="60"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="15.95" x14ac:dyDescent="0.2">
       <c r="D4" s="39" t="s">
         <v>4</v>
       </c>
@@ -64494,7 +64493,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="75"/>
       <c r="B5" s="76"/>
       <c r="C5" s="77"/>
@@ -64544,7 +64543,7 @@
       </c>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D7" s="39" t="s">
         <v>8</v>
       </c>
@@ -64567,7 +64566,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D8" s="39" t="s">
         <v>4</v>
       </c>
@@ -64590,7 +64589,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="75"/>
       <c r="B9" s="76"/>
       <c r="C9" s="77"/>
@@ -64614,7 +64613,7 @@
       <c r="K9" s="78"/>
       <c r="L9" s="76"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="58">
         <v>4</v>
       </c>
@@ -64640,7 +64639,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="D11" s="39" t="s">
         <v>10</v>
       </c>
@@ -64657,7 +64656,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D12" s="39" t="s">
         <v>34</v>
       </c>
@@ -64674,7 +64673,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D13" s="39" t="s">
         <v>11</v>
       </c>
@@ -64688,7 +64687,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="75"/>
       <c r="B14" s="76"/>
       <c r="C14" s="77"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pet/Documents/NLP/Treebank/Docs/Annotation how-to/Tags&amp;tagset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!LaumasDoc\Git\Treebank\Docs\Annotation how-to\Tags&amp;tagset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A50112-3477-0144-B3D7-C1C1F133486A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F51632-0BA4-47B4-8B7B-EE9AC85FF195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="797">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="799">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -5641,6 +5641,12 @@
   </si>
   <si>
     <t>nelokāms īpašības vārds, ja saskaņojas ar nelokāmu lietvārdu vai ģenitīveni</t>
+  </si>
+  <si>
+    <t>Sintaktiskā funkcija</t>
+  </si>
+  <si>
+    <t>Syntactic function</t>
   </si>
 </sst>
 </file>
@@ -6787,34 +6793,34 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="97.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="97.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="20" t="s">
         <v>726</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
         <v>722</v>
       </c>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="6" t="s">
         <v>54</v>
       </c>
@@ -6822,7 +6828,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B7" s="8">
         <v>0</v>
       </c>
@@ -6830,13 +6836,13 @@
         <v>724</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>729</v>
       </c>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="21" t="s">
         <v>300</v>
       </c>
@@ -6844,7 +6850,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="10" t="s">
         <v>300</v>
       </c>
@@ -6862,29 +6868,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.26953125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -6922,7 +6928,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -6954,15 +6960,15 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>18</v>
+        <v>797</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>391</v>
+        <v>798</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="55"/>
@@ -6974,7 +6980,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D4" s="36" t="s">
         <v>3</v>
       </c>
@@ -6994,7 +7000,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="69"/>
       <c r="B5" s="70"/>
       <c r="C5" s="71"/>
@@ -7020,7 +7026,7 @@
       </c>
       <c r="L5" s="70"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="53"/>
       <c r="B6" s="55"/>
       <c r="C6" s="61"/>
@@ -7049,24 +7055,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -7104,7 +7110,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -7138,7 +7144,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53"/>
       <c r="B3" s="55"/>
       <c r="C3" s="61"/>
@@ -7166,24 +7172,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -7221,7 +7227,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -7255,7 +7261,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53"/>
       <c r="B3" s="55"/>
       <c r="C3" s="61"/>
@@ -7283,24 +7289,24 @@
       <selection pane="bottomLeft" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.36328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -7338,7 +7344,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -7372,7 +7378,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -7392,7 +7398,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="41"/>
       <c r="C4" s="42"/>
       <c r="D4" s="36" t="s">
@@ -7414,7 +7420,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D5" s="36" t="s">
         <v>174</v>
       </c>
@@ -7437,7 +7443,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>8</v>
       </c>
@@ -7463,7 +7469,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>286</v>
       </c>
@@ -7489,7 +7495,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>34</v>
       </c>
@@ -7512,7 +7518,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>68</v>
       </c>
@@ -7532,7 +7538,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="69"/>
       <c r="B10" s="70"/>
       <c r="C10" s="71"/>
@@ -7556,7 +7562,7 @@
       <c r="K10" s="72"/>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="53"/>
       <c r="B11" s="55"/>
       <c r="C11" s="61"/>
@@ -7585,24 +7591,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -7640,7 +7646,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -7676,7 +7682,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -7706,7 +7712,7 @@
       <c r="K3" s="133"/>
       <c r="L3" s="134"/>
     </row>
-    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="37"/>
       <c r="C4" s="43"/>
@@ -7730,7 +7736,7 @@
       <c r="K4" s="126"/>
       <c r="L4" s="127"/>
     </row>
-    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="37"/>
       <c r="C5" s="43"/>
@@ -7752,7 +7758,7 @@
       <c r="K5" s="126"/>
       <c r="L5" s="127"/>
     </row>
-    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="37"/>
       <c r="C6" s="43"/>
@@ -7774,7 +7780,7 @@
       <c r="K6" s="126"/>
       <c r="L6" s="127"/>
     </row>
-    <row r="7" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="128"/>
       <c r="B7" s="129"/>
       <c r="C7" s="130"/>
@@ -7796,7 +7802,7 @@
       <c r="K7" s="131"/>
       <c r="L7" s="129"/>
     </row>
-    <row r="8" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="135"/>
       <c r="B8" s="136"/>
       <c r="C8" s="137"/>
@@ -7818,7 +7824,7 @@
       <c r="K8" s="138"/>
       <c r="L8" s="136"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="53"/>
       <c r="B9" s="55"/>
       <c r="C9" s="61"/>
@@ -7847,24 +7853,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -7902,7 +7908,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -7936,7 +7942,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -7966,7 +7972,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="36" t="s">
         <v>68</v>
       </c>
@@ -7983,7 +7989,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D5" s="36" t="s">
         <v>9</v>
       </c>
@@ -8000,7 +8006,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>135</v>
       </c>
@@ -8018,7 +8024,7 @@
       </c>
       <c r="I6" s="110"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -8040,7 +8046,7 @@
       <c r="K7" s="72"/>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="53"/>
       <c r="B8" s="55"/>
       <c r="C8" s="61"/>
@@ -8067,25 +8073,25 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="18" customWidth="1"/>
     <col min="2" max="2" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="49" customWidth="1"/>
     <col min="9" max="9" width="21" style="52" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6328125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" style="52" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="52" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53" style="49" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="18"/>
+    <col min="14" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>732</v>
       </c>
@@ -8102,7 +8108,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8121,7 +8127,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8140,13 +8146,13 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>725</v>
       </c>
       <c r="B4" s="157"/>
     </row>
-    <row r="5" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A5" s="142" t="s">
         <v>764</v>
       </c>
@@ -8163,22 +8169,22 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>765</v>
       </c>
       <c r="B6" s="157"/>
     </row>
-    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>782</v>
       </c>
       <c r="B7" s="157"/>
     </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="157"/>
     </row>
-    <row r="9" spans="1:14" ht="19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A9" s="142" t="s">
         <v>670</v>
       </c>
@@ -8195,7 +8201,7 @@
       <c r="L9" s="18"/>
       <c r="M9" s="18"/>
     </row>
-    <row r="10" spans="1:14" s="143" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:14" s="143" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="145" t="s">
         <v>406</v>
       </c>
@@ -8236,7 +8242,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="13" t="s">
         <v>405</v>
       </c>
@@ -8275,7 +8281,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="53">
         <v>5</v>
       </c>
@@ -8307,7 +8313,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="69"/>
       <c r="C13" s="102"/>
       <c r="D13" s="103"/>
@@ -8321,7 +8327,7 @@
       <c r="L13" s="107"/>
       <c r="M13" s="102"/>
     </row>
-    <row r="14" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A14" s="15" t="s">
         <v>454</v>
       </c>
@@ -8354,7 +8360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B15" s="69"/>
       <c r="C15" s="102"/>
       <c r="D15" s="103"/>
@@ -8368,7 +8374,7 @@
       <c r="L15" s="107"/>
       <c r="M15" s="102"/>
     </row>
-    <row r="16" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>519</v>
       </c>
@@ -8402,7 +8408,7 @@
       </c>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B17" s="69"/>
       <c r="C17" s="102"/>
       <c r="D17" s="103"/>
@@ -8416,7 +8422,7 @@
       <c r="L17" s="107"/>
       <c r="M17" s="102"/>
     </row>
-    <row r="18" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>554</v>
       </c>
@@ -8449,7 +8455,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C19" s="37"/>
       <c r="D19" s="43"/>
       <c r="E19" s="36" t="s">
@@ -8470,7 +8476,7 @@
       <c r="L19" s="36"/>
       <c r="M19" s="37"/>
     </row>
-    <row r="20" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="C20" s="37"/>
       <c r="D20" s="43"/>
       <c r="E20" s="36" t="s">
@@ -8491,7 +8497,7 @@
       <c r="L20" s="36"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="C21" s="37"/>
       <c r="D21" s="43"/>
       <c r="E21" s="36" t="s">
@@ -8512,7 +8518,7 @@
       <c r="L21" s="36"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="C22" s="37"/>
       <c r="D22" s="43"/>
       <c r="E22" s="36" t="s">
@@ -8533,7 +8539,7 @@
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C23" s="37"/>
       <c r="D23" s="43"/>
       <c r="E23" s="36" t="s">
@@ -8552,7 +8558,7 @@
       <c r="L23" s="36"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C24" s="37"/>
       <c r="D24" s="43"/>
       <c r="E24" s="36" t="s">
@@ -8571,7 +8577,7 @@
       <c r="L24" s="36"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B25" s="69"/>
       <c r="C25" s="102"/>
       <c r="D25" s="103"/>
@@ -8585,7 +8591,7 @@
       <c r="L25" s="107"/>
       <c r="M25" s="102"/>
     </row>
-    <row r="26" spans="1:13" s="144" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" s="144" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>564</v>
       </c>
@@ -8614,7 +8620,7 @@
       <c r="L26" s="151"/>
       <c r="M26" s="156"/>
     </row>
-    <row r="27" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="C27" s="37"/>
       <c r="D27" s="43"/>
       <c r="E27" s="36" t="s">
@@ -8633,7 +8639,7 @@
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C28" s="37"/>
       <c r="D28" s="43"/>
       <c r="E28" s="36">
@@ -8649,7 +8655,7 @@
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B29" s="69"/>
       <c r="C29" s="102"/>
       <c r="D29" s="103"/>
@@ -8663,7 +8669,7 @@
       <c r="L29" s="107"/>
       <c r="M29" s="102"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" s="14" t="s">
         <v>598</v>
       </c>
@@ -8684,7 +8690,7 @@
       <c r="L30" s="82"/>
       <c r="M30" s="78"/>
     </row>
-    <row r="31" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C31" s="37"/>
       <c r="E31" s="36" t="s">
         <v>59</v>
@@ -8701,7 +8707,7 @@
       <c r="J31" s="37"/>
       <c r="K31" s="36"/>
     </row>
-    <row r="32" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C32" s="37"/>
       <c r="E32" s="36" t="s">
         <v>9</v>
@@ -8718,7 +8724,7 @@
       <c r="J32" s="37"/>
       <c r="K32" s="36"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B33" s="69"/>
       <c r="C33" s="102"/>
       <c r="D33" s="103"/>
@@ -8732,7 +8738,7 @@
       <c r="L33" s="107"/>
       <c r="M33" s="102"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
         <v>611</v>
       </c>
@@ -8757,7 +8763,7 @@
       <c r="L34" s="54"/>
       <c r="M34" s="55"/>
     </row>
-    <row r="35" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C35" s="41"/>
       <c r="D35" s="42"/>
       <c r="E35" s="36" t="s">
@@ -8780,7 +8786,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C36" s="37"/>
       <c r="D36" s="43"/>
       <c r="E36" s="36" t="s">
@@ -8801,7 +8807,7 @@
       <c r="L36" s="36"/>
       <c r="M36" s="37"/>
     </row>
-    <row r="37" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C37" s="37"/>
       <c r="D37" s="43"/>
       <c r="E37" s="36" t="s">
@@ -8824,7 +8830,7 @@
       <c r="L37" s="36"/>
       <c r="M37" s="37"/>
     </row>
-    <row r="38" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C38" s="37"/>
       <c r="D38" s="43"/>
       <c r="E38" s="36" t="s">
@@ -8845,7 +8851,7 @@
       <c r="L38" s="36"/>
       <c r="M38" s="37"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B39" s="69"/>
       <c r="C39" s="70"/>
       <c r="D39" s="71"/>
@@ -8859,7 +8865,7 @@
       <c r="L39" s="72"/>
       <c r="M39" s="70"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
         <v>620</v>
       </c>
@@ -8884,7 +8890,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C41" s="41"/>
       <c r="D41" s="42"/>
       <c r="E41" s="36" t="s">
@@ -8904,7 +8910,7 @@
       <c r="K41" s="36"/>
       <c r="L41" s="36"/>
     </row>
-    <row r="42" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="C42" s="37"/>
       <c r="D42" s="43"/>
       <c r="E42" s="36" t="s">
@@ -8925,7 +8931,7 @@
       <c r="L42" s="36"/>
       <c r="M42" s="37"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B43" s="69"/>
       <c r="C43" s="102"/>
       <c r="D43" s="103"/>
@@ -8939,7 +8945,7 @@
       <c r="L43" s="107"/>
       <c r="M43" s="102"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
         <v>634</v>
       </c>
@@ -8964,7 +8970,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C45" s="41"/>
       <c r="D45" s="42"/>
       <c r="E45" s="36" t="s">
@@ -8983,7 +8989,7 @@
       <c r="J45" s="37"/>
       <c r="K45" s="36"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C46" s="37"/>
       <c r="D46" s="43"/>
       <c r="E46" s="36" t="s">
@@ -9003,7 +9009,7 @@
       <c r="K46" s="36"/>
       <c r="L46" s="36"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B47" s="69"/>
       <c r="C47" s="102"/>
       <c r="D47" s="103"/>
@@ -9017,7 +9023,7 @@
       <c r="L47" s="107"/>
       <c r="M47" s="102"/>
     </row>
-    <row r="48" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
         <v>669</v>
       </c>
@@ -9048,7 +9054,7 @@
       <c r="L48" s="160"/>
       <c r="M48" s="161"/>
     </row>
-    <row r="49" spans="2:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="53"/>
       <c r="C49" s="78"/>
       <c r="D49" s="79"/>
@@ -9077,24 +9083,24 @@
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="49" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" style="51" customWidth="1"/>
+    <col min="9" max="9" width="33.6328125" style="48" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="52" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="18"/>
+    <col min="12" max="12" width="23.453125" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="62" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="62" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -9132,7 +9138,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -9162,7 +9168,7 @@
       <c r="K2" s="28"/>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -9182,7 +9188,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="37"/>
       <c r="C4" s="43"/>
       <c r="D4" s="36" t="s">
@@ -9211,7 +9217,7 @@
       </c>
       <c r="L4" s="37"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="69"/>
       <c r="B5" s="70"/>
       <c r="C5" s="71"/>
@@ -9239,7 +9245,7 @@
       </c>
       <c r="L5" s="70"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="53">
         <v>3</v>
       </c>
@@ -9263,7 +9269,7 @@
       </c>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B7" s="37"/>
       <c r="C7" s="43"/>
       <c r="D7" s="36" t="s">
@@ -9290,7 +9296,7 @@
       </c>
       <c r="L7" s="37"/>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="37"/>
       <c r="C8" s="43"/>
       <c r="D8" s="36" t="s">
@@ -9315,7 +9321,7 @@
       </c>
       <c r="L8" s="37"/>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -9339,7 +9345,7 @@
       <c r="K9" s="72"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="53">
         <v>4</v>
       </c>
@@ -9363,7 +9369,7 @@
       </c>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B11" s="37"/>
       <c r="C11" s="43"/>
       <c r="D11" s="36" t="s">
@@ -9388,7 +9394,7 @@
       </c>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B12" s="37"/>
       <c r="C12" s="43"/>
       <c r="D12" s="36" t="s">
@@ -9413,7 +9419,7 @@
       </c>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B13" s="37"/>
       <c r="C13" s="43"/>
       <c r="D13" s="36" t="s">
@@ -9438,7 +9444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B14" s="37"/>
       <c r="C14" s="43"/>
       <c r="D14" s="36" t="s">
@@ -9465,7 +9471,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
       <c r="C15" s="71"/>
@@ -9487,7 +9493,7 @@
       <c r="K15" s="72"/>
       <c r="L15" s="70"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="53">
         <v>5</v>
       </c>
@@ -9511,7 +9517,7 @@
       </c>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B17" s="37"/>
       <c r="C17" s="43"/>
       <c r="D17" s="36" t="s">
@@ -9536,7 +9542,7 @@
       </c>
       <c r="L17" s="37"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B18" s="37"/>
       <c r="C18" s="43"/>
       <c r="D18" s="36" t="s">
@@ -9561,7 +9567,7 @@
       </c>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="37"/>
       <c r="C19" s="43"/>
       <c r="D19" s="36" t="s">
@@ -9586,7 +9592,7 @@
       </c>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="37"/>
       <c r="C20" s="43"/>
       <c r="D20" s="36" t="s">
@@ -9611,7 +9617,7 @@
       </c>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="37"/>
       <c r="C21" s="43"/>
       <c r="D21" s="36" t="s">
@@ -9636,7 +9642,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="37"/>
       <c r="C22" s="43"/>
       <c r="D22" s="36" t="s">
@@ -9661,7 +9667,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
       <c r="C23" s="71"/>
@@ -9685,7 +9691,7 @@
       <c r="K23" s="72"/>
       <c r="L23" s="70"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="53">
         <v>6</v>
       </c>
@@ -9709,7 +9715,7 @@
       </c>
       <c r="L24" s="55"/>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="37"/>
       <c r="C25" s="43"/>
       <c r="D25" s="36">
@@ -9729,7 +9735,7 @@
       <c r="K25" s="36"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="37"/>
       <c r="C26" s="43"/>
       <c r="D26" s="36">
@@ -9749,7 +9755,7 @@
       <c r="K26" s="36"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="37"/>
       <c r="C27" s="43"/>
       <c r="D27" s="36">
@@ -9769,7 +9775,7 @@
       <c r="K27" s="36"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="37"/>
       <c r="C28" s="43"/>
       <c r="D28" s="36">
@@ -9789,7 +9795,7 @@
       <c r="K28" s="36"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="37"/>
       <c r="C29" s="43"/>
       <c r="D29" s="36">
@@ -9809,7 +9815,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="37"/>
       <c r="C30" s="43"/>
       <c r="D30" s="36">
@@ -9829,7 +9835,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B31" s="37"/>
       <c r="C31" s="43"/>
       <c r="D31" s="36">
@@ -9854,7 +9860,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B32" s="37"/>
       <c r="C32" s="43"/>
       <c r="D32" s="36" t="s">
@@ -9879,7 +9885,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="69"/>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
@@ -9903,7 +9909,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="53"/>
       <c r="B34" s="78"/>
       <c r="C34" s="79"/>
@@ -9932,24 +9938,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="52.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -9987,7 +9993,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="30">
         <v>1</v>
       </c>
@@ -10019,7 +10025,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="109">
         <v>2</v>
       </c>
@@ -10041,7 +10047,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="36" t="s">
         <v>5</v>
       </c>
@@ -10061,7 +10067,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D5" s="36" t="s">
         <v>68</v>
       </c>
@@ -10084,7 +10090,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
@@ -10104,7 +10110,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>73</v>
       </c>
@@ -10124,7 +10130,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>3</v>
       </c>
@@ -10147,7 +10153,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="158"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -10177,7 +10183,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="158"/>
       <c r="B10" s="70"/>
       <c r="C10" s="71"/>
@@ -10207,7 +10213,7 @@
         <v>776</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="109">
         <v>3</v>
       </c>
@@ -10229,7 +10235,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D12" s="36" t="s">
         <v>9</v>
       </c>
@@ -10249,7 +10255,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D13" s="36" t="s">
         <v>59</v>
       </c>
@@ -10269,7 +10275,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="158"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -10291,7 +10297,7 @@
       <c r="K14" s="89"/>
       <c r="L14" s="90"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="109">
         <v>4</v>
       </c>
@@ -10317,7 +10323,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D16" s="36" t="s">
         <v>87</v>
       </c>
@@ -10337,7 +10343,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D17" s="36" t="s">
         <v>14</v>
       </c>
@@ -10354,7 +10360,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>3</v>
       </c>
@@ -10374,7 +10380,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>34</v>
       </c>
@@ -10394,7 +10400,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>5</v>
       </c>
@@ -10414,7 +10420,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>9</v>
       </c>
@@ -10434,7 +10440,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
       <c r="D22" s="72" t="s">
@@ -10461,7 +10467,7 @@
       </c>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="99">
         <v>5</v>
       </c>
@@ -10485,7 +10491,7 @@
       </c>
       <c r="L23" s="55"/>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D24" s="36" t="s">
         <v>4</v>
       </c>
@@ -10505,7 +10511,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D25" s="36" t="s">
         <v>6</v>
       </c>
@@ -10525,7 +10531,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D26" s="36" t="s">
         <v>8</v>
       </c>
@@ -10545,7 +10551,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A27" s="158"/>
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
@@ -10569,7 +10575,7 @@
       <c r="K27" s="72"/>
       <c r="L27" s="70"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="109">
         <v>6</v>
       </c>
@@ -10589,7 +10595,7 @@
       <c r="K28" s="54"/>
       <c r="L28" s="55"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D29" s="36" t="s">
         <v>78</v>
       </c>
@@ -10606,7 +10612,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D30" s="36" t="s">
         <v>87</v>
       </c>
@@ -10623,7 +10629,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="158"/>
       <c r="B31" s="70"/>
       <c r="C31" s="71"/>
@@ -10645,7 +10651,7 @@
       <c r="K31" s="72"/>
       <c r="L31" s="70"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="109">
         <v>7</v>
       </c>
@@ -10669,7 +10675,7 @@
       </c>
       <c r="L32" s="55"/>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D33" s="36">
         <v>1</v>
       </c>
@@ -10683,7 +10689,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D34" s="36">
         <v>2</v>
       </c>
@@ -10697,7 +10703,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D35" s="36">
         <v>3</v>
       </c>
@@ -10711,7 +10717,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D36" s="36" t="s">
         <v>87</v>
       </c>
@@ -10728,7 +10734,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="158"/>
       <c r="B37" s="70"/>
       <c r="C37" s="71"/>
@@ -10750,7 +10756,7 @@
       <c r="K37" s="72"/>
       <c r="L37" s="70"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A38" s="109">
         <v>8</v>
       </c>
@@ -10774,7 +10780,7 @@
       </c>
       <c r="L38" s="55"/>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D39" s="36">
         <v>1</v>
       </c>
@@ -10788,7 +10794,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D40" s="36">
         <v>2</v>
       </c>
@@ -10802,7 +10808,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D41" s="36">
         <v>3</v>
       </c>
@@ -10816,7 +10822,7 @@
         <v>709</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A42" s="158"/>
       <c r="B42" s="70"/>
       <c r="C42" s="71"/>
@@ -10838,7 +10844,7 @@
       <c r="K42" s="72"/>
       <c r="L42" s="70"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="109">
         <v>9</v>
       </c>
@@ -10862,7 +10868,7 @@
       </c>
       <c r="L43" s="55"/>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D44" s="36" t="s">
         <v>8</v>
       </c>
@@ -10882,7 +10888,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D45" s="36" t="s">
         <v>4</v>
       </c>
@@ -10902,7 +10908,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A46" s="158"/>
       <c r="B46" s="70"/>
       <c r="C46" s="71"/>
@@ -10926,7 +10932,7 @@
       <c r="K46" s="72"/>
       <c r="L46" s="70"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="109">
         <v>10</v>
       </c>
@@ -10950,7 +10956,7 @@
       </c>
       <c r="L47" s="55"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D48" s="36" t="s">
         <v>11</v>
       </c>
@@ -10967,7 +10973,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D49" s="36" t="s">
         <v>4</v>
       </c>
@@ -10987,7 +10993,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="158"/>
       <c r="B50" s="70"/>
       <c r="C50" s="71"/>
@@ -11009,7 +11015,7 @@
       <c r="K50" s="72"/>
       <c r="L50" s="70"/>
     </row>
-    <row r="51" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A51" s="109">
         <v>11</v>
       </c>
@@ -11037,7 +11043,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D52" s="36" t="s">
         <v>9</v>
       </c>
@@ -11057,7 +11063,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="158"/>
       <c r="B53" s="70"/>
       <c r="C53" s="71"/>
@@ -11083,7 +11089,7 @@
       </c>
       <c r="L53" s="70"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A54" s="109"/>
       <c r="B54" s="55"/>
       <c r="C54" s="61"/>
@@ -11112,24 +11118,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="39" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="52.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -11167,7 +11173,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -11199,7 +11205,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -11221,7 +11227,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="36" t="s">
         <v>5</v>
       </c>
@@ -11241,7 +11247,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D5" s="36" t="s">
         <v>68</v>
       </c>
@@ -11264,7 +11270,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
@@ -11284,7 +11290,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>73</v>
       </c>
@@ -11304,7 +11310,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>3</v>
       </c>
@@ -11327,7 +11333,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -11357,7 +11363,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A10" s="69"/>
       <c r="B10" s="70"/>
       <c r="C10" s="71"/>
@@ -11387,7 +11393,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="53">
         <v>3</v>
       </c>
@@ -11409,7 +11415,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D12" s="36" t="s">
         <v>9</v>
       </c>
@@ -11429,7 +11435,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D13" s="36" t="s">
         <v>59</v>
       </c>
@@ -11449,7 +11455,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -11471,7 +11477,7 @@
       <c r="K14" s="89"/>
       <c r="L14" s="90"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="53">
         <v>4</v>
       </c>
@@ -11497,7 +11503,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D16" s="36" t="s">
         <v>87</v>
       </c>
@@ -11520,7 +11526,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D17" s="36" t="s">
         <v>14</v>
       </c>
@@ -11540,7 +11546,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>3</v>
       </c>
@@ -11563,7 +11569,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>34</v>
       </c>
@@ -11583,7 +11589,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>5</v>
       </c>
@@ -11606,7 +11612,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>9</v>
       </c>
@@ -11629,7 +11635,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
@@ -11655,7 +11661,7 @@
       </c>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="53">
         <v>5</v>
       </c>
@@ -11679,7 +11685,7 @@
       </c>
       <c r="L23" s="78"/>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="49"/>
       <c r="C24" s="50"/>
       <c r="D24" s="36" t="s">
@@ -11704,7 +11710,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B25" s="49"/>
       <c r="C25" s="50"/>
       <c r="D25" s="36" t="s">
@@ -11729,7 +11735,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="69"/>
       <c r="B26" s="102"/>
       <c r="C26" s="103"/>
@@ -11755,7 +11761,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="53">
         <v>6</v>
       </c>
@@ -11779,7 +11785,7 @@
       </c>
       <c r="L27" s="78"/>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="49"/>
       <c r="C28" s="50"/>
       <c r="D28" s="36" t="s">
@@ -11804,7 +11810,7 @@
       </c>
       <c r="L28" s="49"/>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="49"/>
       <c r="C29" s="50"/>
       <c r="D29" s="36" t="s">
@@ -11829,7 +11835,7 @@
       </c>
       <c r="L29" s="49"/>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="69"/>
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
@@ -11853,7 +11859,7 @@
       <c r="K30" s="107"/>
       <c r="L30" s="102"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="53">
         <v>7</v>
       </c>
@@ -11877,7 +11883,7 @@
       </c>
       <c r="L31" s="78"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="49"/>
       <c r="C32" s="50"/>
       <c r="D32" s="36" t="s">
@@ -11902,7 +11908,7 @@
       </c>
       <c r="L32" s="49"/>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B33" s="49"/>
       <c r="C33" s="50"/>
       <c r="D33" s="36" t="s">
@@ -11927,7 +11933,7 @@
       </c>
       <c r="L33" s="49"/>
     </row>
-    <row r="34" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A34" s="69"/>
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
@@ -11951,7 +11957,7 @@
       <c r="K34" s="107"/>
       <c r="L34" s="102"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="53">
         <v>8</v>
       </c>
@@ -11975,7 +11981,7 @@
       </c>
       <c r="L35" s="78"/>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B36" s="49"/>
       <c r="C36" s="50"/>
       <c r="D36" s="36" t="s">
@@ -12000,7 +12006,7 @@
       </c>
       <c r="L36" s="49"/>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B37" s="49"/>
       <c r="C37" s="50"/>
       <c r="D37" s="36" t="s">
@@ -12025,7 +12031,7 @@
       </c>
       <c r="L37" s="49"/>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
       <c r="D38" s="36" t="s">
@@ -12050,7 +12056,7 @@
       </c>
       <c r="L38" s="49"/>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
       <c r="D39" s="36" t="s">
@@ -12075,7 +12081,7 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
       <c r="D40" s="36" t="s">
@@ -12100,7 +12106,7 @@
       </c>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B41" s="49"/>
       <c r="C41" s="50"/>
       <c r="D41" s="36" t="s">
@@ -12123,7 +12129,7 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A42" s="69"/>
       <c r="B42" s="102"/>
       <c r="C42" s="103"/>
@@ -12147,7 +12153,7 @@
       <c r="K42" s="107"/>
       <c r="L42" s="102"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A43" s="53">
         <v>9</v>
       </c>
@@ -12171,7 +12177,7 @@
       </c>
       <c r="L43" s="78"/>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B44" s="49"/>
       <c r="C44" s="50"/>
       <c r="D44" s="36" t="s">
@@ -12198,7 +12204,7 @@
       </c>
       <c r="L44" s="49"/>
     </row>
-    <row r="45" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B45" s="49"/>
       <c r="C45" s="50"/>
       <c r="D45" s="36" t="s">
@@ -12225,7 +12231,7 @@
       </c>
       <c r="L45" s="49"/>
     </row>
-    <row r="46" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A46" s="69"/>
       <c r="B46" s="102"/>
       <c r="C46" s="103"/>
@@ -12249,7 +12255,7 @@
       <c r="K46" s="107"/>
       <c r="L46" s="102"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A47" s="53">
         <v>10</v>
       </c>
@@ -12273,7 +12279,7 @@
       </c>
       <c r="L47" s="78"/>
     </row>
-    <row r="48" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B48" s="49"/>
       <c r="C48" s="50"/>
       <c r="D48" s="36" t="s">
@@ -12300,7 +12306,7 @@
       </c>
       <c r="L48" s="49"/>
     </row>
-    <row r="49" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B49" s="49"/>
       <c r="C49" s="50"/>
       <c r="D49" s="36" t="s">
@@ -12327,7 +12333,7 @@
       </c>
       <c r="L49" s="49"/>
     </row>
-    <row r="50" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A50" s="69"/>
       <c r="B50" s="102"/>
       <c r="C50" s="103"/>
@@ -12351,7 +12357,7 @@
       <c r="K50" s="107"/>
       <c r="L50" s="102"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A51" s="53">
         <v>11</v>
       </c>
@@ -12375,7 +12381,7 @@
       </c>
       <c r="L51" s="78"/>
     </row>
-    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B52" s="49"/>
       <c r="C52" s="50"/>
       <c r="D52" s="36" t="s">
@@ -12400,7 +12406,7 @@
       </c>
       <c r="L52" s="49"/>
     </row>
-    <row r="53" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B53" s="49"/>
       <c r="C53" s="50"/>
       <c r="D53" s="36" t="s">
@@ -12425,7 +12431,7 @@
       </c>
       <c r="L53" s="49"/>
     </row>
-    <row r="54" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A54" s="69"/>
       <c r="B54" s="102"/>
       <c r="C54" s="103"/>
@@ -12449,7 +12455,7 @@
       <c r="K54" s="107"/>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="53">
         <v>12</v>
       </c>
@@ -12472,7 +12478,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D56" s="36" t="s">
         <v>4</v>
       </c>
@@ -12495,7 +12501,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D57" s="36" t="s">
         <v>3</v>
       </c>
@@ -12518,7 +12524,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D58" s="36" t="s">
         <v>8</v>
       </c>
@@ -12541,7 +12547,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A59" s="69"/>
       <c r="B59" s="70"/>
       <c r="C59" s="71"/>
@@ -12565,7 +12571,7 @@
       <c r="K59" s="72"/>
       <c r="L59" s="70"/>
     </row>
-    <row r="60" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A60" s="109">
         <v>13</v>
       </c>
@@ -12593,7 +12599,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A61" s="84"/>
       <c r="D61" s="36" t="s">
         <v>9</v>
@@ -12614,7 +12620,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A62" s="88"/>
       <c r="B62" s="70"/>
       <c r="C62" s="71"/>
@@ -12640,7 +12646,7 @@
       </c>
       <c r="L62" s="70"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="53"/>
       <c r="B63" s="55"/>
       <c r="C63" s="61"/>
@@ -12664,29 +12670,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="39" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.453125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="23.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -12724,7 +12730,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -12756,7 +12762,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -12776,7 +12782,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="36" t="s">
         <v>6</v>
       </c>
@@ -12796,7 +12802,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="69"/>
       <c r="B5" s="70"/>
       <c r="C5" s="71"/>
@@ -12820,7 +12826,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A6" s="53">
         <v>3</v>
       </c>
@@ -12848,7 +12854,7 @@
       </c>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>5</v>
       </c>
@@ -12868,7 +12874,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="71"/>
@@ -12894,7 +12900,7 @@
       </c>
       <c r="L8" s="70"/>
     </row>
-    <row r="9" spans="1:12" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="18" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -12918,7 +12924,7 @@
       <c r="K9" s="72"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="53">
         <v>4</v>
       </c>
@@ -12942,7 +12948,7 @@
       </c>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
         <v>8</v>
       </c>
@@ -12962,7 +12968,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -12988,7 +12994,7 @@
       </c>
       <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:12" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
       <c r="C13" s="71"/>
@@ -13010,7 +13016,7 @@
       <c r="K13" s="72"/>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="53">
         <v>5</v>
       </c>
@@ -13034,7 +13040,7 @@
       </c>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36" t="s">
         <v>9</v>
       </c>
@@ -13054,7 +13060,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D16" s="36" t="s">
         <v>10</v>
       </c>
@@ -13074,7 +13080,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D17" s="36" t="s">
         <v>34</v>
       </c>
@@ -13094,7 +13100,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>11</v>
       </c>
@@ -13114,7 +13120,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>12</v>
       </c>
@@ -13134,7 +13140,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
       <c r="C20" s="71"/>
@@ -13158,7 +13164,7 @@
       </c>
       <c r="L20" s="70"/>
     </row>
-    <row r="21" spans="1:12" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A21" s="69"/>
       <c r="B21" s="70"/>
       <c r="C21" s="71"/>
@@ -13182,7 +13188,7 @@
       <c r="K21" s="72"/>
       <c r="L21" s="70"/>
     </row>
-    <row r="22" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A22" s="53">
         <v>6</v>
       </c>
@@ -13210,7 +13216,7 @@
       </c>
       <c r="L22" s="55"/>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D23" s="36" t="s">
         <v>9</v>
       </c>
@@ -13233,7 +13239,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
@@ -13263,7 +13269,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="53">
         <v>7</v>
       </c>
@@ -13287,7 +13293,7 @@
       </c>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D26" s="36" t="s">
         <v>4</v>
       </c>
@@ -13310,7 +13316,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D27" s="36" t="s">
         <v>3</v>
       </c>
@@ -13330,7 +13336,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="70"/>
       <c r="C28" s="71"/>
@@ -13356,7 +13362,7 @@
       </c>
       <c r="L28" s="70"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="53"/>
       <c r="B29" s="55"/>
       <c r="C29" s="61"/>
@@ -13384,23 +13390,23 @@
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="115" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="112" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="110" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="111" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" style="113" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" style="114" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.1640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="112" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="110" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="112" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="111" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="113" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" style="114" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.1796875" style="113" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="112" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="112" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.36328125" style="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -13438,7 +13444,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -13472,7 +13478,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -13492,7 +13498,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="35"/>
       <c r="B4" s="41"/>
       <c r="C4" s="42"/>
@@ -13520,7 +13526,7 @@
       </c>
       <c r="L4" s="37"/>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="35"/>
       <c r="B5" s="37"/>
       <c r="C5" s="43"/>
@@ -13550,7 +13556,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="69"/>
       <c r="B6" s="70"/>
       <c r="C6" s="71"/>
@@ -13576,7 +13582,7 @@
       </c>
       <c r="L6" s="70"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="53">
         <v>3</v>
       </c>
@@ -13598,7 +13604,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="41"/>
       <c r="C8" s="42"/>
@@ -13620,7 +13626,7 @@
       <c r="K8" s="36"/>
       <c r="L8" s="49"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="35"/>
       <c r="B9" s="37"/>
       <c r="C9" s="43"/>
@@ -13642,7 +13648,7 @@
       <c r="K9" s="36"/>
       <c r="L9" s="37"/>
     </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="69"/>
       <c r="B10" s="70"/>
       <c r="C10" s="71"/>
@@ -13666,7 +13672,7 @@
       <c r="K10" s="89"/>
       <c r="L10" s="90"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="53">
         <v>4</v>
       </c>
@@ -13690,7 +13696,7 @@
       </c>
       <c r="L11" s="55"/>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="35"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
@@ -13716,7 +13722,7 @@
       </c>
       <c r="L12" s="37"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="35"/>
       <c r="B13" s="37"/>
       <c r="C13" s="43"/>
@@ -13742,7 +13748,7 @@
       </c>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -13764,7 +13770,7 @@
       <c r="K14" s="72"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="53">
         <v>5</v>
       </c>
@@ -13788,7 +13794,7 @@
       </c>
       <c r="L15" s="55"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="35"/>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -13816,7 +13822,7 @@
       </c>
       <c r="L16" s="37"/>
     </row>
-    <row r="17" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
       <c r="C17" s="71"/>
@@ -13844,7 +13850,7 @@
       </c>
       <c r="L17" s="70"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="53">
         <v>6</v>
       </c>
@@ -13868,7 +13874,7 @@
       </c>
       <c r="L18" s="55"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="35"/>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
@@ -13894,7 +13900,7 @@
       </c>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="35"/>
       <c r="B20" s="37"/>
       <c r="C20" s="43"/>
@@ -13920,7 +13926,7 @@
       </c>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="37"/>
       <c r="C21" s="43"/>
@@ -13946,7 +13952,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="37"/>
       <c r="C22" s="43"/>
@@ -13972,7 +13978,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="37"/>
       <c r="C23" s="43"/>
@@ -13998,7 +14004,7 @@
       </c>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="37"/>
       <c r="C24" s="43"/>
@@ -14022,7 +14028,7 @@
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
       <c r="C25" s="71"/>
@@ -14044,7 +14050,7 @@
       <c r="K25" s="72"/>
       <c r="L25" s="70"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="116" t="s">
         <v>322</v>
       </c>
@@ -14074,24 +14080,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.36328125" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="24.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -14129,7 +14135,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -14161,7 +14167,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -14183,7 +14189,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B4" s="41"/>
       <c r="C4" s="42"/>
       <c r="D4" s="36" t="s">
@@ -14205,7 +14211,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D5" s="36" t="s">
         <v>61</v>
       </c>
@@ -14225,7 +14231,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>8</v>
       </c>
@@ -14245,7 +14251,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>34</v>
       </c>
@@ -14265,7 +14271,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>87</v>
       </c>
@@ -14285,7 +14291,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>174</v>
       </c>
@@ -14305,7 +14311,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>14</v>
       </c>
@@ -14325,7 +14331,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -14351,7 +14357,7 @@
       </c>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="53">
         <v>3</v>
       </c>
@@ -14375,7 +14381,7 @@
       </c>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D13" s="36">
         <v>1</v>
       </c>
@@ -14395,7 +14401,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" s="36">
         <v>2</v>
       </c>
@@ -14415,7 +14421,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36">
         <v>3</v>
       </c>
@@ -14438,7 +14444,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -14462,7 +14468,7 @@
       <c r="K16" s="72"/>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="53">
         <v>4</v>
       </c>
@@ -14486,7 +14492,7 @@
       </c>
       <c r="L17" s="55"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>5</v>
       </c>
@@ -14509,7 +14515,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>6</v>
       </c>
@@ -14532,7 +14538,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A20" s="69"/>
       <c r="B20" s="70"/>
       <c r="C20" s="71"/>
@@ -14556,7 +14562,7 @@
       <c r="K20" s="72"/>
       <c r="L20" s="70"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="53">
         <v>5</v>
       </c>
@@ -14580,7 +14586,7 @@
       </c>
       <c r="L21" s="55"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D22" s="36" t="s">
         <v>8</v>
       </c>
@@ -14600,7 +14606,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D23" s="36" t="s">
         <v>4</v>
       </c>
@@ -14623,7 +14629,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
@@ -14645,7 +14651,7 @@
       <c r="K24" s="72"/>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="53">
         <v>6</v>
       </c>
@@ -14669,7 +14675,7 @@
       </c>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D26" s="36" t="s">
         <v>9</v>
       </c>
@@ -14689,7 +14695,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D27" s="36" t="s">
         <v>10</v>
       </c>
@@ -14709,7 +14715,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D28" s="36" t="s">
         <v>34</v>
       </c>
@@ -14729,7 +14735,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D29" s="36" t="s">
         <v>11</v>
       </c>
@@ -14749,7 +14755,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="69"/>
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
@@ -14775,7 +14781,7 @@
       </c>
       <c r="L30" s="70"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="53">
         <v>7</v>
       </c>
@@ -14799,7 +14805,7 @@
       </c>
       <c r="L31" s="55"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D32" s="36" t="s">
         <v>9</v>
       </c>
@@ -14819,7 +14825,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="69"/>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
@@ -14849,7 +14855,7 @@
       </c>
       <c r="L33" s="70"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="53"/>
       <c r="B34" s="55"/>
       <c r="C34" s="61"/>
@@ -14877,24 +14883,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="47.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="63" t="s">
         <v>394</v>
       </c>
@@ -14932,7 +14938,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -14964,7 +14970,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -14984,7 +14990,7 @@
       <c r="K3" s="54"/>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="36" t="s">
         <v>14</v>
       </c>
@@ -15004,7 +15010,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D5" s="36" t="s">
         <v>4</v>
       </c>
@@ -15024,7 +15030,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
@@ -15044,7 +15050,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>8</v>
       </c>
@@ -15064,7 +15070,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="71"/>
@@ -15088,7 +15094,7 @@
       <c r="K8" s="72"/>
       <c r="L8" s="70"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="53">
         <v>3</v>
       </c>
@@ -15110,7 +15116,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>174</v>
       </c>
@@ -15124,7 +15130,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
         <v>5</v>
       </c>
@@ -15138,7 +15144,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D12" s="36" t="s">
         <v>4</v>
       </c>
@@ -15152,7 +15158,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D13" s="36" t="s">
         <v>78</v>
       </c>
@@ -15166,7 +15172,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -15188,7 +15194,7 @@
       <c r="K14" s="72"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="53"/>
       <c r="B15" s="55"/>
       <c r="C15" s="61"/>
@@ -15216,24 +15222,24 @@
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="43" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="122" t="s">
         <v>394</v>
       </c>
@@ -15271,7 +15277,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -15303,7 +15309,7 @@
       </c>
       <c r="L2" s="22"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A3" s="53">
         <v>2</v>
       </c>
@@ -15327,7 +15333,7 @@
       </c>
       <c r="L3" s="55"/>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="36" t="s">
         <v>4</v>
       </c>
@@ -15347,7 +15353,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="69"/>
       <c r="B5" s="70"/>
       <c r="C5" s="71"/>
@@ -15373,7 +15379,7 @@
       </c>
       <c r="L5" s="70"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="53">
         <v>3</v>
       </c>
@@ -15397,7 +15403,7 @@
       </c>
       <c r="L6" s="55"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>8</v>
       </c>
@@ -15420,7 +15426,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>4</v>
       </c>
@@ -15443,7 +15449,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -15467,7 +15473,7 @@
       <c r="K9" s="72"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="53">
         <v>4</v>
       </c>
@@ -15493,7 +15499,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
         <v>10</v>
       </c>
@@ -15510,7 +15516,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D12" s="36" t="s">
         <v>34</v>
       </c>
@@ -15527,7 +15533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D13" s="36" t="s">
         <v>11</v>
       </c>
@@ -15541,7 +15547,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -15565,7 +15571,7 @@
       <c r="K14" s="72"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="53"/>
       <c r="B15" s="55"/>
       <c r="C15" s="61"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20395"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20396"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!LaumasDoc\Git\Treebank\Docs\Annotation how-to\Tags&amp;tagset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81F51632-0BA4-47B4-8B7B-EE9AC85FF195}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5948A022-73BF-448C-949C-F02FE80A9FD2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" firstSheet="10" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1671" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1678" uniqueCount="804">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -3698,9 +3698,6 @@
     </r>
   </si>
   <si>
-    <t>relatīvais</t>
-  </si>
-  <si>
     <t>cēloņa/nolūka</t>
   </si>
   <si>
@@ -5647,6 +5644,48 @@
   </si>
   <si>
     <t>Syntactic function</t>
+  </si>
+  <si>
+    <t>Prepositional adverb</t>
+  </si>
+  <si>
+    <r>
+      <t>y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>es</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>o</t>
+    </r>
+  </si>
+  <si>
+    <t>labi, tad, vakar</t>
+  </si>
+  <si>
+    <t>Prievārdiskais apstākļa vārds</t>
+  </si>
+  <si>
+    <t>2023-03-23 Apstākļa vārdiem vērtību r no 2. pozīcijas izņem un izveido jaunu pozīciju tam.</t>
   </si>
 </sst>
 </file>
@@ -5868,7 +5907,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -5960,11 +5999,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="167">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -6431,6 +6490,36 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6811,12 +6900,12 @@
     </row>
     <row r="3" spans="2:4" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="20" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="C5" s="5"/>
     </row>
@@ -6825,7 +6914,7 @@
         <v>54</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -6833,12 +6922,12 @@
         <v>0</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C9" s="5"/>
     </row>
@@ -6847,7 +6936,7 @@
         <v>300</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
@@ -6855,7 +6944,7 @@
         <v>300</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
   </sheetData>
@@ -6868,7 +6957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
@@ -6901,7 +6990,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -6913,13 +7002,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -6942,10 +7031,10 @@
         <v>3</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="G2" s="23"/>
       <c r="H2" s="29"/>
@@ -6965,10 +7054,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="59" t="s">
+        <v>796</v>
+      </c>
+      <c r="C3" s="60" t="s">
         <v>797</v>
-      </c>
-      <c r="C3" s="60" t="s">
-        <v>798</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="55"/>
@@ -6985,10 +7074,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>232</v>
@@ -7008,10 +7097,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F5" s="77" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="75" t="s">
@@ -7083,7 +7172,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -7095,13 +7184,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -7124,14 +7213,14 @@
         <v>87</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="28" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>356</v>
@@ -7200,7 +7289,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -7212,13 +7301,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -7241,14 +7330,14 @@
         <v>174</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>275</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="28" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I2" s="22" t="s">
         <v>356</v>
@@ -7317,7 +7406,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -7329,13 +7418,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -7358,7 +7447,7 @@
         <v>276</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>277</v>
@@ -7405,10 +7494,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>279</v>
@@ -7425,10 +7514,10 @@
         <v>174</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="H5" s="36" t="s">
         <v>281</v>
@@ -7448,16 +7537,16 @@
         <v>8</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="H6" s="36" t="s">
         <v>283</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J6" s="36" t="s">
         <v>284</v>
@@ -7474,16 +7563,16 @@
         <v>286</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H7" s="36" t="s">
         <v>287</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="J7" s="40" t="s">
         <v>294</v>
@@ -7500,16 +7589,16 @@
         <v>34</v>
       </c>
       <c r="E8" s="124" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="F8" s="38" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>289</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>290</v>
@@ -7523,13 +7612,13 @@
         <v>68</v>
       </c>
       <c r="E9" s="37" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="F9" s="38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>291</v>
@@ -7549,13 +7638,13 @@
         <v>292</v>
       </c>
       <c r="F10" s="77" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G10" s="74" t="s">
         <v>293</v>
       </c>
       <c r="H10" s="75" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="I10" s="70"/>
       <c r="J10" s="72"/>
@@ -7619,7 +7708,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -7631,13 +7720,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -7660,10 +7749,10 @@
         <v>59</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="G2" s="22" t="s">
         <v>296</v>
@@ -7696,10 +7785,10 @@
         <v>9</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F3" s="56" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="G3" s="55" t="s">
         <v>299</v>
@@ -7723,7 +7812,7 @@
         <v>401</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="G4" s="37" t="s">
         <v>298</v>
@@ -7744,10 +7833,10 @@
         <v>11</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G5" s="37"/>
       <c r="H5" s="36" t="s">
@@ -7766,10 +7855,10 @@
         <v>13</v>
       </c>
       <c r="E6" s="124" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="G6" s="37"/>
       <c r="H6" s="36" t="s">
@@ -7788,10 +7877,10 @@
         <v>14</v>
       </c>
       <c r="E7" s="129" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="F7" s="132" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="G7" s="129"/>
       <c r="H7" s="131" t="s">
@@ -7810,10 +7899,10 @@
         <v>34</v>
       </c>
       <c r="E8" s="139" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="F8" s="140" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="G8" s="136"/>
       <c r="H8" s="138" t="s">
@@ -7881,7 +7970,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -7893,13 +7982,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="68" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -7922,7 +8011,7 @@
         <v>61</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>302</v>
@@ -7932,7 +8021,7 @@
       </c>
       <c r="H2" s="28"/>
       <c r="I2" s="22" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>302</v>
@@ -7956,10 +8045,10 @@
         <v>6</v>
       </c>
       <c r="E3" s="55" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="F3" s="87" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="G3" s="57" t="s">
         <v>310</v>
@@ -7977,7 +8066,7 @@
         <v>68</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="F4" s="44" t="s">
         <v>556</v>
@@ -7994,16 +8083,16 @@
         <v>9</v>
       </c>
       <c r="E5" s="37" t="s">
+        <v>787</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>666</v>
+      </c>
+      <c r="G5" s="39" t="s">
         <v>788</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>667</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>789</v>
-      </c>
       <c r="H5" s="40" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -8014,7 +8103,7 @@
         <v>306</v>
       </c>
       <c r="F6" s="38" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="G6" s="39" t="s">
         <v>307</v>
@@ -8035,11 +8124,11 @@
         <v>292</v>
       </c>
       <c r="F7" s="71" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G7" s="74"/>
       <c r="H7" s="72" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="I7" s="70"/>
       <c r="J7" s="72"/>
@@ -8069,9 +8158,11 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -8091,9 +8182,9 @@
     <col min="14" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
@@ -8108,7 +8199,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -8127,7 +8218,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -8146,15 +8237,15 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B4" s="157"/>
     </row>
-    <row r="5" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A5" s="142" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B5" s="17"/>
       <c r="C5" s="18"/>
@@ -8169,682 +8260,667 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="B6" s="157"/>
     </row>
-    <row r="7" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B7" s="157"/>
     </row>
-    <row r="8" spans="1:14" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="141" t="s">
+        <v>803</v>
+      </c>
       <c r="B8" s="157"/>
     </row>
-    <row r="9" spans="1:14" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="142" t="s">
-        <v>670</v>
-      </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-    </row>
-    <row r="10" spans="1:14" s="143" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="145" t="s">
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="157"/>
+    </row>
+    <row r="10" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="142" t="s">
+        <v>669</v>
+      </c>
+      <c r="B10" s="17"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+    </row>
+    <row r="11" spans="1:13" s="143" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="145" t="s">
         <v>406</v>
       </c>
-      <c r="B10" s="122" t="s">
+      <c r="B11" s="122" t="s">
         <v>394</v>
       </c>
-      <c r="C10" s="146" t="s">
+      <c r="C11" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D11" s="147" t="s">
         <v>396</v>
       </c>
-      <c r="E10" s="66" t="s">
+      <c r="E11" s="66" t="s">
+        <v>732</v>
+      </c>
+      <c r="F11" s="64" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>397</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>729</v>
+      </c>
+      <c r="J11" s="67" t="s">
+        <v>348</v>
+      </c>
+      <c r="K11" s="68" t="s">
         <v>733</v>
       </c>
-      <c r="F10" s="64" t="s">
-        <v>398</v>
-      </c>
-      <c r="G10" s="65" t="s">
-        <v>397</v>
-      </c>
-      <c r="H10" s="67" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="68" t="s">
-        <v>730</v>
-      </c>
-      <c r="J10" s="67" t="s">
-        <v>348</v>
-      </c>
-      <c r="K10" s="68" t="s">
-        <v>734</v>
-      </c>
-      <c r="L10" s="68" t="s">
+      <c r="L11" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="M10" s="64" t="s">
+      <c r="M11" s="64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="13" t="s">
+    <row r="12" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B12" s="27">
         <v>3</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C12" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D12" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E12" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="159" t="s">
+      <c r="F12" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="G11" s="25" t="s">
+      <c r="G12" s="25" t="s">
         <v>407</v>
       </c>
-      <c r="H11" s="23" t="s">
+      <c r="H12" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I11" s="29" t="s">
+      <c r="I12" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J11" s="23"/>
-      <c r="K11" s="28" t="s">
+      <c r="J12" s="23"/>
+      <c r="K12" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="28">
+      <c r="L12" s="28">
         <v>1558</v>
       </c>
-      <c r="M11" s="22" t="s">
+      <c r="M12" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B12" s="53">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B13" s="53">
         <v>5</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C13" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="61" t="s">
+      <c r="D13" s="61" t="s">
         <v>423</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E13" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="55" t="s">
+      <c r="F13" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G12" s="61" t="s">
+      <c r="G13" s="61" t="s">
         <v>433</v>
       </c>
-      <c r="H12" s="57" t="s">
+      <c r="H13" s="57" t="s">
         <v>329</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I13" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J12" s="57"/>
-      <c r="K12" s="54"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="55" t="s">
+      <c r="J13" s="57"/>
+      <c r="K13" s="54"/>
+      <c r="L13" s="54"/>
+      <c r="M13" s="55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B13" s="69"/>
-      <c r="C13" s="102"/>
-      <c r="D13" s="103"/>
-      <c r="E13" s="107"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="103"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="107"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="107"/>
-      <c r="L13" s="107"/>
-      <c r="M13" s="102"/>
-    </row>
-    <row r="14" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="15" t="s">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B14" s="69"/>
+      <c r="C14" s="102"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="107"/>
+      <c r="F14" s="102"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="102"/>
+      <c r="I14" s="107"/>
+      <c r="J14" s="102"/>
+      <c r="K14" s="107"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="102"/>
+    </row>
+    <row r="15" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
         <v>454</v>
       </c>
-      <c r="B14" s="53">
+      <c r="B15" s="53">
         <v>2</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C15" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D15" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E15" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F15" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G14" s="61"/>
-      <c r="H14" s="57" t="s">
+      <c r="G15" s="61"/>
+      <c r="H15" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I15" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="78" t="s">
+      <c r="J15" s="57"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B15" s="69"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="102"/>
-    </row>
-    <row r="16" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="69"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="102"/>
+    </row>
+    <row r="17" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>519</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B17" s="53">
         <v>2</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C17" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D17" s="61" t="s">
         <v>391</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F17" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="57" t="s">
+      <c r="G17" s="61"/>
+      <c r="H17" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I17" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="78" t="s">
+      <c r="J17" s="57"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="N16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B17" s="69"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="102"/>
-    </row>
-    <row r="18" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A18" s="14" t="s">
+      <c r="N17" s="9"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="69"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="102"/>
+    </row>
+    <row r="19" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="14" t="s">
         <v>554</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B19" s="53">
         <v>7</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C19" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D18" s="60" t="s">
+      <c r="D19" s="60" t="s">
         <v>531</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E19" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="F19" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="57" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="I18" s="58" t="s">
+      <c r="I19" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="78" t="s">
+      <c r="J19" s="57"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C19" s="37"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="G19" s="43"/>
-      <c r="H19" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="I19" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="J19" s="39"/>
-      <c r="K19" s="36"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-    </row>
-    <row r="20" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C20" s="37"/>
       <c r="D20" s="43"/>
       <c r="E20" s="36" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G20" s="43"/>
       <c r="H20" s="39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I20" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J20" s="39"/>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="37"/>
     </row>
-    <row r="21" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C21" s="37"/>
       <c r="D21" s="43"/>
       <c r="E21" s="36" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J21" s="39"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C22" s="37"/>
       <c r="D22" s="43"/>
       <c r="E22" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F22" s="39" t="s">
-        <v>262</v>
+        <v>8</v>
+      </c>
+      <c r="F22" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J22" s="39"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C23" s="37"/>
       <c r="D23" s="43"/>
       <c r="E23" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>264</v>
+        <v>78</v>
+      </c>
+      <c r="F23" s="39" t="s">
+        <v>262</v>
       </c>
       <c r="G23" s="43"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="39" t="s">
+        <v>263</v>
+      </c>
       <c r="I23" s="40" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J23" s="39"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C24" s="37"/>
       <c r="D24" s="43"/>
       <c r="E24" s="36" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="39"/>
       <c r="I24" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J24" s="39"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B25" s="69"/>
-      <c r="C25" s="102"/>
-      <c r="D25" s="103"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="103"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="107"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="107"/>
-      <c r="L25" s="107"/>
-      <c r="M25" s="102"/>
-    </row>
-    <row r="26" spans="1:13" s="144" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C25" s="37"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G25" s="43"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="J25" s="39"/>
+      <c r="K25" s="36"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="37"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B26" s="69"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="107"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="107"/>
+      <c r="L26" s="107"/>
+      <c r="M26" s="102"/>
+    </row>
+    <row r="27" spans="1:14" s="144" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
         <v>564</v>
       </c>
-      <c r="B26" s="148">
+      <c r="B27" s="148">
         <v>8</v>
       </c>
-      <c r="C26" s="149" t="s">
+      <c r="C27" s="149" t="s">
         <v>565</v>
       </c>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151" t="s">
+      <c r="D27" s="150"/>
+      <c r="E27" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="152" t="s">
+      <c r="F27" s="152" t="s">
         <v>566</v>
       </c>
-      <c r="G26" s="153"/>
-      <c r="H26" s="154" t="s">
+      <c r="G27" s="153"/>
+      <c r="H27" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="I26" s="155" t="s">
+      <c r="I27" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="J26" s="152"/>
-      <c r="K26" s="151"/>
-      <c r="L26" s="151"/>
-      <c r="M26" s="156"/>
-    </row>
-    <row r="27" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="C27" s="37"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="H27" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="I27" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="J27" s="37"/>
-      <c r="K27" s="36"/>
-      <c r="L27" s="36"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="J27" s="152"/>
+      <c r="K27" s="151"/>
+      <c r="L27" s="151"/>
+      <c r="M27" s="156"/>
+    </row>
+    <row r="28" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C28" s="37"/>
       <c r="D28" s="43"/>
-      <c r="E28" s="36">
-        <v>0</v>
+      <c r="E28" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="F28" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G28" s="47"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="40"/>
+        <v>184</v>
+      </c>
+      <c r="H28" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="I28" s="40" t="s">
+        <v>185</v>
+      </c>
       <c r="J28" s="37"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B29" s="69"/>
-      <c r="C29" s="102"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="102"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="102"/>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="14" t="s">
-        <v>598</v>
-      </c>
-      <c r="B30" s="53">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="C29" s="37"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="36">
+        <v>0</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G29" s="47"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="37"/>
+      <c r="K29" s="36"/>
+      <c r="L29" s="36"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B30" s="69"/>
+      <c r="C30" s="102"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="107"/>
+      <c r="F30" s="102"/>
+      <c r="G30" s="103"/>
+      <c r="H30" s="102"/>
+      <c r="I30" s="107"/>
+      <c r="J30" s="102"/>
+      <c r="K30" s="107"/>
+      <c r="L30" s="107"/>
+      <c r="M30" s="102"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31" s="14" t="s">
+        <v>597</v>
+      </c>
+      <c r="B31" s="53">
         <v>5</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C31" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D30" s="79"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="123"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="58"/>
-      <c r="J30" s="55"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="82"/>
-      <c r="M30" s="78"/>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C31" s="37"/>
-      <c r="E31" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>629</v>
-      </c>
-      <c r="G31" s="38" t="s">
-        <v>631</v>
-      </c>
-      <c r="I31" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="J31" s="37"/>
-      <c r="K31" s="36"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="D31" s="79"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="123"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="55"/>
+      <c r="K31" s="54"/>
+      <c r="L31" s="82"/>
+      <c r="M31" s="78"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C32" s="37"/>
       <c r="E32" s="36" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F32" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="G32" s="38" t="s">
         <v>630</v>
       </c>
-      <c r="G32" s="38" t="s">
-        <v>632</v>
-      </c>
       <c r="I32" s="40" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J32" s="37"/>
       <c r="K32" s="36"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B33" s="69"/>
-      <c r="C33" s="102"/>
-      <c r="D33" s="103"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="103"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="102"/>
+      <c r="C33" s="37"/>
+      <c r="E33" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="37" t="s">
+        <v>629</v>
+      </c>
+      <c r="G33" s="38" t="s">
+        <v>631</v>
+      </c>
+      <c r="I33" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J33" s="37"/>
+      <c r="K33" s="36"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="14" t="s">
-        <v>611</v>
-      </c>
-      <c r="B34" s="53">
+      <c r="B34" s="69"/>
+      <c r="C34" s="102"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="107"/>
+      <c r="F34" s="102"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="102"/>
+      <c r="I34" s="107"/>
+      <c r="J34" s="102"/>
+      <c r="K34" s="107"/>
+      <c r="L34" s="107"/>
+      <c r="M34" s="102"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="14" t="s">
+        <v>610</v>
+      </c>
+      <c r="B35" s="53">
         <v>3</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C35" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D34" s="60" t="s">
-        <v>628</v>
-      </c>
-      <c r="E34" s="54"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="55" t="s">
+      <c r="D35" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="E35" s="54"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="55" t="s">
         <v>324</v>
       </c>
-      <c r="I34" s="54"/>
-      <c r="J34" s="55"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
-      <c r="M34" s="55"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C35" s="41"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="36" t="s">
+      <c r="I35" s="54"/>
+      <c r="J35" s="55"/>
+      <c r="K35" s="54"/>
+      <c r="L35" s="54"/>
+      <c r="M35" s="55"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C36" s="41"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F35" s="37" t="s">
+      <c r="F36" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="G35" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="H35" s="39"/>
-      <c r="I35" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="J35" s="39"/>
-      <c r="K35" s="36"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C36" s="37"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F36" s="37" t="s">
-        <v>621</v>
-      </c>
       <c r="G36" s="38" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="H36" s="39"/>
       <c r="I36" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J36" s="39"/>
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
-      <c r="M36" s="37"/>
-    </row>
-    <row r="37" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M36" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C37" s="37"/>
       <c r="D37" s="43"/>
       <c r="E37" s="36" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F37" s="37" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="G37" s="38" t="s">
-        <v>626</v>
-      </c>
-      <c r="H37" s="113" t="s">
-        <v>233</v>
-      </c>
+        <v>624</v>
+      </c>
+      <c r="H37" s="39"/>
       <c r="I37" s="40" t="s">
-        <v>323</v>
+        <v>231</v>
       </c>
       <c r="J37" s="39"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="M37" s="37"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C38" s="37"/>
       <c r="D38" s="43"/>
       <c r="E38" s="36" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>627</v>
-      </c>
-      <c r="H38" s="39"/>
+        <v>625</v>
+      </c>
+      <c r="H38" s="113" t="s">
+        <v>233</v>
+      </c>
       <c r="I38" s="40" t="s">
-        <v>234</v>
+        <v>323</v>
       </c>
       <c r="J38" s="39"/>
       <c r="K38" s="36"/>
@@ -8852,221 +8928,242 @@
       <c r="M38" s="37"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B39" s="69"/>
-      <c r="C39" s="70"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="72"/>
-      <c r="F39" s="70"/>
-      <c r="G39" s="77"/>
-      <c r="H39" s="74"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="74"/>
-      <c r="K39" s="72"/>
-      <c r="L39" s="72"/>
-      <c r="M39" s="70"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="43"/>
+      <c r="E39" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" s="37" t="s">
+        <v>622</v>
+      </c>
+      <c r="G39" s="38" t="s">
+        <v>626</v>
+      </c>
+      <c r="H39" s="39"/>
+      <c r="I39" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J39" s="39"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="37"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="B40" s="53">
+      <c r="B40" s="69"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="71"/>
+      <c r="E40" s="72"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="77"/>
+      <c r="H40" s="74"/>
+      <c r="I40" s="75"/>
+      <c r="J40" s="74"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="M40" s="70"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="B41" s="53">
         <v>2</v>
       </c>
-      <c r="C40" s="59" t="s">
+      <c r="C41" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D40" s="60" t="s">
-        <v>628</v>
-      </c>
-      <c r="E40" s="54"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="61"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="54"/>
-      <c r="J40" s="55"/>
-      <c r="K40" s="54"/>
-      <c r="L40" s="54"/>
-      <c r="M40" s="78" t="s">
+      <c r="D41" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="E41" s="54"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="61"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="54"/>
+      <c r="J41" s="55"/>
+      <c r="K41" s="54"/>
+      <c r="L41" s="54"/>
+      <c r="M41" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C41" s="41"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="36" t="s">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C42" s="41"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F41" s="37" t="s">
+      <c r="F42" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="G41" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="H41" s="37"/>
-      <c r="I41" s="36" t="s">
+      <c r="G42" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="H42" s="37"/>
+      <c r="I42" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="J41" s="37"/>
-      <c r="K41" s="36"/>
-      <c r="L41" s="36"/>
-    </row>
-    <row r="42" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="C42" s="37"/>
-      <c r="D42" s="43"/>
-      <c r="E42" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="37" t="s">
-        <v>621</v>
-      </c>
-      <c r="G42" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="H42" s="37"/>
-      <c r="I42" s="40" t="s">
-        <v>274</v>
       </c>
       <c r="J42" s="37"/>
       <c r="K42" s="36"/>
       <c r="L42" s="36"/>
-      <c r="M42" s="37"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B43" s="69"/>
-      <c r="C43" s="102"/>
-      <c r="D43" s="103"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="102"/>
-      <c r="G43" s="103"/>
-      <c r="H43" s="102"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="102"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="102"/>
+    </row>
+    <row r="43" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="C43" s="37"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F43" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="G43" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="H43" s="37"/>
+      <c r="I43" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J43" s="37"/>
+      <c r="K43" s="36"/>
+      <c r="L43" s="36"/>
+      <c r="M43" s="37"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="14" t="s">
-        <v>634</v>
-      </c>
-      <c r="B44" s="53">
+      <c r="B44" s="69"/>
+      <c r="C44" s="102"/>
+      <c r="D44" s="103"/>
+      <c r="E44" s="107"/>
+      <c r="F44" s="102"/>
+      <c r="G44" s="103"/>
+      <c r="H44" s="102"/>
+      <c r="I44" s="107"/>
+      <c r="J44" s="102"/>
+      <c r="K44" s="107"/>
+      <c r="L44" s="107"/>
+      <c r="M44" s="102"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>633</v>
+      </c>
+      <c r="B45" s="53">
         <v>2</v>
       </c>
-      <c r="C44" s="59" t="s">
+      <c r="C45" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D44" s="60" t="s">
-        <v>628</v>
-      </c>
-      <c r="E44" s="54"/>
-      <c r="F44" s="55"/>
-      <c r="G44" s="61"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="54"/>
-      <c r="J44" s="55"/>
-      <c r="K44" s="54"/>
-      <c r="L44" s="82"/>
-      <c r="M44" s="78" t="s">
+      <c r="D45" s="60" t="s">
+        <v>627</v>
+      </c>
+      <c r="E45" s="54"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="61"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="54"/>
+      <c r="J45" s="55"/>
+      <c r="K45" s="54"/>
+      <c r="L45" s="82"/>
+      <c r="M45" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C45" s="41"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="36" t="s">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C46" s="41"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F46" s="37" t="s">
         <v>561</v>
       </c>
-      <c r="G45" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="H45" s="37" t="s">
+      <c r="G46" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="H46" s="37" t="s">
         <v>230</v>
-      </c>
-      <c r="I45" s="36"/>
-      <c r="J45" s="37"/>
-      <c r="K45" s="36"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C46" s="37"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>621</v>
-      </c>
-      <c r="G46" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="H46" s="37" t="s">
-        <v>231</v>
       </c>
       <c r="I46" s="36"/>
       <c r="J46" s="37"/>
       <c r="K46" s="36"/>
-      <c r="L46" s="36"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B47" s="69"/>
-      <c r="C47" s="102"/>
-      <c r="D47" s="103"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="102"/>
-      <c r="G47" s="103"/>
-      <c r="H47" s="102"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="102"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="102"/>
-    </row>
-    <row r="48" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A48" s="14" t="s">
-        <v>669</v>
-      </c>
-      <c r="B48" s="27">
+      <c r="C47" s="37"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>620</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="H47" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="I47" s="36"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B48" s="69"/>
+      <c r="C48" s="102"/>
+      <c r="D48" s="103"/>
+      <c r="E48" s="107"/>
+      <c r="F48" s="102"/>
+      <c r="G48" s="103"/>
+      <c r="H48" s="102"/>
+      <c r="I48" s="107"/>
+      <c r="J48" s="102"/>
+      <c r="K48" s="107"/>
+      <c r="L48" s="107"/>
+      <c r="M48" s="102"/>
+    </row>
+    <row r="49" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A49" s="14" t="s">
+        <v>668</v>
+      </c>
+      <c r="B49" s="27">
         <v>2</v>
       </c>
-      <c r="C48" s="22" t="s">
+      <c r="C49" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="26" t="s">
+      <c r="D49" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="E48" s="160" t="s">
+      <c r="E49" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="F48" s="161" t="s">
-        <v>666</v>
-      </c>
-      <c r="G48" s="162" t="s">
+      <c r="F49" s="161" t="s">
         <v>665</v>
       </c>
-      <c r="H48" s="163" t="s">
-        <v>731</v>
-      </c>
-      <c r="I48" s="164"/>
-      <c r="J48" s="165"/>
-      <c r="K48" s="160"/>
-      <c r="L48" s="160"/>
-      <c r="M48" s="161"/>
-    </row>
-    <row r="49" spans="2:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="53"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="78"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="78"/>
-      <c r="I49" s="82"/>
-      <c r="J49" s="78"/>
-      <c r="K49" s="82"/>
-      <c r="L49" s="82"/>
-      <c r="M49" s="78"/>
+      <c r="G49" s="162" t="s">
+        <v>664</v>
+      </c>
+      <c r="H49" s="163" t="s">
+        <v>730</v>
+      </c>
+      <c r="I49" s="164"/>
+      <c r="J49" s="165"/>
+      <c r="K49" s="160"/>
+      <c r="L49" s="160"/>
+      <c r="M49" s="161"/>
+    </row>
+    <row r="50" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B50" s="53"/>
+      <c r="C50" s="78"/>
+      <c r="D50" s="79"/>
+      <c r="E50" s="82"/>
+      <c r="F50" s="78"/>
+      <c r="G50" s="79"/>
+      <c r="H50" s="78"/>
+      <c r="I50" s="82"/>
+      <c r="J50" s="78"/>
+      <c r="K50" s="82"/>
+      <c r="L50" s="82"/>
+      <c r="M50" s="78"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9079,7 +9176,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -9111,7 +9208,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -9123,13 +9220,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -9335,10 +9432,10 @@
         <v>408</v>
       </c>
       <c r="G9" s="74" t="s">
+        <v>759</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>760</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>761</v>
       </c>
       <c r="I9" s="74"/>
       <c r="J9" s="72"/>
@@ -9383,7 +9480,7 @@
       </c>
       <c r="G11" s="39"/>
       <c r="H11" s="40" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="I11" s="39"/>
       <c r="J11" s="36" t="s">
@@ -9408,7 +9505,7 @@
       </c>
       <c r="G12" s="39"/>
       <c r="H12" s="40" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I12" s="39"/>
       <c r="J12" s="36" t="s">
@@ -9656,7 +9753,7 @@
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="40" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="36" t="s">
@@ -9874,10 +9971,10 @@
       </c>
       <c r="G32" s="39"/>
       <c r="H32" s="40" t="s">
+        <v>757</v>
+      </c>
+      <c r="I32" s="39" t="s">
         <v>758</v>
-      </c>
-      <c r="I32" s="39" t="s">
-        <v>759</v>
       </c>
       <c r="J32" s="36"/>
       <c r="K32" s="36"/>
@@ -9966,7 +10063,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -9978,13 +10075,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -10161,16 +10258,16 @@
         <v>78</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H9" s="75" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="I9" s="74"/>
       <c r="J9" s="72" t="s">
@@ -10180,7 +10277,7 @@
         <v>1244</v>
       </c>
       <c r="L9" s="74" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -10191,16 +10288,16 @@
         <v>11</v>
       </c>
       <c r="E10" s="74" t="s">
+        <v>766</v>
+      </c>
+      <c r="F10" s="76" t="s">
+        <v>762</v>
+      </c>
+      <c r="G10" s="74" t="s">
+        <v>770</v>
+      </c>
+      <c r="H10" s="75" t="s">
         <v>767</v>
-      </c>
-      <c r="F10" s="76" t="s">
-        <v>763</v>
-      </c>
-      <c r="G10" s="74" t="s">
-        <v>771</v>
-      </c>
-      <c r="H10" s="75" t="s">
-        <v>768</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="72" t="s">
@@ -10210,7 +10307,7 @@
         <v>1244</v>
       </c>
       <c r="L10" s="74" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -10286,10 +10383,10 @@
         <v>49</v>
       </c>
       <c r="F14" s="94" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="92"/>
@@ -10391,10 +10488,10 @@
         <v>470</v>
       </c>
       <c r="G19" s="39" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="L19" s="49" t="s">
         <v>53</v>
@@ -10502,7 +10599,7 @@
         <v>479</v>
       </c>
       <c r="H24" s="40" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="J24" s="36" t="s">
         <v>102</v>
@@ -10522,7 +10619,7 @@
         <v>480</v>
       </c>
       <c r="H25" s="40" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="J25" s="36" t="s">
         <v>103</v>
@@ -10542,7 +10639,7 @@
         <v>481</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="J26" s="36" t="s">
         <v>104</v>
@@ -10640,10 +10737,10 @@
         <v>49</v>
       </c>
       <c r="F31" s="71" t="s">
+        <v>670</v>
+      </c>
+      <c r="G31" s="74" t="s">
         <v>671</v>
-      </c>
-      <c r="G31" s="74" t="s">
-        <v>672</v>
       </c>
       <c r="H31" s="75"/>
       <c r="I31" s="74"/>
@@ -10686,7 +10783,7 @@
         <v>486</v>
       </c>
       <c r="H33" s="40" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.35">
@@ -10700,7 +10797,7 @@
         <v>488</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.35">
@@ -10714,7 +10811,7 @@
         <v>490</v>
       </c>
       <c r="H35" s="40" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.35">
@@ -10745,10 +10842,10 @@
         <v>49</v>
       </c>
       <c r="F37" s="71" t="s">
+        <v>670</v>
+      </c>
+      <c r="G37" s="74" t="s">
         <v>671</v>
-      </c>
-      <c r="G37" s="74" t="s">
-        <v>672</v>
       </c>
       <c r="H37" s="75"/>
       <c r="I37" s="74"/>
@@ -10791,7 +10888,7 @@
         <v>494</v>
       </c>
       <c r="H39" s="40" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.35">
@@ -10805,7 +10902,7 @@
         <v>496</v>
       </c>
       <c r="H40" s="40" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.35">
@@ -10819,7 +10916,7 @@
         <v>498</v>
       </c>
       <c r="H41" s="40" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="29" x14ac:dyDescent="0.35">
@@ -10879,7 +10976,7 @@
         <v>409</v>
       </c>
       <c r="H44" s="40" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="J44" s="36" t="s">
         <v>32</v>
@@ -10899,7 +10996,7 @@
         <v>410</v>
       </c>
       <c r="H45" s="40" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="J45" s="36" t="s">
         <v>33</v>
@@ -10981,10 +11078,10 @@
         <v>507</v>
       </c>
       <c r="F49" s="44" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G49" s="39" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="J49" s="36" t="s">
         <v>119</v>
@@ -11031,7 +11128,7 @@
       <c r="G51" s="57"/>
       <c r="H51" s="58"/>
       <c r="I51" s="57" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J51" s="54" t="s">
         <v>121</v>
@@ -11114,7 +11211,7 @@
   <dimension ref="A1:L63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A51" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -11146,7 +11243,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -11158,13 +11255,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -11324,7 +11421,7 @@
         <v>76</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>77</v>
@@ -11341,16 +11438,16 @@
         <v>78</v>
       </c>
       <c r="E9" s="74" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G9" s="74" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="H9" s="166" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="I9" s="74"/>
       <c r="J9" s="72" t="s">
@@ -11360,7 +11457,7 @@
         <v>1244</v>
       </c>
       <c r="L9" s="74" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
@@ -11371,16 +11468,16 @@
         <v>11</v>
       </c>
       <c r="E10" s="74" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F10" s="76" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G10" s="74" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="H10" s="166" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="I10" s="74"/>
       <c r="J10" s="72" t="s">
@@ -11390,7 +11487,7 @@
         <v>1244</v>
       </c>
       <c r="L10" s="74" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -11466,10 +11563,10 @@
         <v>49</v>
       </c>
       <c r="F14" s="91" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G14" s="92" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="H14" s="93"/>
       <c r="I14" s="92"/>
@@ -11947,10 +12044,10 @@
         <v>528</v>
       </c>
       <c r="G34" s="105" t="s">
+        <v>776</v>
+      </c>
+      <c r="H34" s="106" t="s">
         <v>777</v>
-      </c>
-      <c r="H34" s="106" t="s">
-        <v>778</v>
       </c>
       <c r="I34" s="105"/>
       <c r="J34" s="107"/>
@@ -12020,7 +12117,7 @@
       </c>
       <c r="G37" s="48"/>
       <c r="H37" s="51" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="I37" s="48"/>
       <c r="J37" s="52" t="s">
@@ -12045,7 +12142,7 @@
       </c>
       <c r="G38" s="48"/>
       <c r="H38" s="51" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="I38" s="48"/>
       <c r="J38" s="52" t="s">
@@ -12070,7 +12167,7 @@
       </c>
       <c r="G39" s="48"/>
       <c r="H39" s="51" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="I39" s="48"/>
       <c r="J39" s="52" t="s">
@@ -12095,7 +12192,7 @@
       </c>
       <c r="G40" s="48"/>
       <c r="H40" s="51" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="52" t="s">
@@ -12193,7 +12290,7 @@
         <v>142</v>
       </c>
       <c r="H44" s="51" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I44" s="48"/>
       <c r="J44" s="52" t="s">
@@ -12220,7 +12317,7 @@
         <v>143</v>
       </c>
       <c r="H45" s="51" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="I45" s="48"/>
       <c r="J45" s="52" t="s">
@@ -12295,7 +12392,7 @@
         <v>144</v>
       </c>
       <c r="H48" s="51" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="I48" s="48"/>
       <c r="J48" s="52" t="s">
@@ -12322,7 +12419,7 @@
         <v>145</v>
       </c>
       <c r="H49" s="51" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="I49" s="48"/>
       <c r="J49" s="52" t="s">
@@ -12587,7 +12684,7 @@
       <c r="G60" s="57"/>
       <c r="H60" s="58"/>
       <c r="I60" s="57" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="J60" s="54" t="s">
         <v>121</v>
@@ -12671,7 +12768,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
@@ -12703,7 +12800,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -12715,13 +12812,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -12752,7 +12849,7 @@
       <c r="G2" s="23"/>
       <c r="H2" s="29"/>
       <c r="I2" s="23" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>152</v>
@@ -12817,7 +12914,7 @@
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="75" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="I5" s="74"/>
       <c r="J5" s="72"/>
@@ -12840,7 +12937,7 @@
       <c r="E6" s="55"/>
       <c r="F6" s="61"/>
       <c r="G6" s="57" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="H6" s="58" t="s">
         <v>167</v>
@@ -12865,7 +12962,7 @@
         <v>390</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J7" s="36" t="s">
         <v>24</v>
@@ -12889,7 +12986,7 @@
       </c>
       <c r="G8" s="74"/>
       <c r="H8" s="75" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="I8" s="74"/>
       <c r="J8" s="72" t="s">
@@ -12914,10 +13011,10 @@
         <v>408</v>
       </c>
       <c r="G9" s="74" t="s">
+        <v>793</v>
+      </c>
+      <c r="H9" s="75" t="s">
         <v>794</v>
-      </c>
-      <c r="H9" s="75" t="s">
-        <v>795</v>
       </c>
       <c r="I9" s="74"/>
       <c r="J9" s="72"/>
@@ -12959,7 +13056,7 @@
         <v>409</v>
       </c>
       <c r="H11" s="40" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J11" s="36" t="s">
         <v>32</v>
@@ -12983,7 +13080,7 @@
       </c>
       <c r="G12" s="74"/>
       <c r="H12" s="75" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="I12" s="74"/>
       <c r="J12" s="72" t="s">
@@ -13006,10 +13103,10 @@
       </c>
       <c r="F13" s="71"/>
       <c r="G13" s="74" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="H13" s="75" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I13" s="74"/>
       <c r="J13" s="72"/>
@@ -13051,7 +13148,7 @@
         <v>417</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J15" s="36" t="s">
         <v>155</v>
@@ -13071,7 +13168,7 @@
         <v>418</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="J16" s="36" t="s">
         <v>156</v>
@@ -13091,7 +13188,7 @@
         <v>419</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J17" s="36" t="s">
         <v>157</v>
@@ -13111,7 +13208,7 @@
         <v>427</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="J18" s="36" t="s">
         <v>158</v>
@@ -13131,7 +13228,7 @@
         <v>428</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="J19" s="36" t="s">
         <v>159</v>
@@ -13181,7 +13278,7 @@
         <v>313</v>
       </c>
       <c r="H21" s="75" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="I21" s="74"/>
       <c r="J21" s="72"/>
@@ -13202,10 +13299,10 @@
       <c r="E22" s="55"/>
       <c r="F22" s="61"/>
       <c r="G22" s="57" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="H22" s="58" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="I22" s="57"/>
       <c r="J22" s="54" t="s">
@@ -13227,10 +13324,10 @@
         <v>534</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I23" s="39" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="J23" s="36" t="s">
         <v>149</v>
@@ -13253,13 +13350,13 @@
         <v>535</v>
       </c>
       <c r="G24" s="74" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H24" s="75" t="s">
+        <v>745</v>
+      </c>
+      <c r="I24" s="74" t="s">
         <v>746</v>
-      </c>
-      <c r="I24" s="74" t="s">
-        <v>747</v>
       </c>
       <c r="J24" s="72" t="s">
         <v>151</v>
@@ -13304,7 +13401,7 @@
         <v>536</v>
       </c>
       <c r="G26" s="39" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="H26" s="40" t="s">
         <v>163</v>
@@ -13327,7 +13424,7 @@
         <v>539</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>165</v>
@@ -13351,7 +13448,7 @@
       </c>
       <c r="G28" s="74"/>
       <c r="H28" s="75" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I28" s="74"/>
       <c r="J28" s="72" t="s">
@@ -13386,7 +13483,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
@@ -13417,7 +13514,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -13429,13 +13526,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -13468,7 +13565,7 @@
       </c>
       <c r="H2" s="29"/>
       <c r="I2" s="23" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>235</v>
@@ -13659,10 +13756,10 @@
         <v>563</v>
       </c>
       <c r="F10" s="94" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G10" s="92" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H10" s="93" t="s">
         <v>248</v>
@@ -13837,7 +13934,7 @@
       </c>
       <c r="G17" s="74"/>
       <c r="H17" s="75" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="I17" s="74" t="s">
         <v>580</v>
@@ -13889,7 +13986,7 @@
       </c>
       <c r="G19" s="39"/>
       <c r="H19" s="40" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="I19" s="39"/>
       <c r="J19" s="36" t="s">
@@ -13915,7 +14012,7 @@
       </c>
       <c r="G20" s="39"/>
       <c r="H20" s="40" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="I20" s="39"/>
       <c r="J20" s="36" t="s">
@@ -13941,7 +14038,7 @@
       </c>
       <c r="G21" s="39"/>
       <c r="H21" s="40" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="I21" s="39"/>
       <c r="J21" s="36" t="s">
@@ -13967,7 +14064,7 @@
       </c>
       <c r="G22" s="39"/>
       <c r="H22" s="40" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="I22" s="39"/>
       <c r="J22" s="36" t="s">
@@ -13993,7 +14090,7 @@
       </c>
       <c r="G23" s="39"/>
       <c r="H23" s="40" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="I23" s="39"/>
       <c r="J23" s="36" t="s">
@@ -14076,7 +14173,7 @@
   <dimension ref="A1:L34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -14108,7 +14205,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -14120,13 +14217,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -14202,7 +14299,7 @@
         <v>569</v>
       </c>
       <c r="H4" s="40" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J4" s="36" t="s">
         <v>169</v>
@@ -14222,7 +14319,7 @@
         <v>570</v>
       </c>
       <c r="H5" s="40" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="J5" s="36" t="s">
         <v>170</v>
@@ -14242,7 +14339,7 @@
         <v>571</v>
       </c>
       <c r="H6" s="40" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="J6" s="36" t="s">
         <v>171</v>
@@ -14282,7 +14379,7 @@
         <v>573</v>
       </c>
       <c r="H8" s="40" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>173</v>
@@ -14302,7 +14399,7 @@
         <v>574</v>
       </c>
       <c r="H9" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J9" s="36" t="s">
         <v>175</v>
@@ -14322,7 +14419,7 @@
         <v>468</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J10" s="36" t="s">
         <v>176</v>
@@ -14392,7 +14489,7 @@
         <v>494</v>
       </c>
       <c r="H13" s="40" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J13" s="36" t="s">
         <v>178</v>
@@ -14412,7 +14509,7 @@
         <v>496</v>
       </c>
       <c r="H14" s="40" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="J14" s="36" t="s">
         <v>179</v>
@@ -14435,7 +14532,7 @@
         <v>187</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="J15" s="36" t="s">
         <v>180</v>
@@ -14503,7 +14600,7 @@
         <v>390</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="I18" s="39" t="s">
         <v>353</v>
@@ -14526,7 +14623,7 @@
         <v>403</v>
       </c>
       <c r="H19" s="40" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="I19" s="39" t="s">
         <v>354</v>
@@ -14597,7 +14694,7 @@
         <v>409</v>
       </c>
       <c r="H22" s="40" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="J22" s="36" t="s">
         <v>32</v>
@@ -14617,7 +14714,7 @@
         <v>410</v>
       </c>
       <c r="H23" s="40" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="I23" s="39" t="s">
         <v>355</v>
@@ -14686,7 +14783,7 @@
         <v>417</v>
       </c>
       <c r="H26" s="40" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="J26" s="36" t="s">
         <v>155</v>
@@ -14706,7 +14803,7 @@
         <v>418</v>
       </c>
       <c r="H27" s="40" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="J27" s="36" t="s">
         <v>156</v>
@@ -14726,7 +14823,7 @@
         <v>419</v>
       </c>
       <c r="H28" s="40" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="J28" s="36" t="s">
         <v>157</v>
@@ -14746,7 +14843,7 @@
         <v>427</v>
       </c>
       <c r="H29" s="40" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="J29" s="36" t="s">
         <v>158</v>
@@ -14770,7 +14867,7 @@
       </c>
       <c r="G30" s="74"/>
       <c r="H30" s="75" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="I30" s="74"/>
       <c r="J30" s="72" t="s">
@@ -14816,7 +14913,7 @@
         <v>510</v>
       </c>
       <c r="H32" s="40" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="J32" s="36" t="s">
         <v>81</v>
@@ -14876,18 +14973,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.54296875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.26953125" style="43" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
@@ -14911,7 +15008,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -14923,13 +15020,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="64" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -14960,7 +15057,7 @@
       <c r="G2" s="22"/>
       <c r="H2" s="28"/>
       <c r="I2" s="23" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="J2" s="28" t="s">
         <v>195</v>
@@ -14992,133 +15089,127 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D4" s="36" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>588</v>
+        <v>548</v>
       </c>
       <c r="F4" s="38" t="s">
-        <v>546</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>196</v>
+        <v>585</v>
       </c>
       <c r="H4" s="36" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="49" t="s">
-        <v>53</v>
+        <v>379</v>
+      </c>
+      <c r="J4" s="36" t="s">
+        <v>164</v>
+      </c>
+      <c r="K4" s="36">
+        <v>1420</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D5" s="36" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E5" s="37" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F5" s="38" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="H5" s="36" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J5" s="36" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K5" s="36">
-        <v>1420</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>587</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="J6" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="K6" s="36">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="69"/>
+      <c r="B7" s="70"/>
+      <c r="C7" s="71"/>
+      <c r="D7" s="72">
+        <v>0</v>
+      </c>
+      <c r="E7" s="70" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="71" t="s">
+        <v>466</v>
+      </c>
+      <c r="G7" s="70" t="s">
+        <v>375</v>
+      </c>
+      <c r="H7" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="I7" s="70"/>
+      <c r="J7" s="72"/>
+      <c r="K7" s="72"/>
+      <c r="L7" s="70"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="53">
         <v>3</v>
       </c>
-      <c r="E6" s="37" t="s">
-        <v>549</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>586</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>165</v>
-      </c>
-      <c r="K6" s="36">
-        <v>1421</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D7" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="37" t="s">
-        <v>550</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>587</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>377</v>
-      </c>
-      <c r="J7" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7" s="36">
-        <v>1422</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A8" s="69"/>
-      <c r="B8" s="70"/>
-      <c r="C8" s="71"/>
-      <c r="D8" s="72">
-        <v>0</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>49</v>
-      </c>
-      <c r="F8" s="71" t="s">
-        <v>466</v>
-      </c>
-      <c r="G8" s="70" t="s">
-        <v>375</v>
-      </c>
-      <c r="H8" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="I8" s="70"/>
-      <c r="J8" s="72"/>
-      <c r="K8" s="72"/>
-      <c r="L8" s="70"/>
+      <c r="B8" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="C8" s="60" t="s">
+        <v>581</v>
+      </c>
+      <c r="D8" s="54"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="54"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="55" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="53">
-        <v>3</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>197</v>
-      </c>
-      <c r="C9" s="60" t="s">
-        <v>581</v>
-      </c>
-      <c r="D9" s="54"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="54"/>
-      <c r="L9" s="55" t="s">
-        <v>198</v>
+      <c r="D9" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="E10" s="37" t="s">
         <v>594</v>
@@ -15127,12 +15218,12 @@
         <v>590</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E11" s="37" t="s">
         <v>595</v>
@@ -15141,12 +15232,12 @@
         <v>591</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D12" s="36" t="s">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="E12" s="37" t="s">
         <v>596</v>
@@ -15155,61 +15246,110 @@
         <v>592</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D13" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>597</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>593</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>202</v>
-      </c>
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="72" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="F13" s="77" t="s">
+        <v>584</v>
+      </c>
+      <c r="G13" s="70"/>
+      <c r="H13" s="72" t="s">
+        <v>203</v>
+      </c>
+      <c r="I13" s="70"/>
+      <c r="J13" s="72"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="70"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="69"/>
-      <c r="B14" s="70"/>
-      <c r="C14" s="71"/>
-      <c r="D14" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>589</v>
-      </c>
-      <c r="F14" s="77" t="s">
-        <v>584</v>
-      </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="I14" s="70"/>
-      <c r="J14" s="72"/>
-      <c r="K14" s="72"/>
-      <c r="L14" s="70"/>
+      <c r="A14" s="53">
+        <v>4</v>
+      </c>
+      <c r="B14" s="59" t="s">
+        <v>802</v>
+      </c>
+      <c r="C14" s="60" t="s">
+        <v>798</v>
+      </c>
+      <c r="D14" s="54"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="54"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="54"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="55"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A15" s="53"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="61"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="54"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="55"/>
+      <c r="D15" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="E15" s="37" t="s">
+        <v>465</v>
+      </c>
+      <c r="F15" s="44" t="s">
+        <v>799</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="H15" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="176" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="171"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="173"/>
+      <c r="D16" s="174" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="172" t="s">
+        <v>463</v>
+      </c>
+      <c r="F16" s="175" t="s">
+        <v>800</v>
+      </c>
+      <c r="G16" s="172"/>
+      <c r="H16" s="174" t="s">
+        <v>801</v>
+      </c>
+      <c r="I16" s="172"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="172"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A17" s="167"/>
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="170"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="170"/>
+      <c r="K17" s="170"/>
+      <c r="L17" s="168"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -15250,7 +15390,7 @@
         <v>396</v>
       </c>
       <c r="D1" s="66" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="E1" s="64" t="s">
         <v>398</v>
@@ -15262,13 +15402,13 @@
         <v>52</v>
       </c>
       <c r="H1" s="66" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="I1" s="67" t="s">
         <v>348</v>
       </c>
       <c r="J1" s="68" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K1" s="68" t="s">
         <v>16</v>
@@ -15291,10 +15431,10 @@
         <v>8</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="F2" s="34" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="G2" s="22"/>
       <c r="H2" s="29"/>
@@ -15317,7 +15457,7 @@
         <v>204</v>
       </c>
       <c r="C3" s="60" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="D3" s="54"/>
       <c r="E3" s="55"/>
@@ -15338,10 +15478,10 @@
         <v>4</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="F4" s="86" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="H4" s="40" t="s">
         <v>205</v>
@@ -15361,10 +15501,10 @@
         <v>78</v>
       </c>
       <c r="E5" s="70" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="F5" s="76" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="G5" s="74"/>
       <c r="H5" s="75" t="s">
@@ -15387,7 +15527,7 @@
         <v>30</v>
       </c>
       <c r="C6" s="60" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="D6" s="54"/>
       <c r="E6" s="55"/>
@@ -15460,7 +15600,7 @@
         <v>49</v>
       </c>
       <c r="F9" s="76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G9" s="74" t="s">
         <v>220</v>
@@ -15481,7 +15621,7 @@
         <v>212</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -15507,7 +15647,7 @@
         <v>38</v>
       </c>
       <c r="F11" s="38" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G11" s="39" t="s">
         <v>215</v>
@@ -15524,7 +15664,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="38" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>224</v>
@@ -15558,7 +15698,7 @@
         <v>49</v>
       </c>
       <c r="F14" s="76" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G14" s="74" t="s">
         <v>220</v>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/baibavalkovska/Documents/Git/Treebank/Docs/Annotation how-to/Tags&amp;tagset/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!LaumasDoc\Git\Treebank\Docs\Annotation how-to\Tags&amp;tagset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395B37F0-F28D-FE46-8F12-1CE332767348}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF7550BD-CBD3-4827-9BAC-49A0C3A730CC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1718" uniqueCount="816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="818">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -6846,13 +6846,19 @@
       </rPr>
       <t>), tie marķēti kā relatīvie adverbi (2. pozīcijas vērtība – r). Ja adverbam piemīt prievārda funkcija, resp., tas piesaista citus vārdus kādā locījumā (blakus galdam, cauri mežiem, pāri Daugavai), tie marķēti kā prievārdiskie apstākļa vārdi (4. pozīcijas vērtība – y).</t>
     </r>
+  </si>
+  <si>
+    <t>2023-09-28 Apstākļa vārdam izņem semantisko tipu</t>
+  </si>
+  <si>
+    <t>Apstākļa vārds</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7204,7 +7210,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="190">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -7722,6 +7728,21 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8085,28 +8106,28 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="97.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="2"/>
+    <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="97.1796875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="18.5">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="18.5">
       <c r="B3" s="20" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="80" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:4" ht="72.5">
       <c r="B5" s="182" t="s">
         <v>806</v>
       </c>
@@ -8114,7 +8135,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:4">
       <c r="B6" s="183" t="s">
         <v>807</v>
       </c>
@@ -8122,13 +8143,13 @@
         <v>800</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:4">
       <c r="B8" s="4" t="s">
         <v>720</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:4">
       <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
@@ -8136,7 +8157,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:4">
       <c r="B10" s="8">
         <v>0</v>
       </c>
@@ -8144,13 +8165,13 @@
         <v>811</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:4">
       <c r="B12" s="4" t="s">
         <v>726</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:4">
       <c r="B13" s="21" t="s">
         <v>300</v>
       </c>
@@ -8158,7 +8179,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:4">
       <c r="B14" s="10" t="s">
         <v>300</v>
       </c>
@@ -8181,24 +8202,24 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.6328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>806</v>
       </c>
@@ -8214,7 +8235,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>807</v>
       </c>
@@ -8230,7 +8251,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8268,7 +8289,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8300,7 +8321,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -8320,7 +8341,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="43.5">
       <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
@@ -8340,7 +8361,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -8366,7 +8387,7 @@
       </c>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="53"/>
       <c r="B8" s="55"/>
       <c r="C8" s="61"/>
@@ -8395,24 +8416,24 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>806</v>
       </c>
@@ -8428,7 +8449,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>807</v>
       </c>
@@ -8444,7 +8465,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8482,7 +8503,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8516,7 +8537,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="53"/>
       <c r="B5" s="55"/>
       <c r="C5" s="61"/>
@@ -8544,24 +8565,24 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.6328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>806</v>
       </c>
@@ -8577,7 +8598,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>807</v>
       </c>
@@ -8593,7 +8614,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8631,7 +8652,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8665,7 +8686,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="53"/>
       <c r="B5" s="55"/>
       <c r="C5" s="61"/>
@@ -8693,36 +8714,36 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.83203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.33203125" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="67.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.81640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="5.36328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="67.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>806</v>
       </c>
       <c r="G1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>807</v>
       </c>
       <c r="G2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8760,7 +8781,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8794,7 +8815,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -8814,7 +8835,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
       <c r="D6" s="36" t="s">
@@ -8836,7 +8857,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="D7" s="36" t="s">
         <v>174</v>
       </c>
@@ -8859,7 +8880,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
@@ -8885,7 +8906,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="29">
       <c r="D9" s="36" t="s">
         <v>286</v>
       </c>
@@ -8911,7 +8932,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="D10" s="36" t="s">
         <v>34</v>
       </c>
@@ -8934,7 +8955,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="D11" s="36" t="s">
         <v>68</v>
       </c>
@@ -8954,7 +8975,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="43.5">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -8978,7 +8999,7 @@
       <c r="K12" s="72"/>
       <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="53"/>
       <c r="B13" s="55"/>
       <c r="C13" s="61"/>
@@ -9007,24 +9028,24 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.1640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.1796875" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.1796875" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>806</v>
       </c>
@@ -9040,7 +9061,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>807</v>
       </c>
@@ -9056,7 +9077,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -9094,7 +9115,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -9130,7 +9151,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="12" customFormat="1">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -9160,7 +9181,7 @@
       <c r="K5" s="133"/>
       <c r="L5" s="134"/>
     </row>
-    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" s="12" customFormat="1">
       <c r="A6" s="35"/>
       <c r="B6" s="37"/>
       <c r="C6" s="43"/>
@@ -9184,7 +9205,7 @@
       <c r="K6" s="126"/>
       <c r="L6" s="127"/>
     </row>
-    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" s="12" customFormat="1">
       <c r="A7" s="35"/>
       <c r="B7" s="37"/>
       <c r="C7" s="43"/>
@@ -9206,7 +9227,7 @@
       <c r="K7" s="126"/>
       <c r="L7" s="127"/>
     </row>
-    <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="12" customFormat="1">
       <c r="A8" s="35"/>
       <c r="B8" s="37"/>
       <c r="C8" s="43"/>
@@ -9228,7 +9249,7 @@
       <c r="K8" s="126"/>
       <c r="L8" s="127"/>
     </row>
-    <row r="9" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="125" customFormat="1">
       <c r="A9" s="128"/>
       <c r="B9" s="129"/>
       <c r="C9" s="130"/>
@@ -9250,7 +9271,7 @@
       <c r="K9" s="131"/>
       <c r="L9" s="129"/>
     </row>
-    <row r="10" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="125" customFormat="1">
       <c r="A10" s="135"/>
       <c r="B10" s="136"/>
       <c r="C10" s="137"/>
@@ -9272,7 +9293,7 @@
       <c r="K10" s="138"/>
       <c r="L10" s="136"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="53"/>
       <c r="B11" s="55"/>
       <c r="C11" s="61"/>
@@ -9301,24 +9322,24 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="55.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="27.6640625" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="27.6328125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.1796875" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>806</v>
       </c>
@@ -9336,7 +9357,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>807</v>
       </c>
@@ -9352,7 +9373,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -9390,7 +9411,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -9424,7 +9445,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="29">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -9454,7 +9475,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="D6" s="36" t="s">
         <v>68</v>
       </c>
@@ -9471,7 +9492,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="29">
       <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
@@ -9488,7 +9509,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="36" t="s">
         <v>135</v>
       </c>
@@ -9506,7 +9527,7 @@
       </c>
       <c r="I8" s="110"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -9528,7 +9549,7 @@
       <c r="K9" s="72"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="53"/>
       <c r="B10" s="55"/>
       <c r="C10" s="61"/>
@@ -9551,31 +9572,31 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N57"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16" style="18" customWidth="1"/>
     <col min="2" max="2" width="2" style="35" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" style="49" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="52" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.6640625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="14.5" style="50" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="24.6640625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="24.6328125" style="49" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.453125" style="52" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.6328125" style="49" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" style="50" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.6328125" style="49" customWidth="1"/>
     <col min="9" max="9" width="21" style="52" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" style="49" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="52" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.6328125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="15.453125" style="52" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="52" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="53" style="49" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="8.83203125" style="18"/>
+    <col min="14" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>729</v>
       </c>
@@ -9592,7 +9613,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9611,7 +9632,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9630,13 +9651,13 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" customFormat="1">
       <c r="A4" t="s">
         <v>722</v>
       </c>
       <c r="B4" s="157"/>
     </row>
-    <row r="5" spans="1:13" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="18.5">
       <c r="A5" s="142" t="s">
         <v>761</v>
       </c>
@@ -9653,910 +9674,1047 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" customFormat="1">
       <c r="A6" t="s">
         <v>762</v>
       </c>
       <c r="B6" s="157"/>
     </row>
-    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" customFormat="1">
       <c r="A7" t="s">
         <v>779</v>
       </c>
       <c r="B7" s="157"/>
     </row>
-    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" customFormat="1">
       <c r="A8" s="141" t="s">
         <v>799</v>
       </c>
       <c r="B8" s="157"/>
     </row>
-    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" customFormat="1">
+      <c r="A9" s="141" t="s">
+        <v>816</v>
+      </c>
       <c r="B9" s="157"/>
     </row>
-    <row r="10" spans="1:13" ht="19" x14ac:dyDescent="0.2">
-      <c r="A10" s="142" t="s">
+    <row r="10" spans="1:13" customFormat="1">
+      <c r="B10" s="157"/>
+    </row>
+    <row r="11" spans="1:13" ht="18.5">
+      <c r="A11" s="142" t="s">
         <v>668</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-    </row>
-    <row r="11" spans="1:13" s="143" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="145" t="s">
+      <c r="B11" s="17"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+    </row>
+    <row r="12" spans="1:13" s="143" customFormat="1" ht="29">
+      <c r="A12" s="145" t="s">
         <v>405</v>
       </c>
-      <c r="B11" s="122" t="s">
+      <c r="B12" s="122" t="s">
         <v>393</v>
       </c>
-      <c r="C11" s="146" t="s">
+      <c r="C12" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="147" t="s">
+      <c r="D12" s="147" t="s">
         <v>395</v>
       </c>
-      <c r="E11" s="66" t="s">
+      <c r="E12" s="66" t="s">
         <v>730</v>
       </c>
-      <c r="F11" s="64" t="s">
+      <c r="F12" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="G11" s="65" t="s">
+      <c r="G12" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="H11" s="67" t="s">
+      <c r="H12" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="68" t="s">
+      <c r="I12" s="68" t="s">
         <v>727</v>
       </c>
-      <c r="J11" s="67" t="s">
+      <c r="J12" s="67" t="s">
         <v>347</v>
       </c>
-      <c r="K11" s="68" t="s">
+      <c r="K12" s="68" t="s">
         <v>731</v>
       </c>
-      <c r="L11" s="68" t="s">
+      <c r="L12" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="M11" s="64" t="s">
+      <c r="M12" s="64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+    <row r="13" spans="1:13" ht="29">
+      <c r="A13" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="B12" s="27">
+      <c r="B13" s="27">
         <v>3</v>
       </c>
-      <c r="C12" s="22" t="s">
+      <c r="C13" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D13" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E13" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F12" s="159" t="s">
+      <c r="F13" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="25" t="s">
+      <c r="G13" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="H12" s="23" t="s">
+      <c r="H13" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I12" s="29" t="s">
+      <c r="I13" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="28" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L12" s="28">
+      <c r="L13" s="28">
         <v>1558</v>
       </c>
-      <c r="M12" s="22" t="s">
+      <c r="M13" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="B13" s="53">
+    <row r="14" spans="1:13">
+      <c r="B14" s="53">
         <v>5</v>
       </c>
-      <c r="C13" s="55" t="s">
+      <c r="C14" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D14" s="61" t="s">
         <v>422</v>
       </c>
-      <c r="E13" s="54" t="s">
+      <c r="E14" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F14" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="61" t="s">
+      <c r="G14" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="H13" s="57" t="s">
+      <c r="H14" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="I13" s="58" t="s">
+      <c r="I14" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J13" s="57"/>
-      <c r="K13" s="54"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="55" t="s">
+      <c r="J14" s="57"/>
+      <c r="K14" s="54"/>
+      <c r="L14" s="54"/>
+      <c r="M14" s="55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="69"/>
-      <c r="C14" s="102"/>
-      <c r="D14" s="103"/>
-      <c r="E14" s="107"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="103"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="107"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="107"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="102"/>
-    </row>
-    <row r="15" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="15" t="s">
+    <row r="15" spans="1:13">
+      <c r="B15" s="69"/>
+      <c r="C15" s="102"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="103"/>
+      <c r="H15" s="102"/>
+      <c r="I15" s="107"/>
+      <c r="J15" s="102"/>
+      <c r="K15" s="107"/>
+      <c r="L15" s="107"/>
+      <c r="M15" s="102"/>
+    </row>
+    <row r="16" spans="1:13" ht="43.5">
+      <c r="A16" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B15" s="53">
+      <c r="B16" s="53">
         <v>2</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C16" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="61" t="s">
+      <c r="D16" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E15" s="54" t="s">
+      <c r="E16" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F16" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="57" t="s">
+      <c r="G16" s="61"/>
+      <c r="H16" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="I15" s="58" t="s">
+      <c r="I16" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J15" s="57"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="78" t="s">
+      <c r="J16" s="57"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="69"/>
-      <c r="C16" s="102"/>
-      <c r="D16" s="103"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="103"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="107"/>
-      <c r="J16" s="102"/>
-      <c r="K16" s="107"/>
-      <c r="L16" s="107"/>
-      <c r="M16" s="102"/>
-    </row>
-    <row r="17" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+    <row r="17" spans="1:14">
+      <c r="B17" s="69"/>
+      <c r="C17" s="102"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="107"/>
+      <c r="F17" s="102"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="102"/>
+      <c r="I17" s="107"/>
+      <c r="J17" s="102"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="102"/>
+    </row>
+    <row r="18" spans="1:14" ht="29">
+      <c r="A18" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B18" s="53">
         <v>2</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C18" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="61" t="s">
+      <c r="D18" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E17" s="54" t="s">
+      <c r="E18" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F18" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G17" s="61"/>
-      <c r="H17" s="57" t="s">
+      <c r="G18" s="61"/>
+      <c r="H18" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="I17" s="58" t="s">
+      <c r="I18" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="57"/>
-      <c r="K17" s="54"/>
-      <c r="L17" s="54"/>
-      <c r="M17" s="78" t="s">
+      <c r="J18" s="57"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="54"/>
+      <c r="M18" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="N17" s="9"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B18" s="69"/>
-      <c r="C18" s="102"/>
-      <c r="D18" s="103"/>
-      <c r="E18" s="107"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="107"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="107"/>
-      <c r="L18" s="107"/>
-      <c r="M18" s="102"/>
-    </row>
-    <row r="19" spans="1:14" ht="48" x14ac:dyDescent="0.2">
-      <c r="A19" s="14" t="s">
+      <c r="N18" s="9"/>
+    </row>
+    <row r="19" spans="1:14">
+      <c r="B19" s="69"/>
+      <c r="C19" s="102"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="107"/>
+      <c r="J19" s="102"/>
+      <c r="K19" s="107"/>
+      <c r="L19" s="107"/>
+      <c r="M19" s="102"/>
+    </row>
+    <row r="20" spans="1:14" ht="43.5">
+      <c r="A20" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="B19" s="53">
+      <c r="B20" s="53">
         <v>7</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C20" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D19" s="60" t="s">
+      <c r="D20" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="E19" s="54" t="s">
+      <c r="E20" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F20" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="57" t="s">
+      <c r="G20" s="61"/>
+      <c r="H20" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="I19" s="58" t="s">
+      <c r="I20" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="J19" s="57"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="78" t="s">
+      <c r="J20" s="57"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="54"/>
+      <c r="M20" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="C20" s="37"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="G20" s="43"/>
-      <c r="H20" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="I20" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="J20" s="39"/>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-    </row>
-    <row r="21" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" ht="43.5">
       <c r="C21" s="37"/>
       <c r="D21" s="43"/>
       <c r="E21" s="36" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G21" s="43"/>
       <c r="H21" s="39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I21" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J21" s="39"/>
       <c r="K21" s="36"/>
       <c r="L21" s="36"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:14" ht="29">
       <c r="C22" s="37"/>
       <c r="D22" s="43"/>
       <c r="E22" s="36" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J22" s="39"/>
       <c r="K22" s="36"/>
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:14" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:14" ht="29">
       <c r="C23" s="37"/>
       <c r="D23" s="43"/>
       <c r="E23" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="39" t="s">
-        <v>262</v>
+        <v>8</v>
+      </c>
+      <c r="F23" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J23" s="39"/>
       <c r="K23" s="36"/>
       <c r="L23" s="36"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:14" ht="29">
       <c r="C24" s="37"/>
       <c r="D24" s="43"/>
       <c r="E24" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>264</v>
+        <v>78</v>
+      </c>
+      <c r="F24" s="39" t="s">
+        <v>262</v>
       </c>
       <c r="G24" s="43"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="39" t="s">
+        <v>263</v>
+      </c>
       <c r="I24" s="40" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J24" s="39"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:14">
       <c r="C25" s="37"/>
       <c r="D25" s="43"/>
       <c r="E25" s="36" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G25" s="43"/>
       <c r="H25" s="39"/>
       <c r="I25" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J25" s="39"/>
       <c r="K25" s="36"/>
       <c r="L25" s="36"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B26" s="69"/>
-      <c r="C26" s="102"/>
-      <c r="D26" s="103"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="103"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="102"/>
-    </row>
-    <row r="27" spans="1:14" s="144" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+    <row r="26" spans="1:14">
+      <c r="C26" s="37"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G26" s="43"/>
+      <c r="H26" s="39"/>
+      <c r="I26" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="J26" s="39"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="37"/>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="B27" s="69"/>
+      <c r="C27" s="102"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="107"/>
+      <c r="F27" s="102"/>
+      <c r="G27" s="103"/>
+      <c r="H27" s="102"/>
+      <c r="I27" s="107"/>
+      <c r="J27" s="102"/>
+      <c r="K27" s="107"/>
+      <c r="L27" s="107"/>
+      <c r="M27" s="102"/>
+    </row>
+    <row r="28" spans="1:14" s="144" customFormat="1" ht="15.5">
+      <c r="A28" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="B27" s="148">
+      <c r="B28" s="148">
         <v>8</v>
       </c>
-      <c r="C27" s="149" t="s">
+      <c r="C28" s="149" t="s">
         <v>564</v>
       </c>
-      <c r="D27" s="150"/>
-      <c r="E27" s="151" t="s">
+      <c r="D28" s="150"/>
+      <c r="E28" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="152" t="s">
+      <c r="F28" s="152" t="s">
         <v>565</v>
       </c>
-      <c r="G27" s="153"/>
-      <c r="H27" s="154" t="s">
+      <c r="G28" s="153"/>
+      <c r="H28" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="I27" s="155" t="s">
+      <c r="I28" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="J27" s="152"/>
-      <c r="K27" s="151"/>
-      <c r="L27" s="151"/>
-      <c r="M27" s="156"/>
-    </row>
-    <row r="28" spans="1:14" ht="32" x14ac:dyDescent="0.2">
-      <c r="C28" s="37"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="H28" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="37"/>
-      <c r="K28" s="36"/>
-      <c r="L28" s="36"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="J28" s="152"/>
+      <c r="K28" s="151"/>
+      <c r="L28" s="151"/>
+      <c r="M28" s="156"/>
+    </row>
+    <row r="29" spans="1:14" ht="29">
       <c r="C29" s="37"/>
       <c r="D29" s="43"/>
-      <c r="E29" s="36">
-        <v>0</v>
+      <c r="E29" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G29" s="47"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="40"/>
+        <v>184</v>
+      </c>
+      <c r="H29" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="40" t="s">
+        <v>185</v>
+      </c>
       <c r="J29" s="37"/>
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B30" s="69"/>
-      <c r="C30" s="102"/>
-      <c r="D30" s="103"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="103"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="102"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" s="14" t="s">
+    <row r="30" spans="1:14">
+      <c r="C30" s="37"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="36">
+        <v>0</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G30" s="47"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="37"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="1:14">
+      <c r="B31" s="69"/>
+      <c r="C31" s="102"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="107"/>
+      <c r="F31" s="102"/>
+      <c r="G31" s="103"/>
+      <c r="H31" s="102"/>
+      <c r="I31" s="107"/>
+      <c r="J31" s="102"/>
+      <c r="K31" s="107"/>
+      <c r="L31" s="107"/>
+      <c r="M31" s="102"/>
+    </row>
+    <row r="32" spans="1:14">
+      <c r="A32" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="B31" s="53">
+      <c r="B32" s="53">
         <v>5</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C32" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D31" s="79"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="123"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="55"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="82"/>
-      <c r="M31" s="78"/>
-    </row>
-    <row r="32" spans="1:14" ht="16" x14ac:dyDescent="0.2">
-      <c r="C32" s="37"/>
-      <c r="E32" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F32" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="G32" s="38" t="s">
-        <v>629</v>
-      </c>
-      <c r="I32" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="J32" s="37"/>
-      <c r="K32" s="36"/>
-    </row>
-    <row r="33" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+      <c r="D32" s="79"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="123"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="82"/>
+      <c r="M32" s="78"/>
+    </row>
+    <row r="33" spans="1:13">
       <c r="C33" s="37"/>
       <c r="E33" s="36" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F33" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G33" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I33" s="40" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J33" s="37"/>
       <c r="K33" s="36"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B34" s="69"/>
-      <c r="C34" s="102"/>
-      <c r="D34" s="103"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="103"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="102"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="14" t="s">
+    <row r="34" spans="1:13">
+      <c r="C34" s="37"/>
+      <c r="E34" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="G34" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="I34" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" s="37"/>
+      <c r="K34" s="36"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="B35" s="69"/>
+      <c r="C35" s="102"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="107"/>
+      <c r="F35" s="102"/>
+      <c r="G35" s="103"/>
+      <c r="H35" s="102"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="102"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="102"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="B35" s="53">
+      <c r="B36" s="53">
         <v>3</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C36" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D35" s="60" t="s">
+      <c r="D36" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E35" s="54"/>
-      <c r="F35" s="55"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="55" t="s">
+      <c r="E36" s="54"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="I35" s="54"/>
-      <c r="J35" s="55"/>
-      <c r="K35" s="54"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="55"/>
-    </row>
-    <row r="36" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="C36" s="41"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="36" t="s">
+      <c r="I36" s="54"/>
+      <c r="J36" s="55"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="55"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="C37" s="41"/>
+      <c r="D37" s="42"/>
+      <c r="E37" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="37" t="s">
+      <c r="F37" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="G36" s="38" t="s">
+      <c r="G37" s="38" t="s">
         <v>622</v>
-      </c>
-      <c r="H36" s="39"/>
-      <c r="I36" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="J36" s="39"/>
-      <c r="K36" s="36"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="16" x14ac:dyDescent="0.2">
-      <c r="C37" s="37"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F37" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="G37" s="38" t="s">
-        <v>623</v>
       </c>
       <c r="H37" s="39"/>
       <c r="I37" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J37" s="39"/>
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
-      <c r="M37" s="37"/>
-    </row>
-    <row r="38" spans="1:13" ht="80" x14ac:dyDescent="0.2">
+      <c r="M37" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="C38" s="37"/>
       <c r="D38" s="43"/>
       <c r="E38" s="36" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G38" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="H38" s="113" t="s">
-        <v>233</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="H38" s="39"/>
       <c r="I38" s="40" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="J38" s="39"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="M38" s="37"/>
     </row>
-    <row r="39" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" ht="72.5">
       <c r="C39" s="37"/>
       <c r="D39" s="43"/>
       <c r="E39" s="36" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="H39" s="39"/>
+        <v>624</v>
+      </c>
+      <c r="H39" s="113" t="s">
+        <v>233</v>
+      </c>
       <c r="I39" s="40" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="J39" s="39"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="37"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B40" s="69"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="72"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="77"/>
-      <c r="H40" s="74"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="74"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="70"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="14" t="s">
+    <row r="40" spans="1:13">
+      <c r="C40" s="37"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F40" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="G40" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="H40" s="39"/>
+      <c r="I40" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J40" s="39"/>
+      <c r="K40" s="36"/>
+      <c r="L40" s="36"/>
+      <c r="M40" s="37"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="B41" s="69"/>
+      <c r="C41" s="70"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="70"/>
+      <c r="G41" s="77"/>
+      <c r="H41" s="74"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="74"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="M41" s="70"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="B41" s="53">
+      <c r="B42" s="53">
         <v>2</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C42" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D41" s="60" t="s">
+      <c r="D42" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E41" s="54"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="61"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="54"/>
-      <c r="J41" s="55"/>
-      <c r="K41" s="54"/>
-      <c r="L41" s="54"/>
-      <c r="M41" s="78" t="s">
+      <c r="E42" s="54"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="61"/>
+      <c r="H42" s="55"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="55"/>
+      <c r="K42" s="54"/>
+      <c r="L42" s="54"/>
+      <c r="M42" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C42" s="41"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="36" t="s">
+    <row r="43" spans="1:13">
+      <c r="C43" s="41"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="37" t="s">
+      <c r="F43" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="G42" s="38" t="s">
+      <c r="G43" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="H42" s="37"/>
-      <c r="I42" s="36" t="s">
+      <c r="H43" s="37"/>
+      <c r="I43" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="J42" s="37"/>
-      <c r="K42" s="36"/>
-      <c r="L42" s="36"/>
-    </row>
-    <row r="43" spans="1:13" ht="32" x14ac:dyDescent="0.2">
-      <c r="C43" s="37"/>
-      <c r="D43" s="43"/>
-      <c r="E43" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F43" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="G43" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="40" t="s">
-        <v>274</v>
       </c>
       <c r="J43" s="37"/>
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
-      <c r="M43" s="37"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B44" s="69"/>
-      <c r="C44" s="102"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="102"/>
-      <c r="G44" s="103"/>
-      <c r="H44" s="102"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="102"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="102"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="14" t="s">
+    </row>
+    <row r="44" spans="1:13" ht="29">
+      <c r="C44" s="37"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="G44" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="H44" s="37"/>
+      <c r="I44" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J44" s="37"/>
+      <c r="K44" s="36"/>
+      <c r="L44" s="36"/>
+      <c r="M44" s="37"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="B45" s="69"/>
+      <c r="C45" s="102"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="107"/>
+      <c r="F45" s="102"/>
+      <c r="G45" s="103"/>
+      <c r="H45" s="102"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="102"/>
+      <c r="K45" s="107"/>
+      <c r="L45" s="107"/>
+      <c r="M45" s="102"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="B45" s="53">
+      <c r="B46" s="53">
         <v>2</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C46" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D45" s="60" t="s">
+      <c r="D46" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E45" s="54"/>
-      <c r="F45" s="55"/>
-      <c r="G45" s="61"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="54"/>
-      <c r="J45" s="55"/>
-      <c r="K45" s="54"/>
-      <c r="L45" s="82"/>
-      <c r="M45" s="78" t="s">
+      <c r="E46" s="54"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="61"/>
+      <c r="H46" s="55"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="55"/>
+      <c r="K46" s="54"/>
+      <c r="L46" s="82"/>
+      <c r="M46" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C46" s="41"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="36" t="s">
+    <row r="47" spans="1:13">
+      <c r="C47" s="41"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F46" s="37" t="s">
+      <c r="F47" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="G46" s="38" t="s">
+      <c r="G47" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="H46" s="37" t="s">
+      <c r="H47" s="37" t="s">
         <v>230</v>
-      </c>
-      <c r="I46" s="36"/>
-      <c r="J46" s="37"/>
-      <c r="K46" s="36"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="C47" s="37"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="G47" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="H47" s="37" t="s">
-        <v>231</v>
       </c>
       <c r="I47" s="36"/>
       <c r="J47" s="37"/>
       <c r="K47" s="36"/>
-      <c r="L47" s="36"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B48" s="69"/>
-      <c r="C48" s="102"/>
-      <c r="D48" s="103"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="102"/>
-      <c r="G48" s="103"/>
-      <c r="H48" s="102"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="102"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="107"/>
-      <c r="M48" s="102"/>
-    </row>
-    <row r="49" spans="1:13" ht="48" x14ac:dyDescent="0.2">
-      <c r="A49" s="14" t="s">
+    </row>
+    <row r="48" spans="1:13">
+      <c r="C48" s="37"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F48" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="H48" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="I48" s="36"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="B49" s="69"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="103"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="103"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="107"/>
+      <c r="J49" s="102"/>
+      <c r="K49" s="107"/>
+      <c r="L49" s="107"/>
+      <c r="M49" s="102"/>
+    </row>
+    <row r="50" spans="1:13" ht="43.5">
+      <c r="A50" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="B49" s="27">
+      <c r="B50" s="27">
         <v>2</v>
       </c>
-      <c r="C49" s="22" t="s">
+      <c r="C50" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D49" s="26" t="s">
+      <c r="D50" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="E49" s="160" t="s">
+      <c r="E50" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="F49" s="161" t="s">
+      <c r="F50" s="161" t="s">
         <v>664</v>
       </c>
-      <c r="G49" s="162" t="s">
+      <c r="G50" s="162" t="s">
         <v>663</v>
       </c>
-      <c r="H49" s="163" t="s">
+      <c r="H50" s="163" t="s">
         <v>728</v>
       </c>
-      <c r="I49" s="164"/>
-      <c r="J49" s="165"/>
-      <c r="K49" s="160"/>
-      <c r="L49" s="160"/>
-      <c r="M49" s="161"/>
-    </row>
-    <row r="50" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="53"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="82"/>
-      <c r="F50" s="78"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="78"/>
-      <c r="I50" s="82"/>
-      <c r="J50" s="78"/>
-      <c r="K50" s="82"/>
-      <c r="L50" s="82"/>
-      <c r="M50" s="78"/>
+      <c r="I50" s="164"/>
+      <c r="J50" s="165"/>
+      <c r="K50" s="160"/>
+      <c r="L50" s="160"/>
+      <c r="M50" s="161"/>
+    </row>
+    <row r="51" spans="1:13" s="14" customFormat="1">
+      <c r="A51" s="14" t="s">
+        <v>817</v>
+      </c>
+      <c r="B51" s="53">
+        <v>3</v>
+      </c>
+      <c r="C51" s="59" t="s">
+        <v>197</v>
+      </c>
+      <c r="D51" s="60" t="s">
+        <v>580</v>
+      </c>
+      <c r="E51" s="54"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="61"/>
+      <c r="H51" s="55"/>
+      <c r="I51" s="54"/>
+      <c r="J51" s="55"/>
+      <c r="K51" s="54"/>
+      <c r="L51" s="54"/>
+      <c r="M51" s="55" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="C52" s="37"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="37" t="s">
+        <v>592</v>
+      </c>
+      <c r="G52" s="44" t="s">
+        <v>588</v>
+      </c>
+      <c r="H52" s="37"/>
+      <c r="I52" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="J52" s="37"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="37"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="C53" s="37"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="36" t="s">
+        <v>5</v>
+      </c>
+      <c r="F53" s="37" t="s">
+        <v>593</v>
+      </c>
+      <c r="G53" s="44" t="s">
+        <v>589</v>
+      </c>
+      <c r="H53" s="37"/>
+      <c r="I53" s="36" t="s">
+        <v>200</v>
+      </c>
+      <c r="J53" s="37"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="37"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="C54" s="37"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" s="37" t="s">
+        <v>594</v>
+      </c>
+      <c r="G54" s="44" t="s">
+        <v>590</v>
+      </c>
+      <c r="H54" s="37"/>
+      <c r="I54" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="J54" s="37"/>
+      <c r="K54" s="36"/>
+      <c r="L54" s="36"/>
+      <c r="M54" s="37"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="C55" s="37"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F55" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="G55" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="H55" s="37"/>
+      <c r="I55" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="J55" s="37"/>
+      <c r="K55" s="36"/>
+      <c r="L55" s="36"/>
+      <c r="M55" s="37"/>
+    </row>
+    <row r="56" spans="1:13" s="188" customFormat="1">
+      <c r="B56" s="171"/>
+      <c r="C56" s="172"/>
+      <c r="D56" s="173"/>
+      <c r="E56" s="174" t="s">
+        <v>3</v>
+      </c>
+      <c r="F56" s="172" t="s">
+        <v>587</v>
+      </c>
+      <c r="G56" s="189" t="s">
+        <v>583</v>
+      </c>
+      <c r="H56" s="172"/>
+      <c r="I56" s="174" t="s">
+        <v>203</v>
+      </c>
+      <c r="J56" s="172"/>
+      <c r="K56" s="174"/>
+      <c r="L56" s="174"/>
+      <c r="M56" s="172"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="B57" s="167"/>
+      <c r="C57" s="185"/>
+      <c r="D57" s="186"/>
+      <c r="E57" s="187"/>
+      <c r="F57" s="185"/>
+      <c r="G57" s="186"/>
+      <c r="H57" s="185"/>
+      <c r="I57" s="187"/>
+      <c r="J57" s="185"/>
+      <c r="K57" s="187"/>
+      <c r="L57" s="187"/>
+      <c r="M57" s="185"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10573,24 +10731,24 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.1640625" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="49" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.1796875" style="50" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="49" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" style="50" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="26.1640625" style="51" customWidth="1"/>
-    <col min="9" max="9" width="33.6640625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="52" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.36328125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.1796875" style="51" customWidth="1"/>
+    <col min="9" max="9" width="33.6328125" style="48" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="52" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="52" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="49" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="18"/>
+    <col min="12" max="12" width="23.453125" style="49" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="18" t="s">
         <v>806</v>
       </c>
@@ -10609,7 +10767,7 @@
       <c r="L1" s="178"/>
       <c r="M1" s="178"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13">
       <c r="A2" s="18" t="s">
         <v>807</v>
       </c>
@@ -10626,7 +10784,7 @@
       <c r="L2" s="178"/>
       <c r="M2" s="178"/>
     </row>
-    <row r="3" spans="1:13" s="62" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" s="62" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -10664,7 +10822,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" ht="58">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -10694,7 +10852,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -10714,7 +10872,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" ht="43.5">
       <c r="B6" s="37"/>
       <c r="C6" s="43"/>
       <c r="D6" s="36" t="s">
@@ -10743,7 +10901,7 @@
       </c>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -10771,7 +10929,7 @@
       </c>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -10795,7 +10953,7 @@
       </c>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" ht="29">
       <c r="B9" s="37"/>
       <c r="C9" s="43"/>
       <c r="D9" s="36" t="s">
@@ -10822,7 +10980,7 @@
       </c>
       <c r="L9" s="37"/>
     </row>
-    <row r="10" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="B10" s="37"/>
       <c r="C10" s="43"/>
       <c r="D10" s="36" t="s">
@@ -10847,7 +11005,7 @@
       </c>
       <c r="L10" s="37"/>
     </row>
-    <row r="11" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" ht="43.5">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -10871,7 +11029,7 @@
       <c r="K11" s="72"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -10895,7 +11053,7 @@
       </c>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="B13" s="37"/>
       <c r="C13" s="43"/>
       <c r="D13" s="36" t="s">
@@ -10920,7 +11078,7 @@
       </c>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="B14" s="37"/>
       <c r="C14" s="43"/>
       <c r="D14" s="36" t="s">
@@ -10945,7 +11103,7 @@
       </c>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13">
       <c r="B15" s="37"/>
       <c r="C15" s="43"/>
       <c r="D15" s="36" t="s">
@@ -10970,7 +11128,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" ht="29">
       <c r="B16" s="37"/>
       <c r="C16" s="43"/>
       <c r="D16" s="36" t="s">
@@ -10997,7 +11155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
       <c r="C17" s="71"/>
@@ -11019,7 +11177,7 @@
       <c r="K17" s="72"/>
       <c r="L17" s="70"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="53">
         <v>5</v>
       </c>
@@ -11043,7 +11201,7 @@
       </c>
       <c r="L18" s="55"/>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="B19" s="37"/>
       <c r="C19" s="43"/>
       <c r="D19" s="36" t="s">
@@ -11068,7 +11226,7 @@
       </c>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="B20" s="37"/>
       <c r="C20" s="43"/>
       <c r="D20" s="36" t="s">
@@ -11093,7 +11251,7 @@
       </c>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="B21" s="37"/>
       <c r="C21" s="43"/>
       <c r="D21" s="36" t="s">
@@ -11118,7 +11276,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="B22" s="37"/>
       <c r="C22" s="43"/>
       <c r="D22" s="36" t="s">
@@ -11143,7 +11301,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="B23" s="37"/>
       <c r="C23" s="43"/>
       <c r="D23" s="36" t="s">
@@ -11168,7 +11326,7 @@
       </c>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="B24" s="37"/>
       <c r="C24" s="43"/>
       <c r="D24" s="36" t="s">
@@ -11193,7 +11351,7 @@
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="29">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
       <c r="C25" s="71"/>
@@ -11217,7 +11375,7 @@
       <c r="K25" s="72"/>
       <c r="L25" s="70"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="53">
         <v>6</v>
       </c>
@@ -11241,7 +11399,7 @@
       </c>
       <c r="L26" s="55"/>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="B27" s="37"/>
       <c r="C27" s="43"/>
       <c r="D27" s="36">
@@ -11261,7 +11419,7 @@
       <c r="K27" s="36"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="B28" s="37"/>
       <c r="C28" s="43"/>
       <c r="D28" s="36">
@@ -11281,7 +11439,7 @@
       <c r="K28" s="36"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="B29" s="37"/>
       <c r="C29" s="43"/>
       <c r="D29" s="36">
@@ -11301,7 +11459,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" s="37"/>
       <c r="C30" s="43"/>
       <c r="D30" s="36">
@@ -11321,7 +11479,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="B31" s="37"/>
       <c r="C31" s="43"/>
       <c r="D31" s="36">
@@ -11341,7 +11499,7 @@
       <c r="K31" s="36"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="B32" s="37"/>
       <c r="C32" s="43"/>
       <c r="D32" s="36">
@@ -11361,7 +11519,7 @@
       <c r="K32" s="36"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" ht="29">
       <c r="B33" s="37"/>
       <c r="C33" s="43"/>
       <c r="D33" s="36">
@@ -11386,7 +11544,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" ht="43.5">
       <c r="B34" s="37"/>
       <c r="C34" s="43"/>
       <c r="D34" s="36" t="s">
@@ -11411,7 +11569,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="A35" s="69"/>
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
@@ -11435,7 +11593,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="53"/>
       <c r="B36" s="78"/>
       <c r="C36" s="79"/>
@@ -11464,24 +11622,24 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="99" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="30.6640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="99" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6328125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="30.6328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="52.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>806</v>
       </c>
@@ -11492,7 +11650,7 @@
       <c r="I1" s="178"/>
       <c r="J1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>807</v>
       </c>
@@ -11501,7 +11659,7 @@
       <c r="I2" s="178"/>
       <c r="J2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -11539,7 +11697,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="30">
         <v>1</v>
       </c>
@@ -11571,7 +11729,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="109">
         <v>2</v>
       </c>
@@ -11593,7 +11751,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
@@ -11613,7 +11771,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="D7" s="36" t="s">
         <v>68</v>
       </c>
@@ -11636,7 +11794,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="36" t="s">
         <v>4</v>
       </c>
@@ -11656,7 +11814,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="36" t="s">
         <v>73</v>
       </c>
@@ -11676,7 +11834,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="29">
       <c r="D10" s="36" t="s">
         <v>3</v>
       </c>
@@ -11699,7 +11857,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="58">
       <c r="A11" s="158"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -11729,7 +11887,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="43.5">
       <c r="A12" s="158"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -11759,7 +11917,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="109">
         <v>3</v>
       </c>
@@ -11781,7 +11939,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="D14" s="36" t="s">
         <v>9</v>
       </c>
@@ -11801,7 +11959,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="D15" s="36" t="s">
         <v>59</v>
       </c>
@@ -11821,7 +11979,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="29">
       <c r="A16" s="158"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -11843,7 +12001,7 @@
       <c r="K16" s="89"/>
       <c r="L16" s="90"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="109">
         <v>4</v>
       </c>
@@ -11869,7 +12027,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="D18" s="36" t="s">
         <v>87</v>
       </c>
@@ -11889,7 +12047,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="D19" s="36" t="s">
         <v>14</v>
       </c>
@@ -11906,7 +12064,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="D20" s="36" t="s">
         <v>3</v>
       </c>
@@ -11926,7 +12084,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="29">
       <c r="D21" s="36" t="s">
         <v>34</v>
       </c>
@@ -11946,7 +12104,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="D22" s="36" t="s">
         <v>5</v>
       </c>
@@ -11966,7 +12124,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="D23" s="36" t="s">
         <v>9</v>
       </c>
@@ -11986,7 +12144,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="43.5">
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
       <c r="D24" s="72" t="s">
@@ -12013,7 +12171,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="99">
         <v>5</v>
       </c>
@@ -12037,7 +12195,7 @@
       </c>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="D26" s="36" t="s">
         <v>4</v>
       </c>
@@ -12057,7 +12215,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="D27" s="36" t="s">
         <v>6</v>
       </c>
@@ -12077,7 +12235,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="D28" s="36" t="s">
         <v>8</v>
       </c>
@@ -12097,7 +12255,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="29">
       <c r="A29" s="158"/>
       <c r="B29" s="70"/>
       <c r="C29" s="71"/>
@@ -12121,7 +12279,7 @@
       <c r="K29" s="72"/>
       <c r="L29" s="70"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="109">
         <v>6</v>
       </c>
@@ -12141,7 +12299,7 @@
       <c r="K30" s="54"/>
       <c r="L30" s="55"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="D31" s="36" t="s">
         <v>78</v>
       </c>
@@ -12158,7 +12316,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="D32" s="36" t="s">
         <v>87</v>
       </c>
@@ -12175,7 +12333,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="158"/>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
@@ -12197,7 +12355,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="70"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="A34" s="109">
         <v>7</v>
       </c>
@@ -12221,7 +12379,7 @@
       </c>
       <c r="L34" s="55"/>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="D35" s="36">
         <v>1</v>
       </c>
@@ -12235,7 +12393,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="D36" s="36">
         <v>2</v>
       </c>
@@ -12249,7 +12407,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="D37" s="36">
         <v>3</v>
       </c>
@@ -12263,7 +12421,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="D38" s="36" t="s">
         <v>87</v>
       </c>
@@ -12280,7 +12438,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="A39" s="158"/>
       <c r="B39" s="70"/>
       <c r="C39" s="71"/>
@@ -12302,7 +12460,7 @@
       <c r="K39" s="72"/>
       <c r="L39" s="70"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="A40" s="109">
         <v>8</v>
       </c>
@@ -12326,7 +12484,7 @@
       </c>
       <c r="L40" s="55"/>
     </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="D41" s="36">
         <v>1</v>
       </c>
@@ -12340,7 +12498,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="D42" s="36">
         <v>2</v>
       </c>
@@ -12354,7 +12512,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="D43" s="36">
         <v>3</v>
       </c>
@@ -12368,7 +12526,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" ht="29">
       <c r="A44" s="158"/>
       <c r="B44" s="70"/>
       <c r="C44" s="71"/>
@@ -12390,7 +12548,7 @@
       <c r="K44" s="72"/>
       <c r="L44" s="70"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="109">
         <v>9</v>
       </c>
@@ -12414,7 +12572,7 @@
       </c>
       <c r="L45" s="55"/>
     </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="D46" s="36" t="s">
         <v>8</v>
       </c>
@@ -12434,7 +12592,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="D47" s="36" t="s">
         <v>4</v>
       </c>
@@ -12454,7 +12612,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="43.5">
       <c r="A48" s="158"/>
       <c r="B48" s="70"/>
       <c r="C48" s="71"/>
@@ -12478,7 +12636,7 @@
       <c r="K48" s="72"/>
       <c r="L48" s="70"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" s="109">
         <v>10</v>
       </c>
@@ -12502,7 +12660,7 @@
       </c>
       <c r="L49" s="55"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="D50" s="36" t="s">
         <v>11</v>
       </c>
@@ -12519,7 +12677,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="D51" s="36" t="s">
         <v>4</v>
       </c>
@@ -12539,7 +12697,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="29">
       <c r="A52" s="158"/>
       <c r="B52" s="70"/>
       <c r="C52" s="71"/>
@@ -12561,7 +12719,7 @@
       <c r="K52" s="72"/>
       <c r="L52" s="70"/>
     </row>
-    <row r="53" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" ht="43.5">
       <c r="A53" s="109">
         <v>11</v>
       </c>
@@ -12589,7 +12747,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="D54" s="36" t="s">
         <v>9</v>
       </c>
@@ -12609,7 +12767,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="A55" s="158"/>
       <c r="B55" s="70"/>
       <c r="C55" s="71"/>
@@ -12635,7 +12793,7 @@
       </c>
       <c r="L55" s="70"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12">
       <c r="A56" s="109"/>
       <c r="B56" s="55"/>
       <c r="C56" s="61"/>
@@ -12664,24 +12822,24 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="29.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.5" style="39" customWidth="1"/>
-    <col min="8" max="8" width="28.5" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="29.6328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="28.453125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="52.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="52.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>806</v>
       </c>
@@ -12692,7 +12850,7 @@
       <c r="I1" s="178"/>
       <c r="J1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>807</v>
       </c>
@@ -12700,7 +12858,7 @@
       <c r="I2" s="178"/>
       <c r="J2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -12738,7 +12896,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -12770,7 +12928,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -12792,7 +12950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
@@ -12812,7 +12970,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="D7" s="36" t="s">
         <v>68</v>
       </c>
@@ -12835,7 +12993,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="36" t="s">
         <v>4</v>
       </c>
@@ -12855,7 +13013,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="36" t="s">
         <v>73</v>
       </c>
@@ -12875,7 +13033,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="29">
       <c r="D10" s="36" t="s">
         <v>3</v>
       </c>
@@ -12898,7 +13056,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="58">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -12928,7 +13086,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="43.5">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -12958,7 +13116,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="53">
         <v>3</v>
       </c>
@@ -12980,7 +13138,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="D14" s="36" t="s">
         <v>9</v>
       </c>
@@ -13000,7 +13158,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="D15" s="36" t="s">
         <v>59</v>
       </c>
@@ -13020,7 +13178,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -13042,7 +13200,7 @@
       <c r="K16" s="89"/>
       <c r="L16" s="90"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="53">
         <v>4</v>
       </c>
@@ -13068,7 +13226,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="29">
       <c r="D18" s="36" t="s">
         <v>87</v>
       </c>
@@ -13091,7 +13249,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="29">
       <c r="D19" s="36" t="s">
         <v>14</v>
       </c>
@@ -13111,7 +13269,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" ht="29">
       <c r="D20" s="36" t="s">
         <v>3</v>
       </c>
@@ -13134,7 +13292,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="29">
       <c r="D21" s="36" t="s">
         <v>34</v>
       </c>
@@ -13154,7 +13312,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="29">
       <c r="D22" s="36" t="s">
         <v>5</v>
       </c>
@@ -13177,7 +13335,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="29">
       <c r="D23" s="36" t="s">
         <v>9</v>
       </c>
@@ -13200,7 +13358,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
@@ -13226,7 +13384,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="53">
         <v>5</v>
       </c>
@@ -13250,7 +13408,7 @@
       </c>
       <c r="L25" s="78"/>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
       <c r="D26" s="36" t="s">
@@ -13275,7 +13433,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="B27" s="49"/>
       <c r="C27" s="50"/>
       <c r="D27" s="36" t="s">
@@ -13300,7 +13458,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="69"/>
       <c r="B28" s="102"/>
       <c r="C28" s="103"/>
@@ -13326,7 +13484,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="A29" s="53">
         <v>6</v>
       </c>
@@ -13350,7 +13508,7 @@
       </c>
       <c r="L29" s="78"/>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
       <c r="D30" s="36" t="s">
@@ -13375,7 +13533,7 @@
       </c>
       <c r="L30" s="49"/>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
       <c r="D31" s="36" t="s">
@@ -13400,7 +13558,7 @@
       </c>
       <c r="L31" s="49"/>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="69"/>
       <c r="B32" s="102"/>
       <c r="C32" s="103"/>
@@ -13424,7 +13582,7 @@
       <c r="K32" s="107"/>
       <c r="L32" s="102"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="53">
         <v>7</v>
       </c>
@@ -13448,7 +13606,7 @@
       </c>
       <c r="L33" s="78"/>
     </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="B34" s="49"/>
       <c r="C34" s="50"/>
       <c r="D34" s="36" t="s">
@@ -13473,7 +13631,7 @@
       </c>
       <c r="L34" s="49"/>
     </row>
-    <row r="35" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12">
       <c r="B35" s="49"/>
       <c r="C35" s="50"/>
       <c r="D35" s="36" t="s">
@@ -13498,7 +13656,7 @@
       </c>
       <c r="L35" s="49"/>
     </row>
-    <row r="36" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" ht="29">
       <c r="A36" s="69"/>
       <c r="B36" s="102"/>
       <c r="C36" s="103"/>
@@ -13522,7 +13680,7 @@
       <c r="K36" s="107"/>
       <c r="L36" s="102"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12">
       <c r="A37" s="53">
         <v>8</v>
       </c>
@@ -13546,7 +13704,7 @@
       </c>
       <c r="L37" s="78"/>
     </row>
-    <row r="38" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12">
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
       <c r="D38" s="36" t="s">
@@ -13571,7 +13729,7 @@
       </c>
       <c r="L38" s="49"/>
     </row>
-    <row r="39" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12">
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
       <c r="D39" s="36" t="s">
@@ -13596,7 +13754,7 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12">
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
       <c r="D40" s="36" t="s">
@@ -13621,7 +13779,7 @@
       </c>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12">
       <c r="B41" s="49"/>
       <c r="C41" s="50"/>
       <c r="D41" s="36" t="s">
@@ -13646,7 +13804,7 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12">
       <c r="B42" s="49"/>
       <c r="C42" s="50"/>
       <c r="D42" s="36" t="s">
@@ -13671,7 +13829,7 @@
       </c>
       <c r="L42" s="49"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12">
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
       <c r="D43" s="36" t="s">
@@ -13694,7 +13852,7 @@
       </c>
       <c r="L43" s="49"/>
     </row>
-    <row r="44" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12">
       <c r="A44" s="69"/>
       <c r="B44" s="102"/>
       <c r="C44" s="103"/>
@@ -13718,7 +13876,7 @@
       <c r="K44" s="107"/>
       <c r="L44" s="102"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12">
       <c r="A45" s="53">
         <v>9</v>
       </c>
@@ -13742,7 +13900,7 @@
       </c>
       <c r="L45" s="78"/>
     </row>
-    <row r="46" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12">
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
       <c r="D46" s="36" t="s">
@@ -13769,7 +13927,7 @@
       </c>
       <c r="L46" s="49"/>
     </row>
-    <row r="47" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12">
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
       <c r="D47" s="36" t="s">
@@ -13796,7 +13954,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" ht="29">
       <c r="A48" s="69"/>
       <c r="B48" s="102"/>
       <c r="C48" s="103"/>
@@ -13820,7 +13978,7 @@
       <c r="K48" s="107"/>
       <c r="L48" s="102"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12">
       <c r="A49" s="53">
         <v>10</v>
       </c>
@@ -13844,7 +14002,7 @@
       </c>
       <c r="L49" s="78"/>
     </row>
-    <row r="50" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12">
       <c r="B50" s="49"/>
       <c r="C50" s="50"/>
       <c r="D50" s="36" t="s">
@@ -13871,7 +14029,7 @@
       </c>
       <c r="L50" s="49"/>
     </row>
-    <row r="51" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12">
       <c r="B51" s="49"/>
       <c r="C51" s="50"/>
       <c r="D51" s="36" t="s">
@@ -13898,7 +14056,7 @@
       </c>
       <c r="L51" s="49"/>
     </row>
-    <row r="52" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" ht="29">
       <c r="A52" s="69"/>
       <c r="B52" s="102"/>
       <c r="C52" s="103"/>
@@ -13922,7 +14080,7 @@
       <c r="K52" s="107"/>
       <c r="L52" s="102"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12">
       <c r="A53" s="53">
         <v>11</v>
       </c>
@@ -13946,7 +14104,7 @@
       </c>
       <c r="L53" s="78"/>
     </row>
-    <row r="54" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12">
       <c r="B54" s="49"/>
       <c r="C54" s="50"/>
       <c r="D54" s="36" t="s">
@@ -13971,7 +14129,7 @@
       </c>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12">
       <c r="B55" s="49"/>
       <c r="C55" s="50"/>
       <c r="D55" s="36" t="s">
@@ -13996,7 +14154,7 @@
       </c>
       <c r="L55" s="49"/>
     </row>
-    <row r="56" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" ht="29">
       <c r="A56" s="69"/>
       <c r="B56" s="102"/>
       <c r="C56" s="103"/>
@@ -14020,7 +14178,7 @@
       <c r="K56" s="107"/>
       <c r="L56" s="49"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12">
       <c r="A57" s="53">
         <v>12</v>
       </c>
@@ -14043,7 +14201,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12">
       <c r="D58" s="36" t="s">
         <v>4</v>
       </c>
@@ -14066,7 +14224,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" ht="29">
       <c r="D59" s="36" t="s">
         <v>3</v>
       </c>
@@ -14089,7 +14247,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" ht="29">
       <c r="D60" s="36" t="s">
         <v>8</v>
       </c>
@@ -14112,7 +14270,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="29">
       <c r="A61" s="69"/>
       <c r="B61" s="70"/>
       <c r="C61" s="71"/>
@@ -14136,7 +14294,7 @@
       <c r="K61" s="72"/>
       <c r="L61" s="70"/>
     </row>
-    <row r="62" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="43.5">
       <c r="A62" s="109">
         <v>13</v>
       </c>
@@ -14164,7 +14322,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12">
       <c r="A63" s="84"/>
       <c r="D63" s="36" t="s">
         <v>9</v>
@@ -14185,7 +14343,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12">
       <c r="A64" s="88"/>
       <c r="B64" s="70"/>
       <c r="C64" s="71"/>
@@ -14211,7 +14369,7 @@
       </c>
       <c r="L64" s="70"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12">
       <c r="A65" s="53"/>
       <c r="B65" s="55"/>
       <c r="C65" s="61"/>
@@ -14240,24 +14398,24 @@
       <selection pane="bottomLeft" activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.5" style="39" customWidth="1"/>
-    <col min="8" max="8" width="23.33203125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="42.33203125" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.453125" style="39" customWidth="1"/>
+    <col min="8" max="8" width="23.36328125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="42.36328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="18" customFormat="1">
       <c r="A1" s="18" t="s">
         <v>806</v>
       </c>
@@ -14268,7 +14426,7 @@
       <c r="I1" s="178"/>
       <c r="J1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="18" customFormat="1">
       <c r="A2" s="18" t="s">
         <v>807</v>
       </c>
@@ -14276,7 +14434,7 @@
       <c r="I2" s="178"/>
       <c r="J2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -14314,7 +14472,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="58">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -14346,7 +14504,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -14366,7 +14524,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="D6" s="36" t="s">
         <v>6</v>
       </c>
@@ -14386,7 +14544,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -14410,7 +14568,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" ht="58">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -14438,7 +14596,7 @@
       </c>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="36" t="s">
         <v>5</v>
       </c>
@@ -14458,7 +14616,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="69"/>
       <c r="B10" s="70"/>
       <c r="C10" s="71"/>
@@ -14484,7 +14642,7 @@
       </c>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="1:12" s="18" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" s="18" customFormat="1" ht="72">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -14508,7 +14666,7 @@
       <c r="K11" s="72"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -14532,7 +14690,7 @@
       </c>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="D13" s="36" t="s">
         <v>8</v>
       </c>
@@ -14552,7 +14710,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -14578,7 +14736,7 @@
       </c>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:12" s="18" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" s="18" customFormat="1" ht="43.5">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
       <c r="C15" s="71"/>
@@ -14600,7 +14758,7 @@
       <c r="K15" s="72"/>
       <c r="L15" s="70"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="53">
         <v>5</v>
       </c>
@@ -14624,7 +14782,7 @@
       </c>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
@@ -14644,7 +14802,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="D18" s="36" t="s">
         <v>10</v>
       </c>
@@ -14664,7 +14822,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="D19" s="36" t="s">
         <v>34</v>
       </c>
@@ -14684,7 +14842,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="D20" s="36" t="s">
         <v>11</v>
       </c>
@@ -14704,7 +14862,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="D21" s="36" t="s">
         <v>12</v>
       </c>
@@ -14724,7 +14882,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
@@ -14748,7 +14906,7 @@
       </c>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12" s="18" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="18" customFormat="1" ht="43.5">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
       <c r="C23" s="71"/>
@@ -14772,7 +14930,7 @@
       <c r="K23" s="72"/>
       <c r="L23" s="70"/>
     </row>
-    <row r="24" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" ht="58">
       <c r="A24" s="53">
         <v>6</v>
       </c>
@@ -14800,7 +14958,7 @@
       </c>
       <c r="L24" s="55"/>
     </row>
-    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="29">
       <c r="D25" s="36" t="s">
         <v>9</v>
       </c>
@@ -14823,7 +14981,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" ht="58">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
@@ -14853,7 +15011,7 @@
       </c>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="53">
         <v>7</v>
       </c>
@@ -14877,7 +15035,7 @@
       </c>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="D28" s="36" t="s">
         <v>4</v>
       </c>
@@ -14900,7 +15058,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="D29" s="36" t="s">
         <v>3</v>
       </c>
@@ -14920,7 +15078,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="A30" s="69"/>
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
@@ -14946,7 +15104,7 @@
       </c>
       <c r="L30" s="70"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="A31" s="53"/>
       <c r="B31" s="55"/>
       <c r="C31" s="61"/>
@@ -14974,23 +15132,23 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="115" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="111" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="112" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="110" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" style="111" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="31.1640625" style="113" customWidth="1"/>
-    <col min="8" max="8" width="23.83203125" style="114" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="40.1640625" style="113" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.33203125" style="112" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="115" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="110" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.36328125" style="111" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="112" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="110" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.1796875" style="111" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1796875" style="113" customWidth="1"/>
+    <col min="8" max="8" width="23.81640625" style="114" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="40.1796875" style="113" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.36328125" style="112" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="112" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="110" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="23.36328125" style="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>806</v>
       </c>
@@ -15008,7 +15166,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>807</v>
       </c>
@@ -15024,7 +15182,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -15062,7 +15220,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="58">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -15096,7 +15254,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -15116,7 +15274,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="A6" s="35"/>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
@@ -15144,7 +15302,7 @@
       </c>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="35"/>
       <c r="B7" s="37"/>
       <c r="C7" s="43"/>
@@ -15174,7 +15332,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="71"/>
@@ -15200,7 +15358,7 @@
       </c>
       <c r="L8" s="70"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="53">
         <v>3</v>
       </c>
@@ -15222,7 +15380,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="35"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -15244,7 +15402,7 @@
       <c r="K10" s="36"/>
       <c r="L10" s="49"/>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="43"/>
@@ -15266,7 +15424,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" ht="29">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -15290,7 +15448,7 @@
       <c r="K12" s="89"/>
       <c r="L12" s="90"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="53">
         <v>4</v>
       </c>
@@ -15314,7 +15472,7 @@
       </c>
       <c r="L13" s="55"/>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="35"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -15340,7 +15498,7 @@
       </c>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="A15" s="35"/>
       <c r="B15" s="37"/>
       <c r="C15" s="43"/>
@@ -15366,7 +15524,7 @@
       </c>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -15388,7 +15546,7 @@
       <c r="K16" s="72"/>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="53">
         <v>5</v>
       </c>
@@ -15412,7 +15570,7 @@
       </c>
       <c r="L17" s="55"/>
     </row>
-    <row r="18" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12">
       <c r="A18" s="35"/>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -15440,7 +15598,7 @@
       </c>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="29">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
       <c r="C19" s="71"/>
@@ -15468,7 +15626,7 @@
       </c>
       <c r="L19" s="70"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="A20" s="53">
         <v>6</v>
       </c>
@@ -15492,7 +15650,7 @@
       </c>
       <c r="L20" s="55"/>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="A21" s="35"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -15518,7 +15676,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12">
       <c r="A22" s="35"/>
       <c r="B22" s="37"/>
       <c r="C22" s="43"/>
@@ -15544,7 +15702,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="35"/>
       <c r="B23" s="37"/>
       <c r="C23" s="43"/>
@@ -15570,7 +15728,7 @@
       </c>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="A24" s="35"/>
       <c r="B24" s="37"/>
       <c r="C24" s="43"/>
@@ -15596,7 +15754,7 @@
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12">
       <c r="A25" s="35"/>
       <c r="B25" s="37"/>
       <c r="C25" s="43"/>
@@ -15622,7 +15780,7 @@
       </c>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="35"/>
       <c r="B26" s="37"/>
       <c r="C26" s="43"/>
@@ -15646,7 +15804,7 @@
       </c>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
@@ -15668,7 +15826,7 @@
       <c r="K27" s="72"/>
       <c r="L27" s="70"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="A28" s="116"/>
       <c r="B28" s="181" t="s">
         <v>808</v>
@@ -15698,24 +15856,24 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.33203125" style="39" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.81640625" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.36328125" style="39" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="46" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.83203125" style="39" customWidth="1"/>
-    <col min="10" max="10" width="24.83203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.81640625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="24.81640625" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>806</v>
       </c>
@@ -15733,7 +15891,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>807</v>
       </c>
@@ -15749,7 +15907,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -15787,7 +15945,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -15819,7 +15977,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="29">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -15841,7 +15999,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
       <c r="D6" s="36" t="s">
@@ -15863,7 +16021,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="D7" s="36" t="s">
         <v>61</v>
       </c>
@@ -15883,7 +16041,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
@@ -15903,7 +16061,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="36" t="s">
         <v>34</v>
       </c>
@@ -15923,7 +16081,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="43.5">
       <c r="D10" s="36" t="s">
         <v>87</v>
       </c>
@@ -15943,7 +16101,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12">
       <c r="D11" s="36" t="s">
         <v>174</v>
       </c>
@@ -15963,7 +16121,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="D12" s="36" t="s">
         <v>14</v>
       </c>
@@ -15983,7 +16141,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
       <c r="C13" s="71"/>
@@ -16009,7 +16167,7 @@
       </c>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="A14" s="53">
         <v>3</v>
       </c>
@@ -16033,7 +16191,7 @@
       </c>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="D15" s="36">
         <v>1</v>
       </c>
@@ -16053,7 +16211,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12">
       <c r="D16" s="36">
         <v>2</v>
       </c>
@@ -16073,7 +16231,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="D17" s="36">
         <v>3</v>
       </c>
@@ -16096,7 +16254,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" ht="43.5">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
       <c r="C18" s="71"/>
@@ -16120,7 +16278,7 @@
       <c r="K18" s="72"/>
       <c r="L18" s="70"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12">
       <c r="A19" s="53">
         <v>4</v>
       </c>
@@ -16144,7 +16302,7 @@
       </c>
       <c r="L19" s="55"/>
     </row>
-    <row r="20" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12">
       <c r="D20" s="36" t="s">
         <v>5</v>
       </c>
@@ -16167,7 +16325,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12">
       <c r="D21" s="36" t="s">
         <v>6</v>
       </c>
@@ -16190,7 +16348,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" ht="29">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
@@ -16214,7 +16372,7 @@
       <c r="K22" s="72"/>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12">
       <c r="A23" s="53">
         <v>5</v>
       </c>
@@ -16238,7 +16396,7 @@
       </c>
       <c r="L23" s="55"/>
     </row>
-    <row r="24" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12">
       <c r="D24" s="36" t="s">
         <v>8</v>
       </c>
@@ -16258,7 +16416,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" ht="29">
       <c r="D25" s="36" t="s">
         <v>4</v>
       </c>
@@ -16281,7 +16439,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
@@ -16303,7 +16461,7 @@
       <c r="K26" s="72"/>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12">
       <c r="A27" s="53">
         <v>6</v>
       </c>
@@ -16327,7 +16485,7 @@
       </c>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12">
       <c r="D28" s="36" t="s">
         <v>9</v>
       </c>
@@ -16347,7 +16505,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12">
       <c r="D29" s="36" t="s">
         <v>10</v>
       </c>
@@ -16367,7 +16525,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12">
       <c r="D30" s="36" t="s">
         <v>34</v>
       </c>
@@ -16387,7 +16545,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12">
       <c r="D31" s="36" t="s">
         <v>11</v>
       </c>
@@ -16407,7 +16565,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12">
       <c r="A32" s="69"/>
       <c r="B32" s="70"/>
       <c r="C32" s="71"/>
@@ -16433,7 +16591,7 @@
       </c>
       <c r="L32" s="70"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12">
       <c r="A33" s="53">
         <v>7</v>
       </c>
@@ -16457,7 +16615,7 @@
       </c>
       <c r="L33" s="55"/>
     </row>
-    <row r="34" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12">
       <c r="D34" s="36" t="s">
         <v>9</v>
       </c>
@@ -16477,7 +16635,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="29">
       <c r="A35" s="69"/>
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
@@ -16507,7 +16665,7 @@
       </c>
       <c r="L35" s="70"/>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12">
       <c r="A36" s="53"/>
       <c r="B36" s="55"/>
       <c r="C36" s="61"/>
@@ -16528,31 +16686,31 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.5" style="43" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.453125" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.36328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" style="43" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" style="37" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="47.1640625" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="47.1796875" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>806</v>
       </c>
@@ -16570,7 +16728,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>807</v>
       </c>
@@ -16586,7 +16744,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -16624,7 +16782,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="72.5">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -16656,7 +16814,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -16676,7 +16834,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
@@ -16696,7 +16854,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="D7" s="36" t="s">
         <v>3</v>
       </c>
@@ -16716,7 +16874,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
@@ -16736,7 +16894,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -16760,15 +16918,15 @@
       <c r="K9" s="72"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="A10" s="53">
         <v>3</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>197</v>
+        <v>798</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>580</v>
+        <v>794</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -16778,163 +16936,63 @@
       <c r="I10" s="55"/>
       <c r="J10" s="54"/>
       <c r="K10" s="54"/>
-      <c r="L10" s="55" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L10" s="55"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="D11" s="36" t="s">
-        <v>174</v>
+        <v>59</v>
       </c>
       <c r="E11" s="37" t="s">
-        <v>592</v>
+        <v>464</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>588</v>
+        <v>795</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>196</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D12" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>593</v>
-      </c>
-      <c r="F12" s="44" t="s">
-        <v>589</v>
-      </c>
-      <c r="H12" s="36" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D13" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" s="37" t="s">
-        <v>594</v>
-      </c>
-      <c r="F13" s="44" t="s">
-        <v>590</v>
-      </c>
-      <c r="H13" s="36" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D14" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="37" t="s">
-        <v>595</v>
-      </c>
-      <c r="F14" s="44" t="s">
-        <v>591</v>
-      </c>
-      <c r="H14" s="36" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="69"/>
-      <c r="B15" s="70"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="72" t="s">
-        <v>3</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>587</v>
-      </c>
-      <c r="F15" s="77" t="s">
-        <v>583</v>
-      </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="72" t="s">
-        <v>203</v>
-      </c>
-      <c r="I15" s="70"/>
-      <c r="J15" s="72"/>
-      <c r="K15" s="72"/>
-      <c r="L15" s="70"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="53">
-        <v>4</v>
-      </c>
-      <c r="B16" s="59" t="s">
-        <v>798</v>
-      </c>
-      <c r="C16" s="60" t="s">
-        <v>794</v>
-      </c>
-      <c r="D16" s="54"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="54"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="54"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="55"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D17" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="E17" s="37" t="s">
-        <v>464</v>
-      </c>
-      <c r="F17" s="44" t="s">
-        <v>795</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="H17" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="L17" s="49" t="s">
+      <c r="L11" s="49" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="176" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="171"/>
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="174" t="s">
+    <row r="12" spans="1:12" s="176" customFormat="1">
+      <c r="A12" s="171"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="173"/>
+      <c r="D12" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="E18" s="172" t="s">
+      <c r="E12" s="172" t="s">
         <v>462</v>
       </c>
-      <c r="F18" s="175" t="s">
+      <c r="F12" s="175" t="s">
         <v>796</v>
       </c>
-      <c r="G18" s="172"/>
-      <c r="H18" s="174" t="s">
+      <c r="G12" s="172"/>
+      <c r="H12" s="174" t="s">
         <v>797</v>
       </c>
-      <c r="I18" s="172"/>
-      <c r="J18" s="174"/>
-      <c r="K18" s="174"/>
-      <c r="L18" s="172"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="167"/>
-      <c r="B19" s="168"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="170"/>
-      <c r="E19" s="168"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="170"/>
-      <c r="K19" s="170"/>
-      <c r="L19" s="168"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="172"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="167"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="170"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="169"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="170"/>
+      <c r="L13" s="168"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16951,24 +17009,24 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="3.6640625" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="43" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5" style="36" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.83203125" style="37" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.81640625" style="37" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.6328125" style="43" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" style="36" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.81640625" style="37" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="43" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="31.1640625" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1640625" style="39" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.33203125" style="36" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.6328125" style="39" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="31.1796875" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" style="39" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.36328125" style="36" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" style="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="23.33203125" style="37" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.83203125" style="9"/>
+    <col min="12" max="12" width="23.36328125" style="37" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12">
       <c r="A1" s="9" t="s">
         <v>806</v>
       </c>
@@ -16984,7 +17042,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12">
       <c r="A2" s="9" t="s">
         <v>807</v>
       </c>
@@ -17000,7 +17058,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
       <c r="A3" s="122" t="s">
         <v>393</v>
       </c>
@@ -17038,7 +17096,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -17070,7 +17128,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -17094,7 +17152,7 @@
       </c>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12">
       <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
@@ -17114,7 +17172,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -17140,7 +17198,7 @@
       </c>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -17164,7 +17222,7 @@
       </c>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12">
       <c r="D9" s="36" t="s">
         <v>8</v>
       </c>
@@ -17187,7 +17245,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12">
       <c r="D10" s="36" t="s">
         <v>4</v>
       </c>
@@ -17210,7 +17268,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" ht="29">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -17234,7 +17292,7 @@
       <c r="K11" s="72"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -17260,7 +17318,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" ht="43.5">
       <c r="D13" s="36" t="s">
         <v>10</v>
       </c>
@@ -17277,7 +17335,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12">
       <c r="D14" s="36" t="s">
         <v>34</v>
       </c>
@@ -17294,7 +17352,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12">
       <c r="D15" s="36" t="s">
         <v>11</v>
       </c>
@@ -17308,7 +17366,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="32" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" ht="29">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -17332,7 +17390,7 @@
       <c r="K16" s="72"/>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12">
       <c r="A17" s="53"/>
       <c r="B17" s="55"/>
       <c r="C17" s="61"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!LaumasDoc\Git\Treebank\Docs\Annotation how-to\Tags&amp;tagset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A419C54-F607-4CD8-865D-1CAB3E33E998}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD30CD16-9913-4B89-B501-AC80D02575D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="819">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -6493,19 +6493,6 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">nelokāms īpašības vārds, ja saskaņojas ar nelokāmu lietvārdu kam tēzaurā.lv nav norādīta dzimte vai ģenitīveni </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri (Body)"/>
-      </rPr>
-      <t>(piemērs cukīni gan ir ar dzimti tēzaurā)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Apstākļa vārda pamatforma ir apstākļa vārda vienīgā forma (</t>
     </r>
     <r>
@@ -6852,13 +6839,19 @@
       </rPr>
       <t xml:space="preserve"> – siev. dz.). Tēzaurā neesošiem nelokāmiem personvārdiem (Eno) dzimti marķē pēc personas dzimuma, ja tas ir zināms. Nelokāmiem uzņēmumu nosaukumiem (Volvo) dzimte nepiemīt. Atšķirībā no tradicionālās gramatikas morfoloģisko pazīmju kopā nav lietots instrumentālis, jo tas vienskaitlī sakrīt ar akuzatīvu, bet daudzskaitlī – ar datīvu.</t>
     </r>
+  </si>
+  <si>
+    <t>mini (lietojumā mini kakao)</t>
+  </si>
+  <si>
+    <t>nelokāms īpašības vārds, ja saskaņojas ar nelokāmu lietvārdu kam tēzaurā.lv nav norādīta dzimte vai ģenitīveni</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -7055,11 +7048,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -8102,9 +8090,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="13.36328125" style="2" customWidth="1"/>
@@ -8113,19 +8101,19 @@
     <col min="5" max="16384" width="8.81640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" s="1" customFormat="1" ht="18.5">
+    <row r="2" spans="2:4" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
-    <row r="3" spans="2:4" s="1" customFormat="1" ht="18.5">
+    <row r="3" spans="2:4" s="1" customFormat="1" ht="18.5" x14ac:dyDescent="0.45">
       <c r="B3" s="20" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="5" spans="2:4" ht="72.5">
+    <row r="5" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="182" t="s">
         <v>804</v>
       </c>
@@ -8133,7 +8121,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="6" spans="2:4">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="183" t="s">
         <v>805</v>
       </c>
@@ -8141,13 +8129,13 @@
         <v>799</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="4" t="s">
         <v>720</v>
       </c>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="6" t="s">
         <v>54</v>
       </c>
@@ -8155,7 +8143,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="10" spans="2:4">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="8">
         <v>0</v>
       </c>
@@ -8163,13 +8151,13 @@
         <v>809</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="4" t="s">
         <v>726</v>
       </c>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="2:4">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="21" t="s">
         <v>300</v>
       </c>
@@ -8177,7 +8165,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="14" spans="2:4">
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="10" t="s">
         <v>300</v>
       </c>
@@ -8200,7 +8188,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.36328125" style="37" bestFit="1" customWidth="1"/>
@@ -8217,7 +8205,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>804</v>
       </c>
@@ -8233,7 +8221,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>805</v>
       </c>
@@ -8249,7 +8237,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8287,7 +8275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8319,7 +8307,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -8339,7 +8327,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12" ht="43.5">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
@@ -8359,7 +8347,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -8385,7 +8373,7 @@
       </c>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="53"/>
       <c r="B8" s="55"/>
       <c r="C8" s="61"/>
@@ -8414,7 +8402,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -8431,7 +8419,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>804</v>
       </c>
@@ -8447,7 +8435,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>805</v>
       </c>
@@ -8463,7 +8451,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8501,7 +8489,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8535,7 +8523,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53"/>
       <c r="B5" s="55"/>
       <c r="C5" s="61"/>
@@ -8563,7 +8551,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -8580,7 +8568,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>804</v>
       </c>
@@ -8596,7 +8584,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>805</v>
       </c>
@@ -8612,7 +8600,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8650,7 +8638,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8684,7 +8672,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53"/>
       <c r="B5" s="55"/>
       <c r="C5" s="61"/>
@@ -8712,7 +8700,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -8729,19 +8717,19 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
+    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>804</v>
       </c>
       <c r="G1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>805</v>
       </c>
       <c r="G2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -8779,7 +8767,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -8813,7 +8801,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -8833,7 +8821,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
       <c r="D6" s="36" t="s">
@@ -8855,7 +8843,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>174</v>
       </c>
@@ -8878,7 +8866,7 @@
         <v>2081</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
@@ -8904,7 +8892,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="29">
+    <row r="9" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>286</v>
       </c>
@@ -8930,7 +8918,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>34</v>
       </c>
@@ -8953,7 +8941,7 @@
         <v>2077</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
         <v>68</v>
       </c>
@@ -8973,7 +8961,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.5">
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -8997,7 +8985,7 @@
       <c r="K12" s="72"/>
       <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="53"/>
       <c r="B13" s="55"/>
       <c r="C13" s="61"/>
@@ -9026,7 +9014,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -9043,7 +9031,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>804</v>
       </c>
@@ -9059,7 +9047,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>805</v>
       </c>
@@ -9075,7 +9063,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -9113,7 +9101,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -9149,7 +9137,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" s="12" customFormat="1">
+    <row r="5" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -9179,7 +9167,7 @@
       <c r="K5" s="133"/>
       <c r="L5" s="134"/>
     </row>
-    <row r="6" spans="1:12" s="12" customFormat="1">
+    <row r="6" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="37"/>
       <c r="C6" s="43"/>
@@ -9203,7 +9191,7 @@
       <c r="K6" s="126"/>
       <c r="L6" s="127"/>
     </row>
-    <row r="7" spans="1:12" s="12" customFormat="1">
+    <row r="7" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="37"/>
       <c r="C7" s="43"/>
@@ -9225,7 +9213,7 @@
       <c r="K7" s="126"/>
       <c r="L7" s="127"/>
     </row>
-    <row r="8" spans="1:12" s="12" customFormat="1">
+    <row r="8" spans="1:12" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35"/>
       <c r="B8" s="37"/>
       <c r="C8" s="43"/>
@@ -9247,7 +9235,7 @@
       <c r="K8" s="126"/>
       <c r="L8" s="127"/>
     </row>
-    <row r="9" spans="1:12" s="125" customFormat="1">
+    <row r="9" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="128"/>
       <c r="B9" s="129"/>
       <c r="C9" s="130"/>
@@ -9269,7 +9257,7 @@
       <c r="K9" s="131"/>
       <c r="L9" s="129"/>
     </row>
-    <row r="10" spans="1:12" s="125" customFormat="1">
+    <row r="10" spans="1:12" s="125" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="135"/>
       <c r="B10" s="136"/>
       <c r="C10" s="137"/>
@@ -9291,7 +9279,7 @@
       <c r="K10" s="138"/>
       <c r="L10" s="136"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="53"/>
       <c r="B11" s="55"/>
       <c r="C11" s="61"/>
@@ -9320,7 +9308,7 @@
       <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -9337,7 +9325,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>804</v>
       </c>
@@ -9355,7 +9343,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>805</v>
       </c>
@@ -9371,7 +9359,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -9409,7 +9397,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -9443,7 +9431,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="29">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -9473,7 +9461,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>68</v>
       </c>
@@ -9490,7 +9478,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>9</v>
       </c>
@@ -9504,10 +9492,10 @@
         <v>786</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>135</v>
       </c>
@@ -9525,7 +9513,7 @@
       </c>
       <c r="I8" s="110"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -9547,7 +9535,7 @@
       <c r="K9" s="72"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="53"/>
       <c r="B10" s="55"/>
       <c r="C10" s="61"/>
@@ -9576,7 +9564,7 @@
       <selection activeCell="A56" sqref="A56:XFD56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="18" customWidth="1"/>
     <col min="2" max="2" width="2" style="35" bestFit="1" customWidth="1"/>
@@ -9594,7 +9582,7 @@
     <col min="14" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>729</v>
       </c>
@@ -9611,7 +9599,7 @@
       <c r="L1" s="18"/>
       <c r="M1" s="18"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -9630,7 +9618,7 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -9649,13 +9637,13 @@
       <c r="L3" s="18"/>
       <c r="M3" s="18"/>
     </row>
-    <row r="4" spans="1:13" customFormat="1">
+    <row r="4" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>722</v>
       </c>
       <c r="B4" s="157"/>
     </row>
-    <row r="5" spans="1:13" ht="18.5">
+    <row r="5" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A5" s="142" t="s">
         <v>761</v>
       </c>
@@ -9672,34 +9660,34 @@
       <c r="L5" s="18"/>
       <c r="M5" s="18"/>
     </row>
-    <row r="6" spans="1:13" customFormat="1">
+    <row r="6" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>762</v>
       </c>
       <c r="B6" s="157"/>
     </row>
-    <row r="7" spans="1:13" customFormat="1">
+    <row r="7" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>779</v>
       </c>
       <c r="B7" s="157"/>
     </row>
-    <row r="8" spans="1:13" customFormat="1">
+    <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="141" t="s">
         <v>798</v>
       </c>
       <c r="B8" s="157"/>
     </row>
-    <row r="9" spans="1:13" customFormat="1">
+    <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="141" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B9" s="157"/>
     </row>
-    <row r="10" spans="1:13" customFormat="1">
+    <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B10" s="157"/>
     </row>
-    <row r="11" spans="1:13" ht="18.5">
+    <row r="11" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
       <c r="A11" s="142" t="s">
         <v>668</v>
       </c>
@@ -9716,7 +9704,7 @@
       <c r="L11" s="18"/>
       <c r="M11" s="18"/>
     </row>
-    <row r="12" spans="1:13" s="143" customFormat="1" ht="29">
+    <row r="12" spans="1:13" s="143" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="145" t="s">
         <v>405</v>
       </c>
@@ -9757,7 +9745,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="29">
+    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="13" t="s">
         <v>404</v>
       </c>
@@ -9796,7 +9784,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="53">
         <v>5</v>
       </c>
@@ -9828,7 +9816,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="69"/>
       <c r="C15" s="102"/>
       <c r="D15" s="103"/>
@@ -9842,7 +9830,7 @@
       <c r="L15" s="107"/>
       <c r="M15" s="102"/>
     </row>
-    <row r="16" spans="1:13" ht="43.5">
+    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A16" s="15" t="s">
         <v>453</v>
       </c>
@@ -9875,7 +9863,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:14">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B17" s="69"/>
       <c r="C17" s="102"/>
       <c r="D17" s="103"/>
@@ -9889,7 +9877,7 @@
       <c r="L17" s="107"/>
       <c r="M17" s="102"/>
     </row>
-    <row r="18" spans="1:14" ht="29">
+    <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="A18" s="15" t="s">
         <v>518</v>
       </c>
@@ -9923,7 +9911,7 @@
       </c>
       <c r="N18" s="9"/>
     </row>
-    <row r="19" spans="1:14">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B19" s="69"/>
       <c r="C19" s="102"/>
       <c r="D19" s="103"/>
@@ -9937,7 +9925,7 @@
       <c r="L19" s="107"/>
       <c r="M19" s="102"/>
     </row>
-    <row r="20" spans="1:14" ht="43.5">
+    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>553</v>
       </c>
@@ -9970,7 +9958,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="43.5">
+    <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C21" s="37"/>
       <c r="D21" s="43"/>
       <c r="E21" s="36" t="s">
@@ -9991,7 +9979,7 @@
       <c r="L21" s="36"/>
       <c r="M21" s="37"/>
     </row>
-    <row r="22" spans="1:14" ht="29">
+    <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C22" s="37"/>
       <c r="D22" s="43"/>
       <c r="E22" s="36" t="s">
@@ -10012,7 +10000,7 @@
       <c r="L22" s="36"/>
       <c r="M22" s="37"/>
     </row>
-    <row r="23" spans="1:14" ht="29">
+    <row r="23" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C23" s="37"/>
       <c r="D23" s="43"/>
       <c r="E23" s="36" t="s">
@@ -10033,7 +10021,7 @@
       <c r="L23" s="36"/>
       <c r="M23" s="37"/>
     </row>
-    <row r="24" spans="1:14" ht="29">
+    <row r="24" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C24" s="37"/>
       <c r="D24" s="43"/>
       <c r="E24" s="36" t="s">
@@ -10054,7 +10042,7 @@
       <c r="L24" s="36"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:14">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C25" s="37"/>
       <c r="D25" s="43"/>
       <c r="E25" s="36" t="s">
@@ -10073,7 +10061,7 @@
       <c r="L25" s="36"/>
       <c r="M25" s="37"/>
     </row>
-    <row r="26" spans="1:14">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C26" s="37"/>
       <c r="D26" s="43"/>
       <c r="E26" s="36" t="s">
@@ -10092,7 +10080,7 @@
       <c r="L26" s="36"/>
       <c r="M26" s="37"/>
     </row>
-    <row r="27" spans="1:14">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B27" s="69"/>
       <c r="C27" s="102"/>
       <c r="D27" s="103"/>
@@ -10106,7 +10094,7 @@
       <c r="L27" s="107"/>
       <c r="M27" s="102"/>
     </row>
-    <row r="28" spans="1:14" s="144" customFormat="1" ht="15.5">
+    <row r="28" spans="1:14" s="144" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A28" s="16" t="s">
         <v>563</v>
       </c>
@@ -10135,7 +10123,7 @@
       <c r="L28" s="151"/>
       <c r="M28" s="156"/>
     </row>
-    <row r="29" spans="1:14" ht="29">
+    <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C29" s="37"/>
       <c r="D29" s="43"/>
       <c r="E29" s="36" t="s">
@@ -10154,7 +10142,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="36"/>
     </row>
-    <row r="30" spans="1:14">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
       <c r="C30" s="37"/>
       <c r="D30" s="43"/>
       <c r="E30" s="36">
@@ -10170,7 +10158,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
     </row>
-    <row r="31" spans="1:14">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B31" s="69"/>
       <c r="C31" s="102"/>
       <c r="D31" s="103"/>
@@ -10184,7 +10172,7 @@
       <c r="L31" s="107"/>
       <c r="M31" s="102"/>
     </row>
-    <row r="32" spans="1:14">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="14" t="s">
         <v>596</v>
       </c>
@@ -10205,7 +10193,7 @@
       <c r="L32" s="82"/>
       <c r="M32" s="78"/>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C33" s="37"/>
       <c r="E33" s="36" t="s">
         <v>59</v>
@@ -10222,7 +10210,7 @@
       <c r="J33" s="37"/>
       <c r="K33" s="36"/>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C34" s="37"/>
       <c r="E34" s="36" t="s">
         <v>9</v>
@@ -10239,7 +10227,7 @@
       <c r="J34" s="37"/>
       <c r="K34" s="36"/>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B35" s="69"/>
       <c r="C35" s="102"/>
       <c r="D35" s="103"/>
@@ -10253,7 +10241,7 @@
       <c r="L35" s="107"/>
       <c r="M35" s="102"/>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" s="14" t="s">
         <v>609</v>
       </c>
@@ -10278,7 +10266,7 @@
       <c r="L36" s="54"/>
       <c r="M36" s="55"/>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C37" s="41"/>
       <c r="D37" s="42"/>
       <c r="E37" s="36" t="s">
@@ -10301,7 +10289,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C38" s="37"/>
       <c r="D38" s="43"/>
       <c r="E38" s="36" t="s">
@@ -10322,7 +10310,7 @@
       <c r="L38" s="36"/>
       <c r="M38" s="37"/>
     </row>
-    <row r="39" spans="1:13" ht="72.5">
+    <row r="39" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C39" s="37"/>
       <c r="D39" s="43"/>
       <c r="E39" s="36" t="s">
@@ -10345,7 +10333,7 @@
       <c r="L39" s="36"/>
       <c r="M39" s="37"/>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C40" s="37"/>
       <c r="D40" s="43"/>
       <c r="E40" s="36" t="s">
@@ -10366,7 +10354,7 @@
       <c r="L40" s="36"/>
       <c r="M40" s="37"/>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B41" s="69"/>
       <c r="C41" s="70"/>
       <c r="D41" s="71"/>
@@ -10380,7 +10368,7 @@
       <c r="L41" s="72"/>
       <c r="M41" s="70"/>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" s="14" t="s">
         <v>618</v>
       </c>
@@ -10405,7 +10393,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C43" s="41"/>
       <c r="D43" s="42"/>
       <c r="E43" s="36" t="s">
@@ -10425,7 +10413,7 @@
       <c r="K43" s="36"/>
       <c r="L43" s="36"/>
     </row>
-    <row r="44" spans="1:13" ht="29">
+    <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="C44" s="37"/>
       <c r="D44" s="43"/>
       <c r="E44" s="36" t="s">
@@ -10446,7 +10434,7 @@
       <c r="L44" s="36"/>
       <c r="M44" s="37"/>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B45" s="69"/>
       <c r="C45" s="102"/>
       <c r="D45" s="103"/>
@@ -10460,7 +10448,7 @@
       <c r="L45" s="107"/>
       <c r="M45" s="102"/>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" s="14" t="s">
         <v>632</v>
       </c>
@@ -10485,7 +10473,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C47" s="41"/>
       <c r="D47" s="42"/>
       <c r="E47" s="36" t="s">
@@ -10504,7 +10492,7 @@
       <c r="J47" s="37"/>
       <c r="K47" s="36"/>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C48" s="37"/>
       <c r="D48" s="43"/>
       <c r="E48" s="36" t="s">
@@ -10524,7 +10512,7 @@
       <c r="K48" s="36"/>
       <c r="L48" s="36"/>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B49" s="69"/>
       <c r="C49" s="102"/>
       <c r="D49" s="103"/>
@@ -10538,7 +10526,7 @@
       <c r="L49" s="107"/>
       <c r="M49" s="102"/>
     </row>
-    <row r="50" spans="1:13" ht="43.5">
+    <row r="50" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A50" s="14" t="s">
         <v>667</v>
       </c>
@@ -10569,9 +10557,9 @@
       <c r="L50" s="160"/>
       <c r="M50" s="161"/>
     </row>
-    <row r="51" spans="1:13" s="14" customFormat="1">
+    <row r="51" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B51" s="53">
         <v>3</v>
@@ -10594,7 +10582,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C52" s="37"/>
       <c r="D52" s="43"/>
       <c r="E52" s="36" t="s">
@@ -10615,7 +10603,7 @@
       <c r="L52" s="36"/>
       <c r="M52" s="37"/>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C53" s="37"/>
       <c r="D53" s="43"/>
       <c r="E53" s="36" t="s">
@@ -10636,7 +10624,7 @@
       <c r="L53" s="36"/>
       <c r="M53" s="37"/>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C54" s="37"/>
       <c r="D54" s="43"/>
       <c r="E54" s="36" t="s">
@@ -10657,7 +10645,7 @@
       <c r="L54" s="36"/>
       <c r="M54" s="37"/>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C55" s="37"/>
       <c r="D55" s="43"/>
       <c r="E55" s="36" t="s">
@@ -10678,7 +10666,7 @@
       <c r="L55" s="36"/>
       <c r="M55" s="37"/>
     </row>
-    <row r="56" spans="1:13" s="188" customFormat="1">
+    <row r="56" spans="1:13" s="188" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B56" s="171"/>
       <c r="C56" s="172"/>
       <c r="D56" s="173"/>
@@ -10700,7 +10688,7 @@
       <c r="L56" s="174"/>
       <c r="M56" s="172"/>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B57" s="167"/>
       <c r="C57" s="185"/>
       <c r="D57" s="186"/>
@@ -10725,11 +10713,11 @@
   <dimension ref="A1:M36"/>
   <sheetViews>
     <sheetView zoomScale="99" zoomScaleNormal="99" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="49" bestFit="1" customWidth="1"/>
@@ -10746,12 +10734,12 @@
     <col min="13" max="16384" width="8.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>804</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C1" s="178"/>
       <c r="D1" s="178"/>
@@ -10765,7 +10753,7 @@
       <c r="L1" s="178"/>
       <c r="M1" s="178"/>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>805</v>
       </c>
@@ -10782,7 +10770,7 @@
       <c r="L2" s="178"/>
       <c r="M2" s="178"/>
     </row>
-    <row r="3" spans="1:13" s="62" customFormat="1" ht="29">
+    <row r="3" spans="1:13" s="62" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -10820,7 +10808,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="58">
+    <row r="4" spans="1:13" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -10850,7 +10838,7 @@
       <c r="K4" s="28"/>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -10870,7 +10858,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:13" ht="43.5">
+    <row r="6" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="37"/>
       <c r="C6" s="43"/>
       <c r="D6" s="36" t="s">
@@ -10899,7 +10887,7 @@
       </c>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -10927,7 +10915,7 @@
       </c>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -10951,7 +10939,7 @@
       </c>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:13" ht="29">
+    <row r="9" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="37"/>
       <c r="C9" s="43"/>
       <c r="D9" s="36" t="s">
@@ -10978,7 +10966,7 @@
       </c>
       <c r="L9" s="37"/>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B10" s="37"/>
       <c r="C10" s="43"/>
       <c r="D10" s="36" t="s">
@@ -11003,7 +10991,7 @@
       </c>
       <c r="L10" s="37"/>
     </row>
-    <row r="11" spans="1:13" ht="43.5">
+    <row r="11" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -11027,7 +11015,7 @@
       <c r="K11" s="72"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -11051,7 +11039,7 @@
       </c>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B13" s="37"/>
       <c r="C13" s="43"/>
       <c r="D13" s="36" t="s">
@@ -11076,7 +11064,7 @@
       </c>
       <c r="L13" s="37"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B14" s="37"/>
       <c r="C14" s="43"/>
       <c r="D14" s="36" t="s">
@@ -11101,7 +11089,7 @@
       </c>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B15" s="37"/>
       <c r="C15" s="43"/>
       <c r="D15" s="36" t="s">
@@ -11126,7 +11114,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="29">
+    <row r="16" spans="1:13" ht="29" x14ac:dyDescent="0.35">
       <c r="B16" s="37"/>
       <c r="C16" s="43"/>
       <c r="D16" s="36" t="s">
@@ -11153,7 +11141,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="69"/>
       <c r="B17" s="70"/>
       <c r="C17" s="71"/>
@@ -11175,7 +11163,7 @@
       <c r="K17" s="72"/>
       <c r="L17" s="70"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="53">
         <v>5</v>
       </c>
@@ -11199,7 +11187,7 @@
       </c>
       <c r="L18" s="55"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B19" s="37"/>
       <c r="C19" s="43"/>
       <c r="D19" s="36" t="s">
@@ -11224,7 +11212,7 @@
       </c>
       <c r="L19" s="37"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B20" s="37"/>
       <c r="C20" s="43"/>
       <c r="D20" s="36" t="s">
@@ -11249,7 +11237,7 @@
       </c>
       <c r="L20" s="37"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B21" s="37"/>
       <c r="C21" s="43"/>
       <c r="D21" s="36" t="s">
@@ -11274,7 +11262,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B22" s="37"/>
       <c r="C22" s="43"/>
       <c r="D22" s="36" t="s">
@@ -11299,7 +11287,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B23" s="37"/>
       <c r="C23" s="43"/>
       <c r="D23" s="36" t="s">
@@ -11324,7 +11312,7 @@
       </c>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B24" s="37"/>
       <c r="C24" s="43"/>
       <c r="D24" s="36" t="s">
@@ -11349,7 +11337,7 @@
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12" ht="29">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A25" s="69"/>
       <c r="B25" s="70"/>
       <c r="C25" s="71"/>
@@ -11373,7 +11361,7 @@
       <c r="K25" s="72"/>
       <c r="L25" s="70"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="53">
         <v>6</v>
       </c>
@@ -11397,7 +11385,7 @@
       </c>
       <c r="L26" s="55"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="37"/>
       <c r="C27" s="43"/>
       <c r="D27" s="36">
@@ -11417,7 +11405,7 @@
       <c r="K27" s="36"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B28" s="37"/>
       <c r="C28" s="43"/>
       <c r="D28" s="36">
@@ -11437,7 +11425,7 @@
       <c r="K28" s="36"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B29" s="37"/>
       <c r="C29" s="43"/>
       <c r="D29" s="36">
@@ -11457,7 +11445,7 @@
       <c r="K29" s="36"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="37"/>
       <c r="C30" s="43"/>
       <c r="D30" s="36">
@@ -11477,7 +11465,7 @@
       <c r="K30" s="36"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="37"/>
       <c r="C31" s="43"/>
       <c r="D31" s="36">
@@ -11497,7 +11485,7 @@
       <c r="K31" s="36"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B32" s="37"/>
       <c r="C32" s="43"/>
       <c r="D32" s="36">
@@ -11517,7 +11505,7 @@
       <c r="K32" s="36"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="1:12" ht="29">
+    <row r="33" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="B33" s="37"/>
       <c r="C33" s="43"/>
       <c r="D33" s="36">
@@ -11542,7 +11530,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="43.5">
+    <row r="34" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B34" s="37"/>
       <c r="C34" s="43"/>
       <c r="D34" s="36" t="s">
@@ -11567,7 +11555,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A35" s="69"/>
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
@@ -11591,7 +11579,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="53"/>
       <c r="B36" s="78"/>
       <c r="C36" s="79"/>
@@ -11616,11 +11604,11 @@
   <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="99" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -11637,7 +11625,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
+    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>804</v>
       </c>
@@ -11648,7 +11636,7 @@
       <c r="I1" s="178"/>
       <c r="J1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>805</v>
       </c>
@@ -11657,7 +11645,7 @@
       <c r="I2" s="178"/>
       <c r="J2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -11695,7 +11683,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="30">
         <v>1</v>
       </c>
@@ -11727,7 +11715,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="109">
         <v>2</v>
       </c>
@@ -11749,7 +11737,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
@@ -11769,7 +11757,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>68</v>
       </c>
@@ -11792,7 +11780,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>4</v>
       </c>
@@ -11812,7 +11800,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>73</v>
       </c>
@@ -11832,7 +11820,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>3</v>
       </c>
@@ -11855,7 +11843,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="58">
+    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="158"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -11885,7 +11873,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.5">
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="158"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -11915,7 +11903,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="109">
         <v>3</v>
       </c>
@@ -11937,7 +11925,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" s="36" t="s">
         <v>9</v>
       </c>
@@ -11957,7 +11945,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36" t="s">
         <v>59</v>
       </c>
@@ -11977,7 +11965,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="158"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -11999,7 +11987,7 @@
       <c r="K16" s="89"/>
       <c r="L16" s="90"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="109">
         <v>4</v>
       </c>
@@ -12025,7 +12013,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>87</v>
       </c>
@@ -12045,7 +12033,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>14</v>
       </c>
@@ -12062,7 +12050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>3</v>
       </c>
@@ -12082,7 +12070,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="29">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>34</v>
       </c>
@@ -12102,7 +12090,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D22" s="36" t="s">
         <v>5</v>
       </c>
@@ -12122,7 +12110,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D23" s="36" t="s">
         <v>9</v>
       </c>
@@ -12142,7 +12130,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="43.5">
+    <row r="24" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
       <c r="D24" s="72" t="s">
@@ -12169,7 +12157,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="99">
         <v>5</v>
       </c>
@@ -12193,7 +12181,7 @@
       </c>
       <c r="L25" s="55"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D26" s="36" t="s">
         <v>4</v>
       </c>
@@ -12213,7 +12201,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D27" s="36" t="s">
         <v>6</v>
       </c>
@@ -12233,7 +12221,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D28" s="36" t="s">
         <v>8</v>
       </c>
@@ -12253,7 +12241,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="29">
+    <row r="29" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="158"/>
       <c r="B29" s="70"/>
       <c r="C29" s="71"/>
@@ -12277,7 +12265,7 @@
       <c r="K29" s="72"/>
       <c r="L29" s="70"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="109">
         <v>6</v>
       </c>
@@ -12297,7 +12285,7 @@
       <c r="K30" s="54"/>
       <c r="L30" s="55"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D31" s="36" t="s">
         <v>78</v>
       </c>
@@ -12314,7 +12302,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D32" s="36" t="s">
         <v>87</v>
       </c>
@@ -12331,7 +12319,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="158"/>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
@@ -12353,7 +12341,7 @@
       <c r="K33" s="72"/>
       <c r="L33" s="70"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A34" s="109">
         <v>7</v>
       </c>
@@ -12377,7 +12365,7 @@
       </c>
       <c r="L34" s="55"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D35" s="36">
         <v>1</v>
       </c>
@@ -12391,7 +12379,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D36" s="36">
         <v>2</v>
       </c>
@@ -12405,7 +12393,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D37" s="36">
         <v>3</v>
       </c>
@@ -12419,7 +12407,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D38" s="36" t="s">
         <v>87</v>
       </c>
@@ -12436,7 +12424,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A39" s="158"/>
       <c r="B39" s="70"/>
       <c r="C39" s="71"/>
@@ -12458,7 +12446,7 @@
       <c r="K39" s="72"/>
       <c r="L39" s="70"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A40" s="109">
         <v>8</v>
       </c>
@@ -12482,7 +12470,7 @@
       </c>
       <c r="L40" s="55"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D41" s="36">
         <v>1</v>
       </c>
@@ -12496,7 +12484,7 @@
         <v>713</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D42" s="36">
         <v>2</v>
       </c>
@@ -12510,7 +12498,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D43" s="36">
         <v>3</v>
       </c>
@@ -12524,7 +12512,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="29">
+    <row r="44" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A44" s="158"/>
       <c r="B44" s="70"/>
       <c r="C44" s="71"/>
@@ -12546,7 +12534,7 @@
       <c r="K44" s="72"/>
       <c r="L44" s="70"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="109">
         <v>9</v>
       </c>
@@ -12570,7 +12558,7 @@
       </c>
       <c r="L45" s="55"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D46" s="36" t="s">
         <v>8</v>
       </c>
@@ -12590,7 +12578,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D47" s="36" t="s">
         <v>4</v>
       </c>
@@ -12610,7 +12598,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="43.5">
+    <row r="48" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A48" s="158"/>
       <c r="B48" s="70"/>
       <c r="C48" s="71"/>
@@ -12634,7 +12622,7 @@
       <c r="K48" s="72"/>
       <c r="L48" s="70"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="109">
         <v>10</v>
       </c>
@@ -12658,7 +12646,7 @@
       </c>
       <c r="L49" s="55"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D50" s="36" t="s">
         <v>11</v>
       </c>
@@ -12675,7 +12663,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D51" s="36" t="s">
         <v>4</v>
       </c>
@@ -12695,7 +12683,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="29">
+    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="158"/>
       <c r="B52" s="70"/>
       <c r="C52" s="71"/>
@@ -12717,7 +12705,7 @@
       <c r="K52" s="72"/>
       <c r="L52" s="70"/>
     </row>
-    <row r="53" spans="1:12" ht="43.5">
+    <row r="53" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A53" s="109">
         <v>11</v>
       </c>
@@ -12745,7 +12733,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D54" s="36" t="s">
         <v>9</v>
       </c>
@@ -12765,7 +12753,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A55" s="158"/>
       <c r="B55" s="70"/>
       <c r="C55" s="71"/>
@@ -12791,7 +12779,7 @@
       </c>
       <c r="L55" s="70"/>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A56" s="109"/>
       <c r="B56" s="55"/>
       <c r="C56" s="61"/>
@@ -12816,11 +12804,11 @@
   <dimension ref="A1:L65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -12837,7 +12825,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
+    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>804</v>
       </c>
@@ -12848,7 +12836,7 @@
       <c r="I1" s="178"/>
       <c r="J1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>805</v>
       </c>
@@ -12856,7 +12844,7 @@
       <c r="I2" s="178"/>
       <c r="J2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -12894,7 +12882,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -12926,7 +12914,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -12948,7 +12936,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>5</v>
       </c>
@@ -12968,7 +12956,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>68</v>
       </c>
@@ -12991,7 +12979,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>4</v>
       </c>
@@ -13011,7 +12999,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>73</v>
       </c>
@@ -13031,7 +13019,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="29">
+    <row r="10" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>3</v>
       </c>
@@ -13054,7 +13042,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="58">
+    <row r="11" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -13084,7 +13072,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="43.5">
+    <row r="12" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -13114,7 +13102,7 @@
         <v>772</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="53">
         <v>3</v>
       </c>
@@ -13136,7 +13124,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" s="36" t="s">
         <v>9</v>
       </c>
@@ -13156,7 +13144,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36" t="s">
         <v>59</v>
       </c>
@@ -13176,7 +13164,7 @@
         <v>1904</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -13198,7 +13186,7 @@
       <c r="K16" s="89"/>
       <c r="L16" s="90"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="53">
         <v>4</v>
       </c>
@@ -13224,7 +13212,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="29">
+    <row r="18" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>87</v>
       </c>
@@ -13247,7 +13235,7 @@
         <v>1885</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="29">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>14</v>
       </c>
@@ -13267,7 +13255,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="29">
+    <row r="20" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>3</v>
       </c>
@@ -13290,7 +13278,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="29">
+    <row r="21" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>34</v>
       </c>
@@ -13310,7 +13298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="29">
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D22" s="36" t="s">
         <v>5</v>
       </c>
@@ -13333,7 +13321,7 @@
         <v>1844</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="29">
+    <row r="23" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D23" s="36" t="s">
         <v>9</v>
       </c>
@@ -13356,7 +13344,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="69"/>
       <c r="B24" s="70"/>
       <c r="C24" s="71"/>
@@ -13382,7 +13370,7 @@
       </c>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="53">
         <v>5</v>
       </c>
@@ -13406,7 +13394,7 @@
       </c>
       <c r="L25" s="78"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B26" s="49"/>
       <c r="C26" s="50"/>
       <c r="D26" s="36" t="s">
@@ -13431,7 +13419,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B27" s="49"/>
       <c r="C27" s="50"/>
       <c r="D27" s="36" t="s">
@@ -13456,7 +13444,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="69"/>
       <c r="B28" s="102"/>
       <c r="C28" s="103"/>
@@ -13482,7 +13470,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A29" s="53">
         <v>6</v>
       </c>
@@ -13506,7 +13494,7 @@
       </c>
       <c r="L29" s="78"/>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B30" s="49"/>
       <c r="C30" s="50"/>
       <c r="D30" s="36" t="s">
@@ -13531,7 +13519,7 @@
       </c>
       <c r="L30" s="49"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B31" s="49"/>
       <c r="C31" s="50"/>
       <c r="D31" s="36" t="s">
@@ -13556,7 +13544,7 @@
       </c>
       <c r="L31" s="49"/>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="69"/>
       <c r="B32" s="102"/>
       <c r="C32" s="103"/>
@@ -13580,7 +13568,7 @@
       <c r="K32" s="107"/>
       <c r="L32" s="102"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="53">
         <v>7</v>
       </c>
@@ -13604,7 +13592,7 @@
       </c>
       <c r="L33" s="78"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B34" s="49"/>
       <c r="C34" s="50"/>
       <c r="D34" s="36" t="s">
@@ -13629,7 +13617,7 @@
       </c>
       <c r="L34" s="49"/>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B35" s="49"/>
       <c r="C35" s="50"/>
       <c r="D35" s="36" t="s">
@@ -13654,7 +13642,7 @@
       </c>
       <c r="L35" s="49"/>
     </row>
-    <row r="36" spans="1:12" ht="29">
+    <row r="36" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A36" s="69"/>
       <c r="B36" s="102"/>
       <c r="C36" s="103"/>
@@ -13678,7 +13666,7 @@
       <c r="K36" s="107"/>
       <c r="L36" s="102"/>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A37" s="53">
         <v>8</v>
       </c>
@@ -13702,7 +13690,7 @@
       </c>
       <c r="L37" s="78"/>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B38" s="49"/>
       <c r="C38" s="50"/>
       <c r="D38" s="36" t="s">
@@ -13727,7 +13715,7 @@
       </c>
       <c r="L38" s="49"/>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B39" s="49"/>
       <c r="C39" s="50"/>
       <c r="D39" s="36" t="s">
@@ -13752,7 +13740,7 @@
       </c>
       <c r="L39" s="49"/>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B40" s="49"/>
       <c r="C40" s="50"/>
       <c r="D40" s="36" t="s">
@@ -13777,7 +13765,7 @@
       </c>
       <c r="L40" s="49"/>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B41" s="49"/>
       <c r="C41" s="50"/>
       <c r="D41" s="36" t="s">
@@ -13802,7 +13790,7 @@
       </c>
       <c r="L41" s="49"/>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B42" s="49"/>
       <c r="C42" s="50"/>
       <c r="D42" s="36" t="s">
@@ -13827,7 +13815,7 @@
       </c>
       <c r="L42" s="49"/>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B43" s="49"/>
       <c r="C43" s="50"/>
       <c r="D43" s="36" t="s">
@@ -13850,7 +13838,7 @@
       </c>
       <c r="L43" s="49"/>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A44" s="69"/>
       <c r="B44" s="102"/>
       <c r="C44" s="103"/>
@@ -13874,7 +13862,7 @@
       <c r="K44" s="107"/>
       <c r="L44" s="102"/>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A45" s="53">
         <v>9</v>
       </c>
@@ -13898,7 +13886,7 @@
       </c>
       <c r="L45" s="78"/>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B46" s="49"/>
       <c r="C46" s="50"/>
       <c r="D46" s="36" t="s">
@@ -13925,7 +13913,7 @@
       </c>
       <c r="L46" s="49"/>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B47" s="49"/>
       <c r="C47" s="50"/>
       <c r="D47" s="36" t="s">
@@ -13952,7 +13940,7 @@
       </c>
       <c r="L47" s="49"/>
     </row>
-    <row r="48" spans="1:12" ht="29">
+    <row r="48" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A48" s="69"/>
       <c r="B48" s="102"/>
       <c r="C48" s="103"/>
@@ -13976,7 +13964,7 @@
       <c r="K48" s="107"/>
       <c r="L48" s="102"/>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A49" s="53">
         <v>10</v>
       </c>
@@ -14000,7 +13988,7 @@
       </c>
       <c r="L49" s="78"/>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B50" s="49"/>
       <c r="C50" s="50"/>
       <c r="D50" s="36" t="s">
@@ -14027,7 +14015,7 @@
       </c>
       <c r="L50" s="49"/>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B51" s="49"/>
       <c r="C51" s="50"/>
       <c r="D51" s="36" t="s">
@@ -14054,7 +14042,7 @@
       </c>
       <c r="L51" s="49"/>
     </row>
-    <row r="52" spans="1:12" ht="29">
+    <row r="52" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A52" s="69"/>
       <c r="B52" s="102"/>
       <c r="C52" s="103"/>
@@ -14078,7 +14066,7 @@
       <c r="K52" s="107"/>
       <c r="L52" s="102"/>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A53" s="53">
         <v>11</v>
       </c>
@@ -14102,7 +14090,7 @@
       </c>
       <c r="L53" s="78"/>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B54" s="49"/>
       <c r="C54" s="50"/>
       <c r="D54" s="36" t="s">
@@ -14127,7 +14115,7 @@
       </c>
       <c r="L54" s="49"/>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B55" s="49"/>
       <c r="C55" s="50"/>
       <c r="D55" s="36" t="s">
@@ -14152,7 +14140,7 @@
       </c>
       <c r="L55" s="49"/>
     </row>
-    <row r="56" spans="1:12" ht="29">
+    <row r="56" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A56" s="69"/>
       <c r="B56" s="102"/>
       <c r="C56" s="103"/>
@@ -14176,7 +14164,7 @@
       <c r="K56" s="107"/>
       <c r="L56" s="49"/>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A57" s="53">
         <v>12</v>
       </c>
@@ -14199,7 +14187,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D58" s="36" t="s">
         <v>4</v>
       </c>
@@ -14222,7 +14210,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="29">
+    <row r="59" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D59" s="36" t="s">
         <v>3</v>
       </c>
@@ -14245,7 +14233,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="29">
+    <row r="60" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D60" s="36" t="s">
         <v>8</v>
       </c>
@@ -14268,7 +14256,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="29">
+    <row r="61" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="69"/>
       <c r="B61" s="70"/>
       <c r="C61" s="71"/>
@@ -14292,7 +14280,7 @@
       <c r="K61" s="72"/>
       <c r="L61" s="70"/>
     </row>
-    <row r="62" spans="1:12" ht="43.5">
+    <row r="62" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A62" s="109">
         <v>13</v>
       </c>
@@ -14320,7 +14308,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A63" s="84"/>
       <c r="D63" s="36" t="s">
         <v>9</v>
@@ -14341,7 +14329,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A64" s="88"/>
       <c r="B64" s="70"/>
       <c r="C64" s="71"/>
@@ -14367,7 +14355,7 @@
       </c>
       <c r="L64" s="70"/>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A65" s="53"/>
       <c r="B65" s="55"/>
       <c r="C65" s="61"/>
@@ -14391,12 +14379,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -14413,7 +14401,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="18" customFormat="1">
+    <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
         <v>804</v>
       </c>
@@ -14424,7 +14412,7 @@
       <c r="I1" s="178"/>
       <c r="J1" s="178"/>
     </row>
-    <row r="2" spans="1:12" s="18" customFormat="1">
+    <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
         <v>805</v>
       </c>
@@ -14432,7 +14420,7 @@
       <c r="I2" s="178"/>
       <c r="J2" s="178"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -14470,7 +14458,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="58">
+    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -14502,7 +14490,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -14522,7 +14510,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>6</v>
       </c>
@@ -14542,7 +14530,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -14566,7 +14554,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="58">
+    <row r="8" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -14594,7 +14582,7 @@
       </c>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>5</v>
       </c>
@@ -14614,7 +14602,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="69"/>
       <c r="B10" s="70"/>
       <c r="C10" s="71"/>
@@ -14640,7 +14628,7 @@
       </c>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="1:12" s="18" customFormat="1" ht="72">
+    <row r="11" spans="1:12" s="18" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -14654,17 +14642,17 @@
         <v>407</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>812</v>
+        <v>818</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>811</v>
+        <v>817</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="72"/>
       <c r="K11" s="72"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -14688,7 +14676,7 @@
       </c>
       <c r="L12" s="55"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D13" s="36" t="s">
         <v>8</v>
       </c>
@@ -14708,7 +14696,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="69"/>
       <c r="B14" s="70"/>
       <c r="C14" s="71"/>
@@ -14734,7 +14722,7 @@
       </c>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:12" s="18" customFormat="1" ht="43.5">
+    <row r="15" spans="1:12" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" s="69"/>
       <c r="B15" s="70"/>
       <c r="C15" s="71"/>
@@ -14756,7 +14744,7 @@
       <c r="K15" s="72"/>
       <c r="L15" s="70"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="53">
         <v>5</v>
       </c>
@@ -14780,7 +14768,7 @@
       </c>
       <c r="L16" s="55"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D17" s="36" t="s">
         <v>9</v>
       </c>
@@ -14800,7 +14788,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D18" s="36" t="s">
         <v>10</v>
       </c>
@@ -14820,7 +14808,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D19" s="36" t="s">
         <v>34</v>
       </c>
@@ -14840,7 +14828,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>11</v>
       </c>
@@ -14860,7 +14848,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>12</v>
       </c>
@@ -14880,7 +14868,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
@@ -14904,7 +14892,7 @@
       </c>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12" s="18" customFormat="1" ht="43.5">
+    <row r="23" spans="1:12" s="18" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A23" s="69"/>
       <c r="B23" s="70"/>
       <c r="C23" s="71"/>
@@ -14928,7 +14916,7 @@
       <c r="K23" s="72"/>
       <c r="L23" s="70"/>
     </row>
-    <row r="24" spans="1:12" ht="58">
+    <row r="24" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A24" s="53">
         <v>6</v>
       </c>
@@ -14956,7 +14944,7 @@
       </c>
       <c r="L24" s="55"/>
     </row>
-    <row r="25" spans="1:12" ht="29">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D25" s="36" t="s">
         <v>9</v>
       </c>
@@ -14979,7 +14967,7 @@
         <v>2004</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="58">
+    <row r="26" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
@@ -15009,7 +14997,7 @@
       </c>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="53">
         <v>7</v>
       </c>
@@ -15033,7 +15021,7 @@
       </c>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D28" s="36" t="s">
         <v>4</v>
       </c>
@@ -15056,7 +15044,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D29" s="36" t="s">
         <v>3</v>
       </c>
@@ -15076,7 +15064,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A30" s="69"/>
       <c r="B30" s="70"/>
       <c r="C30" s="71"/>
@@ -15102,7 +15090,7 @@
       </c>
       <c r="L30" s="70"/>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A31" s="53"/>
       <c r="B31" s="55"/>
       <c r="C31" s="61"/>
@@ -15130,7 +15118,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="115" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="110" bestFit="1" customWidth="1"/>
@@ -15146,7 +15134,7 @@
     <col min="12" max="12" width="23.36328125" style="110" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>804</v>
       </c>
@@ -15164,7 +15152,7 @@
       <c r="K1"/>
       <c r="L1"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>805</v>
       </c>
@@ -15180,7 +15168,7 @@
       <c r="K2"/>
       <c r="L2"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -15218,7 +15206,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="58">
+    <row r="4" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -15252,7 +15240,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -15272,7 +15260,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A6" s="35"/>
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
@@ -15300,7 +15288,7 @@
       </c>
       <c r="L6" s="37"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="35"/>
       <c r="B7" s="37"/>
       <c r="C7" s="43"/>
@@ -15330,7 +15318,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="69"/>
       <c r="B8" s="70"/>
       <c r="C8" s="71"/>
@@ -15356,7 +15344,7 @@
       </c>
       <c r="L8" s="70"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="53">
         <v>3</v>
       </c>
@@ -15378,7 +15366,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="35"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -15400,7 +15388,7 @@
       <c r="K10" s="36"/>
       <c r="L10" s="49"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A11" s="35"/>
       <c r="B11" s="37"/>
       <c r="C11" s="43"/>
@@ -15422,7 +15410,7 @@
       <c r="K11" s="36"/>
       <c r="L11" s="37"/>
     </row>
-    <row r="12" spans="1:12" ht="29">
+    <row r="12" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="69"/>
       <c r="B12" s="70"/>
       <c r="C12" s="71"/>
@@ -15446,7 +15434,7 @@
       <c r="K12" s="89"/>
       <c r="L12" s="90"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="53">
         <v>4</v>
       </c>
@@ -15470,7 +15458,7 @@
       </c>
       <c r="L13" s="55"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="35"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -15496,7 +15484,7 @@
       </c>
       <c r="L14" s="37"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A15" s="35"/>
       <c r="B15" s="37"/>
       <c r="C15" s="43"/>
@@ -15522,7 +15510,7 @@
       </c>
       <c r="L15" s="37"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -15544,7 +15532,7 @@
       <c r="K16" s="72"/>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="53">
         <v>5</v>
       </c>
@@ -15568,7 +15556,7 @@
       </c>
       <c r="L17" s="55"/>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A18" s="35"/>
       <c r="B18" s="41"/>
       <c r="C18" s="42"/>
@@ -15596,7 +15584,7 @@
       </c>
       <c r="L18" s="37"/>
     </row>
-    <row r="19" spans="1:12" ht="29">
+    <row r="19" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="69"/>
       <c r="B19" s="70"/>
       <c r="C19" s="71"/>
@@ -15624,7 +15612,7 @@
       </c>
       <c r="L19" s="70"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A20" s="53">
         <v>6</v>
       </c>
@@ -15648,7 +15636,7 @@
       </c>
       <c r="L20" s="55"/>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A21" s="35"/>
       <c r="B21" s="41"/>
       <c r="C21" s="42"/>
@@ -15674,7 +15662,7 @@
       </c>
       <c r="L21" s="37"/>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A22" s="35"/>
       <c r="B22" s="37"/>
       <c r="C22" s="43"/>
@@ -15700,7 +15688,7 @@
       </c>
       <c r="L22" s="37"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="35"/>
       <c r="B23" s="37"/>
       <c r="C23" s="43"/>
@@ -15726,7 +15714,7 @@
       </c>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A24" s="35"/>
       <c r="B24" s="37"/>
       <c r="C24" s="43"/>
@@ -15752,7 +15740,7 @@
       </c>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A25" s="35"/>
       <c r="B25" s="37"/>
       <c r="C25" s="43"/>
@@ -15778,7 +15766,7 @@
       </c>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="35"/>
       <c r="B26" s="37"/>
       <c r="C26" s="43"/>
@@ -15802,7 +15790,7 @@
       </c>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="69"/>
       <c r="B27" s="70"/>
       <c r="C27" s="71"/>
@@ -15824,7 +15812,7 @@
       <c r="K27" s="72"/>
       <c r="L27" s="70"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="116"/>
       <c r="B28" s="181" t="s">
         <v>806</v>
@@ -15854,7 +15842,7 @@
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.1796875" style="37" bestFit="1" customWidth="1"/>
@@ -15871,7 +15859,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>804</v>
       </c>
@@ -15889,7 +15877,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>805</v>
       </c>
@@ -15905,7 +15893,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -15943,7 +15931,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -15975,7 +15963,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12" ht="29">
+    <row r="5" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -15997,7 +15985,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B6" s="41"/>
       <c r="C6" s="42"/>
       <c r="D6" s="36" t="s">
@@ -16019,7 +16007,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>61</v>
       </c>
@@ -16039,7 +16027,7 @@
         <v>3014</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
@@ -16059,7 +16047,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>34</v>
       </c>
@@ -16079,7 +16067,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="43.5">
+    <row r="10" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>87</v>
       </c>
@@ -16099,7 +16087,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
         <v>174</v>
       </c>
@@ -16119,7 +16107,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D12" s="36" t="s">
         <v>14</v>
       </c>
@@ -16139,7 +16127,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="69"/>
       <c r="B13" s="70"/>
       <c r="C13" s="71"/>
@@ -16165,7 +16153,7 @@
       </c>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A14" s="53">
         <v>3</v>
       </c>
@@ -16189,7 +16177,7 @@
       </c>
       <c r="L14" s="55"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36">
         <v>1</v>
       </c>
@@ -16209,7 +16197,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D16" s="36">
         <v>2</v>
       </c>
@@ -16229,7 +16217,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D17" s="36">
         <v>3</v>
       </c>
@@ -16252,7 +16240,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="43.5">
+    <row r="18" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A18" s="69"/>
       <c r="B18" s="70"/>
       <c r="C18" s="71"/>
@@ -16276,7 +16264,7 @@
       <c r="K18" s="72"/>
       <c r="L18" s="70"/>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A19" s="53">
         <v>4</v>
       </c>
@@ -16300,7 +16288,7 @@
       </c>
       <c r="L19" s="55"/>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D20" s="36" t="s">
         <v>5</v>
       </c>
@@ -16323,7 +16311,7 @@
         <v>1883</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D21" s="36" t="s">
         <v>6</v>
       </c>
@@ -16346,7 +16334,7 @@
         <v>1880</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="29">
+    <row r="22" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A22" s="69"/>
       <c r="B22" s="70"/>
       <c r="C22" s="71"/>
@@ -16370,7 +16358,7 @@
       <c r="K22" s="72"/>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A23" s="53">
         <v>5</v>
       </c>
@@ -16394,7 +16382,7 @@
       </c>
       <c r="L23" s="55"/>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D24" s="36" t="s">
         <v>8</v>
       </c>
@@ -16414,7 +16402,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="29">
+    <row r="25" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="D25" s="36" t="s">
         <v>4</v>
       </c>
@@ -16437,7 +16425,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A26" s="69"/>
       <c r="B26" s="70"/>
       <c r="C26" s="71"/>
@@ -16459,7 +16447,7 @@
       <c r="K26" s="72"/>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A27" s="53">
         <v>6</v>
       </c>
@@ -16483,7 +16471,7 @@
       </c>
       <c r="L27" s="55"/>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D28" s="36" t="s">
         <v>9</v>
       </c>
@@ -16503,7 +16491,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D29" s="36" t="s">
         <v>10</v>
       </c>
@@ -16523,7 +16511,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D30" s="36" t="s">
         <v>34</v>
       </c>
@@ -16543,7 +16531,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D31" s="36" t="s">
         <v>11</v>
       </c>
@@ -16563,7 +16551,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A32" s="69"/>
       <c r="B32" s="70"/>
       <c r="C32" s="71"/>
@@ -16589,7 +16577,7 @@
       </c>
       <c r="L32" s="70"/>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A33" s="53">
         <v>7</v>
       </c>
@@ -16613,7 +16601,7 @@
       </c>
       <c r="L33" s="55"/>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D34" s="36" t="s">
         <v>9</v>
       </c>
@@ -16633,7 +16621,7 @@
         <v>1905</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="29">
+    <row r="35" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="69"/>
       <c r="B35" s="70"/>
       <c r="C35" s="71"/>
@@ -16663,7 +16651,7 @@
       </c>
       <c r="L35" s="70"/>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A36" s="53"/>
       <c r="B36" s="55"/>
       <c r="C36" s="61"/>
@@ -16691,7 +16679,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.453125" style="37" bestFit="1" customWidth="1"/>
@@ -16708,12 +16696,12 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>804</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -16726,7 +16714,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>805</v>
       </c>
@@ -16742,7 +16730,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="63" t="s">
         <v>393</v>
       </c>
@@ -16780,7 +16768,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="72.5">
+    <row r="4" spans="1:12" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -16812,7 +16800,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -16832,7 +16820,7 @@
       <c r="K5" s="54"/>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
@@ -16852,7 +16840,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D7" s="36" t="s">
         <v>3</v>
       </c>
@@ -16872,7 +16860,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D8" s="36" t="s">
         <v>8</v>
       </c>
@@ -16892,7 +16880,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A9" s="69"/>
       <c r="B9" s="70"/>
       <c r="C9" s="71"/>
@@ -16916,7 +16904,7 @@
       <c r="K9" s="72"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A10" s="53">
         <v>3</v>
       </c>
@@ -16936,7 +16924,7 @@
       <c r="K10" s="54"/>
       <c r="L10" s="55"/>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D11" s="36" t="s">
         <v>59</v>
       </c>
@@ -16956,7 +16944,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="12" spans="1:12" s="176" customFormat="1">
+    <row r="12" spans="1:12" s="176" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="171"/>
       <c r="B12" s="172"/>
       <c r="C12" s="173"/>
@@ -16978,7 +16966,7 @@
       <c r="K12" s="174"/>
       <c r="L12" s="172"/>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A13" s="167"/>
       <c r="B13" s="168"/>
       <c r="C13" s="169"/>
@@ -17007,7 +16995,7 @@
       <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" style="35" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.81640625" style="37" bestFit="1" customWidth="1"/>
@@ -17024,7 +17012,7 @@
     <col min="13" max="16384" width="8.81640625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>804</v>
       </c>
@@ -17040,7 +17028,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>805</v>
       </c>
@@ -17056,7 +17044,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="83" customFormat="1" ht="29">
+    <row r="3" spans="1:12" s="83" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="122" t="s">
         <v>393</v>
       </c>
@@ -17094,7 +17082,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="27">
         <v>1</v>
       </c>
@@ -17126,7 +17114,7 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A5" s="53">
         <v>2</v>
       </c>
@@ -17150,7 +17138,7 @@
       </c>
       <c r="L5" s="55"/>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D6" s="36" t="s">
         <v>4</v>
       </c>
@@ -17170,7 +17158,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A7" s="69"/>
       <c r="B7" s="70"/>
       <c r="C7" s="71"/>
@@ -17196,7 +17184,7 @@
       </c>
       <c r="L7" s="70"/>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A8" s="53">
         <v>3</v>
       </c>
@@ -17220,7 +17208,7 @@
       </c>
       <c r="L8" s="55"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D9" s="36" t="s">
         <v>8</v>
       </c>
@@ -17243,7 +17231,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D10" s="36" t="s">
         <v>4</v>
       </c>
@@ -17266,7 +17254,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="29">
+    <row r="11" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="69"/>
       <c r="B11" s="70"/>
       <c r="C11" s="71"/>
@@ -17290,7 +17278,7 @@
       <c r="K11" s="72"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A12" s="53">
         <v>4</v>
       </c>
@@ -17316,7 +17304,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="43.5">
+    <row r="13" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="D13" s="36" t="s">
         <v>10</v>
       </c>
@@ -17333,7 +17321,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D14" s="36" t="s">
         <v>34</v>
       </c>
@@ -17350,7 +17338,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
       <c r="D15" s="36" t="s">
         <v>11</v>
       </c>
@@ -17364,7 +17352,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="29">
+    <row r="16" spans="1:12" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="69"/>
       <c r="B16" s="70"/>
       <c r="C16" s="71"/>
@@ -17388,7 +17376,7 @@
       <c r="K16" s="72"/>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A17" s="53"/>
       <c r="B17" s="55"/>
       <c r="C17" s="61"/>

--- a/docs/SemTi-Kamols_morphotags.xlsx
+++ b/docs/SemTi-Kamols_morphotags.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20416"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\!LaumasDoc\Git\Treebank\Docs\Annotation how-to\Tags&amp;tagset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD30CD16-9913-4B89-B501-AC80D02575D8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0834A85C-24C4-4C4E-91A9-726134C83617}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="31500" windowHeight="20740" tabRatio="725" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Par|About" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
     <sheet name="Bezmorf. elem.|Residual" sheetId="18" r:id="rId15"/>
     <sheet name="Vēsture|History" sheetId="19" r:id="rId16"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1720" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1726" uniqueCount="824">
   <si>
     <t>Latviešu valodas morfoloģisko pazīmju kopa</t>
   </si>
@@ -5601,9 +5601,6 @@
     <t>divi, trīs, četri, divarpus, četrtūkstoš</t>
   </si>
   <si>
-    <t>% $ 221B</t>
-  </si>
-  <si>
     <t>kārtas skaitlis cipariem</t>
   </si>
   <si>
@@ -6845,6 +6842,47 @@
   </si>
   <si>
     <t>nelokāms īpašības vārds, ja saskaņojas ar nelokāmu lietvārdu kam tēzaurā.lv nav norādīta dzimte vai ģenitīveni</t>
+  </si>
+  <si>
+    <t>2024-12-04 ievieš reziduāļa tipu d alfanumeriskiem apzīmējumiem</t>
+  </si>
+  <si>
+    <t>E100, U18, 221B</t>
+  </si>
+  <si>
+    <t>% $</t>
+  </si>
+  <si>
+    <t>Apzīmējumi, kas neideras ne saīsinājumu, ne nelokāmo lietvārdu tagos</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">alphanumeric </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>esignation</t>
+    </r>
+  </si>
+  <si>
+    <t>apzīmējums ar burtiem un cipariem</t>
   </si>
 </sst>
 </file>
@@ -7198,7 +7236,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="190">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -7731,6 +7769,11 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7746,59 +7789,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17409" name="AutoShape 1" descr=":)">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0E00-000001440000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3048000" y="7239000"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8115,18 +8105,18 @@
     </row>
     <row r="5" spans="2:4" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B5" s="182" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C5" s="184" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="183" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C6" s="177" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
@@ -8148,7 +8138,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
@@ -8207,7 +8197,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8223,7 +8213,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8312,10 +8302,10 @@
         <v>2</v>
       </c>
       <c r="B5" s="59" t="s">
+        <v>790</v>
+      </c>
+      <c r="C5" s="60" t="s">
         <v>791</v>
-      </c>
-      <c r="C5" s="60" t="s">
-        <v>792</v>
       </c>
       <c r="D5" s="54"/>
       <c r="E5" s="55"/>
@@ -8421,7 +8411,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8437,7 +8427,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8570,7 +8560,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -8586,7 +8576,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -8719,13 +8709,13 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G1" s="178"/>
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G2" s="178"/>
     </row>
@@ -8880,7 +8870,7 @@
         <v>283</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J8" s="36" t="s">
         <v>284</v>
@@ -8906,7 +8896,7 @@
         <v>287</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="J9" s="40" t="s">
         <v>294</v>
@@ -8932,7 +8922,7 @@
         <v>289</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="J10" s="36" t="s">
         <v>290</v>
@@ -9033,7 +9023,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -9049,7 +9039,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9301,11 +9291,11 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H8" sqref="H8"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9327,10 +9317,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -9345,7 +9335,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -9421,7 +9411,7 @@
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="22" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="J4" s="28" t="s">
         <v>302</v>
@@ -9466,7 +9456,7 @@
         <v>68</v>
       </c>
       <c r="E6" s="37" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="F6" s="44" t="s">
         <v>555</v>
@@ -9483,85 +9473,108 @@
         <v>9</v>
       </c>
       <c r="E7" s="37" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F7" s="43" t="s">
         <v>665</v>
       </c>
       <c r="G7" s="39" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H7" s="40" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D8" s="36" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="69"/>
+      <c r="B8" s="70"/>
+      <c r="C8" s="71"/>
+      <c r="D8" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="192" t="s">
+        <v>823</v>
+      </c>
+      <c r="F8" s="96" t="s">
+        <v>822</v>
+      </c>
+      <c r="G8" s="74" t="s">
+        <v>821</v>
+      </c>
+      <c r="H8" s="190" t="s">
+        <v>819</v>
+      </c>
+      <c r="I8" s="191"/>
+      <c r="J8" s="72"/>
+      <c r="K8" s="72"/>
+      <c r="L8" s="70"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="D9" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E9" s="45" t="s">
         <v>306</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F9" s="38" t="s">
         <v>666</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G9" s="39" t="s">
         <v>307</v>
       </c>
-      <c r="H8" s="112" t="s">
+      <c r="H9" s="112" t="s">
         <v>308</v>
       </c>
-      <c r="I8" s="110"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72" t="s">
+      <c r="I9" s="110"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E9" s="70" t="s">
+      <c r="E10" s="70" t="s">
         <v>292</v>
       </c>
-      <c r="F9" s="71" t="s">
+      <c r="F10" s="71" t="s">
         <v>634</v>
       </c>
-      <c r="G9" s="74"/>
-      <c r="H9" s="72" t="s">
-        <v>783</v>
-      </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="70"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="53"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="54"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="55"/>
+      <c r="G10" s="74"/>
+      <c r="H10" s="72" t="s">
+        <v>820</v>
+      </c>
+      <c r="I10" s="70"/>
+      <c r="J10" s="72"/>
+      <c r="K10" s="72"/>
+      <c r="L10" s="70"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="53"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="57"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="55"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:N57"/>
+  <dimension ref="A1:N58"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A56" sqref="A56:XFD56"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -9674,326 +9687,311 @@
     </row>
     <row r="8" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="141" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B8" s="157"/>
     </row>
     <row r="9" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="141" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B9" s="157"/>
     </row>
     <row r="10" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="141" t="s">
+        <v>818</v>
+      </c>
       <c r="B10" s="157"/>
     </row>
-    <row r="11" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="142" t="s">
+    <row r="11" spans="1:13" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="157"/>
+    </row>
+    <row r="12" spans="1:13" ht="18.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="142" t="s">
         <v>668</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-    </row>
-    <row r="12" spans="1:13" s="143" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A12" s="145" t="s">
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+    </row>
+    <row r="13" spans="1:13" s="143" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="145" t="s">
         <v>405</v>
       </c>
-      <c r="B12" s="122" t="s">
+      <c r="B13" s="122" t="s">
         <v>393</v>
       </c>
-      <c r="C12" s="146" t="s">
+      <c r="C13" s="146" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="147" t="s">
+      <c r="D13" s="147" t="s">
         <v>395</v>
       </c>
-      <c r="E12" s="66" t="s">
+      <c r="E13" s="66" t="s">
         <v>730</v>
       </c>
-      <c r="F12" s="64" t="s">
+      <c r="F13" s="64" t="s">
         <v>397</v>
       </c>
-      <c r="G12" s="65" t="s">
+      <c r="G13" s="65" t="s">
         <v>396</v>
       </c>
-      <c r="H12" s="67" t="s">
+      <c r="H13" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="I12" s="68" t="s">
+      <c r="I13" s="68" t="s">
         <v>727</v>
       </c>
-      <c r="J12" s="67" t="s">
+      <c r="J13" s="67" t="s">
         <v>347</v>
       </c>
-      <c r="K12" s="68" t="s">
+      <c r="K13" s="68" t="s">
         <v>731</v>
       </c>
-      <c r="L12" s="68" t="s">
+      <c r="L13" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="64" t="s">
+      <c r="M13" s="64" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="A13" s="13" t="s">
+    <row r="14" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="B13" s="27">
+      <c r="B14" s="27">
         <v>3</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C14" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D14" s="26" t="s">
         <v>391</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E14" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F13" s="159" t="s">
+      <c r="F14" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="25" t="s">
+      <c r="G14" s="25" t="s">
         <v>406</v>
       </c>
-      <c r="H13" s="23" t="s">
+      <c r="H14" s="23" t="s">
         <v>314</v>
       </c>
-      <c r="I13" s="29" t="s">
+      <c r="I14" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="J13" s="23"/>
-      <c r="K13" s="28" t="s">
+      <c r="J14" s="23"/>
+      <c r="K14" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="L13" s="28">
+      <c r="L14" s="28">
         <v>1558</v>
       </c>
-      <c r="M13" s="22" t="s">
+      <c r="M14" s="22" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B14" s="53">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B15" s="53">
         <v>5</v>
       </c>
-      <c r="C14" s="55" t="s">
+      <c r="C15" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="61" t="s">
+      <c r="D15" s="61" t="s">
         <v>422</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E15" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="55" t="s">
+      <c r="F15" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="G14" s="61" t="s">
+      <c r="G15" s="61" t="s">
         <v>432</v>
       </c>
-      <c r="H14" s="57" t="s">
+      <c r="H15" s="57" t="s">
         <v>328</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I15" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="57"/>
-      <c r="K14" s="54"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="55" t="s">
+      <c r="J15" s="57"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="55" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B15" s="69"/>
-      <c r="C15" s="102"/>
-      <c r="D15" s="103"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="103"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="107"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="107"/>
-      <c r="L15" s="107"/>
-      <c r="M15" s="102"/>
-    </row>
-    <row r="16" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B16" s="69"/>
+      <c r="C16" s="102"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="107"/>
+      <c r="F16" s="102"/>
+      <c r="G16" s="103"/>
+      <c r="H16" s="102"/>
+      <c r="I16" s="107"/>
+      <c r="J16" s="102"/>
+      <c r="K16" s="107"/>
+      <c r="L16" s="107"/>
+      <c r="M16" s="102"/>
+    </row>
+    <row r="17" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="15" t="s">
         <v>453</v>
       </c>
-      <c r="B16" s="53">
+      <c r="B17" s="53">
         <v>2</v>
       </c>
-      <c r="C16" s="55" t="s">
+      <c r="C17" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="61" t="s">
+      <c r="D17" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E17" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F17" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G16" s="61"/>
-      <c r="H16" s="57" t="s">
+      <c r="G17" s="61"/>
+      <c r="H17" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I17" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J16" s="57"/>
-      <c r="K16" s="54"/>
-      <c r="L16" s="54"/>
-      <c r="M16" s="78" t="s">
+      <c r="J17" s="57"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="54"/>
+      <c r="M17" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B17" s="69"/>
-      <c r="C17" s="102"/>
-      <c r="D17" s="103"/>
-      <c r="E17" s="107"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="103"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="107"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="102"/>
-    </row>
-    <row r="18" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="A18" s="15" t="s">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B18" s="69"/>
+      <c r="C18" s="102"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="107"/>
+      <c r="F18" s="102"/>
+      <c r="G18" s="103"/>
+      <c r="H18" s="102"/>
+      <c r="I18" s="107"/>
+      <c r="J18" s="102"/>
+      <c r="K18" s="107"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="102"/>
+    </row>
+    <row r="19" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+      <c r="A19" s="15" t="s">
         <v>518</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B19" s="53">
         <v>2</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C19" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="61" t="s">
+      <c r="D19" s="61" t="s">
         <v>390</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E19" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F19" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="G18" s="61"/>
-      <c r="H18" s="57" t="s">
+      <c r="G19" s="61"/>
+      <c r="H19" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="I18" s="58" t="s">
+      <c r="I19" s="58" t="s">
         <v>67</v>
       </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="54"/>
-      <c r="L18" s="54"/>
-      <c r="M18" s="78" t="s">
+      <c r="J19" s="57"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="78" t="s">
         <v>53</v>
       </c>
-      <c r="N18" s="9"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B19" s="69"/>
-      <c r="C19" s="102"/>
-      <c r="D19" s="103"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="107"/>
-      <c r="J19" s="102"/>
-      <c r="K19" s="107"/>
-      <c r="L19" s="107"/>
-      <c r="M19" s="102"/>
-    </row>
-    <row r="20" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A20" s="14" t="s">
+      <c r="N19" s="9"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B20" s="69"/>
+      <c r="C20" s="102"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="107"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="107"/>
+      <c r="J20" s="102"/>
+      <c r="K20" s="107"/>
+      <c r="L20" s="107"/>
+      <c r="M20" s="102"/>
+    </row>
+    <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="14" t="s">
         <v>553</v>
       </c>
-      <c r="B20" s="53">
+      <c r="B21" s="53">
         <v>7</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C21" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="D20" s="60" t="s">
+      <c r="D21" s="60" t="s">
         <v>530</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E21" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F20" s="55" t="s">
+      <c r="F21" s="55" t="s">
         <v>254</v>
       </c>
-      <c r="G20" s="61"/>
-      <c r="H20" s="57" t="s">
+      <c r="G21" s="61"/>
+      <c r="H21" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="I20" s="58" t="s">
+      <c r="I21" s="58" t="s">
         <v>267</v>
       </c>
-      <c r="J20" s="57"/>
-      <c r="K20" s="54"/>
-      <c r="L20" s="54"/>
-      <c r="M20" s="78" t="s">
+      <c r="J21" s="57"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="54"/>
+      <c r="M21" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="C21" s="37"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>256</v>
-      </c>
-      <c r="G21" s="43"/>
-      <c r="H21" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="I21" s="40" t="s">
-        <v>268</v>
-      </c>
-      <c r="J21" s="39"/>
-      <c r="K21" s="36"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-    </row>
-    <row r="22" spans="1:14" ht="29" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:14" ht="43.5" x14ac:dyDescent="0.35">
       <c r="C22" s="37"/>
       <c r="D22" s="43"/>
       <c r="E22" s="36" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G22" s="43"/>
       <c r="H22" s="39" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I22" s="40" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J22" s="39"/>
       <c r="K22" s="36"/>
@@ -10004,17 +10002,17 @@
       <c r="C23" s="37"/>
       <c r="D23" s="43"/>
       <c r="E23" s="36" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G23" s="43"/>
       <c r="H23" s="39" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I23" s="40" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J23" s="39"/>
       <c r="K23" s="36"/>
@@ -10025,36 +10023,38 @@
       <c r="C24" s="37"/>
       <c r="D24" s="43"/>
       <c r="E24" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="39" t="s">
-        <v>262</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="37" t="s">
+        <v>260</v>
       </c>
       <c r="G24" s="43"/>
       <c r="H24" s="39" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I24" s="40" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J24" s="39"/>
       <c r="K24" s="36"/>
       <c r="L24" s="36"/>
       <c r="M24" s="37"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C25" s="37"/>
       <c r="D25" s="43"/>
       <c r="E25" s="36" t="s">
-        <v>5</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>264</v>
+        <v>78</v>
+      </c>
+      <c r="F25" s="39" t="s">
+        <v>262</v>
       </c>
       <c r="G25" s="43"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="39" t="s">
+        <v>263</v>
+      </c>
       <c r="I25" s="40" t="s">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="J25" s="39"/>
       <c r="K25" s="36"/>
@@ -10065,15 +10065,15 @@
       <c r="C26" s="37"/>
       <c r="D26" s="43"/>
       <c r="E26" s="36" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G26" s="43"/>
       <c r="H26" s="39"/>
       <c r="I26" s="40" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J26" s="39"/>
       <c r="K26" s="36"/>
@@ -10081,273 +10081,271 @@
       <c r="M26" s="37"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B27" s="69"/>
-      <c r="C27" s="102"/>
-      <c r="D27" s="103"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="103"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="102"/>
-    </row>
-    <row r="28" spans="1:14" s="144" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A28" s="16" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F27" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G27" s="43"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="40" t="s">
+        <v>265</v>
+      </c>
+      <c r="J27" s="39"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="37"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B28" s="69"/>
+      <c r="C28" s="102"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="107"/>
+      <c r="F28" s="102"/>
+      <c r="G28" s="103"/>
+      <c r="H28" s="102"/>
+      <c r="I28" s="107"/>
+      <c r="J28" s="102"/>
+      <c r="K28" s="107"/>
+      <c r="L28" s="107"/>
+      <c r="M28" s="102"/>
+    </row>
+    <row r="29" spans="1:14" s="144" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
         <v>563</v>
       </c>
-      <c r="B28" s="148">
+      <c r="B29" s="148">
         <v>8</v>
       </c>
-      <c r="C28" s="149" t="s">
+      <c r="C29" s="149" t="s">
         <v>564</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="151" t="s">
+      <c r="D29" s="150"/>
+      <c r="E29" s="151" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="152" t="s">
+      <c r="F29" s="152" t="s">
         <v>565</v>
       </c>
-      <c r="G28" s="153"/>
-      <c r="H28" s="154" t="s">
+      <c r="G29" s="153"/>
+      <c r="H29" s="154" t="s">
         <v>193</v>
       </c>
-      <c r="I28" s="155" t="s">
+      <c r="I29" s="155" t="s">
         <v>183</v>
       </c>
-      <c r="J28" s="152"/>
-      <c r="K28" s="151"/>
-      <c r="L28" s="151"/>
-      <c r="M28" s="156"/>
-    </row>
-    <row r="29" spans="1:14" ht="29" x14ac:dyDescent="0.35">
-      <c r="C29" s="37"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="H29" s="39" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="J29" s="37"/>
-      <c r="K29" s="36"/>
-      <c r="L29" s="36"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="J29" s="152"/>
+      <c r="K29" s="151"/>
+      <c r="L29" s="151"/>
+      <c r="M29" s="156"/>
+    </row>
+    <row r="30" spans="1:14" ht="29" x14ac:dyDescent="0.35">
       <c r="C30" s="37"/>
       <c r="D30" s="43"/>
-      <c r="E30" s="36">
-        <v>0</v>
+      <c r="E30" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="G30" s="47"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="40"/>
+        <v>184</v>
+      </c>
+      <c r="H30" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="I30" s="40" t="s">
+        <v>185</v>
+      </c>
       <c r="J30" s="37"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B31" s="69"/>
-      <c r="C31" s="102"/>
-      <c r="D31" s="103"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="103"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="102"/>
+      <c r="C31" s="37"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="36">
+        <v>0</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="47"/>
+      <c r="H31" s="39"/>
+      <c r="I31" s="40"/>
+      <c r="J31" s="37"/>
+      <c r="K31" s="36"/>
+      <c r="L31" s="36"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="A32" s="14" t="s">
+      <c r="B32" s="69"/>
+      <c r="C32" s="102"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="107"/>
+      <c r="F32" s="102"/>
+      <c r="G32" s="103"/>
+      <c r="H32" s="102"/>
+      <c r="I32" s="107"/>
+      <c r="J32" s="102"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="107"/>
+      <c r="M32" s="102"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="14" t="s">
         <v>596</v>
       </c>
-      <c r="B32" s="53">
+      <c r="B33" s="53">
         <v>5</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C33" s="59" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="79"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="123"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="58"/>
-      <c r="J32" s="55"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="82"/>
-      <c r="M32" s="78"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C33" s="37"/>
-      <c r="E33" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="F33" s="37" t="s">
-        <v>627</v>
-      </c>
-      <c r="G33" s="38" t="s">
-        <v>629</v>
-      </c>
-      <c r="I33" s="40" t="s">
-        <v>208</v>
-      </c>
-      <c r="J33" s="37"/>
-      <c r="K33" s="36"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="123"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="55"/>
+      <c r="K33" s="54"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="78"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C34" s="37"/>
       <c r="E34" s="36" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="F34" s="37" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I34" s="40" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="J34" s="37"/>
       <c r="K34" s="36"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B35" s="69"/>
-      <c r="C35" s="102"/>
-      <c r="D35" s="103"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="103"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="102"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="102"/>
+      <c r="C35" s="37"/>
+      <c r="E35" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="37" t="s">
+        <v>628</v>
+      </c>
+      <c r="G35" s="38" t="s">
+        <v>630</v>
+      </c>
+      <c r="I35" s="40" t="s">
+        <v>219</v>
+      </c>
+      <c r="J35" s="37"/>
+      <c r="K35" s="36"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="14" t="s">
+      <c r="B36" s="69"/>
+      <c r="C36" s="102"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="107"/>
+      <c r="F36" s="102"/>
+      <c r="G36" s="103"/>
+      <c r="H36" s="102"/>
+      <c r="I36" s="107"/>
+      <c r="J36" s="102"/>
+      <c r="K36" s="107"/>
+      <c r="L36" s="107"/>
+      <c r="M36" s="102"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="14" t="s">
         <v>609</v>
       </c>
-      <c r="B36" s="53">
+      <c r="B37" s="53">
         <v>3</v>
       </c>
-      <c r="C36" s="59" t="s">
+      <c r="C37" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D36" s="60" t="s">
+      <c r="D37" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="55" t="s">
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="55" t="s">
         <v>323</v>
       </c>
-      <c r="I36" s="54"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="55"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C37" s="41"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="36" t="s">
+      <c r="I37" s="54"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="54"/>
+      <c r="L37" s="54"/>
+      <c r="M37" s="55"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F37" s="37" t="s">
+      <c r="F38" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="G37" s="38" t="s">
+      <c r="G38" s="38" t="s">
         <v>622</v>
-      </c>
-      <c r="H37" s="39"/>
-      <c r="I37" s="40" t="s">
-        <v>230</v>
-      </c>
-      <c r="J37" s="39"/>
-      <c r="K37" s="36"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="49" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C38" s="37"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F38" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="G38" s="38" t="s">
-        <v>623</v>
       </c>
       <c r="H38" s="39"/>
       <c r="I38" s="40" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="J38" s="39"/>
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
-      <c r="M38" s="37"/>
-    </row>
-    <row r="39" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="M38" s="49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C39" s="37"/>
       <c r="D39" s="43"/>
       <c r="E39" s="36" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="F39" s="37" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G39" s="38" t="s">
-        <v>624</v>
-      </c>
-      <c r="H39" s="113" t="s">
-        <v>233</v>
-      </c>
+        <v>623</v>
+      </c>
+      <c r="H39" s="39"/>
       <c r="I39" s="40" t="s">
-        <v>322</v>
+        <v>231</v>
       </c>
       <c r="J39" s="39"/>
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="M39" s="37"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="C40" s="37"/>
       <c r="D40" s="43"/>
       <c r="E40" s="36" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G40" s="38" t="s">
-        <v>625</v>
-      </c>
-      <c r="H40" s="39"/>
+        <v>624</v>
+      </c>
+      <c r="H40" s="113" t="s">
+        <v>233</v>
+      </c>
       <c r="I40" s="40" t="s">
-        <v>234</v>
+        <v>322</v>
       </c>
       <c r="J40" s="39"/>
       <c r="K40" s="36"/>
@@ -10355,269 +10353,269 @@
       <c r="M40" s="37"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B41" s="69"/>
-      <c r="C41" s="70"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="70"/>
-      <c r="G41" s="77"/>
-      <c r="H41" s="74"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="74"/>
-      <c r="K41" s="72"/>
-      <c r="L41" s="72"/>
-      <c r="M41" s="70"/>
+      <c r="C41" s="37"/>
+      <c r="D41" s="43"/>
+      <c r="E41" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" s="37" t="s">
+        <v>621</v>
+      </c>
+      <c r="G41" s="38" t="s">
+        <v>625</v>
+      </c>
+      <c r="H41" s="39"/>
+      <c r="I41" s="40" t="s">
+        <v>234</v>
+      </c>
+      <c r="J41" s="39"/>
+      <c r="K41" s="36"/>
+      <c r="L41" s="36"/>
+      <c r="M41" s="37"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="14" t="s">
+      <c r="B42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="71"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="70"/>
+      <c r="G42" s="77"/>
+      <c r="H42" s="74"/>
+      <c r="I42" s="75"/>
+      <c r="J42" s="74"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="M42" s="70"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="14" t="s">
         <v>618</v>
       </c>
-      <c r="B42" s="53">
+      <c r="B43" s="53">
         <v>2</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C43" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D42" s="60" t="s">
+      <c r="D43" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E42" s="54"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="61"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="54"/>
-      <c r="J42" s="55"/>
-      <c r="K42" s="54"/>
-      <c r="L42" s="54"/>
-      <c r="M42" s="78" t="s">
+      <c r="E43" s="54"/>
+      <c r="F43" s="55"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="55"/>
+      <c r="I43" s="54"/>
+      <c r="J43" s="55"/>
+      <c r="K43" s="54"/>
+      <c r="L43" s="54"/>
+      <c r="M43" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C43" s="41"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="36" t="s">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C44" s="41"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="37" t="s">
+      <c r="F44" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="G43" s="38" t="s">
+      <c r="G44" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="H43" s="37"/>
-      <c r="I43" s="36" t="s">
+      <c r="H44" s="37"/>
+      <c r="I44" s="36" t="s">
         <v>273</v>
-      </c>
-      <c r="J43" s="37"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
-    </row>
-    <row r="44" spans="1:13" ht="29" x14ac:dyDescent="0.35">
-      <c r="C44" s="37"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F44" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="G44" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="H44" s="37"/>
-      <c r="I44" s="40" t="s">
-        <v>274</v>
       </c>
       <c r="J44" s="37"/>
       <c r="K44" s="36"/>
       <c r="L44" s="36"/>
-      <c r="M44" s="37"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B45" s="69"/>
-      <c r="C45" s="102"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="102"/>
-      <c r="G45" s="103"/>
-      <c r="H45" s="102"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="102"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="102"/>
+    </row>
+    <row r="45" spans="1:13" ht="29" x14ac:dyDescent="0.35">
+      <c r="C45" s="37"/>
+      <c r="D45" s="43"/>
+      <c r="E45" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="G45" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="H45" s="37"/>
+      <c r="I45" s="40" t="s">
+        <v>274</v>
+      </c>
+      <c r="J45" s="37"/>
+      <c r="K45" s="36"/>
+      <c r="L45" s="36"/>
+      <c r="M45" s="37"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="14" t="s">
+      <c r="B46" s="69"/>
+      <c r="C46" s="102"/>
+      <c r="D46" s="103"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="102"/>
+      <c r="G46" s="103"/>
+      <c r="H46" s="102"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="102"/>
+      <c r="K46" s="107"/>
+      <c r="L46" s="107"/>
+      <c r="M46" s="102"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="14" t="s">
         <v>632</v>
       </c>
-      <c r="B46" s="53">
+      <c r="B47" s="53">
         <v>2</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C47" s="59" t="s">
         <v>229</v>
       </c>
-      <c r="D46" s="60" t="s">
+      <c r="D47" s="60" t="s">
         <v>626</v>
       </c>
-      <c r="E46" s="54"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="61"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="54"/>
-      <c r="J46" s="55"/>
-      <c r="K46" s="54"/>
-      <c r="L46" s="82"/>
-      <c r="M46" s="78" t="s">
+      <c r="E47" s="54"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="61"/>
+      <c r="H47" s="55"/>
+      <c r="I47" s="54"/>
+      <c r="J47" s="55"/>
+      <c r="K47" s="54"/>
+      <c r="L47" s="82"/>
+      <c r="M47" s="78" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C47" s="41"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="36" t="s">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C48" s="41"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="F47" s="37" t="s">
+      <c r="F48" s="37" t="s">
         <v>560</v>
       </c>
-      <c r="G47" s="38" t="s">
+      <c r="G48" s="38" t="s">
         <v>622</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H48" s="37" t="s">
         <v>230</v>
-      </c>
-      <c r="I47" s="36"/>
-      <c r="J47" s="37"/>
-      <c r="K47" s="36"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C48" s="37"/>
-      <c r="D48" s="43"/>
-      <c r="E48" s="36" t="s">
-        <v>3</v>
-      </c>
-      <c r="F48" s="37" t="s">
-        <v>619</v>
-      </c>
-      <c r="G48" s="38" t="s">
-        <v>623</v>
-      </c>
-      <c r="H48" s="37" t="s">
-        <v>231</v>
       </c>
       <c r="I48" s="36"/>
       <c r="J48" s="37"/>
       <c r="K48" s="36"/>
-      <c r="L48" s="36"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B49" s="69"/>
-      <c r="C49" s="102"/>
-      <c r="D49" s="103"/>
-      <c r="E49" s="107"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="103"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="107"/>
-      <c r="J49" s="102"/>
-      <c r="K49" s="107"/>
-      <c r="L49" s="107"/>
-      <c r="M49" s="102"/>
-    </row>
-    <row r="50" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A50" s="14" t="s">
+      <c r="C49" s="37"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F49" s="37" t="s">
+        <v>619</v>
+      </c>
+      <c r="G49" s="38" t="s">
+        <v>623</v>
+      </c>
+      <c r="H49" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="I49" s="36"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B50" s="69"/>
+      <c r="C50" s="102"/>
+      <c r="D50" s="103"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="102"/>
+      <c r="G50" s="103"/>
+      <c r="H50" s="102"/>
+      <c r="I50" s="107"/>
+      <c r="J50" s="102"/>
+      <c r="K50" s="107"/>
+      <c r="L50" s="107"/>
+      <c r="M50" s="102"/>
+    </row>
+    <row r="51" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
         <v>667</v>
       </c>
-      <c r="B50" s="27">
+      <c r="B51" s="27">
         <v>2</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D50" s="26" t="s">
+      <c r="D51" s="26" t="s">
         <v>390</v>
       </c>
-      <c r="E50" s="160" t="s">
+      <c r="E51" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="F50" s="161" t="s">
+      <c r="F51" s="161" t="s">
         <v>664</v>
       </c>
-      <c r="G50" s="162" t="s">
+      <c r="G51" s="162" t="s">
         <v>663</v>
       </c>
-      <c r="H50" s="163" t="s">
+      <c r="H51" s="163" t="s">
         <v>728</v>
       </c>
-      <c r="I50" s="164"/>
-      <c r="J50" s="165"/>
-      <c r="K50" s="160"/>
-      <c r="L50" s="160"/>
-      <c r="M50" s="161"/>
-    </row>
-    <row r="51" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="14" t="s">
-        <v>814</v>
-      </c>
-      <c r="B51" s="53">
+      <c r="I51" s="164"/>
+      <c r="J51" s="165"/>
+      <c r="K51" s="160"/>
+      <c r="L51" s="160"/>
+      <c r="M51" s="161"/>
+    </row>
+    <row r="52" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="14" t="s">
+        <v>813</v>
+      </c>
+      <c r="B52" s="53">
         <v>3</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C52" s="59" t="s">
         <v>197</v>
       </c>
-      <c r="D51" s="60" t="s">
+      <c r="D52" s="60" t="s">
         <v>580</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="61"/>
-      <c r="H51" s="55"/>
-      <c r="I51" s="54"/>
-      <c r="J51" s="55"/>
-      <c r="K51" s="54"/>
-      <c r="L51" s="54"/>
-      <c r="M51" s="55" t="s">
+      <c r="E52" s="54"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="61"/>
+      <c r="H52" s="55"/>
+      <c r="I52" s="54"/>
+      <c r="J52" s="55"/>
+      <c r="K52" s="54"/>
+      <c r="L52" s="54"/>
+      <c r="M52" s="55" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="C52" s="37"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="36" t="s">
-        <v>174</v>
-      </c>
-      <c r="F52" s="37" t="s">
-        <v>592</v>
-      </c>
-      <c r="G52" s="44" t="s">
-        <v>588</v>
-      </c>
-      <c r="H52" s="37"/>
-      <c r="I52" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="J52" s="37"/>
-      <c r="K52" s="36"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="37"/>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C53" s="37"/>
       <c r="D53" s="43"/>
       <c r="E53" s="36" t="s">
-        <v>5</v>
+        <v>174</v>
       </c>
       <c r="F53" s="37" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="G53" s="44" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="H53" s="37"/>
       <c r="I53" s="36" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="J53" s="37"/>
       <c r="K53" s="36"/>
@@ -10628,17 +10626,17 @@
       <c r="C54" s="37"/>
       <c r="D54" s="43"/>
       <c r="E54" s="36" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="G54" s="44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="H54" s="37"/>
       <c r="I54" s="36" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="J54" s="37"/>
       <c r="K54" s="36"/>
@@ -10649,58 +10647,79 @@
       <c r="C55" s="37"/>
       <c r="D55" s="43"/>
       <c r="E55" s="36" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="F55" s="37" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G55" s="44" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="H55" s="37"/>
       <c r="I55" s="36" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="J55" s="37"/>
       <c r="K55" s="36"/>
       <c r="L55" s="36"/>
       <c r="M55" s="37"/>
     </row>
-    <row r="56" spans="1:13" s="188" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="171"/>
-      <c r="C56" s="172"/>
-      <c r="D56" s="173"/>
-      <c r="E56" s="174" t="s">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="C56" s="37"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="F56" s="37" t="s">
+        <v>595</v>
+      </c>
+      <c r="G56" s="44" t="s">
+        <v>591</v>
+      </c>
+      <c r="H56" s="37"/>
+      <c r="I56" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="J56" s="37"/>
+      <c r="K56" s="36"/>
+      <c r="L56" s="36"/>
+      <c r="M56" s="37"/>
+    </row>
+    <row r="57" spans="1:13" s="188" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B57" s="171"/>
+      <c r="C57" s="172"/>
+      <c r="D57" s="173"/>
+      <c r="E57" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="F56" s="172" t="s">
+      <c r="F57" s="172" t="s">
         <v>587</v>
       </c>
-      <c r="G56" s="189" t="s">
+      <c r="G57" s="189" t="s">
         <v>583</v>
       </c>
-      <c r="H56" s="172"/>
-      <c r="I56" s="174" t="s">
+      <c r="H57" s="172"/>
+      <c r="I57" s="174" t="s">
         <v>203</v>
       </c>
-      <c r="J56" s="172"/>
-      <c r="K56" s="174"/>
-      <c r="L56" s="174"/>
-      <c r="M56" s="172"/>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="B57" s="167"/>
-      <c r="C57" s="185"/>
-      <c r="D57" s="186"/>
-      <c r="E57" s="187"/>
-      <c r="F57" s="185"/>
-      <c r="G57" s="186"/>
-      <c r="H57" s="185"/>
-      <c r="I57" s="187"/>
-      <c r="J57" s="185"/>
-      <c r="K57" s="187"/>
-      <c r="L57" s="187"/>
-      <c r="M57" s="185"/>
+      <c r="J57" s="172"/>
+      <c r="K57" s="174"/>
+      <c r="L57" s="174"/>
+      <c r="M57" s="172"/>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="B58" s="167"/>
+      <c r="C58" s="185"/>
+      <c r="D58" s="186"/>
+      <c r="E58" s="187"/>
+      <c r="F58" s="185"/>
+      <c r="G58" s="186"/>
+      <c r="H58" s="185"/>
+      <c r="I58" s="187"/>
+      <c r="J58" s="185"/>
+      <c r="K58" s="187"/>
+      <c r="L58" s="187"/>
+      <c r="M58" s="185"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10736,10 +10755,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C1" s="178"/>
       <c r="D1" s="178"/>
@@ -10755,7 +10774,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="18"/>
       <c r="C2" s="178"/>
@@ -11627,10 +11646,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="62" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
@@ -11638,7 +11657,7 @@
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="62"/>
       <c r="H2" s="178"/>
@@ -12827,10 +12846,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
@@ -12838,7 +12857,7 @@
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
@@ -14379,7 +14398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
@@ -14403,10 +14422,10 @@
   <sheetData>
     <row r="1" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H1" s="178"/>
       <c r="I1" s="178"/>
@@ -14414,7 +14433,7 @@
     </row>
     <row r="2" spans="1:12" s="18" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H2" s="178"/>
       <c r="I2" s="178"/>
@@ -14642,10 +14661,10 @@
         <v>407</v>
       </c>
       <c r="G11" s="74" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="H11" s="75" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="I11" s="74"/>
       <c r="J11" s="72"/>
@@ -14734,10 +14753,10 @@
       </c>
       <c r="F15" s="71"/>
       <c r="G15" s="74" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="H15" s="75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I15" s="74"/>
       <c r="J15" s="72"/>
@@ -14909,7 +14928,7 @@
         <v>313</v>
       </c>
       <c r="H23" s="75" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="I23" s="74"/>
       <c r="J23" s="72"/>
@@ -15136,10 +15155,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
@@ -15154,7 +15173,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2"/>
       <c r="C2"/>
@@ -15815,7 +15834,7 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A28" s="116"/>
       <c r="B28" s="181" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C28" s="118"/>
       <c r="D28" s="119"/>
@@ -15861,10 +15880,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -15879,7 +15898,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -16698,10 +16717,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
@@ -16716,7 +16735,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -16909,10 +16928,10 @@
         <v>3</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C10" s="60" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="D10" s="54"/>
       <c r="E10" s="55"/>
@@ -16932,7 +16951,7 @@
         <v>464</v>
       </c>
       <c r="F11" s="44" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G11" s="37" t="s">
         <v>196</v>
@@ -16955,11 +16974,11 @@
         <v>462</v>
       </c>
       <c r="F12" s="175" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G12" s="172"/>
       <c r="H12" s="174" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="I12" s="172"/>
       <c r="J12" s="174"/>
@@ -17014,7 +17033,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -17030,7 +17049,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
